--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewparnell/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D94A49-1F4C-1A45-916C-2DA8ADE9ED14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81372F95-50E0-574D-AAE1-C42F5E3133B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="111">
   <si>
     <t>Date</t>
   </si>
@@ -343,9 +343,6 @@
     <t>Daily cases</t>
   </si>
   <si>
-    <t>https://www.gov.ie/en/press-release/384784-statement-from-the-national-public-health-emergency-team-saturday-4-/</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -365,6 +362,12 @@
   </si>
   <si>
     <t>Complete</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/publication/ed3cdd-an-analysis-of-the-4916-cases-of-covid-19-in-ireland-as-of-saturday-/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/ec2aa4-statement-from-the-national-public-health-emergency-team-monday-6-ap/</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5E2DA3-023C-FF46-A014-0C2E672468A0}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1228,18 +1231,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B2" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
     </row>
   </sheetData>
@@ -1249,13 +1252,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27:C28"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1271,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -1306,7 +1309,7 @@
         <v>43900</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="5">
         <v>34</v>
@@ -1341,7 +1344,7 @@
         <v>43901</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="5">
         <v>43</v>
@@ -1376,7 +1379,7 @@
         <v>43902</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="5">
         <v>70</v>
@@ -1411,7 +1414,7 @@
         <v>43903</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="5">
         <v>90</v>
@@ -1446,7 +1449,7 @@
         <v>43904</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="5">
         <v>129</v>
@@ -1481,7 +1484,7 @@
         <v>43905</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="5">
         <v>169</v>
@@ -1516,7 +1519,7 @@
         <v>43906</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="5">
         <v>271</v>
@@ -1551,7 +1554,7 @@
         <v>43907</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="5">
         <v>350</v>
@@ -1586,7 +1589,7 @@
         <v>43908</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="5">
         <v>438</v>
@@ -1621,7 +1624,7 @@
         <v>43909</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="5">
         <v>584</v>
@@ -1656,7 +1659,7 @@
         <v>43910</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="5">
         <v>712</v>
@@ -1691,7 +1694,7 @@
         <v>43911</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="5">
         <v>836</v>
@@ -1726,7 +1729,7 @@
         <v>43912</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="5">
         <v>965</v>
@@ -1761,7 +1764,7 @@
         <v>43913</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" s="5">
         <v>1146</v>
@@ -1796,7 +1799,7 @@
         <v>43914</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="5">
         <v>1383</v>
@@ -1831,7 +1834,7 @@
         <v>43915</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" s="5">
         <v>1639</v>
@@ -1866,7 +1869,7 @@
         <v>43916</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" s="5">
         <v>1904</v>
@@ -1901,7 +1904,7 @@
         <v>43917</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="5">
         <v>2216</v>
@@ -1936,7 +1939,7 @@
         <v>43918</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="5">
         <v>2475</v>
@@ -1971,7 +1974,7 @@
         <v>43919</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="5">
         <v>2677</v>
@@ -2006,7 +2009,7 @@
         <v>43920</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="5">
         <v>2990</v>
@@ -2041,7 +2044,7 @@
         <v>43921</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" s="5">
         <v>3282</v>
@@ -2076,7 +2079,7 @@
         <v>43922</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" s="5">
         <v>3655</v>
@@ -2111,7 +2114,7 @@
         <v>43923</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" s="5">
         <v>4014</v>
@@ -2146,7 +2149,7 @@
         <v>43924</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="5">
         <v>4443</v>
@@ -2181,34 +2184,35 @@
         <v>43925</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C27" s="5">
-        <v>4604</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>8</v>
+        <v>4916</v>
+      </c>
+      <c r="D27" s="5">
+        <f>C27-C26</f>
+        <v>473</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1265</v>
+      </c>
+      <c r="F27" s="5">
+        <v>169</v>
       </c>
       <c r="G27" s="5">
-        <v>137</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>8</v>
+        <v>167</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1263</v>
+      </c>
+      <c r="I27" s="5">
+        <v>260</v>
+      </c>
+      <c r="J27" s="5">
+        <v>49</v>
       </c>
       <c r="K27" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2216,13 +2220,14 @@
         <v>43926</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" s="5">
         <v>4994</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>8</v>
+      <c r="D28" s="5">
+        <f>C28-C27</f>
+        <v>78</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>8</v>
@@ -2233,8 +2238,53 @@
       <c r="G28" s="5">
         <v>158</v>
       </c>
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="K28" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="5">
+        <v>5364</v>
+      </c>
+      <c r="D29" s="5">
+        <f>C29-C28</f>
+        <v>370</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="5">
+        <v>174</v>
+      </c>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2244,10 +2294,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2997,6 +3047,48 @@
         <v>0.8</v>
       </c>
     </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54">
+        <v>2633</v>
+      </c>
+      <c r="D54">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55">
+        <v>2235</v>
+      </c>
+      <c r="D55">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56">
+        <v>4916</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3004,16 +3096,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:D212"/>
+  <dimension ref="A1:D215"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A205" sqref="A205:A212"/>
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D216" sqref="D216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -5873,28 +5966,158 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="1"/>
+      <c r="A205" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C205">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="1"/>
+      <c r="A206" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C206">
+        <v>13</v>
+      </c>
+      <c r="D206" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="1"/>
+      <c r="A207" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C207" t="s">
+        <v>8</v>
+      </c>
+      <c r="D207" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" s="1"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209" s="1"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" s="1"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A211" s="1"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" s="1"/>
+      <c r="A208" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C208">
+        <v>36</v>
+      </c>
+      <c r="D208" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C209">
+        <v>287</v>
+      </c>
+      <c r="D209" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C210">
+        <v>820</v>
+      </c>
+      <c r="D210" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C211">
+        <v>902</v>
+      </c>
+      <c r="D211" s="4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C212">
+        <v>907</v>
+      </c>
+      <c r="D212" s="4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C213">
+        <v>697</v>
+      </c>
+      <c r="D213" s="4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C214">
+        <v>1229</v>
+      </c>
+      <c r="D214" s="4">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C215">
+        <v>14</v>
+      </c>
+      <c r="D215" s="4">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5903,11 +6126,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5927,7 +6150,7 @@
         <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6249,7 +6472,7 @@
         <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -6263,7 +6486,7 @@
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -6277,7 +6500,7 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -6305,7 +6528,7 @@
         <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -6319,7 +6542,7 @@
         <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -6333,7 +6556,7 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -6347,7 +6570,7 @@
         <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -6361,7 +6584,7 @@
         <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -6375,7 +6598,7 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -6389,7 +6612,7 @@
         <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -6403,7 +6626,7 @@
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -6417,7 +6640,7 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -6431,7 +6654,7 @@
         <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -6445,7 +6668,7 @@
         <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -6459,7 +6682,7 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -6473,7 +6696,7 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -6487,7 +6710,7 @@
         <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -6501,7 +6724,7 @@
         <v>28</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -6515,7 +6738,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -6529,7 +6752,7 @@
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -6543,7 +6766,7 @@
         <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -6557,7 +6780,7 @@
         <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -6571,7 +6794,7 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -6585,7 +6808,7 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -6599,7 +6822,7 @@
         <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -6613,7 +6836,7 @@
         <v>51</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -6627,7 +6850,7 @@
         <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -6641,7 +6864,7 @@
         <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -6655,7 +6878,7 @@
         <v>50</v>
       </c>
       <c r="D53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -6669,7 +6892,7 @@
         <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -6683,7 +6906,7 @@
         <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -6697,7 +6920,7 @@
         <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -6711,7 +6934,7 @@
         <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -6725,7 +6948,7 @@
         <v>23</v>
       </c>
       <c r="D58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -6739,7 +6962,7 @@
         <v>60</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -6753,7 +6976,7 @@
         <v>21</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -6767,7 +6990,7 @@
         <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -6781,7 +7004,7 @@
         <v>59</v>
       </c>
       <c r="D62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -6795,7 +7018,7 @@
         <v>23</v>
       </c>
       <c r="D63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -6809,7 +7032,7 @@
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -6823,7 +7046,7 @@
         <v>61</v>
       </c>
       <c r="D65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -6837,7 +7060,7 @@
         <v>23</v>
       </c>
       <c r="D66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -6851,7 +7074,7 @@
         <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -6865,7 +7088,7 @@
         <v>62</v>
       </c>
       <c r="D68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -6879,7 +7102,7 @@
         <v>23</v>
       </c>
       <c r="D69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -6893,7 +7116,7 @@
         <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -6907,7 +7130,7 @@
         <v>63</v>
       </c>
       <c r="D71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -6921,7 +7144,7 @@
         <v>24</v>
       </c>
       <c r="D72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -6935,7 +7158,49 @@
         <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B74" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74">
+        <v>65</v>
+      </c>
+      <c r="D74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B75" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75">
+        <v>23</v>
+      </c>
+      <c r="D75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B76" t="s">
+        <v>58</v>
+      </c>
+      <c r="C76">
+        <v>12</v>
+      </c>
+      <c r="D76" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -6945,10 +7210,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E489"/>
+  <dimension ref="A1:E515"/>
   <sheetViews>
     <sheetView topLeftCell="A471" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C445" sqref="C445"/>
+      <selection activeCell="C501" sqref="C501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14291,6 +14556,370 @@
       </c>
       <c r="E489" s="1"/>
     </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A490" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B490" t="s">
+        <v>12</v>
+      </c>
+      <c r="C490">
+        <v>12</v>
+      </c>
+      <c r="D490" s="3">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A491" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B491" t="s">
+        <v>14</v>
+      </c>
+      <c r="C491">
+        <v>115</v>
+      </c>
+      <c r="D491" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A492" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B492" t="s">
+        <v>15</v>
+      </c>
+      <c r="C492">
+        <v>60</v>
+      </c>
+      <c r="D492" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A493" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B493" t="s">
+        <v>16</v>
+      </c>
+      <c r="C493">
+        <v>362</v>
+      </c>
+      <c r="D493" s="3">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A494" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B494" t="s">
+        <v>17</v>
+      </c>
+      <c r="C494">
+        <v>103</v>
+      </c>
+      <c r="D494" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A495" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B495" t="s">
+        <v>18</v>
+      </c>
+      <c r="C495">
+        <v>2692</v>
+      </c>
+      <c r="D495" s="3">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A496" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B496" t="s">
+        <v>19</v>
+      </c>
+      <c r="C496">
+        <v>112</v>
+      </c>
+      <c r="D496" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A497" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B497" t="s">
+        <v>20</v>
+      </c>
+      <c r="C497">
+        <v>89</v>
+      </c>
+      <c r="D497" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A498" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B498" t="s">
+        <v>21</v>
+      </c>
+      <c r="C498">
+        <v>175</v>
+      </c>
+      <c r="D498" s="3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A499" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B499" t="s">
+        <v>22</v>
+      </c>
+      <c r="C499">
+        <v>75</v>
+      </c>
+      <c r="D499" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A500" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B500" t="s">
+        <v>36</v>
+      </c>
+      <c r="C500">
+        <v>25</v>
+      </c>
+      <c r="D500" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A501" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B501" t="s">
+        <v>37</v>
+      </c>
+      <c r="C501">
+        <v>13</v>
+      </c>
+      <c r="D501" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A502" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B502" t="s">
+        <v>23</v>
+      </c>
+      <c r="C502">
+        <v>140</v>
+      </c>
+      <c r="D502" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A503" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B503" t="s">
+        <v>24</v>
+      </c>
+      <c r="C503">
+        <v>21</v>
+      </c>
+      <c r="D503" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A504" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B504" t="s">
+        <v>25</v>
+      </c>
+      <c r="C504">
+        <v>65</v>
+      </c>
+      <c r="D504" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A505" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B505" t="s">
+        <v>26</v>
+      </c>
+      <c r="C505">
+        <v>107</v>
+      </c>
+      <c r="D505" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A506" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B506" t="s">
+        <v>27</v>
+      </c>
+      <c r="C506">
+        <v>141</v>
+      </c>
+      <c r="D506" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A507" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B507" t="s">
+        <v>38</v>
+      </c>
+      <c r="C507">
+        <v>52</v>
+      </c>
+      <c r="D507" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A508" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B508" t="s">
+        <v>28</v>
+      </c>
+      <c r="C508">
+        <v>66</v>
+      </c>
+      <c r="D508" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A509" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B509" t="s">
+        <v>29</v>
+      </c>
+      <c r="C509">
+        <v>18</v>
+      </c>
+      <c r="D509" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A510" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B510" t="s">
+        <v>30</v>
+      </c>
+      <c r="C510">
+        <v>28</v>
+      </c>
+      <c r="D510" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B511" t="s">
+        <v>31</v>
+      </c>
+      <c r="C511">
+        <v>125</v>
+      </c>
+      <c r="D511" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B512" t="s">
+        <v>32</v>
+      </c>
+      <c r="C512">
+        <v>49</v>
+      </c>
+      <c r="D512" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B513" t="s">
+        <v>33</v>
+      </c>
+      <c r="C513">
+        <v>107</v>
+      </c>
+      <c r="D513" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B514" t="s">
+        <v>34</v>
+      </c>
+      <c r="C514">
+        <v>21</v>
+      </c>
+      <c r="D514" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B515" t="s">
+        <v>35</v>
+      </c>
+      <c r="C515">
+        <v>142</v>
+      </c>
+      <c r="D515" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81372F95-50E0-574D-AAE1-C42F5E3133B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDC9ABC-0F8A-9841-9630-CEBA87721A92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="111">
   <si>
     <t>Date</t>
   </si>
@@ -1252,13 +1252,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2285,6 +2285,40 @@
       </c>
       <c r="K29" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="5">
+        <v>5709</v>
+      </c>
+      <c r="D30" s="5">
+        <f>C30-C29</f>
+        <v>345</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="5">
+        <f>36+G29</f>
+        <v>210</v>
+      </c>
+      <c r="H30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDC9ABC-0F8A-9841-9630-CEBA87721A92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1252DFC4-6857-884D-9525-5EEF32E6035B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1255,10 +1255,10 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1252DFC4-6857-884D-9525-5EEF32E6035B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C26E45-1F4F-CF40-BBC2-6C0611AEB50C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="118">
   <si>
     <t>Date</t>
   </si>
@@ -352,9 +352,6 @@
     <t>Provisional</t>
   </si>
   <si>
-    <t>https://www.gov.ie/en/press-release/d809ea-statement-from-the-national-public-health-emergency-team-sunday-5-ap/</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -368,6 +365,30 @@
   </si>
   <si>
     <t>https://www.gov.ie/en/press-release/ec2aa4-statement-from-the-national-public-health-emergency-team-monday-6-ap/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/ee6b84-statement-from-the-national-public-health-emergency-team-tuesday-7-a/</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>677</t>
   </si>
 </sst>
 </file>
@@ -1231,7 +1252,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
         <v>104</v>
@@ -1254,11 +1275,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2212,7 +2233,7 @@
         <v>49</v>
       </c>
       <c r="K27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2223,32 +2244,32 @@
         <v>104</v>
       </c>
       <c r="C28" s="5">
-        <v>4994</v>
+        <v>5593</v>
       </c>
       <c r="D28" s="5">
         <f>C28-C27</f>
-        <v>78</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>8</v>
+        <v>677</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1345</v>
+      </c>
+      <c r="F28" s="5">
+        <v>194</v>
       </c>
       <c r="G28" s="5">
-        <v>158</v>
-      </c>
-      <c r="H28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>8</v>
+        <v>204</v>
+      </c>
+      <c r="H28">
+        <v>1388</v>
+      </c>
+      <c r="I28" s="5">
+        <v>270</v>
+      </c>
+      <c r="J28" s="5">
+        <v>48</v>
       </c>
       <c r="K28" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2263,7 +2284,7 @@
       </c>
       <c r="D29" s="5">
         <f>C29-C28</f>
-        <v>370</v>
+        <v>-229</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>8</v>
@@ -2284,7 +2305,7 @@
         <v>8</v>
       </c>
       <c r="K29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2319,6 +2340,9 @@
       </c>
       <c r="J30" s="5" t="s">
         <v>8</v>
+      </c>
+      <c r="K30" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2328,10 +2352,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3123,6 +3147,48 @@
         <v>1</v>
       </c>
     </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57">
+        <v>2946</v>
+      </c>
+      <c r="D57">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58">
+        <v>2594</v>
+      </c>
+      <c r="D58">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59">
+        <v>53</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3130,11 +3196,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:D215"/>
+  <dimension ref="A1:D226"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D216" sqref="D216"/>
+      <selection pane="bottomLeft" activeCell="C227" sqref="C227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6153,6 +6219,160 @@
         <v>2</v>
       </c>
     </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C216">
+        <v>12</v>
+      </c>
+      <c r="D216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C217">
+        <v>18</v>
+      </c>
+      <c r="D217" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C218" t="s">
+        <v>8</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C219">
+        <v>39</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C220">
+        <v>347</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C221">
+        <v>948</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C222">
+        <v>1044</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C223">
+        <v>1048</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C224">
+        <v>794</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C225">
+        <v>1326</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C226">
+        <v>17</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6160,11 +6380,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
+      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6184,7 +6404,7 @@
         <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6506,7 +6726,7 @@
         <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -6520,7 +6740,7 @@
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -6534,7 +6754,7 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -6562,7 +6782,7 @@
         <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -6576,7 +6796,7 @@
         <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -6590,7 +6810,7 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -6604,7 +6824,7 @@
         <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -6618,7 +6838,7 @@
         <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -6632,7 +6852,7 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -6646,7 +6866,7 @@
         <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -6660,7 +6880,7 @@
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -6674,7 +6894,7 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -6688,7 +6908,7 @@
         <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -6702,7 +6922,7 @@
         <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -6716,7 +6936,7 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -6730,7 +6950,7 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -6744,7 +6964,7 @@
         <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -6758,7 +6978,7 @@
         <v>28</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -6772,7 +6992,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -6786,7 +7006,7 @@
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -6800,7 +7020,7 @@
         <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -6814,7 +7034,7 @@
         <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -6828,7 +7048,7 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -6842,7 +7062,7 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -6856,7 +7076,7 @@
         <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -6870,7 +7090,7 @@
         <v>51</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -6884,7 +7104,7 @@
         <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -6898,7 +7118,7 @@
         <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -6912,7 +7132,7 @@
         <v>50</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -6926,7 +7146,7 @@
         <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -6940,7 +7160,7 @@
         <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -6954,7 +7174,7 @@
         <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -6968,7 +7188,7 @@
         <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -6982,7 +7202,7 @@
         <v>23</v>
       </c>
       <c r="D58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -6996,7 +7216,7 @@
         <v>60</v>
       </c>
       <c r="D59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -7010,7 +7230,7 @@
         <v>21</v>
       </c>
       <c r="D60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -7024,7 +7244,7 @@
         <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -7038,7 +7258,7 @@
         <v>59</v>
       </c>
       <c r="D62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -7052,7 +7272,7 @@
         <v>23</v>
       </c>
       <c r="D63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -7066,7 +7286,7 @@
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -7080,7 +7300,7 @@
         <v>61</v>
       </c>
       <c r="D65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -7094,7 +7314,7 @@
         <v>23</v>
       </c>
       <c r="D66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -7108,7 +7328,7 @@
         <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -7122,7 +7342,7 @@
         <v>62</v>
       </c>
       <c r="D68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -7136,7 +7356,7 @@
         <v>23</v>
       </c>
       <c r="D69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -7150,7 +7370,7 @@
         <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -7164,7 +7384,7 @@
         <v>63</v>
       </c>
       <c r="D71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -7178,7 +7398,7 @@
         <v>24</v>
       </c>
       <c r="D72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -7192,7 +7412,7 @@
         <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -7206,7 +7426,7 @@
         <v>65</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -7220,7 +7440,7 @@
         <v>23</v>
       </c>
       <c r="D75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -7234,7 +7454,49 @@
         <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B77" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77">
+        <v>67</v>
+      </c>
+      <c r="D77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B78" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78">
+        <v>22</v>
+      </c>
+      <c r="D78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B79" t="s">
+        <v>58</v>
+      </c>
+      <c r="C79">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -7244,10 +7506,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E515"/>
+  <dimension ref="A1:E541"/>
   <sheetViews>
-    <sheetView topLeftCell="A471" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C501" sqref="C501"/>
+    <sheetView tabSelected="1" topLeftCell="A505" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B516" sqref="B516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14954,6 +15216,370 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B516" t="s">
+        <v>12</v>
+      </c>
+      <c r="C516">
+        <v>12</v>
+      </c>
+      <c r="D516" s="3">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B517" t="s">
+        <v>14</v>
+      </c>
+      <c r="C517">
+        <v>123</v>
+      </c>
+      <c r="D517" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B518" t="s">
+        <v>15</v>
+      </c>
+      <c r="C518">
+        <v>65</v>
+      </c>
+      <c r="D518" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B519" t="s">
+        <v>16</v>
+      </c>
+      <c r="C519">
+        <v>421</v>
+      </c>
+      <c r="D519" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B520" t="s">
+        <v>17</v>
+      </c>
+      <c r="C520">
+        <v>114</v>
+      </c>
+      <c r="D520" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B521" t="s">
+        <v>18</v>
+      </c>
+      <c r="C521">
+        <v>3061</v>
+      </c>
+      <c r="D521" s="3">
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B522" t="s">
+        <v>19</v>
+      </c>
+      <c r="C522">
+        <v>128</v>
+      </c>
+      <c r="D522" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B523" t="s">
+        <v>20</v>
+      </c>
+      <c r="C523">
+        <v>117</v>
+      </c>
+      <c r="D523" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B524" t="s">
+        <v>21</v>
+      </c>
+      <c r="C524">
+        <v>200</v>
+      </c>
+      <c r="D524" s="3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B525" t="s">
+        <v>22</v>
+      </c>
+      <c r="C525">
+        <v>79</v>
+      </c>
+      <c r="D525" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B526" t="s">
+        <v>36</v>
+      </c>
+      <c r="C526">
+        <v>31</v>
+      </c>
+      <c r="D526" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B527" t="s">
+        <v>37</v>
+      </c>
+      <c r="C527">
+        <v>18</v>
+      </c>
+      <c r="D527" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B528" t="s">
+        <v>23</v>
+      </c>
+      <c r="C528">
+        <v>143</v>
+      </c>
+      <c r="D528">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A529" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B529" t="s">
+        <v>24</v>
+      </c>
+      <c r="C529">
+        <v>25</v>
+      </c>
+      <c r="D529" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A530" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B530" t="s">
+        <v>25</v>
+      </c>
+      <c r="C530">
+        <v>85</v>
+      </c>
+      <c r="D530" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A531" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B531" t="s">
+        <v>26</v>
+      </c>
+      <c r="C531">
+        <v>126</v>
+      </c>
+      <c r="D531" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A532" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B532" t="s">
+        <v>27</v>
+      </c>
+      <c r="C532">
+        <v>168</v>
+      </c>
+      <c r="D532" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A533" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B533" t="s">
+        <v>38</v>
+      </c>
+      <c r="C533">
+        <v>58</v>
+      </c>
+      <c r="D533" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A534" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B534" t="s">
+        <v>28</v>
+      </c>
+      <c r="C534">
+        <v>73</v>
+      </c>
+      <c r="D534" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A535" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B535" t="s">
+        <v>29</v>
+      </c>
+      <c r="C535">
+        <v>22</v>
+      </c>
+      <c r="D535" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A536" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B536" t="s">
+        <v>30</v>
+      </c>
+      <c r="C536">
+        <v>28</v>
+      </c>
+      <c r="D536" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A537" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B537" t="s">
+        <v>31</v>
+      </c>
+      <c r="C537">
+        <v>133</v>
+      </c>
+      <c r="D537" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A538" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B538" t="s">
+        <v>32</v>
+      </c>
+      <c r="C538">
+        <v>49</v>
+      </c>
+      <c r="D538" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A539" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B539" t="s">
+        <v>33</v>
+      </c>
+      <c r="C539">
+        <v>121</v>
+      </c>
+      <c r="D539" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A540" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B540" t="s">
+        <v>34</v>
+      </c>
+      <c r="C540">
+        <v>22</v>
+      </c>
+      <c r="D540" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A541" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B541" t="s">
+        <v>35</v>
+      </c>
+      <c r="C541">
+        <v>171</v>
+      </c>
+      <c r="D541" s="3">
+        <v>3.1E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewparnell/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C26E45-1F4F-CF40-BBC2-6C0611AEB50C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DD09F9-6154-6646-8873-26F6E4178D93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -7508,8 +7508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
   <dimension ref="A1:E541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A505" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B516" sqref="B516"/>
+    <sheetView tabSelected="1" topLeftCell="A502" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A512" sqref="A512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15232,7 +15232,7 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B517" t="s">
         <v>14</v>
@@ -15246,7 +15246,7 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B518" t="s">
         <v>15</v>
@@ -15260,7 +15260,7 @@
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
-        <v>43929</v>
+        <v>43926</v>
       </c>
       <c r="B519" t="s">
         <v>16</v>
@@ -15274,7 +15274,7 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
-        <v>43930</v>
+        <v>43926</v>
       </c>
       <c r="B520" t="s">
         <v>17</v>
@@ -15288,7 +15288,7 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
-        <v>43931</v>
+        <v>43926</v>
       </c>
       <c r="B521" t="s">
         <v>18</v>
@@ -15302,7 +15302,7 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
-        <v>43932</v>
+        <v>43926</v>
       </c>
       <c r="B522" t="s">
         <v>19</v>
@@ -15316,7 +15316,7 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
-        <v>43933</v>
+        <v>43926</v>
       </c>
       <c r="B523" t="s">
         <v>20</v>
@@ -15330,7 +15330,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
-        <v>43934</v>
+        <v>43926</v>
       </c>
       <c r="B524" t="s">
         <v>21</v>
@@ -15344,7 +15344,7 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
-        <v>43935</v>
+        <v>43926</v>
       </c>
       <c r="B525" t="s">
         <v>22</v>
@@ -15358,7 +15358,7 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
-        <v>43936</v>
+        <v>43926</v>
       </c>
       <c r="B526" t="s">
         <v>36</v>
@@ -15372,7 +15372,7 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
-        <v>43937</v>
+        <v>43926</v>
       </c>
       <c r="B527" t="s">
         <v>37</v>
@@ -15386,7 +15386,7 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
-        <v>43938</v>
+        <v>43926</v>
       </c>
       <c r="B528" t="s">
         <v>23</v>
@@ -15400,7 +15400,7 @@
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
-        <v>43939</v>
+        <v>43926</v>
       </c>
       <c r="B529" t="s">
         <v>24</v>
@@ -15414,7 +15414,7 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
-        <v>43940</v>
+        <v>43926</v>
       </c>
       <c r="B530" t="s">
         <v>25</v>
@@ -15428,7 +15428,7 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
-        <v>43941</v>
+        <v>43926</v>
       </c>
       <c r="B531" t="s">
         <v>26</v>
@@ -15442,7 +15442,7 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
-        <v>43942</v>
+        <v>43926</v>
       </c>
       <c r="B532" t="s">
         <v>27</v>
@@ -15456,7 +15456,7 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
-        <v>43943</v>
+        <v>43926</v>
       </c>
       <c r="B533" t="s">
         <v>38</v>
@@ -15470,7 +15470,7 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
-        <v>43944</v>
+        <v>43926</v>
       </c>
       <c r="B534" t="s">
         <v>28</v>
@@ -15484,7 +15484,7 @@
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
-        <v>43945</v>
+        <v>43926</v>
       </c>
       <c r="B535" t="s">
         <v>29</v>
@@ -15498,7 +15498,7 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
-        <v>43946</v>
+        <v>43926</v>
       </c>
       <c r="B536" t="s">
         <v>30</v>
@@ -15512,7 +15512,7 @@
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
-        <v>43947</v>
+        <v>43926</v>
       </c>
       <c r="B537" t="s">
         <v>31</v>
@@ -15526,7 +15526,7 @@
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
-        <v>43948</v>
+        <v>43926</v>
       </c>
       <c r="B538" t="s">
         <v>32</v>
@@ -15540,7 +15540,7 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
-        <v>43949</v>
+        <v>43926</v>
       </c>
       <c r="B539" t="s">
         <v>33</v>
@@ -15554,7 +15554,7 @@
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
-        <v>43950</v>
+        <v>43926</v>
       </c>
       <c r="B540" t="s">
         <v>34</v>
@@ -15568,7 +15568,7 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
-        <v>43951</v>
+        <v>43926</v>
       </c>
       <c r="B541" t="s">
         <v>35</v>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewparnell/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DD09F9-6154-6646-8873-26F6E4178D93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F565BEB2-F837-824B-9164-71F79658D747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="118">
   <si>
     <t>Date</t>
   </si>
@@ -364,9 +364,6 @@
     <t>https://www.gov.ie/en/publication/ed3cdd-an-analysis-of-the-4916-cases-of-covid-19-in-ireland-as-of-saturday-/</t>
   </si>
   <si>
-    <t>https://www.gov.ie/en/press-release/ec2aa4-statement-from-the-national-public-health-emergency-team-monday-6-ap/</t>
-  </si>
-  <si>
     <t>https://www.gov.ie/en/press-release/ee6b84-statement-from-the-national-public-health-emergency-team-tuesday-7-a/</t>
   </si>
   <si>
@@ -389,6 +386,9 @@
   </si>
   <si>
     <t>677</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/0f1615-statement-from-the-national-public-health-emergency-team-wednesday-8/</t>
   </si>
 </sst>
 </file>
@@ -872,7 +872,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -884,6 +884,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1242,7 +1243,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1260,10 +1261,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B2" s="1">
-        <v>43927</v>
+        <v>43929</v>
       </c>
     </row>
   </sheetData>
@@ -1273,13 +1274,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K28" sqref="K28"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2269,7 +2270,7 @@
         <v>48</v>
       </c>
       <c r="K28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2280,32 +2281,32 @@
         <v>104</v>
       </c>
       <c r="C29" s="5">
-        <v>5364</v>
+        <v>5981</v>
       </c>
       <c r="D29" s="5">
         <f>C29-C28</f>
-        <v>-229</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>8</v>
+        <v>388</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1472</v>
+      </c>
+      <c r="F29" s="5">
+        <v>224</v>
       </c>
       <c r="G29" s="5">
-        <v>174</v>
-      </c>
-      <c r="H29" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>8</v>
+        <v>223</v>
+      </c>
+      <c r="H29">
+        <v>1568</v>
+      </c>
+      <c r="I29" s="5">
+        <v>299</v>
+      </c>
+      <c r="J29" s="5">
+        <v>48</v>
       </c>
       <c r="K29" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2320,7 +2321,7 @@
       </c>
       <c r="D30" s="5">
         <f>C30-C29</f>
-        <v>345</v>
+        <v>-272</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>8</v>
@@ -2329,7 +2330,6 @@
         <v>8</v>
       </c>
       <c r="G30" s="5">
-        <f>36+G29</f>
         <v>210</v>
       </c>
       <c r="H30" t="s">
@@ -2342,7 +2342,43 @@
         <v>8</v>
       </c>
       <c r="K30" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="5">
+        <v>6074</v>
+      </c>
+      <c r="D31" s="5">
+        <f>C31-C30</f>
+        <v>365</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="5">
+        <v>235</v>
+      </c>
+      <c r="H31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2352,10 +2388,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+      <selection activeCell="A60" sqref="A60:A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3189,6 +3225,48 @@
         <v>0</v>
       </c>
     </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60">
+        <v>3154</v>
+      </c>
+      <c r="D60">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61">
+        <v>2757</v>
+      </c>
+      <c r="D61">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62">
+        <v>70</v>
+      </c>
+      <c r="D62">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3196,11 +3274,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:D226"/>
+  <dimension ref="A1:E237"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C227" sqref="C227"/>
+      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D231" sqref="D231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6258,7 +6336,7 @@
         <v>8</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -6272,7 +6350,7 @@
         <v>39</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -6286,7 +6364,7 @@
         <v>347</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -6314,7 +6392,7 @@
         <v>1044</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -6328,7 +6406,7 @@
         <v>1048</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -6342,10 +6420,10 @@
         <v>794</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>43926</v>
       </c>
@@ -6356,10 +6434,10 @@
         <v>1326</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>43926</v>
       </c>
@@ -6371,6 +6449,161 @@
       </c>
       <c r="D226" s="4" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C227">
+        <v>12</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C228">
+        <v>18</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E228" s="7"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C229" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C230">
+        <v>42</v>
+      </c>
+      <c r="D230">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C231">
+        <v>364</v>
+      </c>
+      <c r="D231">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C232">
+        <v>1010</v>
+      </c>
+      <c r="D232">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C233">
+        <v>1111</v>
+      </c>
+      <c r="D233">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C234">
+        <v>1118</v>
+      </c>
+      <c r="D234">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C235">
+        <v>847</v>
+      </c>
+      <c r="D235">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C236">
+        <v>1442</v>
+      </c>
+      <c r="D236">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C237">
+        <v>17</v>
+      </c>
+      <c r="D237">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6380,11 +6613,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79:D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7499,6 +7732,48 @@
         <v>106</v>
       </c>
     </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B80" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80">
+        <v>67</v>
+      </c>
+      <c r="D80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B81" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81">
+        <v>23</v>
+      </c>
+      <c r="D81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B82" t="s">
+        <v>58</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7506,10 +7781,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E541"/>
+  <dimension ref="A1:E567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A502" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A512" sqref="A512"/>
+    <sheetView topLeftCell="A533" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A542" sqref="A542:A567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15580,6 +15855,370 @@
         <v>3.1E-2</v>
       </c>
     </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B542" t="s">
+        <v>12</v>
+      </c>
+      <c r="C542">
+        <v>15</v>
+      </c>
+      <c r="D542" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B543" t="s">
+        <v>14</v>
+      </c>
+      <c r="C543">
+        <v>129</v>
+      </c>
+      <c r="D543" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B544" t="s">
+        <v>15</v>
+      </c>
+      <c r="C544">
+        <v>66</v>
+      </c>
+      <c r="D544" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A545" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B545" t="s">
+        <v>16</v>
+      </c>
+      <c r="C545">
+        <v>431</v>
+      </c>
+      <c r="D545" s="3">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A546" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B546" t="s">
+        <v>17</v>
+      </c>
+      <c r="C546">
+        <v>120</v>
+      </c>
+      <c r="D546" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A547" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B547" t="s">
+        <v>18</v>
+      </c>
+      <c r="C547">
+        <v>3268</v>
+      </c>
+      <c r="D547" s="3">
+        <v>0.54600000000000004</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A548" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B548" t="s">
+        <v>19</v>
+      </c>
+      <c r="C548">
+        <v>134</v>
+      </c>
+      <c r="D548" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A549" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B549" t="s">
+        <v>20</v>
+      </c>
+      <c r="C549">
+        <v>122</v>
+      </c>
+      <c r="D549" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A550" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B550" t="s">
+        <v>21</v>
+      </c>
+      <c r="C550">
+        <v>233</v>
+      </c>
+      <c r="D550" s="3">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A551" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B551" t="s">
+        <v>22</v>
+      </c>
+      <c r="C551">
+        <v>88</v>
+      </c>
+      <c r="D551" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A552" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B552" t="s">
+        <v>36</v>
+      </c>
+      <c r="C552">
+        <v>34</v>
+      </c>
+      <c r="D552" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A553" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B553" t="s">
+        <v>37</v>
+      </c>
+      <c r="C553">
+        <v>20</v>
+      </c>
+      <c r="D553" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A554" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B554" t="s">
+        <v>23</v>
+      </c>
+      <c r="C554">
+        <v>160</v>
+      </c>
+      <c r="D554" s="3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A555" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B555" t="s">
+        <v>24</v>
+      </c>
+      <c r="C555">
+        <v>35</v>
+      </c>
+      <c r="D555" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A556" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B556" t="s">
+        <v>25</v>
+      </c>
+      <c r="C556">
+        <v>96</v>
+      </c>
+      <c r="D556" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A557" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B557" t="s">
+        <v>26</v>
+      </c>
+      <c r="C557">
+        <v>130</v>
+      </c>
+      <c r="D557" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A558" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B558" t="s">
+        <v>27</v>
+      </c>
+      <c r="C558">
+        <v>183</v>
+      </c>
+      <c r="D558" s="3">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A559" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B559" t="s">
+        <v>38</v>
+      </c>
+      <c r="C559">
+        <v>62</v>
+      </c>
+      <c r="D559" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A560" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B560" t="s">
+        <v>28</v>
+      </c>
+      <c r="C560">
+        <v>77</v>
+      </c>
+      <c r="D560" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A561" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B561" t="s">
+        <v>29</v>
+      </c>
+      <c r="C561">
+        <v>22</v>
+      </c>
+      <c r="D561" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A562" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B562" t="s">
+        <v>30</v>
+      </c>
+      <c r="C562">
+        <v>28</v>
+      </c>
+      <c r="D562" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A563" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B563" t="s">
+        <v>31</v>
+      </c>
+      <c r="C563">
+        <v>137</v>
+      </c>
+      <c r="D563" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A564" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B564" t="s">
+        <v>32</v>
+      </c>
+      <c r="C564">
+        <v>52</v>
+      </c>
+      <c r="D564" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A565" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B565" t="s">
+        <v>33</v>
+      </c>
+      <c r="C565">
+        <v>134</v>
+      </c>
+      <c r="D565" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A566" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B566" t="s">
+        <v>34</v>
+      </c>
+      <c r="C566">
+        <v>24</v>
+      </c>
+      <c r="D566" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A567" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B567" t="s">
+        <v>35</v>
+      </c>
+      <c r="C567">
+        <v>181</v>
+      </c>
+      <c r="D567" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F565BEB2-F837-824B-9164-71F79658D747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B32A9AC-6E70-B04D-A785-6458D29801AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,11 @@
     <sheet name="by_age" sheetId="3" r:id="rId4"/>
     <sheet name="by_transmission" sheetId="4" r:id="rId5"/>
     <sheet name="by_county" sheetId="2" r:id="rId6"/>
+    <sheet name="NI_totals" sheetId="7" r:id="rId7"/>
+    <sheet name="NI_gender" sheetId="8" r:id="rId8"/>
+    <sheet name="NI_age" sheetId="9" r:id="rId9"/>
+    <sheet name="NI_district" sheetId="10" r:id="rId10"/>
+    <sheet name="NI_county_lookup" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="147">
   <si>
     <t>Date</t>
   </si>
@@ -390,12 +395,99 @@
   <si>
     <t>https://www.gov.ie/en/press-release/0f1615-statement-from-the-national-public-health-emergency-team-wednesday-8/</t>
   </si>
+  <si>
+    <t>Antrim And Newtownabbey</t>
+  </si>
+  <si>
+    <t>Ards And North Down</t>
+  </si>
+  <si>
+    <t>Armagh, Banbridge And Craigavon</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Causeway Coast And Glens</t>
+  </si>
+  <si>
+    <t>Derry And Strabane</t>
+  </si>
+  <si>
+    <t>Fermanagh And Omagh</t>
+  </si>
+  <si>
+    <t>Lisburn And Castlereagh</t>
+  </si>
+  <si>
+    <t>Mid And East Antrim</t>
+  </si>
+  <si>
+    <t>Mid Ulster</t>
+  </si>
+  <si>
+    <t>Newry, Mourne And Down</t>
+  </si>
+  <si>
+    <t>North Down And Ards</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Antrim</t>
+  </si>
+  <si>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>Armagh</t>
+  </si>
+  <si>
+    <t>Fermanagh</t>
+  </si>
+  <si>
+    <t>Tyrone</t>
+  </si>
+  <si>
+    <t>Daily_cases</t>
+  </si>
+  <si>
+    <t>Daily_deaths</t>
+  </si>
+  <si>
+    <t>Deaths</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Age_grp</t>
+  </si>
+  <si>
+    <t>0_to_44</t>
+  </si>
+  <si>
+    <t>45_to_69</t>
+  </si>
+  <si>
+    <t>70+</t>
+  </si>
+  <si>
+    <t>Derry</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -526,6 +618,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -872,7 +971,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -885,6 +984,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1272,15 +1373,889 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AE50F-07C0-7048-95B5-0C81D93B81F0}">
+  <dimension ref="A1:C67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="8">
+        <v>81</v>
+      </c>
+      <c r="C2" s="9">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="8">
+        <v>110</v>
+      </c>
+      <c r="C3" s="9">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="8">
+        <v>135</v>
+      </c>
+      <c r="C4" s="9">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="8">
+        <v>429</v>
+      </c>
+      <c r="C5" s="9">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="8">
+        <v>35</v>
+      </c>
+      <c r="C6" s="9">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="8">
+        <v>52</v>
+      </c>
+      <c r="C7" s="9">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="8">
+        <v>43</v>
+      </c>
+      <c r="C8" s="9">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="8">
+        <v>150</v>
+      </c>
+      <c r="C9" s="9">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="8">
+        <v>70</v>
+      </c>
+      <c r="C10" s="9">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="8">
+        <v>47</v>
+      </c>
+      <c r="C11" s="9">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="8">
+        <v>82</v>
+      </c>
+      <c r="C12" s="9">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="8">
+        <v>78</v>
+      </c>
+      <c r="C13" s="9">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="8">
+        <v>105</v>
+      </c>
+      <c r="C14" s="9">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="8">
+        <v>120</v>
+      </c>
+      <c r="C15" s="9">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="8">
+        <v>396</v>
+      </c>
+      <c r="C16" s="9">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="8">
+        <v>32</v>
+      </c>
+      <c r="C17" s="9">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="8">
+        <v>52</v>
+      </c>
+      <c r="C18" s="9">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="8">
+        <v>43</v>
+      </c>
+      <c r="C19" s="9">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="8">
+        <v>143</v>
+      </c>
+      <c r="C20" s="9">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="8">
+        <v>69</v>
+      </c>
+      <c r="C21" s="9">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="8">
+        <v>42</v>
+      </c>
+      <c r="C22" s="9">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="8">
+        <v>80</v>
+      </c>
+      <c r="C23" s="9">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="8">
+        <v>70</v>
+      </c>
+      <c r="C24" s="9">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="8">
+        <v>102</v>
+      </c>
+      <c r="C25" s="9">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="8">
+        <v>109</v>
+      </c>
+      <c r="C26" s="9">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="8">
+        <v>377</v>
+      </c>
+      <c r="C27" s="9">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="8">
+        <v>26</v>
+      </c>
+      <c r="C28" s="9">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="8">
+        <v>51</v>
+      </c>
+      <c r="C29" s="9">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="8">
+        <v>42</v>
+      </c>
+      <c r="C30" s="9">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="8">
+        <v>130</v>
+      </c>
+      <c r="C31" s="9">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="8">
+        <v>59</v>
+      </c>
+      <c r="C32" s="9">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="8">
+        <v>33</v>
+      </c>
+      <c r="C33" s="9">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="8">
+        <v>76</v>
+      </c>
+      <c r="C34" s="9">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="8">
+        <v>59</v>
+      </c>
+      <c r="C35" s="9">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="8">
+        <v>81</v>
+      </c>
+      <c r="C36" s="9">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="8">
+        <v>91</v>
+      </c>
+      <c r="C37" s="9">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="8">
+        <v>272</v>
+      </c>
+      <c r="C38" s="9">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="8">
+        <v>21</v>
+      </c>
+      <c r="C39" s="9">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="8">
+        <v>35</v>
+      </c>
+      <c r="C40" s="9">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="8">
+        <v>40</v>
+      </c>
+      <c r="C41" s="9">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="8">
+        <v>109</v>
+      </c>
+      <c r="C42" s="9">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="8">
+        <v>46</v>
+      </c>
+      <c r="C43" s="9">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="8">
+        <v>23</v>
+      </c>
+      <c r="C44" s="9">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="8">
+        <v>61</v>
+      </c>
+      <c r="C45" s="9">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="8">
+        <v>51</v>
+      </c>
+      <c r="C46" s="9">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="8">
+        <v>79</v>
+      </c>
+      <c r="C47" s="9">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="8">
+        <v>226</v>
+      </c>
+      <c r="C48" s="9">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="8">
+        <v>19</v>
+      </c>
+      <c r="C49" s="9">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="8">
+        <v>30</v>
+      </c>
+      <c r="C50" s="9">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" s="8">
+        <v>37</v>
+      </c>
+      <c r="C51" s="9">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" s="8">
+        <v>97</v>
+      </c>
+      <c r="C52" s="9">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="8">
+        <v>37</v>
+      </c>
+      <c r="C53" s="9">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="8">
+        <v>21</v>
+      </c>
+      <c r="C54" s="9">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="8">
+        <v>55</v>
+      </c>
+      <c r="C55" s="9">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="8">
+        <v>75</v>
+      </c>
+      <c r="C56" s="9">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="8">
+        <v>47</v>
+      </c>
+      <c r="C57" s="9">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="8">
+        <v>70</v>
+      </c>
+      <c r="C58" s="9">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="8">
+        <v>200</v>
+      </c>
+      <c r="C59" s="9">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="8">
+        <v>18</v>
+      </c>
+      <c r="C60" s="9">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="8">
+        <v>29</v>
+      </c>
+      <c r="C61" s="9">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="8">
+        <v>32</v>
+      </c>
+      <c r="C62" s="9">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" s="8">
+        <v>81</v>
+      </c>
+      <c r="C63" s="9">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="8">
+        <v>36</v>
+      </c>
+      <c r="C64" s="9">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="8">
+        <v>19</v>
+      </c>
+      <c r="C65" s="9">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="8">
+        <v>51</v>
+      </c>
+      <c r="C66" s="9">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" s="8">
+        <v>67</v>
+      </c>
+      <c r="C67" s="9">
+        <v>43922</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD4AFB0-01E2-7B4F-9AF4-304BF909169C}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16222,4 +17197,647 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B2">
+        <v>84</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>1339</v>
+      </c>
+      <c r="E2">
+        <v>78</v>
+      </c>
+      <c r="F2">
+        <v>9564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B3">
+        <v>97</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1255</v>
+      </c>
+      <c r="E3">
+        <v>73</v>
+      </c>
+      <c r="F3">
+        <v>9158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B4">
+        <v>69</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>1158</v>
+      </c>
+      <c r="E4">
+        <v>70</v>
+      </c>
+      <c r="F4">
+        <v>8740</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B5">
+        <v>91</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>1089</v>
+      </c>
+      <c r="E5">
+        <v>63</v>
+      </c>
+      <c r="F5">
+        <v>8486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B6">
+        <v>94</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>998</v>
+      </c>
+      <c r="E6">
+        <v>56</v>
+      </c>
+      <c r="F6">
+        <v>8034</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B7">
+        <v>130</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>904</v>
+      </c>
+      <c r="E7">
+        <v>48</v>
+      </c>
+      <c r="F7">
+        <v>7525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B8">
+        <v>85</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>774</v>
+      </c>
+      <c r="E8">
+        <v>36</v>
+      </c>
+      <c r="F8">
+        <v>6899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B9">
+        <v>103</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>689</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>6450</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0979910-C687-6A43-A609-0D992245C102}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2">
+        <v>627</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3">
+        <v>711</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5">
+        <v>589</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6">
+        <v>665</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8">
+        <v>544</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9">
+        <v>613</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11">
+        <v>441</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12">
+        <v>462</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14">
+        <v>384</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15">
+        <v>389</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17">
+        <v>342</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18">
+        <v>347</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD393D6-56CC-E749-BDF2-72DC274BB8BB}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2">
+        <v>431</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3">
+        <v>522</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4">
+        <v>386</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5">
+        <v>408</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6">
+        <v>487</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7">
+        <v>360</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8">
+        <v>370</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9">
+        <v>458</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10">
+        <v>330</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11">
+        <v>286</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12">
+        <v>362</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13">
+        <v>256</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14">
+        <v>249</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15">
+        <v>307</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16">
+        <v>218</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17">
+        <v>223</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18">
+        <v>271</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19">
+        <v>195</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B32A9AC-6E70-B04D-A785-6458D29801AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D03B5D-6AD4-5742-BBB5-EA6670A4020A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="148">
   <si>
     <t>Date</t>
   </si>
@@ -481,6 +481,9 @@
   </si>
   <si>
     <t>Derry</t>
+  </si>
+  <si>
+    <t>Pos_prop</t>
   </si>
 </sst>
 </file>
@@ -927,7 +930,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -970,8 +973,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -986,8 +990,9 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1027,6 +1032,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Per cent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -1377,7 +1383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AE50F-07C0-7048-95B5-0C81D93B81F0}">
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2255,7 +2261,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3217,7 +3223,7 @@
         <v>43926</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" s="5">
         <v>5593</v>
@@ -3253,7 +3259,7 @@
         <v>43927</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" s="5">
         <v>5981</v>
@@ -17201,15 +17207,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17228,8 +17237,11 @@
       <c r="F1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43929</v>
       </c>
@@ -17248,8 +17260,12 @@
       <c r="F2">
         <v>9564</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="10">
+        <f>D2/F2</f>
+        <v>0.14000418235048098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43928</v>
       </c>
@@ -17268,8 +17284,12 @@
       <c r="F3">
         <v>9158</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="10">
+        <f t="shared" ref="G3:G9" si="0">D3/F3</f>
+        <v>0.13703865472810658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43927</v>
       </c>
@@ -17288,8 +17308,12 @@
       <c r="F4">
         <v>8740</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="10">
+        <f t="shared" si="0"/>
+        <v>0.13249427917620138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43926</v>
       </c>
@@ -17308,8 +17332,12 @@
       <c r="F5">
         <v>8486</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="10">
+        <f t="shared" si="0"/>
+        <v>0.12832901249116191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43925</v>
       </c>
@@ -17328,8 +17356,12 @@
       <c r="F6">
         <v>8034</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="10">
+        <f t="shared" si="0"/>
+        <v>0.12422205626089121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43924</v>
       </c>
@@ -17348,8 +17380,12 @@
       <c r="F7">
         <v>7525</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.12013289036544851</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43923</v>
       </c>
@@ -17368,8 +17404,12 @@
       <c r="F8">
         <v>6899</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="10">
+        <f t="shared" si="0"/>
+        <v>0.11219017248876649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43922</v>
       </c>
@@ -17387,6 +17427,10 @@
       </c>
       <c r="F9">
         <v>6450</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" si="0"/>
+        <v>0.10682170542635659</v>
       </c>
     </row>
   </sheetData>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D03B5D-6AD4-5742-BBB5-EA6670A4020A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7042095B-0D0E-174B-AA69-55CBA3FCD603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="150">
   <si>
     <t>Date</t>
   </si>
@@ -484,6 +484,12 @@
   </si>
   <si>
     <t>Pos_prop</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/news/7e0924-latest-updates-on-covid-19-coronavirus/#april-9</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/publication/695f10-an-analysis-of-the-6444-cases-of-covid-19-in-ireland-as-of-tuesday-7/</t>
   </si>
 </sst>
 </file>
@@ -975,7 +981,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -991,6 +997,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1381,13 +1388,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AE50F-07C0-7048-95B5-0C81D93B81F0}">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
@@ -1405,10 +1416,10 @@
         <v>118</v>
       </c>
       <c r="B2" s="8">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C2" s="9">
-        <v>43929</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1416,10 +1427,10 @@
         <v>119</v>
       </c>
       <c r="B3" s="8">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C3" s="9">
-        <v>43929</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1427,10 +1438,10 @@
         <v>120</v>
       </c>
       <c r="B4" s="8">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C4" s="9">
-        <v>43929</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1438,10 +1449,10 @@
         <v>121</v>
       </c>
       <c r="B5" s="8">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="C5" s="9">
-        <v>43929</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1449,10 +1460,10 @@
         <v>122</v>
       </c>
       <c r="B6" s="8">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C6" s="9">
-        <v>43929</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1463,7 +1474,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="9">
-        <v>43929</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1474,7 +1485,7 @@
         <v>43</v>
       </c>
       <c r="C8" s="9">
-        <v>43929</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1482,10 +1493,10 @@
         <v>125</v>
       </c>
       <c r="B9" s="8">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C9" s="9">
-        <v>43929</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1493,10 +1504,10 @@
         <v>126</v>
       </c>
       <c r="B10" s="8">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C10" s="9">
-        <v>43929</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1504,10 +1515,10 @@
         <v>127</v>
       </c>
       <c r="B11" s="8">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C11" s="9">
-        <v>43929</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1515,10 +1526,10 @@
         <v>128</v>
       </c>
       <c r="B12" s="8">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C12" s="9">
-        <v>43929</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1526,10 +1537,10 @@
         <v>118</v>
       </c>
       <c r="B13" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C13" s="9">
-        <v>43928</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1537,10 +1548,10 @@
         <v>119</v>
       </c>
       <c r="B14" s="8">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C14" s="9">
-        <v>43928</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1548,10 +1559,10 @@
         <v>120</v>
       </c>
       <c r="B15" s="8">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C15" s="9">
-        <v>43928</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1559,10 +1570,10 @@
         <v>121</v>
       </c>
       <c r="B16" s="8">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="C16" s="9">
-        <v>43928</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1570,10 +1581,10 @@
         <v>122</v>
       </c>
       <c r="B17" s="8">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C17" s="9">
-        <v>43928</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1584,7 +1595,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="9">
-        <v>43928</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1595,7 +1606,7 @@
         <v>43</v>
       </c>
       <c r="C19" s="9">
-        <v>43928</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1603,10 +1614,10 @@
         <v>125</v>
       </c>
       <c r="B20" s="8">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C20" s="9">
-        <v>43928</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1614,10 +1625,10 @@
         <v>126</v>
       </c>
       <c r="B21" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C21" s="9">
-        <v>43928</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1625,10 +1636,10 @@
         <v>127</v>
       </c>
       <c r="B22" s="8">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C22" s="9">
-        <v>43928</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1636,10 +1647,10 @@
         <v>128</v>
       </c>
       <c r="B23" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C23" s="9">
-        <v>43928</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1647,10 +1658,10 @@
         <v>118</v>
       </c>
       <c r="B24" s="8">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C24" s="9">
-        <v>43927</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1658,10 +1669,10 @@
         <v>119</v>
       </c>
       <c r="B25" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C25" s="9">
-        <v>43927</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1669,10 +1680,10 @@
         <v>120</v>
       </c>
       <c r="B26" s="8">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C26" s="9">
-        <v>43927</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1680,10 +1691,10 @@
         <v>121</v>
       </c>
       <c r="B27" s="8">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="C27" s="9">
-        <v>43927</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1691,10 +1702,10 @@
         <v>122</v>
       </c>
       <c r="B28" s="8">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C28" s="9">
-        <v>43927</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1702,10 +1713,10 @@
         <v>123</v>
       </c>
       <c r="B29" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" s="9">
-        <v>43927</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1713,10 +1724,10 @@
         <v>124</v>
       </c>
       <c r="B30" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" s="9">
-        <v>43927</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1724,10 +1735,10 @@
         <v>125</v>
       </c>
       <c r="B31" s="8">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C31" s="9">
-        <v>43927</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1735,10 +1746,10 @@
         <v>126</v>
       </c>
       <c r="B32" s="8">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C32" s="9">
-        <v>43927</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1746,10 +1757,10 @@
         <v>127</v>
       </c>
       <c r="B33" s="8">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C33" s="9">
-        <v>43927</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1757,10 +1768,10 @@
         <v>128</v>
       </c>
       <c r="B34" s="8">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C34" s="9">
-        <v>43927</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1768,10 +1779,10 @@
         <v>118</v>
       </c>
       <c r="B35" s="8">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C35" s="9">
-        <v>43924</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1779,10 +1790,10 @@
         <v>119</v>
       </c>
       <c r="B36" s="8">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C36" s="9">
-        <v>43924</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1790,10 +1801,10 @@
         <v>120</v>
       </c>
       <c r="B37" s="8">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C37" s="9">
-        <v>43924</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1801,10 +1812,10 @@
         <v>121</v>
       </c>
       <c r="B38" s="8">
-        <v>272</v>
+        <v>377</v>
       </c>
       <c r="C38" s="9">
-        <v>43924</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1812,10 +1823,10 @@
         <v>122</v>
       </c>
       <c r="B39" s="8">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C39" s="9">
-        <v>43924</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1823,10 +1834,10 @@
         <v>123</v>
       </c>
       <c r="B40" s="8">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C40" s="9">
-        <v>43924</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1834,10 +1845,10 @@
         <v>124</v>
       </c>
       <c r="B41" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C41" s="9">
-        <v>43924</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1845,10 +1856,10 @@
         <v>125</v>
       </c>
       <c r="B42" s="8">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="C42" s="9">
-        <v>43924</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1856,10 +1867,10 @@
         <v>126</v>
       </c>
       <c r="B43" s="8">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C43" s="9">
-        <v>43924</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1867,10 +1878,10 @@
         <v>127</v>
       </c>
       <c r="B44" s="8">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C44" s="9">
-        <v>43924</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1878,10 +1889,10 @@
         <v>128</v>
       </c>
       <c r="B45" s="8">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C45" s="9">
-        <v>43924</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1889,120 +1900,120 @@
         <v>118</v>
       </c>
       <c r="B46" s="8">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C46" s="9">
-        <v>43923</v>
+        <v>43924</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B47" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C47" s="9">
-        <v>43923</v>
+        <v>43924</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48" s="8">
-        <v>226</v>
+        <v>91</v>
       </c>
       <c r="C48" s="9">
-        <v>43923</v>
+        <v>43924</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B49" s="8">
-        <v>19</v>
+        <v>272</v>
       </c>
       <c r="C49" s="9">
-        <v>43923</v>
+        <v>43924</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B50" s="8">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C50" s="9">
-        <v>43923</v>
+        <v>43924</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B51" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C51" s="9">
-        <v>43923</v>
+        <v>43924</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B52" s="8">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="C52" s="9">
-        <v>43923</v>
+        <v>43924</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B53" s="8">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="C53" s="9">
-        <v>43923</v>
+        <v>43924</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B54" s="8">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C54" s="9">
-        <v>43923</v>
+        <v>43924</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B55" s="8">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C55" s="9">
-        <v>43923</v>
+        <v>43924</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B56" s="8">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C56" s="9">
-        <v>43923</v>
+        <v>43924</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -2010,10 +2021,10 @@
         <v>118</v>
       </c>
       <c r="B57" s="8">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C57" s="9">
-        <v>43922</v>
+        <v>43923</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -2021,10 +2032,10 @@
         <v>120</v>
       </c>
       <c r="B58" s="8">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C58" s="9">
-        <v>43922</v>
+        <v>43923</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -2032,10 +2043,10 @@
         <v>121</v>
       </c>
       <c r="B59" s="8">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="C59" s="9">
-        <v>43922</v>
+        <v>43923</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -2043,10 +2054,10 @@
         <v>122</v>
       </c>
       <c r="B60" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C60" s="9">
-        <v>43922</v>
+        <v>43923</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -2054,10 +2065,10 @@
         <v>123</v>
       </c>
       <c r="B61" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C61" s="9">
-        <v>43922</v>
+        <v>43923</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -2065,10 +2076,10 @@
         <v>124</v>
       </c>
       <c r="B62" s="8">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C62" s="9">
-        <v>43922</v>
+        <v>43923</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -2076,10 +2087,10 @@
         <v>125</v>
       </c>
       <c r="B63" s="8">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C63" s="9">
-        <v>43922</v>
+        <v>43923</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -2087,10 +2098,10 @@
         <v>126</v>
       </c>
       <c r="B64" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C64" s="9">
-        <v>43922</v>
+        <v>43923</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -2098,10 +2109,10 @@
         <v>127</v>
       </c>
       <c r="B65" s="8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C65" s="9">
-        <v>43922</v>
+        <v>43923</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -2109,10 +2120,10 @@
         <v>128</v>
       </c>
       <c r="B66" s="8">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C66" s="9">
-        <v>43922</v>
+        <v>43923</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -2120,9 +2131,130 @@
         <v>129</v>
       </c>
       <c r="B67" s="8">
+        <v>75</v>
+      </c>
+      <c r="C67" s="9">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="8">
+        <v>47</v>
+      </c>
+      <c r="C68" s="9">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="8">
+        <v>70</v>
+      </c>
+      <c r="C69" s="9">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="8">
+        <v>200</v>
+      </c>
+      <c r="C70" s="9">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" s="8">
+        <v>18</v>
+      </c>
+      <c r="C71" s="9">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" s="8">
+        <v>29</v>
+      </c>
+      <c r="C72" s="9">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" s="8">
+        <v>32</v>
+      </c>
+      <c r="C73" s="9">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="8">
+        <v>81</v>
+      </c>
+      <c r="C74" s="9">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B75" s="8">
+        <v>36</v>
+      </c>
+      <c r="C75" s="9">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76" s="8">
+        <v>19</v>
+      </c>
+      <c r="C76" s="9">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B77" s="8">
+        <v>51</v>
+      </c>
+      <c r="C77" s="9">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="8">
         <v>67</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C78" s="9">
         <v>43922</v>
       </c>
     </row>
@@ -2255,13 +2387,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3295,35 +3427,35 @@
         <v>43928</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="5">
-        <v>5709</v>
+        <v>6444</v>
       </c>
       <c r="D30" s="5">
         <f>C30-C29</f>
-        <v>-272</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>8</v>
+        <v>463</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1521</v>
+      </c>
+      <c r="F30" s="5">
+        <v>230</v>
       </c>
       <c r="G30" s="5">
-        <v>210</v>
-      </c>
-      <c r="H30" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>8</v>
+        <v>257</v>
+      </c>
+      <c r="H30">
+        <v>1765</v>
+      </c>
+      <c r="I30" s="5">
+        <v>317</v>
+      </c>
+      <c r="J30" s="5">
+        <v>48</v>
       </c>
       <c r="K30" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3338,7 +3470,7 @@
       </c>
       <c r="D31" s="5">
         <f>C31-C30</f>
-        <v>365</v>
+        <v>-370</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
@@ -3360,6 +3492,42 @@
       </c>
       <c r="K31" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32">
+        <f>C31+D32</f>
+        <v>6574</v>
+      </c>
+      <c r="D32">
+        <v>500</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="5">
+        <v>263</v>
+      </c>
+      <c r="H32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3369,10 +3537,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:A62"/>
+      <selection activeCell="A63" sqref="A63:A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4248,6 +4416,48 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63">
+        <v>3425</v>
+      </c>
+      <c r="D63">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64">
+        <v>2923</v>
+      </c>
+      <c r="D64">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65">
+        <v>96</v>
+      </c>
+      <c r="D65">
+        <v>1.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4255,11 +4465,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:E237"/>
+  <dimension ref="A1:E248"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D231" sqref="D231"/>
+      <selection pane="bottomLeft" activeCell="C240" sqref="C240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7465,12 +7675,6 @@
       <c r="A229" s="1">
         <v>43927</v>
       </c>
-      <c r="B229" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C229" t="s">
-        <v>8</v>
-      </c>
       <c r="D229">
         <v>7</v>
       </c>
@@ -7584,6 +7788,161 @@
         <v>17</v>
       </c>
       <c r="D237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C238">
+        <v>14</v>
+      </c>
+      <c r="D238" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C239">
+        <v>19</v>
+      </c>
+      <c r="D239" t="s">
+        <v>8</v>
+      </c>
+      <c r="E239" s="7"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C240" t="s">
+        <v>8</v>
+      </c>
+      <c r="D240">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C241">
+        <v>43</v>
+      </c>
+      <c r="D241">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C242">
+        <v>384</v>
+      </c>
+      <c r="D242">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C243">
+        <v>1103</v>
+      </c>
+      <c r="D243">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C244">
+        <v>1176</v>
+      </c>
+      <c r="D244">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C245">
+        <v>1219</v>
+      </c>
+      <c r="D245">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C246">
+        <v>922</v>
+      </c>
+      <c r="D246">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C247">
+        <v>1544</v>
+      </c>
+      <c r="D247">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C248">
+        <v>20</v>
+      </c>
+      <c r="D248">
         <v>2</v>
       </c>
     </row>
@@ -7594,17 +7953,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79:D82"/>
+      <selection pane="bottomLeft" activeCell="A83" sqref="A83:A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -7614,7 +7974,7 @@
       <c r="B1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>55</v>
       </c>
       <c r="D1" t="s">
@@ -7628,7 +7988,7 @@
       <c r="B2" t="s">
         <v>56</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="11">
         <v>2</v>
       </c>
       <c r="D2" t="s">
@@ -7642,7 +8002,7 @@
       <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="11">
         <v>22</v>
       </c>
       <c r="D3" t="s">
@@ -7656,7 +8016,7 @@
       <c r="B4" t="s">
         <v>58</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="11">
         <v>3</v>
       </c>
       <c r="D4" t="s">
@@ -7670,7 +8030,7 @@
       <c r="B5" t="s">
         <v>56</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="11">
         <v>2</v>
       </c>
       <c r="D5" t="s">
@@ -7684,7 +8044,7 @@
       <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="11">
         <v>12</v>
       </c>
       <c r="D6" t="s">
@@ -7698,7 +8058,7 @@
       <c r="B7" t="s">
         <v>58</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="11">
         <v>6</v>
       </c>
       <c r="D7" t="s">
@@ -7712,7 +8072,7 @@
       <c r="B8" t="s">
         <v>56</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="11">
         <v>60</v>
       </c>
       <c r="D8" t="s">
@@ -7726,7 +8086,7 @@
       <c r="B9" t="s">
         <v>57</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="11">
         <v>45</v>
       </c>
       <c r="D9" t="s">
@@ -7740,7 +8100,7 @@
       <c r="B10" t="s">
         <v>58</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="11">
         <v>113</v>
       </c>
       <c r="D10" t="s">
@@ -7754,7 +8114,7 @@
       <c r="B11" t="s">
         <v>59</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="11">
         <v>53</v>
       </c>
       <c r="D11" t="s">
@@ -7768,7 +8128,7 @@
       <c r="B12" t="s">
         <v>56</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="11">
         <v>99</v>
       </c>
       <c r="D12" t="s">
@@ -7782,7 +8142,7 @@
       <c r="B13" t="s">
         <v>57</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="11">
         <v>59</v>
       </c>
       <c r="D13" t="s">
@@ -7796,7 +8156,7 @@
       <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="11">
         <v>121</v>
       </c>
       <c r="D14" t="s">
@@ -7810,7 +8170,7 @@
       <c r="B15" t="s">
         <v>59</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="11">
         <v>71</v>
       </c>
       <c r="D15" t="s">
@@ -7824,7 +8184,7 @@
       <c r="B16" t="s">
         <v>56</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="11">
         <v>40</v>
       </c>
       <c r="D16" t="s">
@@ -7838,7 +8198,7 @@
       <c r="B17" t="s">
         <v>57</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="11">
         <v>21</v>
       </c>
       <c r="D17" t="s">
@@ -7852,7 +8212,7 @@
       <c r="B18" t="s">
         <v>58</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="11">
         <v>39</v>
       </c>
       <c r="D18" t="s">
@@ -7866,7 +8226,7 @@
       <c r="B19" t="s">
         <v>59</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="11">
         <v>96</v>
       </c>
       <c r="D19" t="s">
@@ -7880,7 +8240,7 @@
       <c r="B20" t="s">
         <v>56</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="11">
         <v>179</v>
       </c>
       <c r="D20" t="s">
@@ -7894,7 +8254,7 @@
       <c r="B21" t="s">
         <v>57</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="11">
         <v>97</v>
       </c>
       <c r="D21" t="s">
@@ -7908,7 +8268,7 @@
       <c r="B22" t="s">
         <v>58</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="11">
         <v>148</v>
       </c>
       <c r="D22" t="s">
@@ -7922,7 +8282,7 @@
       <c r="B23" t="s">
         <v>59</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="11">
         <v>160</v>
       </c>
       <c r="D23" t="s">
@@ -7936,7 +8296,7 @@
       <c r="B24" t="s">
         <v>56</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="11">
         <v>44</v>
       </c>
       <c r="D24" t="s">
@@ -7950,7 +8310,7 @@
       <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="11">
         <v>23</v>
       </c>
       <c r="D25" t="s">
@@ -7964,7 +8324,7 @@
       <c r="B26" t="s">
         <v>58</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="11">
         <v>33</v>
       </c>
       <c r="D26" t="s">
@@ -7978,7 +8338,7 @@
       <c r="B27" t="s">
         <v>59</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="11">
         <v>258</v>
       </c>
       <c r="D27" t="s">
@@ -7992,7 +8352,7 @@
       <c r="B28" t="s">
         <v>56</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="11">
         <v>43</v>
       </c>
       <c r="D28" t="s">
@@ -8006,7 +8366,7 @@
       <c r="B29" t="s">
         <v>57</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="11">
         <v>24</v>
       </c>
       <c r="D29" t="s">
@@ -8020,7 +8380,7 @@
       <c r="B30" t="s">
         <v>58</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="11">
         <v>33</v>
       </c>
       <c r="D30" t="s">
@@ -8034,7 +8394,7 @@
       <c r="B31" t="s">
         <v>56</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="11">
         <v>45</v>
       </c>
       <c r="D31" t="s">
@@ -8048,7 +8408,7 @@
       <c r="B32" t="s">
         <v>57</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="11">
         <v>24</v>
       </c>
       <c r="D32" t="s">
@@ -8062,7 +8422,7 @@
       <c r="B33" t="s">
         <v>58</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="11">
         <v>31</v>
       </c>
       <c r="D33" t="s">
@@ -8076,7 +8436,7 @@
       <c r="B34" t="s">
         <v>56</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="11">
         <v>29</v>
       </c>
       <c r="D34" t="s">
@@ -8090,7 +8450,7 @@
       <c r="B35" t="s">
         <v>57</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="11">
         <v>15</v>
       </c>
       <c r="D35" t="s">
@@ -8104,7 +8464,7 @@
       <c r="B36" t="s">
         <v>58</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="11">
         <v>18</v>
       </c>
       <c r="D36" t="s">
@@ -8118,7 +8478,7 @@
       <c r="B37" t="s">
         <v>59</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="11">
         <v>38</v>
       </c>
       <c r="D37" t="s">
@@ -8132,7 +8492,7 @@
       <c r="B38" t="s">
         <v>56</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="11">
         <v>28</v>
       </c>
       <c r="D38" t="s">
@@ -8146,7 +8506,7 @@
       <c r="B39" t="s">
         <v>57</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="11">
         <v>13</v>
       </c>
       <c r="D39" t="s">
@@ -8160,7 +8520,7 @@
       <c r="B40" t="s">
         <v>58</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="11">
         <v>16</v>
       </c>
       <c r="D40" t="s">
@@ -8174,7 +8534,7 @@
       <c r="B41" t="s">
         <v>59</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="11">
         <v>42</v>
       </c>
       <c r="D41" t="s">
@@ -8188,7 +8548,7 @@
       <c r="B42" t="s">
         <v>56</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="11">
         <v>28</v>
       </c>
       <c r="D42" t="s">
@@ -8202,7 +8562,7 @@
       <c r="B43" t="s">
         <v>57</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="11">
         <v>12</v>
       </c>
       <c r="D43" t="s">
@@ -8216,7 +8576,7 @@
       <c r="B44" t="s">
         <v>58</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="11">
         <v>15</v>
       </c>
       <c r="D44" t="s">
@@ -8230,7 +8590,7 @@
       <c r="B45" t="s">
         <v>59</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="11">
         <v>45</v>
       </c>
       <c r="D45" t="s">
@@ -8244,7 +8604,7 @@
       <c r="B46" t="s">
         <v>56</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="11">
         <v>25</v>
       </c>
       <c r="D46" t="s">
@@ -8258,7 +8618,7 @@
       <c r="B47" t="s">
         <v>57</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="11">
         <v>12</v>
       </c>
       <c r="D47" t="s">
@@ -8272,7 +8632,7 @@
       <c r="B48" t="s">
         <v>58</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="11">
         <v>13</v>
       </c>
       <c r="D48" t="s">
@@ -8286,7 +8646,7 @@
       <c r="B49" t="s">
         <v>59</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="11">
         <v>55</v>
       </c>
       <c r="D49" t="s">
@@ -8300,7 +8660,7 @@
       <c r="B50" t="s">
         <v>56</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="11">
         <v>51</v>
       </c>
       <c r="D50" t="s">
@@ -8314,7 +8674,7 @@
       <c r="B51" t="s">
         <v>57</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="11">
         <v>25</v>
       </c>
       <c r="D51" t="s">
@@ -8328,7 +8688,7 @@
       <c r="B52" t="s">
         <v>58</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="11">
         <v>24</v>
       </c>
       <c r="D52" t="s">
@@ -8342,7 +8702,7 @@
       <c r="B53" t="s">
         <v>56</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="11">
         <v>50</v>
       </c>
       <c r="D53" t="s">
@@ -8356,7 +8716,7 @@
       <c r="B54" t="s">
         <v>57</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="11">
         <v>27</v>
       </c>
       <c r="D54" t="s">
@@ -8370,7 +8730,7 @@
       <c r="B55" t="s">
         <v>58</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="11">
         <v>23</v>
       </c>
       <c r="D55" t="s">
@@ -8384,7 +8744,7 @@
       <c r="B56" t="s">
         <v>56</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="11">
         <v>51</v>
       </c>
       <c r="D56" t="s">
@@ -8398,7 +8758,7 @@
       <c r="B57" t="s">
         <v>57</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="11">
         <v>26</v>
       </c>
       <c r="D57" t="s">
@@ -8412,7 +8772,7 @@
       <c r="B58" t="s">
         <v>58</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="11">
         <v>23</v>
       </c>
       <c r="D58" t="s">
@@ -8426,7 +8786,7 @@
       <c r="B59" t="s">
         <v>56</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="11">
         <v>60</v>
       </c>
       <c r="D59" t="s">
@@ -8440,7 +8800,7 @@
       <c r="B60" t="s">
         <v>57</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="11">
         <v>21</v>
       </c>
       <c r="D60" t="s">
@@ -8454,7 +8814,7 @@
       <c r="B61" t="s">
         <v>58</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="11">
         <v>19</v>
       </c>
       <c r="D61" t="s">
@@ -8468,7 +8828,7 @@
       <c r="B62" t="s">
         <v>56</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="11">
         <v>59</v>
       </c>
       <c r="D62" t="s">
@@ -8482,7 +8842,7 @@
       <c r="B63" t="s">
         <v>57</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="11">
         <v>23</v>
       </c>
       <c r="D63" t="s">
@@ -8496,7 +8856,7 @@
       <c r="B64" t="s">
         <v>58</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="11">
         <v>18</v>
       </c>
       <c r="D64" t="s">
@@ -8510,7 +8870,7 @@
       <c r="B65" t="s">
         <v>56</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="11">
         <v>61</v>
       </c>
       <c r="D65" t="s">
@@ -8524,7 +8884,7 @@
       <c r="B66" t="s">
         <v>57</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="11">
         <v>23</v>
       </c>
       <c r="D66" t="s">
@@ -8538,7 +8898,7 @@
       <c r="B67" t="s">
         <v>58</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="11">
         <v>16</v>
       </c>
       <c r="D67" t="s">
@@ -8552,7 +8912,7 @@
       <c r="B68" t="s">
         <v>56</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="11">
         <v>62</v>
       </c>
       <c r="D68" t="s">
@@ -8566,7 +8926,7 @@
       <c r="B69" t="s">
         <v>57</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="11">
         <v>23</v>
       </c>
       <c r="D69" t="s">
@@ -8580,7 +8940,7 @@
       <c r="B70" t="s">
         <v>58</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="11">
         <v>15</v>
       </c>
       <c r="D70" t="s">
@@ -8594,7 +8954,7 @@
       <c r="B71" t="s">
         <v>56</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="11">
         <v>63</v>
       </c>
       <c r="D71" t="s">
@@ -8608,7 +8968,7 @@
       <c r="B72" t="s">
         <v>57</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="11">
         <v>24</v>
       </c>
       <c r="D72" t="s">
@@ -8622,7 +8982,7 @@
       <c r="B73" t="s">
         <v>58</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="11">
         <v>13</v>
       </c>
       <c r="D73" t="s">
@@ -8636,7 +8996,7 @@
       <c r="B74" t="s">
         <v>56</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="11">
         <v>65</v>
       </c>
       <c r="D74" t="s">
@@ -8650,7 +9010,7 @@
       <c r="B75" t="s">
         <v>57</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="11">
         <v>23</v>
       </c>
       <c r="D75" t="s">
@@ -8664,7 +9024,7 @@
       <c r="B76" t="s">
         <v>58</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="11">
         <v>12</v>
       </c>
       <c r="D76" t="s">
@@ -8678,7 +9038,7 @@
       <c r="B77" t="s">
         <v>56</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="11">
         <v>67</v>
       </c>
       <c r="D77" t="s">
@@ -8692,7 +9052,7 @@
       <c r="B78" t="s">
         <v>57</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="11">
         <v>22</v>
       </c>
       <c r="D78" t="s">
@@ -8706,7 +9066,7 @@
       <c r="B79" t="s">
         <v>58</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="11">
         <v>11</v>
       </c>
       <c r="D79" t="s">
@@ -8720,7 +9080,7 @@
       <c r="B80" t="s">
         <v>56</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="11">
         <v>67</v>
       </c>
       <c r="D80" t="s">
@@ -8734,7 +9094,7 @@
       <c r="B81" t="s">
         <v>57</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="11">
         <v>23</v>
       </c>
       <c r="D81" t="s">
@@ -8748,10 +9108,52 @@
       <c r="B82" t="s">
         <v>58</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="11">
         <v>10</v>
       </c>
       <c r="D82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B83" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" s="11">
+        <v>67</v>
+      </c>
+      <c r="D83" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B84" t="s">
+        <v>57</v>
+      </c>
+      <c r="C84" s="11">
+        <v>24</v>
+      </c>
+      <c r="D84" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B85" t="s">
+        <v>58</v>
+      </c>
+      <c r="C85" s="11">
+        <v>9</v>
+      </c>
+      <c r="D85" t="s">
         <v>106</v>
       </c>
     </row>
@@ -8762,10 +9164,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E567"/>
+  <dimension ref="A1:E593"/>
   <sheetViews>
-    <sheetView topLeftCell="A533" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A542" sqref="A542:A567"/>
+    <sheetView topLeftCell="A557" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A568" sqref="A568:A593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17200,6 +17602,370 @@
         <v>0.03</v>
       </c>
     </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A568" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B568" t="s">
+        <v>12</v>
+      </c>
+      <c r="C568">
+        <v>16</v>
+      </c>
+      <c r="D568" s="3">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A569" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B569" t="s">
+        <v>14</v>
+      </c>
+      <c r="C569">
+        <v>132</v>
+      </c>
+      <c r="D569" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A570" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B570" t="s">
+        <v>15</v>
+      </c>
+      <c r="C570">
+        <v>68</v>
+      </c>
+      <c r="D570" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A571" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B571" t="s">
+        <v>16</v>
+      </c>
+      <c r="C571">
+        <v>472</v>
+      </c>
+      <c r="D571" s="3">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A572" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B572" t="s">
+        <v>17</v>
+      </c>
+      <c r="C572">
+        <v>125</v>
+      </c>
+      <c r="D572" s="3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A573" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B573" t="s">
+        <v>18</v>
+      </c>
+      <c r="C573">
+        <v>3557</v>
+      </c>
+      <c r="D573" s="3">
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A574" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B574" t="s">
+        <v>19</v>
+      </c>
+      <c r="C574">
+        <v>134</v>
+      </c>
+      <c r="D574" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A575" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B575" t="s">
+        <v>20</v>
+      </c>
+      <c r="C575">
+        <v>125</v>
+      </c>
+      <c r="D575" s="3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A576" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B576" t="s">
+        <v>21</v>
+      </c>
+      <c r="C576">
+        <v>253</v>
+      </c>
+      <c r="D576" s="3">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A577" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B577" t="s">
+        <v>22</v>
+      </c>
+      <c r="C577">
+        <v>90</v>
+      </c>
+      <c r="D577" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A578" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B578" t="s">
+        <v>36</v>
+      </c>
+      <c r="C578">
+        <v>37</v>
+      </c>
+      <c r="D578" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A579" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B579" t="s">
+        <v>37</v>
+      </c>
+      <c r="C579">
+        <v>23</v>
+      </c>
+      <c r="D579" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A580" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B580" t="s">
+        <v>23</v>
+      </c>
+      <c r="C580">
+        <v>173</v>
+      </c>
+      <c r="D580" s="3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A581" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B581" t="s">
+        <v>24</v>
+      </c>
+      <c r="C581">
+        <v>36</v>
+      </c>
+      <c r="D581" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A582" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B582" t="s">
+        <v>25</v>
+      </c>
+      <c r="C582">
+        <v>106</v>
+      </c>
+      <c r="D582" s="3">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A583" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B583" t="s">
+        <v>26</v>
+      </c>
+      <c r="C583">
+        <v>134</v>
+      </c>
+      <c r="D583" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A584" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B584" t="s">
+        <v>27</v>
+      </c>
+      <c r="C584">
+        <v>198</v>
+      </c>
+      <c r="D584" s="3">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A585" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B585" t="s">
+        <v>38</v>
+      </c>
+      <c r="C585">
+        <v>63</v>
+      </c>
+      <c r="D585" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A586" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B586" t="s">
+        <v>28</v>
+      </c>
+      <c r="C586">
+        <v>81</v>
+      </c>
+      <c r="D586" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A587" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B587" t="s">
+        <v>29</v>
+      </c>
+      <c r="C587">
+        <v>22</v>
+      </c>
+      <c r="D587" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A588" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B588" t="s">
+        <v>30</v>
+      </c>
+      <c r="C588">
+        <v>28</v>
+      </c>
+      <c r="D588" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A589" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B589" t="s">
+        <v>31</v>
+      </c>
+      <c r="C589">
+        <v>140</v>
+      </c>
+      <c r="D589" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A590" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B590" t="s">
+        <v>32</v>
+      </c>
+      <c r="C590">
+        <v>56</v>
+      </c>
+      <c r="D590" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A591" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B591" t="s">
+        <v>33</v>
+      </c>
+      <c r="C591">
+        <v>142</v>
+      </c>
+      <c r="D591" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A592" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B592" t="s">
+        <v>34</v>
+      </c>
+      <c r="C592">
+        <v>26</v>
+      </c>
+      <c r="D592" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A593" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B593" t="s">
+        <v>35</v>
+      </c>
+      <c r="C593">
+        <v>207</v>
+      </c>
+      <c r="D593" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17207,9 +17973,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -17243,192 +18009,216 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B2">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>1339</v>
+        <v>1477</v>
       </c>
       <c r="E2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F2">
-        <v>9564</v>
+        <v>10203</v>
       </c>
       <c r="G2" s="10">
         <f>D2/F2</f>
-        <v>0.14000418235048098</v>
+        <v>0.14476134470253846</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B3">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>1255</v>
+        <v>1339</v>
       </c>
       <c r="E3">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F3">
-        <v>9158</v>
+        <v>9564</v>
       </c>
       <c r="G3" s="10">
-        <f t="shared" ref="G3:G9" si="0">D3/F3</f>
-        <v>0.13703865472810658</v>
+        <f>D3/F3</f>
+        <v>0.14000418235048098</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B4">
+        <v>97</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1255</v>
+      </c>
+      <c r="E4">
+        <v>73</v>
+      </c>
+      <c r="F4">
+        <v>9158</v>
+      </c>
+      <c r="G4" s="10">
+        <f t="shared" ref="G4:G10" si="0">D4/F4</f>
+        <v>0.13703865472810658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>43927</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>69</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>7</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>1158</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>70</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>8740</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G5" s="10">
         <f t="shared" si="0"/>
         <v>0.13249427917620138</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>43926</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>91</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>1089</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>63</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>8486</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G6" s="10">
         <f t="shared" si="0"/>
         <v>0.12832901249116191</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>43925</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>94</v>
       </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
         <v>998</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>56</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>8034</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G7" s="10">
         <f t="shared" si="0"/>
         <v>0.12422205626089121</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>43924</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>130</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>12</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>904</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>48</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>7525</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G8" s="10">
         <f t="shared" si="0"/>
         <v>0.12013289036544851</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>43923</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>85</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>774</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>36</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>6899</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G9" s="10">
         <f t="shared" si="0"/>
         <v>0.11219017248876649</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>43922</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>103</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>689</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>30</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>6450</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G10" s="10">
         <f t="shared" si="0"/>
         <v>0.10682170542635659</v>
       </c>
@@ -17440,10 +18230,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0979910-C687-6A43-A609-0D992245C102}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17464,10 +18254,10 @@
         <v>62</v>
       </c>
       <c r="B2">
-        <v>627</v>
+        <v>679</v>
       </c>
       <c r="C2" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -17475,10 +18265,10 @@
         <v>61</v>
       </c>
       <c r="B3">
-        <v>711</v>
+        <v>797</v>
       </c>
       <c r="C3" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -17489,7 +18279,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -17497,10 +18287,10 @@
         <v>62</v>
       </c>
       <c r="B5">
-        <v>589</v>
+        <v>627</v>
       </c>
       <c r="C5" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -17508,10 +18298,10 @@
         <v>61</v>
       </c>
       <c r="B6">
-        <v>665</v>
+        <v>711</v>
       </c>
       <c r="C6" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -17522,7 +18312,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -17530,10 +18320,10 @@
         <v>62</v>
       </c>
       <c r="B8">
-        <v>544</v>
+        <v>589</v>
       </c>
       <c r="C8" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -17541,10 +18331,10 @@
         <v>61</v>
       </c>
       <c r="B9">
-        <v>613</v>
+        <v>665</v>
       </c>
       <c r="C9" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -17555,7 +18345,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -17563,10 +18353,10 @@
         <v>62</v>
       </c>
       <c r="B11">
-        <v>441</v>
+        <v>544</v>
       </c>
       <c r="C11" s="1">
-        <v>43924</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -17574,10 +18364,10 @@
         <v>61</v>
       </c>
       <c r="B12">
-        <v>462</v>
+        <v>613</v>
       </c>
       <c r="C12" s="1">
-        <v>43924</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -17588,7 +18378,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>43924</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -17596,10 +18386,10 @@
         <v>62</v>
       </c>
       <c r="B14">
-        <v>384</v>
+        <v>441</v>
       </c>
       <c r="C14" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -17607,10 +18397,10 @@
         <v>61</v>
       </c>
       <c r="B15">
-        <v>389</v>
+        <v>462</v>
       </c>
       <c r="C15" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -17621,7 +18411,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -17629,31 +18419,64 @@
         <v>62</v>
       </c>
       <c r="B17">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="C17" s="1">
-        <v>43922</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>61</v>
       </c>
       <c r="B18">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="C18" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>52</v>
       </c>
-      <c r="B19" t="s">
-        <v>8</v>
+      <c r="B19">
+        <v>1</v>
       </c>
       <c r="C19" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20">
+        <v>342</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21">
+        <v>347</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1">
         <v>43922</v>
       </c>
     </row>
@@ -17664,10 +18487,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD393D6-56CC-E749-BDF2-72DC274BB8BB}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17688,10 +18511,10 @@
         <v>143</v>
       </c>
       <c r="B2">
-        <v>431</v>
+        <v>467</v>
       </c>
       <c r="C2" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -17699,10 +18522,10 @@
         <v>144</v>
       </c>
       <c r="B3">
-        <v>522</v>
+        <v>569</v>
       </c>
       <c r="C3" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -17710,10 +18533,10 @@
         <v>145</v>
       </c>
       <c r="B4">
-        <v>386</v>
+        <v>441</v>
       </c>
       <c r="C4" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -17721,10 +18544,10 @@
         <v>143</v>
       </c>
       <c r="B5">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="C5" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -17732,10 +18555,10 @@
         <v>144</v>
       </c>
       <c r="B6">
-        <v>487</v>
+        <v>522</v>
       </c>
       <c r="C6" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -17743,10 +18566,10 @@
         <v>145</v>
       </c>
       <c r="B7">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="C7" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -17754,10 +18577,10 @@
         <v>143</v>
       </c>
       <c r="B8">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="C8" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -17765,10 +18588,10 @@
         <v>144</v>
       </c>
       <c r="B9">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="C9" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -17776,10 +18599,10 @@
         <v>145</v>
       </c>
       <c r="B10">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="C10" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -17787,10 +18610,10 @@
         <v>143</v>
       </c>
       <c r="B11">
-        <v>286</v>
+        <v>370</v>
       </c>
       <c r="C11" s="1">
-        <v>43924</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -17798,10 +18621,10 @@
         <v>144</v>
       </c>
       <c r="B12">
-        <v>362</v>
+        <v>458</v>
       </c>
       <c r="C12" s="1">
-        <v>43924</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -17809,10 +18632,10 @@
         <v>145</v>
       </c>
       <c r="B13">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="C13" s="1">
-        <v>43924</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -17820,10 +18643,10 @@
         <v>143</v>
       </c>
       <c r="B14">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="C14" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -17831,10 +18654,10 @@
         <v>144</v>
       </c>
       <c r="B15">
-        <v>307</v>
+        <v>362</v>
       </c>
       <c r="C15" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -17842,10 +18665,10 @@
         <v>145</v>
       </c>
       <c r="B16">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C16" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -17853,10 +18676,10 @@
         <v>143</v>
       </c>
       <c r="B17">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="C17" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -17864,10 +18687,10 @@
         <v>144</v>
       </c>
       <c r="B18">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="C18" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -17875,9 +18698,42 @@
         <v>145</v>
       </c>
       <c r="B19">
+        <v>218</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20">
+        <v>223</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21">
+        <v>271</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22">
         <v>195</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C22" s="1">
         <v>43922</v>
       </c>
     </row>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7042095B-0D0E-174B-AA69-55CBA3FCD603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DCE53F-E742-B045-9C34-2D30699852CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -1356,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5E2DA3-023C-FF46-A014-0C2E672468A0}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B2" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
     </row>
   </sheetData>
@@ -1390,7 +1390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AE50F-07C0-7048-95B5-0C81D93B81F0}">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DCE53F-E742-B045-9C34-2D30699852CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB948F14-42EA-684E-8741-C97281BBB036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -981,7 +981,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -998,6 +998,7 @@
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1354,15 +1355,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5E2DA3-023C-FF46-A014-0C2E672468A0}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -1374,12 +1375,15 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>43927</v>
-      </c>
-      <c r="B2" s="1">
-        <v>43930</v>
-      </c>
+      <c r="A2" s="12">
+        <v>43928.817847222221</v>
+      </c>
+      <c r="B2" s="12">
+        <v>43930.81794375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewparnell/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB948F14-42EA-684E-8741-C97281BBB036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B77FFC8-0928-D340-A7A4-18CFD19A1A9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="151">
   <si>
     <t>Date</t>
   </si>
@@ -490,6 +490,9 @@
   </si>
   <si>
     <t>https://www.gov.ie/en/publication/695f10-an-analysis-of-the-6444-cases-of-covid-19-in-ireland-as-of-tuesday-7/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/news/7e0924-latest-updates-on-covid-19-coronavirus/</t>
   </si>
 </sst>
 </file>
@@ -1358,7 +1361,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1376,10 +1379,12 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43928.817847222221</v>
+        <f ca="1">NOW()-3</f>
+        <v>43928.791318750002</v>
       </c>
       <c r="B2" s="12">
-        <v>43930.81794375</v>
+        <f ca="1">NOW()</f>
+        <v>43931.791318750002</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2391,13 +2396,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3533,6 +3538,44 @@
       <c r="K32" t="s">
         <v>148</v>
       </c>
+    </row>
+    <row r="33" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="5">
+        <v>7054</v>
+      </c>
+      <c r="D33">
+        <v>480</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="5">
+        <v>287</v>
+      </c>
+      <c r="H33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewparnell/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B77FFC8-0928-D340-A7A4-18CFD19A1A9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9792821E-95F0-8845-B1CB-263D8D5DB5CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16160" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="152">
   <si>
     <t>Date</t>
   </si>
@@ -493,6 +493,9 @@
   </si>
   <si>
     <t>https://www.gov.ie/en/news/7e0924-latest-updates-on-covid-19-coronavirus/</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -1360,7 +1363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5E2DA3-023C-FF46-A014-0C2E672468A0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1380,11 +1383,11 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <f ca="1">NOW()-3</f>
-        <v>43928.791318750002</v>
+        <v>43928.794707754627</v>
       </c>
       <c r="B2" s="12">
         <f ca="1">NOW()</f>
-        <v>43931.791318750002</v>
+        <v>43931.794707754627</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1397,875 +1400,1025 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AE50F-07C0-7048-95B5-0C81D93B81F0}">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9">
+        <v>43922</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="8">
+      <c r="C2" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>43922</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>43922</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>43922</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>43922</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>43922</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>43922</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>43922</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>43922</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>43922</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>43922</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>43923</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>43923</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>43923</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="8">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>43923</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>43923</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>43923</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>43923</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>43923</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>43923</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>43923</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
+        <v>43923</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <v>43924</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <v>43924</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
+        <v>43924</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
+        <v>43924</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="8">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>43924</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>43924</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
+        <v>43924</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
+        <v>43924</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
+        <v>43924</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
+        <v>43924</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
+        <v>43924</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
+        <v>43927</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
+        <v>43927</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
+        <v>43927</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
+        <v>43927</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="8">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
+        <v>43927</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
+        <v>43927</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
+        <v>43927</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
+        <v>43927</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="9">
+        <v>43927</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="9">
+        <v>43927</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="9">
+        <v>43927</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="9">
+        <v>43928</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="9">
+        <v>43928</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="9">
+        <v>43928</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="9">
+        <v>43928</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="8">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="9">
+        <v>43928</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="9">
+        <v>43928</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="9">
+        <v>43928</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="9">
+        <v>43928</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="9">
+        <v>43928</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="9">
+        <v>43928</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="9">
+        <v>43928</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="9">
+        <v>43929</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="9">
+        <v>43929</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="9">
+        <v>43929</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="9">
+        <v>43929</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="8">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="9">
+        <v>43929</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="9">
+        <v>43929</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="9">
+        <v>43929</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="9">
+        <v>43929</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" s="8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="9">
+        <v>43929</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="9">
+        <v>43929</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="9">
+        <v>43929</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="9">
+        <v>43930</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="8">
         <v>89</v>
       </c>
-      <c r="C2" s="9">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="9">
         <v>43930</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="B69" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="8">
+      <c r="C69" s="8">
         <v>120</v>
       </c>
-      <c r="C3" s="9">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="9">
         <v>43930</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="B70" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="8">
+      <c r="C70" s="8">
         <v>142</v>
       </c>
-      <c r="C4" s="9">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="9">
         <v>43930</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="B71" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="8">
+      <c r="C71" s="8">
         <v>482</v>
       </c>
-      <c r="C5" s="9">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="9">
         <v>43930</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="B72" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="8">
+      <c r="C72" s="8">
         <v>43</v>
       </c>
-      <c r="C6" s="9">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="9">
         <v>43930</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="B73" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="8">
+      <c r="C73" s="8">
         <v>52</v>
       </c>
-      <c r="C7" s="9">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="9">
         <v>43930</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="B74" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="8">
+      <c r="C74" s="8">
         <v>43</v>
       </c>
-      <c r="C8" s="9">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="9">
         <v>43930</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="B75" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="8">
+      <c r="C75" s="8">
         <v>164</v>
       </c>
-      <c r="C9" s="9">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="9">
         <v>43930</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="B76" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="8">
+      <c r="C76" s="8">
         <v>80</v>
       </c>
-      <c r="C10" s="9">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="9">
         <v>43930</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="B77" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="8">
+      <c r="C77" s="8">
         <v>53</v>
       </c>
-      <c r="C11" s="9">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="9">
         <v>43930</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="B78" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="8">
+      <c r="C78" s="8">
         <v>92</v>
       </c>
-      <c r="C12" s="9">
-        <v>43930</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="8">
-        <v>81</v>
-      </c>
-      <c r="C13" s="9">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="8">
-        <v>110</v>
-      </c>
-      <c r="C14" s="9">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="8">
-        <v>135</v>
-      </c>
-      <c r="C15" s="9">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="8">
-        <v>429</v>
-      </c>
-      <c r="C16" s="9">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="8">
-        <v>35</v>
-      </c>
-      <c r="C17" s="9">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="8">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <f>A68+1</f>
+        <v>43931</v>
+      </c>
+      <c r="B79" t="str">
+        <f>B68</f>
+        <v>Antrim And Newtownabbey</v>
+      </c>
+      <c r="C79" s="8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <f t="shared" ref="A80:A91" si="0">A69+1</f>
+        <v>43931</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" ref="B80:B91" si="1">B69</f>
+        <v>Ards And North Down</v>
+      </c>
+      <c r="C80" s="8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <f t="shared" si="0"/>
+        <v>43931</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="1"/>
+        <v>Armagh, Banbridge And Craigavon</v>
+      </c>
+      <c r="C81" s="8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <f t="shared" si="0"/>
+        <v>43931</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v>Belfast</v>
+      </c>
+      <c r="C82" s="8">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <f t="shared" si="0"/>
+        <v>43931</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="1"/>
+        <v>Causeway Coast And Glens</v>
+      </c>
+      <c r="C83" s="8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <f t="shared" si="0"/>
+        <v>43931</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="1"/>
+        <v>Derry And Strabane</v>
+      </c>
+      <c r="C84" s="8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <f t="shared" si="0"/>
+        <v>43931</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="1"/>
+        <v>Fermanagh And Omagh</v>
+      </c>
+      <c r="C85" s="8">
         <v>52</v>
       </c>
-      <c r="C18" s="9">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="8">
-        <v>43</v>
-      </c>
-      <c r="C19" s="9">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="8">
-        <v>150</v>
-      </c>
-      <c r="C20" s="9">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="8">
-        <v>70</v>
-      </c>
-      <c r="C21" s="9">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="8">
-        <v>47</v>
-      </c>
-      <c r="C22" s="9">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="8">
-        <v>82</v>
-      </c>
-      <c r="C23" s="9">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="8">
-        <v>78</v>
-      </c>
-      <c r="C24" s="9">
-        <v>43928</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="8">
-        <v>105</v>
-      </c>
-      <c r="C25" s="9">
-        <v>43928</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="8">
-        <v>120</v>
-      </c>
-      <c r="C26" s="9">
-        <v>43928</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="8">
-        <v>396</v>
-      </c>
-      <c r="C27" s="9">
-        <v>43928</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" s="8">
-        <v>32</v>
-      </c>
-      <c r="C28" s="9">
-        <v>43928</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B29" s="8">
-        <v>52</v>
-      </c>
-      <c r="C29" s="9">
-        <v>43928</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" s="8">
-        <v>43</v>
-      </c>
-      <c r="C30" s="9">
-        <v>43928</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B31" s="8">
-        <v>143</v>
-      </c>
-      <c r="C31" s="9">
-        <v>43928</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B32" s="8">
-        <v>69</v>
-      </c>
-      <c r="C32" s="9">
-        <v>43928</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" s="8">
-        <v>42</v>
-      </c>
-      <c r="C33" s="9">
-        <v>43928</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B34" s="8">
-        <v>80</v>
-      </c>
-      <c r="C34" s="9">
-        <v>43928</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B35" s="8">
-        <v>70</v>
-      </c>
-      <c r="C35" s="9">
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" s="8">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <f t="shared" si="0"/>
+        <v>43931</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="1"/>
+        <v>Lisburn And Castlereagh</v>
+      </c>
+      <c r="C86" s="8">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <f t="shared" si="0"/>
+        <v>43931</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="1"/>
+        <v>Mid And East Antrim</v>
+      </c>
+      <c r="C87" s="8">
         <v>102</v>
       </c>
-      <c r="C36" s="9">
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" s="8">
-        <v>109</v>
-      </c>
-      <c r="C37" s="9">
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B38" s="8">
-        <v>377</v>
-      </c>
-      <c r="C38" s="9">
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B39" s="8">
-        <v>26</v>
-      </c>
-      <c r="C39" s="9">
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" s="8">
-        <v>51</v>
-      </c>
-      <c r="C40" s="9">
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B41" s="8">
-        <v>42</v>
-      </c>
-      <c r="C41" s="9">
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B42" s="8">
-        <v>130</v>
-      </c>
-      <c r="C42" s="9">
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B43" s="8">
-        <v>59</v>
-      </c>
-      <c r="C43" s="9">
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B44" s="8">
-        <v>33</v>
-      </c>
-      <c r="C44" s="9">
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B45" s="8">
-        <v>76</v>
-      </c>
-      <c r="C45" s="9">
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B46" s="8">
-        <v>59</v>
-      </c>
-      <c r="C46" s="9">
-        <v>43924</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B47" s="8">
-        <v>81</v>
-      </c>
-      <c r="C47" s="9">
-        <v>43924</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B48" s="8">
-        <v>91</v>
-      </c>
-      <c r="C48" s="9">
-        <v>43924</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B49" s="8">
-        <v>272</v>
-      </c>
-      <c r="C49" s="9">
-        <v>43924</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B50" s="8">
-        <v>21</v>
-      </c>
-      <c r="C50" s="9">
-        <v>43924</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B51" s="8">
-        <v>35</v>
-      </c>
-      <c r="C51" s="9">
-        <v>43924</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B52" s="8">
-        <v>40</v>
-      </c>
-      <c r="C52" s="9">
-        <v>43924</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B53" s="8">
-        <v>109</v>
-      </c>
-      <c r="C53" s="9">
-        <v>43924</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B54" s="8">
-        <v>46</v>
-      </c>
-      <c r="C54" s="9">
-        <v>43924</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B55" s="8">
-        <v>23</v>
-      </c>
-      <c r="C55" s="9">
-        <v>43924</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B56" s="8">
-        <v>61</v>
-      </c>
-      <c r="C56" s="9">
-        <v>43924</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B57" s="8">
-        <v>51</v>
-      </c>
-      <c r="C57" s="9">
-        <v>43923</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B58" s="8">
-        <v>79</v>
-      </c>
-      <c r="C58" s="9">
-        <v>43923</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B59" s="8">
-        <v>226</v>
-      </c>
-      <c r="C59" s="9">
-        <v>43923</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B60" s="8">
-        <v>19</v>
-      </c>
-      <c r="C60" s="9">
-        <v>43923</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="8">
-        <v>30</v>
-      </c>
-      <c r="C61" s="9">
-        <v>43923</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B62" s="8">
-        <v>37</v>
-      </c>
-      <c r="C62" s="9">
-        <v>43923</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B63" s="8">
-        <v>97</v>
-      </c>
-      <c r="C63" s="9">
-        <v>43923</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" s="8">
-        <v>37</v>
-      </c>
-      <c r="C64" s="9">
-        <v>43923</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B65" s="8">
-        <v>21</v>
-      </c>
-      <c r="C65" s="9">
-        <v>43923</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B66" s="8">
-        <v>55</v>
-      </c>
-      <c r="C66" s="9">
-        <v>43923</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B67" s="8">
-        <v>75</v>
-      </c>
-      <c r="C67" s="9">
-        <v>43923</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B68" s="8">
-        <v>47</v>
-      </c>
-      <c r="C68" s="9">
-        <v>43922</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B69" s="8">
-        <v>70</v>
-      </c>
-      <c r="C69" s="9">
-        <v>43922</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B70" s="8">
-        <v>200</v>
-      </c>
-      <c r="C70" s="9">
-        <v>43922</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B71" s="8">
-        <v>18</v>
-      </c>
-      <c r="C71" s="9">
-        <v>43922</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B72" s="8">
-        <v>29</v>
-      </c>
-      <c r="C72" s="9">
-        <v>43922</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B73" s="8">
-        <v>32</v>
-      </c>
-      <c r="C73" s="9">
-        <v>43922</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B74" s="8">
-        <v>81</v>
-      </c>
-      <c r="C74" s="9">
-        <v>43922</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B75" s="8">
-        <v>36</v>
-      </c>
-      <c r="C75" s="9">
-        <v>43922</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B76" s="8">
-        <v>19</v>
-      </c>
-      <c r="C76" s="9">
-        <v>43922</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B77" s="8">
-        <v>51</v>
-      </c>
-      <c r="C77" s="9">
-        <v>43922</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B78" s="8">
-        <v>67</v>
-      </c>
-      <c r="C78" s="9">
-        <v>43922</v>
-      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <f t="shared" si="0"/>
+        <v>43931</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="1"/>
+        <v>Mid Ulster</v>
+      </c>
+      <c r="C88" s="8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <f t="shared" si="0"/>
+        <v>43931</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="1"/>
+        <v>Newry, Mourne And Down</v>
+      </c>
+      <c r="C89" s="8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+      <c r="C90" s="8"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18020,10 +18173,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18056,98 +18209,98 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>43930</v>
+        <v>43922</v>
       </c>
       <c r="B2">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1477</v>
+        <v>689</v>
       </c>
       <c r="E2">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>10203</v>
+        <v>6450</v>
       </c>
       <c r="G2" s="10">
         <f>D2/F2</f>
-        <v>0.14476134470253846</v>
+        <v>0.10682170542635659</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>43929</v>
+        <v>43923</v>
       </c>
       <c r="B3">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>1339</v>
+        <v>774</v>
       </c>
       <c r="E3">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>9564</v>
+        <v>6899</v>
       </c>
       <c r="G3" s="10">
         <f>D3/F3</f>
-        <v>0.14000418235048098</v>
+        <v>0.11219017248876649</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>43928</v>
+        <v>43924</v>
       </c>
       <c r="B4">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>1255</v>
+        <v>904</v>
       </c>
       <c r="E4">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="F4">
-        <v>9158</v>
+        <v>7525</v>
       </c>
       <c r="G4" s="10">
-        <f t="shared" ref="G4:G10" si="0">D4/F4</f>
-        <v>0.13703865472810658</v>
+        <f>D4/F4</f>
+        <v>0.12013289036544851</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>1158</v>
+        <v>998</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F5">
-        <v>8740</v>
+        <v>8034</v>
       </c>
       <c r="G5" s="10">
-        <f t="shared" si="0"/>
-        <v>0.13249427917620138</v>
+        <f>D5/F5</f>
+        <v>0.12422205626089121</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -18170,361 +18323,427 @@
         <v>8486</v>
       </c>
       <c r="G6" s="10">
-        <f t="shared" si="0"/>
+        <f>D6/F6</f>
         <v>0.12832901249116191</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>43925</v>
+        <v>43927</v>
       </c>
       <c r="B7">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>998</v>
+        <v>1158</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F7">
-        <v>8034</v>
+        <v>8740</v>
       </c>
       <c r="G7" s="10">
-        <f t="shared" si="0"/>
-        <v>0.12422205626089121</v>
+        <f>D7/F7</f>
+        <v>0.13249427917620138</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>43924</v>
+        <v>43928</v>
       </c>
       <c r="B8">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>904</v>
+        <v>1255</v>
       </c>
       <c r="E8">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="F8">
-        <v>7525</v>
+        <v>9158</v>
       </c>
       <c r="G8" s="10">
-        <f t="shared" si="0"/>
-        <v>0.12013289036544851</v>
+        <f>D8/F8</f>
+        <v>0.13703865472810658</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>43923</v>
+        <v>43929</v>
       </c>
       <c r="B9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>774</v>
+        <v>1339</v>
       </c>
       <c r="E9">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="F9">
-        <v>6899</v>
+        <v>9564</v>
       </c>
       <c r="G9" s="10">
-        <f t="shared" si="0"/>
-        <v>0.11219017248876649</v>
+        <f>D9/F9</f>
+        <v>0.14000418235048098</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>43922</v>
+        <v>43930</v>
       </c>
       <c r="B10">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>689</v>
+        <v>1477</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="F10">
-        <v>6450</v>
+        <v>10203</v>
       </c>
       <c r="G10" s="10">
-        <f t="shared" si="0"/>
-        <v>0.10682170542635659</v>
+        <f>D10/F10</f>
+        <v>0.14476134470253846</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B11">
+        <v>112</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>1589</v>
+      </c>
+      <c r="E11">
+        <v>92</v>
+      </c>
+      <c r="F11">
+        <v>11006</v>
+      </c>
+      <c r="G11" s="10">
+        <f>D11/F11</f>
+        <v>0.1443757950208977</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
+    <sortCondition ref="A2:A10"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0979910-C687-6A43-A609-0D992245C102}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>140</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>141</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="B2">
+      <c r="C2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20">
         <v>679</v>
       </c>
-      <c r="C2" s="1">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>43930</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B21" t="s">
         <v>61</v>
       </c>
-      <c r="B3">
+      <c r="C21">
         <v>797</v>
       </c>
-      <c r="C3" s="1">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>43930</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="B4">
+      <c r="C22">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
-        <v>43930</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5">
-        <v>627</v>
-      </c>
-      <c r="C5" s="1">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6">
-        <v>711</v>
-      </c>
-      <c r="C6" s="1">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <f>A20+1</f>
+        <v>43931</v>
+      </c>
+      <c r="B23" t="str">
+        <f>B20</f>
+        <v>Male</v>
+      </c>
+      <c r="C23">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <f t="shared" ref="A24:A25" si="0">A21+1</f>
+        <v>43931</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" ref="B24:B25" si="1">B21</f>
+        <v>Female</v>
+      </c>
+      <c r="C24">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>43931</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C25">
         <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8">
-        <v>589</v>
-      </c>
-      <c r="C8" s="1">
-        <v>43928</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9">
-        <v>665</v>
-      </c>
-      <c r="C9" s="1">
-        <v>43928</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>43928</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11">
-        <v>544</v>
-      </c>
-      <c r="C11" s="1">
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12">
-        <v>613</v>
-      </c>
-      <c r="C12" s="1">
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14">
-        <v>441</v>
-      </c>
-      <c r="C14" s="1">
-        <v>43924</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15">
-        <v>462</v>
-      </c>
-      <c r="C15" s="1">
-        <v>43924</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>43924</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17">
-        <v>384</v>
-      </c>
-      <c r="C17" s="1">
-        <v>43923</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18">
-        <v>389</v>
-      </c>
-      <c r="C18" s="1">
-        <v>43923</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
-        <v>43923</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20">
-        <v>342</v>
-      </c>
-      <c r="C20" s="1">
-        <v>43922</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21">
-        <v>347</v>
-      </c>
-      <c r="C21" s="1">
-        <v>43922</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="1">
-        <v>43922</v>
       </c>
     </row>
   </sheetData>
@@ -18534,254 +18753,298 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD393D6-56CC-E749-BDF2-72DC274BB8BB}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>142</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>141</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B2" t="s">
         <v>143</v>
       </c>
-      <c r="B2">
+      <c r="C2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20">
         <v>467</v>
       </c>
-      <c r="C2" s="1">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>43930</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B21" t="s">
         <v>144</v>
       </c>
-      <c r="B3">
+      <c r="C21">
         <v>569</v>
       </c>
-      <c r="C3" s="1">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>43930</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B22" t="s">
         <v>145</v>
       </c>
-      <c r="B4">
+      <c r="C22">
         <v>441</v>
       </c>
-      <c r="C4" s="1">
-        <v>43930</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5">
-        <v>431</v>
-      </c>
-      <c r="C5" s="1">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6">
-        <v>522</v>
-      </c>
-      <c r="C6" s="1">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7">
-        <v>386</v>
-      </c>
-      <c r="C7" s="1">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B8">
-        <v>408</v>
-      </c>
-      <c r="C8" s="1">
-        <v>43928</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9">
-        <v>487</v>
-      </c>
-      <c r="C9" s="1">
-        <v>43928</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B10">
-        <v>360</v>
-      </c>
-      <c r="C10" s="1">
-        <v>43928</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11">
-        <v>370</v>
-      </c>
-      <c r="C11" s="1">
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12">
-        <v>458</v>
-      </c>
-      <c r="C12" s="1">
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>145</v>
-      </c>
-      <c r="B13">
-        <v>330</v>
-      </c>
-      <c r="C13" s="1">
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B14">
-        <v>286</v>
-      </c>
-      <c r="C14" s="1">
-        <v>43924</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B15">
-        <v>362</v>
-      </c>
-      <c r="C15" s="1">
-        <v>43924</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B16">
-        <v>256</v>
-      </c>
-      <c r="C16" s="1">
-        <v>43924</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17">
-        <v>249</v>
-      </c>
-      <c r="C17" s="1">
-        <v>43923</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18">
-        <v>307</v>
-      </c>
-      <c r="C18" s="1">
-        <v>43923</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B19">
-        <v>218</v>
-      </c>
-      <c r="C19" s="1">
-        <v>43923</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20">
-        <v>223</v>
-      </c>
-      <c r="C20" s="1">
-        <v>43922</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>144</v>
-      </c>
-      <c r="B21">
-        <v>271</v>
-      </c>
-      <c r="C21" s="1">
-        <v>43922</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22">
-        <v>195</v>
-      </c>
-      <c r="C22" s="1">
-        <v>43922</v>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <f>A20+1</f>
+        <v>43931</v>
+      </c>
+      <c r="B23" t="str">
+        <f>B20</f>
+        <v>0_to_44</v>
+      </c>
+      <c r="C23">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <f t="shared" ref="A24:A25" si="0">A21+1</f>
+        <v>43931</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" ref="B24:B25" si="1">B21</f>
+        <v>45_to_69</v>
+      </c>
+      <c r="C24">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>43931</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="1"/>
+        <v>70+</v>
+      </c>
+      <c r="C25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewparnell/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9792821E-95F0-8845-B1CB-263D8D5DB5CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B00BA7-2301-104B-913E-0F740EC84809}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16160" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="153">
   <si>
     <t>Date</t>
   </si>
@@ -496,6 +496,9 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/895657-statement-from-the-national-public-health-emergency-team-friday-10-a/</t>
   </si>
 </sst>
 </file>
@@ -987,7 +990,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1005,6 +1008,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1364,7 +1368,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1382,12 +1386,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <f ca="1">NOW()-3</f>
-        <v>43928.794707754627</v>
+        <v>43929.827473495374</v>
       </c>
       <c r="B2" s="12">
-        <f ca="1">NOW()</f>
-        <v>43931.794707754627</v>
+        <v>43931.794953703706</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1402,7 +1404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AE50F-07C0-7048-95B5-0C81D93B81F0}">
   <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
@@ -2285,11 +2287,11 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <f t="shared" ref="A80:A91" si="0">A69+1</f>
+        <f t="shared" ref="A80:A89" si="0">A69+1</f>
         <v>43931</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" ref="B80:B91" si="1">B69</f>
+        <f t="shared" ref="B80:B89" si="1">B69</f>
         <v>Ards And North Down</v>
       </c>
       <c r="C80" s="8">
@@ -2551,11 +2553,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3625,35 +3627,35 @@
         <v>43929</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="5">
-        <v>6074</v>
+        <v>7071</v>
       </c>
       <c r="D31" s="5">
         <f>C31-C30</f>
-        <v>-370</v>
-      </c>
-      <c r="E31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" t="s">
-        <v>8</v>
+        <v>627</v>
+      </c>
+      <c r="E31">
+        <v>1631</v>
+      </c>
+      <c r="F31">
+        <v>233</v>
       </c>
       <c r="G31" s="5">
-        <v>235</v>
-      </c>
-      <c r="H31" t="s">
-        <v>8</v>
-      </c>
-      <c r="I31" t="s">
-        <v>8</v>
-      </c>
-      <c r="J31" t="s">
-        <v>8</v>
+        <v>283</v>
+      </c>
+      <c r="H31">
+        <v>1949</v>
+      </c>
+      <c r="I31">
+        <v>333</v>
+      </c>
+      <c r="J31">
+        <v>48</v>
       </c>
       <c r="K31" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3664,11 +3666,11 @@
         <v>104</v>
       </c>
       <c r="C32">
-        <f>C31+D32</f>
         <v>6574</v>
       </c>
-      <c r="D32">
-        <v>500</v>
+      <c r="D32" s="5">
+        <f>C32-C31</f>
+        <v>-497</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
@@ -3702,7 +3704,8 @@
       <c r="C33" s="5">
         <v>7054</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="5">
+        <f>C33-C32</f>
         <v>480</v>
       </c>
       <c r="E33" t="s">
@@ -3737,10 +3740,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:A65"/>
+    <sheetView topLeftCell="A49" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4658,6 +4661,54 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <f>A63+1</f>
+        <v>43929</v>
+      </c>
+      <c r="B66" t="str">
+        <f>B63</f>
+        <v>Female</v>
+      </c>
+      <c r="C66">
+        <v>3788</v>
+      </c>
+      <c r="D66">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <f t="shared" ref="A67:A68" si="0">A64+1</f>
+        <v>43929</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" ref="B67:B68" si="1">B64</f>
+        <v>Male</v>
+      </c>
+      <c r="C67">
+        <v>2923</v>
+      </c>
+      <c r="D67">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <f t="shared" si="0"/>
+        <v>43929</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C68">
+        <v>72</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4665,11 +4716,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:E248"/>
+  <dimension ref="A1:E259"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C240" sqref="C240"/>
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D251" sqref="D251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8034,7 +8085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>43928</v>
       </c>
@@ -8048,7 +8099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>43928</v>
       </c>
@@ -8062,7 +8113,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>43928</v>
       </c>
@@ -8076,7 +8127,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>43928</v>
       </c>
@@ -8090,7 +8141,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>43928</v>
       </c>
@@ -8104,7 +8155,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>43928</v>
       </c>
@@ -8118,7 +8169,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>43928</v>
       </c>
@@ -8132,7 +8183,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>43928</v>
       </c>
@@ -8143,6 +8194,172 @@
         <v>20</v>
       </c>
       <c r="D248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <f>A238+1</f>
+        <v>43929</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C249">
+        <v>16</v>
+      </c>
+      <c r="D249" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <f t="shared" ref="A250:A259" si="0">A239+1</f>
+        <v>43929</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C250">
+        <v>20</v>
+      </c>
+      <c r="D250" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <f t="shared" si="0"/>
+        <v>43929</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C251" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D251">
+        <v>10</v>
+      </c>
+      <c r="E251" s="7"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <f t="shared" si="0"/>
+        <v>43929</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C252">
+        <v>45</v>
+      </c>
+      <c r="D252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <f t="shared" si="0"/>
+        <v>43929</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C253">
+        <v>423</v>
+      </c>
+      <c r="D253">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <f t="shared" si="0"/>
+        <v>43929</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C254">
+        <v>1220</v>
+      </c>
+      <c r="D254">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <f t="shared" si="0"/>
+        <v>43929</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C255">
+        <v>1304</v>
+      </c>
+      <c r="D255">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <f t="shared" si="0"/>
+        <v>43929</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C256">
+        <v>1339</v>
+      </c>
+      <c r="D256">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <f t="shared" si="0"/>
+        <v>43929</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C257">
+        <v>1015</v>
+      </c>
+      <c r="D257">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <f t="shared" si="0"/>
+        <v>43929</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C258">
+        <v>1670</v>
+      </c>
+      <c r="D258">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <f t="shared" si="0"/>
+        <v>43929</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C259">
+        <v>19</v>
+      </c>
+      <c r="D259">
         <v>2</v>
       </c>
     </row>
@@ -8153,11 +8370,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="A83:A85"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9357,6 +9574,54 @@
         <v>106</v>
       </c>
     </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <f>A83+1</f>
+        <v>43929</v>
+      </c>
+      <c r="B86" t="str">
+        <f>B83</f>
+        <v>Community transmission</v>
+      </c>
+      <c r="C86" s="11">
+        <v>66</v>
+      </c>
+      <c r="D86" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <f t="shared" ref="A87:A88" si="0">A84+1</f>
+        <v>43929</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" ref="B87:B88" si="1">B84</f>
+        <v>Close contact with confirmed case</v>
+      </c>
+      <c r="C87" s="11">
+        <v>25</v>
+      </c>
+      <c r="D87" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <f t="shared" si="0"/>
+        <v>43929</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="1"/>
+        <v>Travel Abroad</v>
+      </c>
+      <c r="C88" s="11">
+        <v>9</v>
+      </c>
+      <c r="D88" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9364,10 +9629,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E593"/>
+  <dimension ref="A1:E619"/>
   <sheetViews>
-    <sheetView topLeftCell="A557" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A568" sqref="A568:A593"/>
+    <sheetView topLeftCell="A582" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A594" sqref="A594:A619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18164,6 +18429,370 @@
       </c>
       <c r="D593" s="2">
         <v>0.03</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A594" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B594" t="s">
+        <v>12</v>
+      </c>
+      <c r="C594">
+        <v>19</v>
+      </c>
+      <c r="D594" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A595" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B595" t="s">
+        <v>14</v>
+      </c>
+      <c r="C595">
+        <v>151</v>
+      </c>
+      <c r="D595" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A596" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B596" t="s">
+        <v>15</v>
+      </c>
+      <c r="C596">
+        <v>69</v>
+      </c>
+      <c r="D596" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A597" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B597" t="s">
+        <v>16</v>
+      </c>
+      <c r="C597">
+        <v>503</v>
+      </c>
+      <c r="D597" s="3">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A598" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B598" t="s">
+        <v>17</v>
+      </c>
+      <c r="C598">
+        <v>145</v>
+      </c>
+      <c r="D598" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A599" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B599" t="s">
+        <v>18</v>
+      </c>
+      <c r="C599">
+        <v>3873</v>
+      </c>
+      <c r="D599" s="3">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A600" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B600" t="s">
+        <v>19</v>
+      </c>
+      <c r="C600">
+        <v>160</v>
+      </c>
+      <c r="D600" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A601" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B601" t="s">
+        <v>20</v>
+      </c>
+      <c r="C601">
+        <v>145</v>
+      </c>
+      <c r="D601" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A602" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B602" t="s">
+        <v>21</v>
+      </c>
+      <c r="C602">
+        <v>290</v>
+      </c>
+      <c r="D602" s="3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A603" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B603" t="s">
+        <v>22</v>
+      </c>
+      <c r="C603">
+        <v>96</v>
+      </c>
+      <c r="D603" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A604" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B604" t="s">
+        <v>36</v>
+      </c>
+      <c r="C604">
+        <v>49</v>
+      </c>
+      <c r="D604" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A605" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B605" t="s">
+        <v>37</v>
+      </c>
+      <c r="C605">
+        <v>25</v>
+      </c>
+      <c r="D605" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A606" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B606" t="s">
+        <v>23</v>
+      </c>
+      <c r="C606">
+        <v>186</v>
+      </c>
+      <c r="D606" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A607" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B607" t="s">
+        <v>24</v>
+      </c>
+      <c r="C607">
+        <v>41</v>
+      </c>
+      <c r="D607" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A608" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B608" t="s">
+        <v>25</v>
+      </c>
+      <c r="C608">
+        <v>116</v>
+      </c>
+      <c r="D608" s="3">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A609" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B609" t="s">
+        <v>26</v>
+      </c>
+      <c r="C609">
+        <v>153</v>
+      </c>
+      <c r="D609" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A610" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B610" t="s">
+        <v>27</v>
+      </c>
+      <c r="C610">
+        <v>206</v>
+      </c>
+      <c r="D610" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A611" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B611" t="s">
+        <v>38</v>
+      </c>
+      <c r="C611">
+        <v>63</v>
+      </c>
+      <c r="D611" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A612" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B612" t="s">
+        <v>28</v>
+      </c>
+      <c r="C612">
+        <v>88</v>
+      </c>
+      <c r="D612" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A613" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B613" t="s">
+        <v>29</v>
+      </c>
+      <c r="C613">
+        <v>26</v>
+      </c>
+      <c r="D613" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A614" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B614" t="s">
+        <v>30</v>
+      </c>
+      <c r="C614">
+        <v>31</v>
+      </c>
+      <c r="D614" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A615" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B615" t="s">
+        <v>31</v>
+      </c>
+      <c r="C615">
+        <v>151</v>
+      </c>
+      <c r="D615" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A616" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B616" t="s">
+        <v>32</v>
+      </c>
+      <c r="C616">
+        <v>60</v>
+      </c>
+      <c r="D616" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A617" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B617" t="s">
+        <v>33</v>
+      </c>
+      <c r="C617">
+        <v>152</v>
+      </c>
+      <c r="D617" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A618" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B618" t="s">
+        <v>34</v>
+      </c>
+      <c r="C618">
+        <v>30</v>
+      </c>
+      <c r="D618" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A619" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B619" t="s">
+        <v>35</v>
+      </c>
+      <c r="C619">
+        <v>237</v>
+      </c>
+      <c r="D619" s="3">
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
   </sheetData>
@@ -18227,7 +18856,7 @@
         <v>6450</v>
       </c>
       <c r="G2" s="10">
-        <f>D2/F2</f>
+        <f t="shared" ref="G2:G11" si="0">D2/F2</f>
         <v>0.10682170542635659</v>
       </c>
     </row>
@@ -18251,7 +18880,7 @@
         <v>6899</v>
       </c>
       <c r="G3" s="10">
-        <f>D3/F3</f>
+        <f t="shared" si="0"/>
         <v>0.11219017248876649</v>
       </c>
     </row>
@@ -18275,7 +18904,7 @@
         <v>7525</v>
       </c>
       <c r="G4" s="10">
-        <f>D4/F4</f>
+        <f t="shared" si="0"/>
         <v>0.12013289036544851</v>
       </c>
     </row>
@@ -18299,7 +18928,7 @@
         <v>8034</v>
       </c>
       <c r="G5" s="10">
-        <f>D5/F5</f>
+        <f t="shared" si="0"/>
         <v>0.12422205626089121</v>
       </c>
     </row>
@@ -18323,7 +18952,7 @@
         <v>8486</v>
       </c>
       <c r="G6" s="10">
-        <f>D6/F6</f>
+        <f t="shared" si="0"/>
         <v>0.12832901249116191</v>
       </c>
     </row>
@@ -18347,7 +18976,7 @@
         <v>8740</v>
       </c>
       <c r="G7" s="10">
-        <f>D7/F7</f>
+        <f t="shared" si="0"/>
         <v>0.13249427917620138</v>
       </c>
     </row>
@@ -18371,7 +19000,7 @@
         <v>9158</v>
       </c>
       <c r="G8" s="10">
-        <f>D8/F8</f>
+        <f t="shared" si="0"/>
         <v>0.13703865472810658</v>
       </c>
     </row>
@@ -18395,7 +19024,7 @@
         <v>9564</v>
       </c>
       <c r="G9" s="10">
-        <f>D9/F9</f>
+        <f t="shared" si="0"/>
         <v>0.14000418235048098</v>
       </c>
     </row>
@@ -18419,7 +19048,7 @@
         <v>10203</v>
       </c>
       <c r="G10" s="10">
-        <f>D10/F10</f>
+        <f t="shared" si="0"/>
         <v>0.14476134470253846</v>
       </c>
     </row>
@@ -18443,7 +19072,7 @@
         <v>11006</v>
       </c>
       <c r="G11" s="10">
-        <f>D11/F11</f>
+        <f t="shared" si="0"/>
         <v>0.1443757950208977</v>
       </c>
     </row>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewparnell/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B00BA7-2301-104B-913E-0F740EC84809}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27118C2B-E02B-E545-8B72-0FFFC6E0995E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -1367,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5E2DA3-023C-FF46-A014-0C2E672468A0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1389,7 +1389,7 @@
         <v>43929.827473495374</v>
       </c>
       <c r="B2" s="12">
-        <v>43931.794953703706</v>
+        <v>43931.881249999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2553,11 +2553,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3489,7 +3489,7 @@
         <v>4916</v>
       </c>
       <c r="D27" s="5">
-        <f>C27-C26</f>
+        <f t="shared" ref="D27:D33" si="0">C27-C26</f>
         <v>473</v>
       </c>
       <c r="E27" s="5">
@@ -3525,7 +3525,7 @@
         <v>5593</v>
       </c>
       <c r="D28" s="5">
-        <f>C28-C27</f>
+        <f t="shared" si="0"/>
         <v>677</v>
       </c>
       <c r="E28" s="5">
@@ -3561,7 +3561,7 @@
         <v>5981</v>
       </c>
       <c r="D29" s="5">
-        <f>C29-C28</f>
+        <f t="shared" si="0"/>
         <v>388</v>
       </c>
       <c r="E29" s="5">
@@ -3597,7 +3597,7 @@
         <v>6444</v>
       </c>
       <c r="D30" s="5">
-        <f>C30-C29</f>
+        <f t="shared" si="0"/>
         <v>463</v>
       </c>
       <c r="E30" s="5">
@@ -3633,7 +3633,7 @@
         <v>7071</v>
       </c>
       <c r="D31" s="5">
-        <f>C31-C30</f>
+        <f t="shared" si="0"/>
         <v>627</v>
       </c>
       <c r="E31">
@@ -3669,7 +3669,7 @@
         <v>6574</v>
       </c>
       <c r="D32" s="5">
-        <f>C32-C31</f>
+        <f t="shared" si="0"/>
         <v>-497</v>
       </c>
       <c r="E32" t="s">
@@ -3702,11 +3702,11 @@
         <v>104</v>
       </c>
       <c r="C33" s="5">
-        <v>7054</v>
+        <v>8089</v>
       </c>
       <c r="D33" s="5">
-        <f>C33-C32</f>
-        <v>480</v>
+        <f t="shared" si="0"/>
+        <v>1515</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewparnell/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27118C2B-E02B-E545-8B72-0FFFC6E0995E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411E570D-F0D7-3F46-ADF0-D5DF185E52FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="152">
   <si>
     <t>Date</t>
   </si>
@@ -486,19 +486,16 @@
     <t>Pos_prop</t>
   </si>
   <si>
-    <t>https://www.gov.ie/en/news/7e0924-latest-updates-on-covid-19-coronavirus/#april-9</t>
-  </si>
-  <si>
     <t>https://www.gov.ie/en/publication/695f10-an-analysis-of-the-6444-cases-of-covid-19-in-ireland-as-of-tuesday-7/</t>
   </si>
   <si>
     <t>https://www.gov.ie/en/news/7e0924-latest-updates-on-covid-19-coronavirus/</t>
   </si>
   <si>
-    <t>s</t>
+    <t>https://www.gov.ie/en/press-release/895657-statement-from-the-national-public-health-emergency-team-friday-10-a/</t>
   </si>
   <si>
-    <t>https://www.gov.ie/en/press-release/895657-statement-from-the-national-public-health-emergency-team-friday-10-a/</t>
+    <t>https://www.gov.ie/en/press-release/28cb70-statement-from-the-national-public-health-emergency-team-saturday-11/</t>
   </si>
 </sst>
 </file>
@@ -1367,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5E2DA3-023C-FF46-A014-0C2E672468A0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1386,10 +1383,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43929.827473495374</v>
+        <v>43930.811111111114</v>
       </c>
       <c r="B2" s="12">
-        <v>43931.881249999999</v>
+        <v>43932.811111111114</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1405,7 +1402,7 @@
   <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2416,7 +2413,9 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="1"/>
+      <c r="A90" s="1">
+        <v>43932</v>
+      </c>
       <c r="C90" s="8"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -2557,7 +2556,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3489,7 +3488,7 @@
         <v>4916</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" ref="D27:D33" si="0">C27-C26</f>
+        <f t="shared" ref="D27:D34" si="0">C27-C26</f>
         <v>473</v>
       </c>
       <c r="E27" s="5">
@@ -3619,7 +3618,7 @@
         <v>48</v>
       </c>
       <c r="K30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3655,7 +3654,7 @@
         <v>48</v>
       </c>
       <c r="K31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3663,35 +3662,35 @@
         <v>43930</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C32">
-        <v>6574</v>
+        <v>7787</v>
       </c>
       <c r="D32" s="5">
         <f t="shared" si="0"/>
-        <v>-497</v>
-      </c>
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>8</v>
+        <v>716</v>
+      </c>
+      <c r="E32">
+        <v>1718</v>
+      </c>
+      <c r="F32">
+        <v>253</v>
       </c>
       <c r="G32" s="5">
-        <v>263</v>
-      </c>
-      <c r="H32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" t="s">
-        <v>8</v>
+        <v>314</v>
+      </c>
+      <c r="H32">
+        <v>2141</v>
+      </c>
+      <c r="I32">
+        <v>356</v>
+      </c>
+      <c r="J32">
+        <v>48</v>
       </c>
       <c r="K32" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3706,7 +3705,7 @@
       </c>
       <c r="D33" s="5">
         <f t="shared" si="0"/>
-        <v>1515</v>
+        <v>302</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
@@ -3727,11 +3726,29 @@
         <v>8</v>
       </c>
       <c r="K33" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="5">
+        <v>8928</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="0"/>
+        <v>839</v>
+      </c>
+      <c r="G34" s="5">
+        <v>320</v>
+      </c>
+      <c r="K34" t="s">
+        <v>151</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3740,10 +3757,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView topLeftCell="A49" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+      <selection activeCell="A69" sqref="A69:A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4683,7 +4700,7 @@
         <v>43929</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B68" si="1">B64</f>
+        <f t="shared" ref="B67:B71" si="1">B64</f>
         <v>Male</v>
       </c>
       <c r="C67">
@@ -4707,6 +4724,51 @@
       </c>
       <c r="D68">
         <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B69" t="str">
+        <f>B66</f>
+        <v>Female</v>
+      </c>
+      <c r="C69">
+        <v>4212</v>
+      </c>
+      <c r="D69">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v>Male</v>
+      </c>
+      <c r="C70">
+        <v>3489</v>
+      </c>
+      <c r="D70">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C71">
+        <v>86</v>
+      </c>
+      <c r="D71">
+        <v>1.1000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4716,11 +4778,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:E259"/>
+  <dimension ref="A1:F270"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D251" sqref="D251"/>
+      <selection pane="bottomLeft" activeCell="F260" sqref="F260:I268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8318,7 +8380,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <f t="shared" si="0"/>
         <v>43929</v>
@@ -8333,7 +8395,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <f t="shared" si="0"/>
         <v>43929</v>
@@ -8348,7 +8410,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <f t="shared" si="0"/>
         <v>43929</v>
@@ -8360,6 +8422,163 @@
         <v>19</v>
       </c>
       <c r="D259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C260">
+        <v>18</v>
+      </c>
+      <c r="D260" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C261">
+        <v>22</v>
+      </c>
+      <c r="D261" t="s">
+        <v>8</v>
+      </c>
+      <c r="F261" s="7"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C262" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D262">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C263">
+        <v>52</v>
+      </c>
+      <c r="D263">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C264">
+        <v>473</v>
+      </c>
+      <c r="D264">
+        <v>41</v>
+      </c>
+      <c r="E264" s="13"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C265">
+        <v>1343</v>
+      </c>
+      <c r="D265">
+        <v>119</v>
+      </c>
+      <c r="E265" s="7"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C266">
+        <v>1418</v>
+      </c>
+      <c r="D266">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C267">
+        <v>1479</v>
+      </c>
+      <c r="D267">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C268">
+        <v>1138</v>
+      </c>
+      <c r="D268">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C269">
+        <v>1825</v>
+      </c>
+      <c r="D269">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C270">
+        <v>19</v>
+      </c>
+      <c r="D270">
         <v>2</v>
       </c>
     </row>
@@ -8370,11 +8589,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9596,7 +9815,7 @@
         <v>43929</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" ref="B87:B88" si="1">B84</f>
+        <f t="shared" ref="B87:B91" si="1">B84</f>
         <v>Close contact with confirmed case</v>
       </c>
       <c r="C87" s="11">
@@ -9619,6 +9838,51 @@
         <v>9</v>
       </c>
       <c r="D88" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B89" t="str">
+        <f>B86</f>
+        <v>Community transmission</v>
+      </c>
+      <c r="C89" s="11">
+        <v>66</v>
+      </c>
+      <c r="D89" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="1"/>
+        <v>Close contact with confirmed case</v>
+      </c>
+      <c r="C90" s="11">
+        <v>26</v>
+      </c>
+      <c r="D90" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="1"/>
+        <v>Travel Abroad</v>
+      </c>
+      <c r="C91" s="11">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
         <v>106</v>
       </c>
     </row>
@@ -9629,10 +9893,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E619"/>
+  <dimension ref="A1:E645"/>
   <sheetViews>
-    <sheetView topLeftCell="A582" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A594" sqref="A594:A619"/>
+    <sheetView topLeftCell="A606" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A620" sqref="A620:A645"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18795,6 +19059,370 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A620" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B620" t="s">
+        <v>12</v>
+      </c>
+      <c r="C620">
+        <v>22</v>
+      </c>
+      <c r="D620" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A621" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B621" t="s">
+        <v>14</v>
+      </c>
+      <c r="C621">
+        <v>169</v>
+      </c>
+      <c r="D621" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A622" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B622" t="s">
+        <v>15</v>
+      </c>
+      <c r="C622">
+        <v>85</v>
+      </c>
+      <c r="D622" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A623" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B623" t="s">
+        <v>16</v>
+      </c>
+      <c r="C623">
+        <v>581</v>
+      </c>
+      <c r="D623" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A624" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B624" t="s">
+        <v>17</v>
+      </c>
+      <c r="C624">
+        <v>167</v>
+      </c>
+      <c r="D624" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A625" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B625" t="s">
+        <v>18</v>
+      </c>
+      <c r="C625">
+        <v>34156</v>
+      </c>
+      <c r="D625" s="3">
+        <v>0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A626" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B626" t="s">
+        <v>19</v>
+      </c>
+      <c r="C626">
+        <v>169</v>
+      </c>
+      <c r="D626" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A627" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B627" t="s">
+        <v>20</v>
+      </c>
+      <c r="C627">
+        <v>155</v>
+      </c>
+      <c r="D627" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A628" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B628" t="s">
+        <v>21</v>
+      </c>
+      <c r="C628">
+        <v>332</v>
+      </c>
+      <c r="D628" s="3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A629" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B629" t="s">
+        <v>22</v>
+      </c>
+      <c r="C629">
+        <v>115</v>
+      </c>
+      <c r="D629" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A630" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B630" t="s">
+        <v>36</v>
+      </c>
+      <c r="C630">
+        <v>61</v>
+      </c>
+      <c r="D630" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A631" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B631" t="s">
+        <v>37</v>
+      </c>
+      <c r="C631">
+        <v>31</v>
+      </c>
+      <c r="D631" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A632" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B632" t="s">
+        <v>23</v>
+      </c>
+      <c r="C632">
+        <v>222</v>
+      </c>
+      <c r="D632" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A633" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B633" t="s">
+        <v>24</v>
+      </c>
+      <c r="C633">
+        <v>45</v>
+      </c>
+      <c r="D633" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A634" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B634" t="s">
+        <v>25</v>
+      </c>
+      <c r="C634">
+        <v>133</v>
+      </c>
+      <c r="D634" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A635" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B635" t="s">
+        <v>26</v>
+      </c>
+      <c r="C635">
+        <v>168</v>
+      </c>
+      <c r="D635" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A636" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B636" t="s">
+        <v>27</v>
+      </c>
+      <c r="C636">
+        <v>230</v>
+      </c>
+      <c r="D636" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A637" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B637" t="s">
+        <v>38</v>
+      </c>
+      <c r="C637">
+        <v>81</v>
+      </c>
+      <c r="D637" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A638" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B638" t="s">
+        <v>28</v>
+      </c>
+      <c r="C638">
+        <v>104</v>
+      </c>
+      <c r="D638" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A639" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B639" t="s">
+        <v>29</v>
+      </c>
+      <c r="C639">
+        <v>27</v>
+      </c>
+      <c r="D639" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A640" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B640" t="s">
+        <v>30</v>
+      </c>
+      <c r="C640">
+        <v>39</v>
+      </c>
+      <c r="D640" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A641" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B641" t="s">
+        <v>31</v>
+      </c>
+      <c r="C641">
+        <v>1166</v>
+      </c>
+      <c r="D641" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A642" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B642" t="s">
+        <v>32</v>
+      </c>
+      <c r="C642">
+        <v>63</v>
+      </c>
+      <c r="D642" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A643" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B643" t="s">
+        <v>33</v>
+      </c>
+      <c r="C643">
+        <v>181</v>
+      </c>
+      <c r="D643" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A644" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B644" t="s">
+        <v>34</v>
+      </c>
+      <c r="C644">
+        <v>39</v>
+      </c>
+      <c r="D644" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A645" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B645" t="s">
+        <v>35</v>
+      </c>
+      <c r="C645">
+        <v>246</v>
+      </c>
+      <c r="D645" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18802,10 +19430,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18856,7 +19484,7 @@
         <v>6450</v>
       </c>
       <c r="G2" s="10">
-        <f t="shared" ref="G2:G11" si="0">D2/F2</f>
+        <f t="shared" ref="G2:G12" si="0">D2/F2</f>
         <v>0.10682170542635659</v>
       </c>
     </row>
@@ -19074,6 +19702,30 @@
       <c r="G11" s="10">
         <f t="shared" si="0"/>
         <v>0.1443757950208977</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B12">
+        <v>128</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>1717</v>
+      </c>
+      <c r="E12">
+        <v>107</v>
+      </c>
+      <c r="F12">
+        <v>11765</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="0"/>
+        <v>0.14594135146621334</v>
       </c>
     </row>
   </sheetData>
@@ -19086,13 +19738,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0979910-C687-6A43-A609-0D992245C102}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -19355,7 +20010,7 @@
         <v>43931</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" ref="B24:B25" si="1">B21</f>
+        <f t="shared" ref="B24:B28" si="1">B21</f>
         <v>Female</v>
       </c>
       <c r="C24">
@@ -19374,6 +20029,15 @@
       <c r="C25">
         <v>1</v>
       </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19384,7 +20048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD393D6-56CC-E749-BDF2-72DC274BB8BB}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -19672,8 +20336,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>151</v>
+      <c r="A26" s="1">
+        <v>43932</v>
       </c>
     </row>
   </sheetData>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411E570D-F0D7-3F46-ADF0-D5DF185E52FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898A3512-1975-AD41-9508-432B1B584CAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="152">
   <si>
     <t>Date</t>
   </si>
@@ -489,13 +489,13 @@
     <t>https://www.gov.ie/en/publication/695f10-an-analysis-of-the-6444-cases-of-covid-19-in-ireland-as-of-tuesday-7/</t>
   </si>
   <si>
-    <t>https://www.gov.ie/en/news/7e0924-latest-updates-on-covid-19-coronavirus/</t>
-  </si>
-  <si>
     <t>https://www.gov.ie/en/press-release/895657-statement-from-the-national-public-health-emergency-team-friday-10-a/</t>
   </si>
   <si>
     <t>https://www.gov.ie/en/press-release/28cb70-statement-from-the-national-public-health-emergency-team-saturday-11/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/ecbc11-statement-from-the-national-public-health-emergency-team-sunday-12-a/</t>
   </si>
 </sst>
 </file>
@@ -1364,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5E2DA3-023C-FF46-A014-0C2E672468A0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1383,10 +1383,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43930.811111111114</v>
+        <v>43931.830555555556</v>
       </c>
       <c r="B2" s="12">
-        <v>43932.811111111114</v>
+        <v>43933.830555555556</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1402,7 +1402,7 @@
   <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2413,9 +2413,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <v>43932</v>
-      </c>
+      <c r="A90" s="1"/>
       <c r="C90" s="8"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -2550,13 +2548,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3488,7 +3486,7 @@
         <v>4916</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" ref="D27:D34" si="0">C27-C26</f>
+        <f t="shared" ref="D27:D35" si="0">C27-C26</f>
         <v>473</v>
       </c>
       <c r="E27" s="5">
@@ -3654,7 +3652,7 @@
         <v>48</v>
       </c>
       <c r="K31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3690,7 +3688,7 @@
         <v>48</v>
       </c>
       <c r="K32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3701,32 +3699,32 @@
         <v>104</v>
       </c>
       <c r="C33" s="5">
-        <v>8089</v>
+        <v>8496</v>
       </c>
       <c r="D33" s="5">
         <f t="shared" si="0"/>
-        <v>302</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" t="s">
-        <v>8</v>
+        <v>709</v>
+      </c>
+      <c r="E33">
+        <v>1777</v>
+      </c>
+      <c r="F33">
+        <v>261</v>
       </c>
       <c r="G33" s="5">
-        <v>287</v>
-      </c>
-      <c r="H33" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" t="s">
-        <v>8</v>
+        <v>329</v>
+      </c>
+      <c r="H33">
+        <v>2312</v>
+      </c>
+      <c r="I33">
+        <v>383</v>
+      </c>
+      <c r="J33">
+        <v>48</v>
       </c>
       <c r="K33" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3741,12 +3739,63 @@
       </c>
       <c r="D34" s="5">
         <f t="shared" si="0"/>
-        <v>839</v>
+        <v>432</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
       </c>
       <c r="G34" s="5">
         <v>320</v>
       </c>
+      <c r="H34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" t="s">
+        <v>8</v>
+      </c>
       <c r="K34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="5">
+        <v>9655</v>
+      </c>
+      <c r="D35" s="5">
+        <f t="shared" si="0"/>
+        <v>727</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="5">
+        <v>334</v>
+      </c>
+      <c r="H35" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3757,10 +3806,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView topLeftCell="A49" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:A71"/>
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4700,7 +4749,7 @@
         <v>43929</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B71" si="1">B64</f>
+        <f t="shared" ref="B67:B74" si="1">B64</f>
         <v>Male</v>
       </c>
       <c r="C67">
@@ -4768,6 +4817,51 @@
         <v>86</v>
       </c>
       <c r="D71">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B72" t="str">
+        <f>B69</f>
+        <v>Female</v>
+      </c>
+      <c r="C72">
+        <v>4616</v>
+      </c>
+      <c r="D72">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>Male</v>
+      </c>
+      <c r="C73">
+        <v>3783</v>
+      </c>
+      <c r="D73">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C74">
+        <v>97</v>
+      </c>
+      <c r="D74">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -4778,11 +4872,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:F270"/>
+  <dimension ref="A1:F281"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F260" sqref="F260:I268"/>
+      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A274" sqref="A274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8582,6 +8676,163 @@
         <v>2</v>
       </c>
     </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C271">
+        <v>18</v>
+      </c>
+      <c r="D271" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C272">
+        <v>27</v>
+      </c>
+      <c r="D272" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C273" t="s">
+        <v>8</v>
+      </c>
+      <c r="D273">
+        <v>10</v>
+      </c>
+      <c r="F273" s="7"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C274">
+        <v>56</v>
+      </c>
+      <c r="D274">
+        <v>5</v>
+      </c>
+      <c r="F274" s="13"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C275">
+        <v>528</v>
+      </c>
+      <c r="D275">
+        <v>43</v>
+      </c>
+      <c r="F275" s="7"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C276">
+        <v>1479</v>
+      </c>
+      <c r="D276">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C277">
+        <v>1558</v>
+      </c>
+      <c r="D277">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C278">
+        <v>1609</v>
+      </c>
+      <c r="D278">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C279">
+        <v>1251</v>
+      </c>
+      <c r="D279">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C280">
+        <v>1951</v>
+      </c>
+      <c r="D280">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C281">
+        <v>19</v>
+      </c>
+      <c r="D281">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8589,11 +8840,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B92" sqref="B92"/>
+      <selection pane="bottomLeft" activeCell="C89" sqref="C89:C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9815,7 +10066,7 @@
         <v>43929</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" ref="B87:B91" si="1">B84</f>
+        <f t="shared" ref="B87:B94" si="1">B84</f>
         <v>Close contact with confirmed case</v>
       </c>
       <c r="C87" s="11">
@@ -9883,6 +10134,51 @@
         <v>8</v>
       </c>
       <c r="D91" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B92" t="str">
+        <f>B89</f>
+        <v>Community transmission</v>
+      </c>
+      <c r="C92" s="11">
+        <v>67</v>
+      </c>
+      <c r="D92" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="1"/>
+        <v>Close contact with confirmed case</v>
+      </c>
+      <c r="C93" s="11">
+        <v>26</v>
+      </c>
+      <c r="D93" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="1"/>
+        <v>Travel Abroad</v>
+      </c>
+      <c r="C94" s="11">
+        <v>7</v>
+      </c>
+      <c r="D94" t="s">
         <v>106</v>
       </c>
     </row>
@@ -9893,10 +10189,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E645"/>
+  <dimension ref="A1:E671"/>
   <sheetViews>
-    <sheetView topLeftCell="A606" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A620" sqref="A620:A645"/>
+    <sheetView topLeftCell="A645" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A664" sqref="A664"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19423,6 +19719,370 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A646" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B646" t="s">
+        <v>12</v>
+      </c>
+      <c r="C646">
+        <v>32</v>
+      </c>
+      <c r="D646" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A647" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B647" t="s">
+        <v>14</v>
+      </c>
+      <c r="C647">
+        <v>210</v>
+      </c>
+      <c r="D647" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A648" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B648" t="s">
+        <v>15</v>
+      </c>
+      <c r="C648">
+        <v>88</v>
+      </c>
+      <c r="D648" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A649" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B649" t="s">
+        <v>16</v>
+      </c>
+      <c r="C649">
+        <v>648</v>
+      </c>
+      <c r="D649" s="3">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A650" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B650" t="s">
+        <v>17</v>
+      </c>
+      <c r="C650">
+        <v>188</v>
+      </c>
+      <c r="D650" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A651" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B651" t="s">
+        <v>18</v>
+      </c>
+      <c r="C651">
+        <v>4514</v>
+      </c>
+      <c r="D651" s="3">
+        <v>0.53100000000000003</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A652" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B652" t="s">
+        <v>19</v>
+      </c>
+      <c r="C652">
+        <v>178</v>
+      </c>
+      <c r="D652" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A653" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B653" t="s">
+        <v>20</v>
+      </c>
+      <c r="C653">
+        <v>170</v>
+      </c>
+      <c r="D653" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A654" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B654" t="s">
+        <v>21</v>
+      </c>
+      <c r="C654">
+        <v>360</v>
+      </c>
+      <c r="D654" s="3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A655" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B655" t="s">
+        <v>22</v>
+      </c>
+      <c r="C655">
+        <v>124</v>
+      </c>
+      <c r="D655" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A656" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B656" t="s">
+        <v>36</v>
+      </c>
+      <c r="C656">
+        <v>71</v>
+      </c>
+      <c r="D656" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A657" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B657" t="s">
+        <v>37</v>
+      </c>
+      <c r="C657">
+        <v>32</v>
+      </c>
+      <c r="D657" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A658" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B658" t="s">
+        <v>23</v>
+      </c>
+      <c r="C658">
+        <v>234</v>
+      </c>
+      <c r="D658" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A659" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B659" t="s">
+        <v>24</v>
+      </c>
+      <c r="C659">
+        <v>49</v>
+      </c>
+      <c r="D659" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A660" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B660" t="s">
+        <v>25</v>
+      </c>
+      <c r="C660">
+        <v>143</v>
+      </c>
+      <c r="D660" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A661" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B661" t="s">
+        <v>26</v>
+      </c>
+      <c r="C661">
+        <v>183</v>
+      </c>
+      <c r="D661" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A662" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B662" t="s">
+        <v>27</v>
+      </c>
+      <c r="C662">
+        <v>249</v>
+      </c>
+      <c r="D662" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A663" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B663" t="s">
+        <v>38</v>
+      </c>
+      <c r="C663">
+        <v>88</v>
+      </c>
+      <c r="D663" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A664" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B664" t="s">
+        <v>28</v>
+      </c>
+      <c r="C664">
+        <v>119</v>
+      </c>
+      <c r="D664" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A665" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B665" t="s">
+        <v>29</v>
+      </c>
+      <c r="C665">
+        <v>31</v>
+      </c>
+      <c r="D665" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A666" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B666" t="s">
+        <v>30</v>
+      </c>
+      <c r="C666">
+        <v>45</v>
+      </c>
+      <c r="D666" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A667" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B667" t="s">
+        <v>31</v>
+      </c>
+      <c r="C667">
+        <v>175</v>
+      </c>
+      <c r="D667" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A668" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B668" t="s">
+        <v>32</v>
+      </c>
+      <c r="C668">
+        <v>67</v>
+      </c>
+      <c r="D668" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A669" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B669" t="s">
+        <v>33</v>
+      </c>
+      <c r="C669">
+        <v>192</v>
+      </c>
+      <c r="D669" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A670" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B670" t="s">
+        <v>34</v>
+      </c>
+      <c r="C670">
+        <v>42</v>
+      </c>
+      <c r="D670" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A671" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B671" t="s">
+        <v>35</v>
+      </c>
+      <c r="C671">
+        <v>263</v>
+      </c>
+      <c r="D671" s="3">
+        <v>3.1E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19430,10 +20090,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19484,7 +20144,7 @@
         <v>6450</v>
       </c>
       <c r="G2" s="10">
-        <f t="shared" ref="G2:G12" si="0">D2/F2</f>
+        <f t="shared" ref="G2:G13" si="0">D2/F2</f>
         <v>0.10682170542635659</v>
       </c>
     </row>
@@ -19726,6 +20386,30 @@
       <c r="G12" s="10">
         <f t="shared" si="0"/>
         <v>0.14594135146621334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B13">
+        <v>89</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>1806</v>
+      </c>
+      <c r="E13">
+        <v>118</v>
+      </c>
+      <c r="F13">
+        <v>12199</v>
+      </c>
+      <c r="G13" s="10">
+        <f t="shared" si="0"/>
+        <v>0.14804492171489467</v>
       </c>
     </row>
   </sheetData>
@@ -19740,8 +20424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0979910-C687-6A43-A609-0D992245C102}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20010,7 +20694,7 @@
         <v>43931</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" ref="B24:B28" si="1">B21</f>
+        <f t="shared" ref="B24:B25" si="1">B21</f>
         <v>Female</v>
       </c>
       <c r="C24">
@@ -20046,10 +20730,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD393D6-56CC-E749-BDF2-72DC274BB8BB}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A26" sqref="A26:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20336,9 +21020,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>43932</v>
-      </c>
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898A3512-1975-AD41-9508-432B1B584CAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9EAD29-B8F3-FD4D-A7E5-211DBE495063}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="153">
   <si>
     <t>Date</t>
   </si>
@@ -496,6 +496,9 @@
   </si>
   <si>
     <t>https://www.gov.ie/en/press-release/ecbc11-statement-from-the-national-public-health-emergency-team-sunday-12-a/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/466968-statement-from-the-national-public-health-emergency-team-monday-13-a/</t>
   </si>
 </sst>
 </file>
@@ -1364,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5E2DA3-023C-FF46-A014-0C2E672468A0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1383,10 +1386,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43931.830555555556</v>
+        <v>43932.830555555556</v>
       </c>
       <c r="B2" s="12">
-        <v>43933.830555555556</v>
+        <v>43934.765277777777</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2548,13 +2551,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3486,7 +3489,7 @@
         <v>4916</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" ref="D27:D35" si="0">C27-C26</f>
+        <f t="shared" ref="D27:D36" si="0">C27-C26</f>
         <v>473</v>
       </c>
       <c r="E27" s="5">
@@ -3735,32 +3738,32 @@
         <v>104</v>
       </c>
       <c r="C34" s="5">
-        <v>8928</v>
+        <v>9484</v>
       </c>
       <c r="D34" s="5">
         <f t="shared" si="0"/>
-        <v>432</v>
-      </c>
-      <c r="E34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" t="s">
-        <v>8</v>
+        <v>988</v>
+      </c>
+      <c r="E34">
+        <v>1849</v>
+      </c>
+      <c r="F34">
+        <v>268</v>
       </c>
       <c r="G34" s="5">
-        <v>320</v>
-      </c>
-      <c r="H34" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" t="s">
-        <v>8</v>
-      </c>
-      <c r="J34" t="s">
-        <v>8</v>
+        <v>362</v>
+      </c>
+      <c r="H34">
+        <v>2489</v>
+      </c>
+      <c r="I34">
+        <v>401</v>
+      </c>
+      <c r="J34">
+        <v>48</v>
       </c>
       <c r="K34" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3775,7 +3778,7 @@
       </c>
       <c r="D35" s="5">
         <f t="shared" si="0"/>
-        <v>727</v>
+        <v>171</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
@@ -3797,6 +3800,42 @@
       </c>
       <c r="K35" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="5">
+        <v>10647</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" si="0"/>
+        <v>992</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="5">
+        <v>365</v>
+      </c>
+      <c r="H36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3806,10 +3845,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView topLeftCell="A48" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4749,7 +4788,7 @@
         <v>43929</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B74" si="1">B64</f>
+        <f t="shared" ref="B67:B77" si="1">B64</f>
         <v>Male</v>
       </c>
       <c r="C67">
@@ -4862,6 +4901,51 @@
         <v>97</v>
       </c>
       <c r="D74">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B75" t="str">
+        <f>B72</f>
+        <v>Female</v>
+      </c>
+      <c r="C75">
+        <v>5115</v>
+      </c>
+      <c r="D75">
+        <v>53.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v>Male</v>
+      </c>
+      <c r="C76">
+        <v>4225</v>
+      </c>
+      <c r="D76">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C77">
+        <v>144</v>
+      </c>
+      <c r="D77">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -4872,11 +4956,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:F281"/>
+  <dimension ref="A1:F292"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A274" sqref="A274"/>
+      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A287" sqref="A287:A292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8833,6 +8917,163 @@
         <v>2</v>
       </c>
     </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C282">
+        <v>19</v>
+      </c>
+      <c r="D282" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C283">
+        <v>29</v>
+      </c>
+      <c r="D283" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C284" t="s">
+        <v>8</v>
+      </c>
+      <c r="D284">
+        <v>11</v>
+      </c>
+      <c r="E284" s="13"/>
+      <c r="F284" s="7"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C285">
+        <v>67</v>
+      </c>
+      <c r="D285">
+        <v>5</v>
+      </c>
+      <c r="E285" s="7"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C286">
+        <v>598</v>
+      </c>
+      <c r="D286">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C287">
+        <v>1647</v>
+      </c>
+      <c r="D287">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C288">
+        <v>1757</v>
+      </c>
+      <c r="D288">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C289">
+        <v>1812</v>
+      </c>
+      <c r="D289">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C290">
+        <v>1411</v>
+      </c>
+      <c r="D290">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C291">
+        <v>2123</v>
+      </c>
+      <c r="D291">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C292">
+        <v>21</v>
+      </c>
+      <c r="D292">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8840,11 +9081,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C89" sqref="C89:C91"/>
+      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10066,7 +10307,7 @@
         <v>43929</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" ref="B87:B94" si="1">B84</f>
+        <f t="shared" ref="B87:B97" si="1">B84</f>
         <v>Close contact with confirmed case</v>
       </c>
       <c r="C87" s="11">
@@ -10179,6 +10420,51 @@
         <v>7</v>
       </c>
       <c r="D94" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B95" t="str">
+        <f>B92</f>
+        <v>Community transmission</v>
+      </c>
+      <c r="C95" s="11">
+        <v>66</v>
+      </c>
+      <c r="D95" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="1"/>
+        <v>Close contact with confirmed case</v>
+      </c>
+      <c r="C96" s="11">
+        <v>27</v>
+      </c>
+      <c r="D96" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="1"/>
+        <v>Travel Abroad</v>
+      </c>
+      <c r="C97" s="11">
+        <v>7</v>
+      </c>
+      <c r="D97" t="s">
         <v>106</v>
       </c>
     </row>
@@ -10189,10 +10475,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E671"/>
+  <dimension ref="A1:E697"/>
   <sheetViews>
-    <sheetView topLeftCell="A645" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A664" sqref="A664"/>
+    <sheetView topLeftCell="A650" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A672" sqref="A672:A697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20083,6 +20369,370 @@
         <v>3.1E-2</v>
       </c>
     </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A672" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B672" t="s">
+        <v>12</v>
+      </c>
+      <c r="C672">
+        <v>38</v>
+      </c>
+      <c r="D672" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A673" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B673" t="s">
+        <v>14</v>
+      </c>
+      <c r="C673">
+        <v>222</v>
+      </c>
+      <c r="D673" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A674" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B674" t="s">
+        <v>15</v>
+      </c>
+      <c r="C674">
+        <v>98</v>
+      </c>
+      <c r="D674" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A675" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B675" t="s">
+        <v>16</v>
+      </c>
+      <c r="C675">
+        <v>730</v>
+      </c>
+      <c r="D675" s="3">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A676" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B676" t="s">
+        <v>17</v>
+      </c>
+      <c r="C676">
+        <v>225</v>
+      </c>
+      <c r="D676" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A677" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B677" t="s">
+        <v>18</v>
+      </c>
+      <c r="C677">
+        <v>5006</v>
+      </c>
+      <c r="D677" s="3">
+        <v>0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A678" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B678" t="s">
+        <v>19</v>
+      </c>
+      <c r="C678">
+        <v>197</v>
+      </c>
+      <c r="D678" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A679" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B679" t="s">
+        <v>20</v>
+      </c>
+      <c r="C679">
+        <v>100</v>
+      </c>
+      <c r="D679" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A680" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B680" t="s">
+        <v>21</v>
+      </c>
+      <c r="C680">
+        <v>404</v>
+      </c>
+      <c r="D680" s="3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A681" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B681" t="s">
+        <v>22</v>
+      </c>
+      <c r="C681">
+        <v>136</v>
+      </c>
+      <c r="D681" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A682" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B682" t="s">
+        <v>36</v>
+      </c>
+      <c r="C682">
+        <v>88</v>
+      </c>
+      <c r="D682" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A683" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B683" t="s">
+        <v>37</v>
+      </c>
+      <c r="C683">
+        <v>32</v>
+      </c>
+      <c r="D683" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A684" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B684" t="s">
+        <v>23</v>
+      </c>
+      <c r="C684">
+        <v>252</v>
+      </c>
+      <c r="D684" s="3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A685" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B685" t="s">
+        <v>24</v>
+      </c>
+      <c r="C685">
+        <v>56</v>
+      </c>
+      <c r="D685" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A686" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B686" t="s">
+        <v>25</v>
+      </c>
+      <c r="C686">
+        <v>195</v>
+      </c>
+      <c r="D686" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A687" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B687" t="s">
+        <v>26</v>
+      </c>
+      <c r="C687">
+        <v>194</v>
+      </c>
+      <c r="D687" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A688" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B688" t="s">
+        <v>27</v>
+      </c>
+      <c r="C688">
+        <v>289</v>
+      </c>
+      <c r="D688" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A689" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B689" t="s">
+        <v>38</v>
+      </c>
+      <c r="C689">
+        <v>95</v>
+      </c>
+      <c r="D689" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A690" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B690" t="s">
+        <v>28</v>
+      </c>
+      <c r="C690">
+        <v>133</v>
+      </c>
+      <c r="D690" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A691" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B691" t="s">
+        <v>29</v>
+      </c>
+      <c r="C691">
+        <v>39</v>
+      </c>
+      <c r="D691" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A692" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B692" t="s">
+        <v>30</v>
+      </c>
+      <c r="C692">
+        <v>45</v>
+      </c>
+      <c r="D692" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A693" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B693" t="s">
+        <v>31</v>
+      </c>
+      <c r="C693">
+        <v>200</v>
+      </c>
+      <c r="D693" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A694" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B694" t="s">
+        <v>32</v>
+      </c>
+      <c r="C694">
+        <v>73</v>
+      </c>
+      <c r="D694" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A695" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B695" t="s">
+        <v>33</v>
+      </c>
+      <c r="C695">
+        <v>213</v>
+      </c>
+      <c r="D695" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A696" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B696" t="s">
+        <v>34</v>
+      </c>
+      <c r="C696">
+        <v>52</v>
+      </c>
+      <c r="D696" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A697" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B697" t="s">
+        <v>35</v>
+      </c>
+      <c r="C697">
+        <v>272</v>
+      </c>
+      <c r="D697" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20090,10 +20740,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20144,7 +20794,7 @@
         <v>6450</v>
       </c>
       <c r="G2" s="10">
-        <f t="shared" ref="G2:G13" si="0">D2/F2</f>
+        <f t="shared" ref="G2:G14" si="0">D2/F2</f>
         <v>0.10682170542635659</v>
       </c>
     </row>
@@ -20410,6 +21060,30 @@
       <c r="G13" s="10">
         <f t="shared" si="0"/>
         <v>0.14804492171489467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B14">
+        <v>76</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>1882</v>
+      </c>
+      <c r="E14">
+        <v>124</v>
+      </c>
+      <c r="F14">
+        <v>12633</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="0"/>
+        <v>0.14897490698963034</v>
       </c>
     </row>
   </sheetData>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewparnell/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9EAD29-B8F3-FD4D-A7E5-211DBE495063}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED77F7F-85AD-C94F-8A21-A95F06736B45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="154">
   <si>
     <t>Date</t>
   </si>
@@ -499,6 +499,9 @@
   </si>
   <si>
     <t>https://www.gov.ie/en/press-release/466968-statement-from-the-national-public-health-emergency-team-monday-13-a/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/17f5cb-statement-from-the-national-public-health-emergency-team-tuesday-14-/</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1371,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1386,10 +1389,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43932.830555555556</v>
+        <v>43933.86041666667</v>
       </c>
       <c r="B2" s="12">
-        <v>43934.765277777777</v>
+        <v>43936.86041666667</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2551,13 +2554,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
+      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3489,7 +3492,7 @@
         <v>4916</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" ref="D27:D36" si="0">C27-C26</f>
+        <f t="shared" ref="D27:D37" si="0">C27-C26</f>
         <v>473</v>
       </c>
       <c r="E27" s="5">
@@ -3699,7 +3702,7 @@
         <v>43931</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C33" s="5">
         <v>8496</v>
@@ -3735,7 +3738,7 @@
         <v>43932</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C34" s="5">
         <v>9484</v>
@@ -3771,35 +3774,35 @@
         <v>43933</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C35" s="5">
-        <v>9655</v>
+        <v>10385</v>
       </c>
       <c r="D35" s="5">
         <f t="shared" si="0"/>
-        <v>171</v>
-      </c>
-      <c r="E35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" t="s">
-        <v>8</v>
+        <v>901</v>
+      </c>
+      <c r="E35">
+        <v>1903</v>
+      </c>
+      <c r="F35">
+        <v>275</v>
       </c>
       <c r="G35" s="5">
-        <v>334</v>
-      </c>
-      <c r="H35" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" t="s">
-        <v>8</v>
-      </c>
-      <c r="J35" t="s">
-        <v>8</v>
+        <v>395</v>
+      </c>
+      <c r="H35">
+        <v>2707</v>
+      </c>
+      <c r="I35">
+        <v>408</v>
+      </c>
+      <c r="J35">
+        <v>48</v>
       </c>
       <c r="K35" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3814,7 +3817,7 @@
       </c>
       <c r="D36" s="5">
         <f t="shared" si="0"/>
-        <v>992</v>
+        <v>262</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
@@ -3836,6 +3839,42 @@
       </c>
       <c r="K36" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="5">
+        <v>11479</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" si="0"/>
+        <v>832</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="5">
+        <v>406</v>
+      </c>
+      <c r="H37" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3845,10 +3884,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView topLeftCell="A60" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4788,7 +4827,7 @@
         <v>43929</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B77" si="1">B64</f>
+        <f t="shared" ref="B67:B80" si="1">B64</f>
         <v>Male</v>
       </c>
       <c r="C67">
@@ -4947,6 +4986,51 @@
       </c>
       <c r="D77">
         <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B78" t="str">
+        <f>B75</f>
+        <v>Female</v>
+      </c>
+      <c r="C78">
+        <v>5629</v>
+      </c>
+      <c r="D78">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="1"/>
+        <v>Male</v>
+      </c>
+      <c r="C79">
+        <v>4617</v>
+      </c>
+      <c r="D79">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C80">
+        <v>139</v>
+      </c>
+      <c r="D80">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>
@@ -4956,11 +5040,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:F292"/>
+  <dimension ref="A1:F303"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A287" sqref="A287:A292"/>
+      <pane ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C296" sqref="C296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9018,7 +9102,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>43932</v>
       </c>
@@ -9032,7 +9116,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>43932</v>
       </c>
@@ -9046,7 +9130,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>43932</v>
       </c>
@@ -9060,7 +9144,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>43932</v>
       </c>
@@ -9071,6 +9155,162 @@
         <v>21</v>
       </c>
       <c r="D292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C293">
+        <v>22</v>
+      </c>
+      <c r="D293" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C294">
+        <v>34</v>
+      </c>
+      <c r="D294" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C295" t="s">
+        <v>8</v>
+      </c>
+      <c r="D295">
+        <v>12</v>
+      </c>
+      <c r="E295" s="13"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C296">
+        <v>81</v>
+      </c>
+      <c r="D296">
+        <v>5</v>
+      </c>
+      <c r="E296" s="7"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C297">
+        <v>674</v>
+      </c>
+      <c r="D297">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C298">
+        <v>1805</v>
+      </c>
+      <c r="D298">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C299">
+        <v>1927</v>
+      </c>
+      <c r="D299">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C300">
+        <v>1983</v>
+      </c>
+      <c r="D300">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C301">
+        <v>1522</v>
+      </c>
+      <c r="D301">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C302">
+        <v>2316</v>
+      </c>
+      <c r="D302">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C303">
+        <v>21</v>
+      </c>
+      <c r="D303">
         <v>2</v>
       </c>
     </row>
@@ -9081,11 +9321,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
+      <selection pane="bottomLeft" activeCell="D98" sqref="D98:D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10307,7 +10547,7 @@
         <v>43929</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" ref="B87:B97" si="1">B84</f>
+        <f t="shared" ref="B87:B100" si="1">B84</f>
         <v>Close contact with confirmed case</v>
       </c>
       <c r="C87" s="11">
@@ -10465,6 +10705,51 @@
         <v>7</v>
       </c>
       <c r="D97" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B98" t="str">
+        <f>B95</f>
+        <v>Community transmission</v>
+      </c>
+      <c r="C98" s="11">
+        <v>66</v>
+      </c>
+      <c r="D98" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="1"/>
+        <v>Close contact with confirmed case</v>
+      </c>
+      <c r="C99" s="11">
+        <v>27</v>
+      </c>
+      <c r="D99" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="1"/>
+        <v>Travel Abroad</v>
+      </c>
+      <c r="C100" s="11">
+        <v>7</v>
+      </c>
+      <c r="D100" t="s">
         <v>106</v>
       </c>
     </row>
@@ -10475,10 +10760,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E697"/>
+  <dimension ref="A1:E723"/>
   <sheetViews>
-    <sheetView topLeftCell="A650" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A672" sqref="A672:A697"/>
+    <sheetView topLeftCell="A688" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B702" sqref="B702"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20733,6 +21018,370 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A698" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B698" t="s">
+        <v>12</v>
+      </c>
+      <c r="C698">
+        <v>44</v>
+      </c>
+      <c r="D698" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A699" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B699" t="s">
+        <v>14</v>
+      </c>
+      <c r="C699">
+        <v>245</v>
+      </c>
+      <c r="D699" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A700" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B700" t="s">
+        <v>15</v>
+      </c>
+      <c r="C700">
+        <v>106</v>
+      </c>
+      <c r="D700" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A701" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B701" t="s">
+        <v>16</v>
+      </c>
+      <c r="C701">
+        <v>780</v>
+      </c>
+      <c r="D701" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A702" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B702" t="s">
+        <v>17</v>
+      </c>
+      <c r="C702">
+        <v>264</v>
+      </c>
+      <c r="D702" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A703" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B703" t="s">
+        <v>18</v>
+      </c>
+      <c r="C703">
+        <v>5438</v>
+      </c>
+      <c r="D703" s="3">
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A704" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B704" t="s">
+        <v>19</v>
+      </c>
+      <c r="C704">
+        <v>220</v>
+      </c>
+      <c r="D704" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A705" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B705" t="s">
+        <v>20</v>
+      </c>
+      <c r="C705">
+        <v>219</v>
+      </c>
+      <c r="D705" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A706" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B706" t="s">
+        <v>21</v>
+      </c>
+      <c r="C706">
+        <v>443</v>
+      </c>
+      <c r="D706" s="3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A707" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B707" t="s">
+        <v>22</v>
+      </c>
+      <c r="C707">
+        <v>144</v>
+      </c>
+      <c r="D707" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A708" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B708" t="s">
+        <v>36</v>
+      </c>
+      <c r="C708">
+        <v>101</v>
+      </c>
+      <c r="D708" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A709" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B709" t="s">
+        <v>37</v>
+      </c>
+      <c r="C709">
+        <v>36</v>
+      </c>
+      <c r="D709" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A710" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B710" t="s">
+        <v>23</v>
+      </c>
+      <c r="C710">
+        <v>265</v>
+      </c>
+      <c r="D710" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A711" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B711" t="s">
+        <v>24</v>
+      </c>
+      <c r="C711">
+        <v>58</v>
+      </c>
+      <c r="D711" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A712" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B712" t="s">
+        <v>25</v>
+      </c>
+      <c r="C712">
+        <v>208</v>
+      </c>
+      <c r="D712" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A713" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B713" t="s">
+        <v>26</v>
+      </c>
+      <c r="C713">
+        <v>198</v>
+      </c>
+      <c r="D713" s="3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A714" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B714" t="s">
+        <v>27</v>
+      </c>
+      <c r="C714">
+        <v>342</v>
+      </c>
+      <c r="D714" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A715" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B715" t="s">
+        <v>38</v>
+      </c>
+      <c r="C715">
+        <v>123</v>
+      </c>
+      <c r="D715" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A716" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B716" t="s">
+        <v>28</v>
+      </c>
+      <c r="C716">
+        <v>144</v>
+      </c>
+      <c r="D716" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A717" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B717" t="s">
+        <v>29</v>
+      </c>
+      <c r="C717">
+        <v>48</v>
+      </c>
+      <c r="D717" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A718" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B718" t="s">
+        <v>30</v>
+      </c>
+      <c r="C718">
+        <v>52</v>
+      </c>
+      <c r="D718" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A719" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B719" t="s">
+        <v>31</v>
+      </c>
+      <c r="C719">
+        <v>219</v>
+      </c>
+      <c r="D719" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A720" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B720" t="s">
+        <v>32</v>
+      </c>
+      <c r="C720">
+        <v>81</v>
+      </c>
+      <c r="D720" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A721" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B721" t="s">
+        <v>33</v>
+      </c>
+      <c r="C721">
+        <v>234</v>
+      </c>
+      <c r="D721" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A722" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B722" t="s">
+        <v>34</v>
+      </c>
+      <c r="C722">
+        <v>56</v>
+      </c>
+      <c r="D722" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A723" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B723" t="s">
+        <v>35</v>
+      </c>
+      <c r="C723">
+        <v>317</v>
+      </c>
+      <c r="D723" s="3">
+        <v>3.1E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20740,10 +21389,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20794,7 +21443,7 @@
         <v>6450</v>
       </c>
       <c r="G2" s="10">
-        <f t="shared" ref="G2:G14" si="0">D2/F2</f>
+        <f t="shared" ref="G2:G15" si="0">D2/F2</f>
         <v>0.10682170542635659</v>
       </c>
     </row>
@@ -21084,6 +21733,30 @@
       <c r="G14" s="10">
         <f t="shared" si="0"/>
         <v>0.14897490698963034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B15">
+        <v>85</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>1967</v>
+      </c>
+      <c r="E15">
+        <v>134</v>
+      </c>
+      <c r="F15">
+        <v>13095</v>
+      </c>
+      <c r="G15" s="10">
+        <f t="shared" si="0"/>
+        <v>0.15021000381825125</v>
       </c>
     </row>
   </sheetData>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewparnell/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED77F7F-85AD-C94F-8A21-A95F06736B45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342B9086-E710-0643-A091-4497DB987C94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -1370,7 +1370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5E2DA3-023C-FF46-A014-0C2E672468A0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1392,7 +1392,7 @@
         <v>43933.86041666667</v>
       </c>
       <c r="B2" s="12">
-        <v>43936.86041666667</v>
+        <v>43935.86041666667</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -21391,7 +21391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewparnell/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342B9086-E710-0643-A091-4497DB987C94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9C3509-7A9F-7F4A-B034-091A81302839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -1370,7 +1370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5E2DA3-023C-FF46-A014-0C2E672468A0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3886,8 +3886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4690,7 +4690,7 @@
         <v>2946</v>
       </c>
       <c r="D57">
-        <v>62.7</v>
+        <v>52.7</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewparnell/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9C3509-7A9F-7F4A-B034-091A81302839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9E2154-55C9-444A-95FC-D1F0398ABF5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="155">
   <si>
     <t>Date</t>
   </si>
@@ -502,6 +502,9 @@
   </si>
   <si>
     <t>https://www.gov.ie/en/press-release/17f5cb-statement-from-the-national-public-health-emergency-team-tuesday-14-/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/e2be7b-statement-from-the-national-public-health-emergency-team-wednesday-1/</t>
   </si>
 </sst>
 </file>
@@ -1389,10 +1392,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43933.86041666667</v>
+        <v>43934.788194444445</v>
       </c>
       <c r="B2" s="12">
-        <v>43935.86041666667</v>
+        <v>43936.788194444445</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1405,10 +1408,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AE50F-07C0-7048-95B5-0C81D93B81F0}">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2290,11 +2293,11 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <f t="shared" ref="A80:A89" si="0">A69+1</f>
+        <f t="shared" ref="A80:A100" si="0">A69+1</f>
         <v>43931</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" ref="B80:B89" si="1">B69</f>
+        <f t="shared" ref="B80:B100" si="1">B69</f>
         <v>Ards And North Down</v>
       </c>
       <c r="C80" s="8">
@@ -2419,11 +2422,139 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="1"/>
-      <c r="C90" s="8"/>
+      <c r="A90" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B90" t="str">
+        <f>B79</f>
+        <v>Antrim And Newtownabbey</v>
+      </c>
+      <c r="C90" s="8">
+        <v>149</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="1"/>
+      <c r="A91" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="1"/>
+        <v>Ards And North Down</v>
+      </c>
+      <c r="C91" s="8">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="1"/>
+        <v>Armagh, Banbridge And Craigavon</v>
+      </c>
+      <c r="C92" s="8">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="1"/>
+        <v>Belfast</v>
+      </c>
+      <c r="C93" s="8">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="1"/>
+        <v>Causeway Coast And Glens</v>
+      </c>
+      <c r="C94" s="8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="1"/>
+        <v>Derry And Strabane</v>
+      </c>
+      <c r="C95" s="8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="1"/>
+        <v>Fermanagh And Omagh</v>
+      </c>
+      <c r="C96" s="8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="1"/>
+        <v>Lisburn And Castlereagh</v>
+      </c>
+      <c r="C97" s="8">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="1"/>
+        <v>Mid And East Antrim</v>
+      </c>
+      <c r="C98" s="8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="1"/>
+        <v>Mid Ulster</v>
+      </c>
+      <c r="C99" s="8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="1"/>
+        <v>Newry, Mourne And Down</v>
+      </c>
+      <c r="C100" s="8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2554,13 +2685,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
+      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3492,7 +3623,7 @@
         <v>4916</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" ref="D27:D37" si="0">C27-C26</f>
+        <f t="shared" ref="D27:D38" si="0">C27-C26</f>
         <v>473</v>
       </c>
       <c r="E27" s="5">
@@ -3810,35 +3941,35 @@
         <v>43934</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" s="5">
-        <v>10647</v>
+        <v>11261</v>
       </c>
       <c r="D36" s="5">
         <f t="shared" si="0"/>
-        <v>262</v>
-      </c>
-      <c r="E36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" t="s">
-        <v>8</v>
+        <v>876</v>
+      </c>
+      <c r="E36">
+        <v>1968</v>
+      </c>
+      <c r="F36">
+        <v>280</v>
       </c>
       <c r="G36" s="5">
-        <v>365</v>
-      </c>
-      <c r="H36" t="s">
-        <v>8</v>
-      </c>
-      <c r="I36" t="s">
-        <v>8</v>
-      </c>
-      <c r="J36" t="s">
-        <v>8</v>
+        <v>435</v>
+      </c>
+      <c r="H36">
+        <v>2872</v>
+      </c>
+      <c r="I36">
+        <v>413</v>
+      </c>
+      <c r="J36">
+        <v>48</v>
       </c>
       <c r="K36" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3853,7 +3984,7 @@
       </c>
       <c r="D37" s="5">
         <f t="shared" si="0"/>
-        <v>832</v>
+        <v>218</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -3875,6 +4006,42 @@
       </c>
       <c r="K37" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="5">
+        <v>12547</v>
+      </c>
+      <c r="D38" s="5">
+        <f t="shared" si="0"/>
+        <v>1068</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="5">
+        <v>444</v>
+      </c>
+      <c r="H38" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K38" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3884,10 +4051,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView topLeftCell="A59" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4827,7 +4994,7 @@
         <v>43929</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B80" si="1">B64</f>
+        <f t="shared" ref="B67:B83" si="1">B64</f>
         <v>Male</v>
       </c>
       <c r="C67">
@@ -5031,6 +5198,51 @@
       </c>
       <c r="D80">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B81" t="str">
+        <f>B78</f>
+        <v>Female</v>
+      </c>
+      <c r="C81">
+        <v>6140</v>
+      </c>
+      <c r="D81">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v>Male</v>
+      </c>
+      <c r="C82">
+        <v>5021</v>
+      </c>
+      <c r="D82">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C83">
+        <v>100</v>
+      </c>
+      <c r="D83">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -5040,11 +5252,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:F303"/>
+  <dimension ref="A1:F314"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C296" sqref="C296"/>
+      <selection pane="bottomLeft" activeCell="C314" sqref="C314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9314,6 +9526,163 @@
         <v>2</v>
       </c>
     </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C304">
+        <v>25</v>
+      </c>
+      <c r="D304" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A305" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C305">
+        <v>36</v>
+      </c>
+      <c r="D305" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A306" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C306" t="s">
+        <v>8</v>
+      </c>
+      <c r="D306">
+        <v>13</v>
+      </c>
+      <c r="E306" s="13"/>
+      <c r="F306" s="7"/>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C307">
+        <v>96</v>
+      </c>
+      <c r="D307">
+        <v>4</v>
+      </c>
+      <c r="E307" s="7"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A308" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C308">
+        <v>737</v>
+      </c>
+      <c r="D308">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A309" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C309">
+        <v>1950</v>
+      </c>
+      <c r="D309">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A310" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C310">
+        <v>2084</v>
+      </c>
+      <c r="D310">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A311" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C311">
+        <v>2157</v>
+      </c>
+      <c r="D311">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A312" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C312">
+        <v>1637</v>
+      </c>
+      <c r="D312">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A313" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C313">
+        <v>2520</v>
+      </c>
+      <c r="D313">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A314" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C314">
+        <v>19</v>
+      </c>
+      <c r="D314">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9321,11 +9690,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D98" sqref="D98:D100"/>
+      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10547,7 +10916,7 @@
         <v>43929</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" ref="B87:B100" si="1">B84</f>
+        <f t="shared" ref="B87:B103" si="1">B84</f>
         <v>Close contact with confirmed case</v>
       </c>
       <c r="C87" s="11">
@@ -10750,6 +11119,51 @@
         <v>7</v>
       </c>
       <c r="D100" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B101" t="str">
+        <f>B98</f>
+        <v>Community transmission</v>
+      </c>
+      <c r="C101" s="11">
+        <v>52</v>
+      </c>
+      <c r="D101" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="1"/>
+        <v>Close contact with confirmed case</v>
+      </c>
+      <c r="C102" s="11">
+        <v>42</v>
+      </c>
+      <c r="D102" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="1"/>
+        <v>Travel Abroad</v>
+      </c>
+      <c r="C103" s="11">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
         <v>106</v>
       </c>
     </row>
@@ -10760,10 +11174,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E723"/>
+  <dimension ref="A1:E749"/>
   <sheetViews>
-    <sheetView topLeftCell="A688" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B702" sqref="B702"/>
+    <sheetView topLeftCell="A710" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D739" sqref="D739"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21382,6 +21796,370 @@
         <v>3.1E-2</v>
       </c>
     </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A724" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B724" t="s">
+        <v>12</v>
+      </c>
+      <c r="C724">
+        <v>53</v>
+      </c>
+      <c r="D724" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A725" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B725" t="s">
+        <v>14</v>
+      </c>
+      <c r="C725">
+        <v>254</v>
+      </c>
+      <c r="D725" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A726" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B726" t="s">
+        <v>15</v>
+      </c>
+      <c r="C726">
+        <v>113</v>
+      </c>
+      <c r="D726" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A727" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B727" t="s">
+        <v>16</v>
+      </c>
+      <c r="C727">
+        <v>829</v>
+      </c>
+      <c r="D727" s="3">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A728" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B728" t="s">
+        <v>17</v>
+      </c>
+      <c r="C728">
+        <v>296</v>
+      </c>
+      <c r="D728" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A729" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B729" t="s">
+        <v>18</v>
+      </c>
+      <c r="C729">
+        <v>5850</v>
+      </c>
+      <c r="D729" s="3">
+        <v>0.51900000000000002</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A730" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B730" t="s">
+        <v>19</v>
+      </c>
+      <c r="C730">
+        <v>237</v>
+      </c>
+      <c r="D730" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A731" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B731" t="s">
+        <v>20</v>
+      </c>
+      <c r="C731">
+        <v>226</v>
+      </c>
+      <c r="D731" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A732" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B732" t="s">
+        <v>21</v>
+      </c>
+      <c r="C732">
+        <v>509</v>
+      </c>
+      <c r="D732" s="3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A733" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B733" t="s">
+        <v>22</v>
+      </c>
+      <c r="C733">
+        <v>164</v>
+      </c>
+      <c r="D733" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A734" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B734" t="s">
+        <v>36</v>
+      </c>
+      <c r="C734">
+        <v>118</v>
+      </c>
+      <c r="D734" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A735" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B735" t="s">
+        <v>37</v>
+      </c>
+      <c r="C735">
+        <v>40</v>
+      </c>
+      <c r="D735" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A736" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B736" t="s">
+        <v>23</v>
+      </c>
+      <c r="C736">
+        <v>285</v>
+      </c>
+      <c r="D736" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A737" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B737" t="s">
+        <v>24</v>
+      </c>
+      <c r="C737">
+        <v>69</v>
+      </c>
+      <c r="D737" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A738" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B738" t="s">
+        <v>25</v>
+      </c>
+      <c r="C738">
+        <v>236</v>
+      </c>
+      <c r="D738" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A739" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B739" t="s">
+        <v>26</v>
+      </c>
+      <c r="C739">
+        <v>216</v>
+      </c>
+      <c r="D739" s="3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A740" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B740" t="s">
+        <v>27</v>
+      </c>
+      <c r="C740">
+        <v>369</v>
+      </c>
+      <c r="D740" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A741" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B741" t="s">
+        <v>38</v>
+      </c>
+      <c r="C741">
+        <v>147</v>
+      </c>
+      <c r="D741" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A742" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B742" t="s">
+        <v>28</v>
+      </c>
+      <c r="C742">
+        <v>150</v>
+      </c>
+      <c r="D742" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A743" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B743" t="s">
+        <v>29</v>
+      </c>
+      <c r="C743">
+        <v>50</v>
+      </c>
+      <c r="D743" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A744" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B744" t="s">
+        <v>30</v>
+      </c>
+      <c r="C744">
+        <v>62</v>
+      </c>
+      <c r="D744" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A745" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B745" t="s">
+        <v>31</v>
+      </c>
+      <c r="C745">
+        <v>237</v>
+      </c>
+      <c r="D745" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A746" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B746" t="s">
+        <v>32</v>
+      </c>
+      <c r="C746">
+        <v>90</v>
+      </c>
+      <c r="D746" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A747" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B747" t="s">
+        <v>33</v>
+      </c>
+      <c r="C747">
+        <v>258</v>
+      </c>
+      <c r="D747" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A748" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B748" t="s">
+        <v>34</v>
+      </c>
+      <c r="C748">
+        <v>61</v>
+      </c>
+      <c r="D748" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A749" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B749" t="s">
+        <v>35</v>
+      </c>
+      <c r="C749">
+        <v>342</v>
+      </c>
+      <c r="D749" s="3">
+        <v>3.1E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21389,10 +22167,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21443,7 +22221,7 @@
         <v>6450</v>
       </c>
       <c r="G2" s="10">
-        <f t="shared" ref="G2:G15" si="0">D2/F2</f>
+        <f t="shared" ref="G2:G16" si="0">D2/F2</f>
         <v>0.10682170542635659</v>
       </c>
     </row>
@@ -21757,6 +22535,30 @@
       <c r="G15" s="10">
         <f t="shared" si="0"/>
         <v>0.15021000381825125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B16">
+        <v>121</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>2088</v>
+      </c>
+      <c r="E16">
+        <v>140</v>
+      </c>
+      <c r="F16">
+        <v>13672</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" si="0"/>
+        <v>0.15272088940901113</v>
       </c>
     </row>
   </sheetData>
@@ -21772,7 +22574,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A28"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22041,7 +22843,7 @@
         <v>43931</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" ref="B24:B25" si="1">B21</f>
+        <f t="shared" ref="B24:B28" si="1">B21</f>
         <v>Female</v>
       </c>
       <c r="C24">
@@ -22062,13 +22864,40 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B26" t="str">
+        <f>B23</f>
+        <v>Male</v>
+      </c>
+      <c r="C26">
+        <v>902</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="1"/>
+        <v>Female</v>
+      </c>
+      <c r="C27">
+        <v>1184</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22077,10 +22906,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD393D6-56CC-E749-BDF2-72DC274BB8BB}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A27"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22346,7 +23175,7 @@
         <v>43931</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" ref="B24:B25" si="1">B21</f>
+        <f t="shared" ref="B24:B28" si="1">B21</f>
         <v>45_to_69</v>
       </c>
       <c r="C24">
@@ -22367,10 +23196,40 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B26" t="str">
+        <f>B23</f>
+        <v>0_to_44</v>
+      </c>
+      <c r="C26">
+        <v>675</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="1"/>
+        <v>45_to_69</v>
+      </c>
+      <c r="C27">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="1"/>
+        <v>70+</v>
+      </c>
+      <c r="C28">
+        <v>632</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9E2154-55C9-444A-95FC-D1F0398ABF5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D95862-080C-7B42-BD42-8AF2875F685D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="157">
   <si>
     <t>Date</t>
   </si>
@@ -505,6 +505,12 @@
   </si>
   <si>
     <t>https://www.gov.ie/en/press-release/e2be7b-statement-from-the-national-public-health-emergency-team-wednesday-1/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/news/7e0924-latest-updates-on-covid-19-coronavirus/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/0906df-statement-from-the-national-public-health-emergency-team-thursday-16/</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1380,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1392,10 +1398,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43934.788194444445</v>
+        <v>43935.820833333331</v>
       </c>
       <c r="B2" s="12">
-        <v>43936.788194444445</v>
+        <v>43937.820833333331</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1408,14 +1414,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AE50F-07C0-7048-95B5-0C81D93B81F0}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
   </cols>
@@ -2293,11 +2298,11 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <f t="shared" ref="A80:A100" si="0">A69+1</f>
+        <f t="shared" ref="A80:A89" si="0">A69+1</f>
         <v>43931</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" ref="B80:B100" si="1">B69</f>
+        <f t="shared" ref="B80:B111" si="1">B69</f>
         <v>Ards And North Down</v>
       </c>
       <c r="C80" s="8">
@@ -2554,7 +2559,136 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="1"/>
+      <c r="A101" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B101" t="str">
+        <f>B90</f>
+        <v>Antrim And Newtownabbey</v>
+      </c>
+      <c r="C101" s="8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="1"/>
+        <v>Ards And North Down</v>
+      </c>
+      <c r="C102" s="8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="1"/>
+        <v>Armagh, Banbridge And Craigavon</v>
+      </c>
+      <c r="C103" s="8">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="1"/>
+        <v>Belfast</v>
+      </c>
+      <c r="C104" s="8">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="1"/>
+        <v>Causeway Coast And Glens</v>
+      </c>
+      <c r="C105" s="8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="1"/>
+        <v>Derry And Strabane</v>
+      </c>
+      <c r="C106" s="8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="1"/>
+        <v>Fermanagh And Omagh</v>
+      </c>
+      <c r="C107" s="8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="1"/>
+        <v>Lisburn And Castlereagh</v>
+      </c>
+      <c r="C108" s="8">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="1"/>
+        <v>Mid And East Antrim</v>
+      </c>
+      <c r="C109" s="8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="1"/>
+        <v>Mid Ulster</v>
+      </c>
+      <c r="C110" s="8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="1"/>
+        <v>Newry, Mourne And Down</v>
+      </c>
+      <c r="C111" s="8">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2685,13 +2819,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3623,7 +3757,7 @@
         <v>4916</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" ref="D27:D38" si="0">C27-C26</f>
+        <f t="shared" ref="D27:D39" si="0">C27-C26</f>
         <v>473</v>
       </c>
       <c r="E27" s="5">
@@ -3977,35 +4111,35 @@
         <v>43935</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C37" s="5">
-        <v>11479</v>
+        <v>12425</v>
       </c>
       <c r="D37" s="5">
         <f t="shared" si="0"/>
-        <v>218</v>
-      </c>
-      <c r="E37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" t="s">
-        <v>8</v>
+        <v>1164</v>
+      </c>
+      <c r="E37">
+        <v>2026</v>
+      </c>
+      <c r="F37">
+        <v>284</v>
       </c>
       <c r="G37" s="5">
-        <v>406</v>
-      </c>
-      <c r="H37" t="s">
-        <v>8</v>
-      </c>
-      <c r="I37" t="s">
-        <v>8</v>
-      </c>
-      <c r="J37" t="s">
-        <v>8</v>
+        <v>480</v>
+      </c>
+      <c r="H37">
+        <v>2451</v>
+      </c>
+      <c r="I37">
+        <v>425</v>
+      </c>
+      <c r="J37">
+        <v>48</v>
       </c>
       <c r="K37" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4020,7 +4154,7 @@
       </c>
       <c r="D38" s="5">
         <f t="shared" si="0"/>
-        <v>1068</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
@@ -4042,6 +4176,42 @@
       </c>
       <c r="K38" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="5">
+        <v>13271</v>
+      </c>
+      <c r="D39" s="5">
+        <f t="shared" si="0"/>
+        <v>724</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="5">
+        <v>486</v>
+      </c>
+      <c r="H39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4051,10 +4221,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView topLeftCell="A59" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4994,7 +5164,7 @@
         <v>43929</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B83" si="1">B64</f>
+        <f t="shared" ref="B67:B86" si="1">B64</f>
         <v>Male</v>
       </c>
       <c r="C67">
@@ -5242,6 +5412,51 @@
         <v>100</v>
       </c>
       <c r="D83">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B84" t="str">
+        <f>B81</f>
+        <v>Female</v>
+      </c>
+      <c r="C84">
+        <v>6778</v>
+      </c>
+      <c r="D84">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="1"/>
+        <v>Male</v>
+      </c>
+      <c r="C85">
+        <v>5336</v>
+      </c>
+      <c r="D85">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C86">
+        <v>111</v>
+      </c>
+      <c r="D86">
         <v>0.9</v>
       </c>
     </row>
@@ -5252,11 +5467,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:F314"/>
+  <dimension ref="A1:F325"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C314" sqref="C314"/>
+      <selection pane="bottomLeft" activeCell="A324" sqref="A324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9683,6 +9898,160 @@
         <v>2</v>
       </c>
     </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A315" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C315">
+        <v>28</v>
+      </c>
+      <c r="D315" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A316" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C316">
+        <v>44</v>
+      </c>
+      <c r="D316" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A317" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C317" t="s">
+        <v>8</v>
+      </c>
+      <c r="D317">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A318" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C318">
+        <v>124</v>
+      </c>
+      <c r="D318">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A319" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C319">
+        <v>809</v>
+      </c>
+      <c r="D319">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A320" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C320">
+        <v>2145</v>
+      </c>
+      <c r="D320">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C321">
+        <v>2315</v>
+      </c>
+      <c r="D321">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C322">
+        <v>2395</v>
+      </c>
+      <c r="D322">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C323">
+        <v>1806</v>
+      </c>
+      <c r="D323">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C324">
+        <v>2739</v>
+      </c>
+      <c r="D324">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C325">
+        <v>20</v>
+      </c>
+      <c r="D325">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9690,11 +10059,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
+      <selection pane="bottomLeft" activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10916,7 +11285,7 @@
         <v>43929</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" ref="B87:B103" si="1">B84</f>
+        <f t="shared" ref="B87:B106" si="1">B84</f>
         <v>Close contact with confirmed case</v>
       </c>
       <c r="C87" s="11">
@@ -11164,6 +11533,51 @@
         <v>6</v>
       </c>
       <c r="D103" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B104" t="str">
+        <f>B101</f>
+        <v>Community transmission</v>
+      </c>
+      <c r="C104" s="11">
+        <v>51</v>
+      </c>
+      <c r="D104" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="1"/>
+        <v>Close contact with confirmed case</v>
+      </c>
+      <c r="C105" s="11">
+        <v>43</v>
+      </c>
+      <c r="D105" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="1"/>
+        <v>Travel Abroad</v>
+      </c>
+      <c r="C106" s="11">
+        <v>6</v>
+      </c>
+      <c r="D106" t="s">
         <v>106</v>
       </c>
     </row>
@@ -11174,10 +11588,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E749"/>
+  <dimension ref="A1:E775"/>
   <sheetViews>
-    <sheetView topLeftCell="A710" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D739" sqref="D739"/>
+    <sheetView topLeftCell="A729" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D751" sqref="D751"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21978,7 +22392,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
         <v>43934</v>
       </c>
@@ -21992,7 +22406,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
         <v>43934</v>
       </c>
@@ -22006,7 +22420,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
         <v>43934</v>
       </c>
@@ -22020,7 +22434,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
         <v>43934</v>
       </c>
@@ -22034,7 +22448,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
         <v>43934</v>
       </c>
@@ -22048,7 +22462,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
         <v>43934</v>
       </c>
@@ -22062,7 +22476,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
         <v>43934</v>
       </c>
@@ -22076,7 +22490,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
         <v>43934</v>
       </c>
@@ -22090,7 +22504,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
         <v>43934</v>
       </c>
@@ -22104,7 +22518,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
         <v>43934</v>
       </c>
@@ -22118,7 +22532,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
         <v>43934</v>
       </c>
@@ -22132,7 +22546,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
         <v>43934</v>
       </c>
@@ -22146,7 +22560,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
         <v>43934</v>
       </c>
@@ -22158,6 +22572,371 @@
       </c>
       <c r="D749" s="3">
         <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A750" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B750" t="s">
+        <v>12</v>
+      </c>
+      <c r="C750">
+        <v>59</v>
+      </c>
+      <c r="D750" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A751" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B751" t="s">
+        <v>14</v>
+      </c>
+      <c r="C751">
+        <v>310</v>
+      </c>
+      <c r="D751" s="3">
+        <v>2.2000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A752" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B752" t="s">
+        <v>15</v>
+      </c>
+      <c r="C752">
+        <v>119</v>
+      </c>
+      <c r="D752" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E752" s="3"/>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A753" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B753" t="s">
+        <v>16</v>
+      </c>
+      <c r="C753">
+        <v>916</v>
+      </c>
+      <c r="D753" s="3">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A754" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B754" t="s">
+        <v>17</v>
+      </c>
+      <c r="C754">
+        <v>320</v>
+      </c>
+      <c r="D754" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A755" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B755" t="s">
+        <v>18</v>
+      </c>
+      <c r="C755">
+        <v>6337</v>
+      </c>
+      <c r="D755" s="2">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A756" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B756" t="s">
+        <v>19</v>
+      </c>
+      <c r="C756">
+        <v>260</v>
+      </c>
+      <c r="D756" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A757" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B757" t="s">
+        <v>20</v>
+      </c>
+      <c r="C757">
+        <v>246</v>
+      </c>
+      <c r="D757" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A758" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B758" t="s">
+        <v>21</v>
+      </c>
+      <c r="C758">
+        <v>567</v>
+      </c>
+      <c r="D758" s="3">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A759" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B759" t="s">
+        <v>22</v>
+      </c>
+      <c r="C759">
+        <v>173</v>
+      </c>
+      <c r="D759" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A760" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B760" t="s">
+        <v>36</v>
+      </c>
+      <c r="C760">
+        <v>133</v>
+      </c>
+      <c r="D760" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A761" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B761" t="s">
+        <v>37</v>
+      </c>
+      <c r="C761">
+        <v>43</v>
+      </c>
+      <c r="D761" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A762" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B762" t="s">
+        <v>23</v>
+      </c>
+      <c r="C762">
+        <v>307</v>
+      </c>
+      <c r="D762" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A763" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B763" t="s">
+        <v>24</v>
+      </c>
+      <c r="C763">
+        <v>77</v>
+      </c>
+      <c r="D763" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A764" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B764" t="s">
+        <v>25</v>
+      </c>
+      <c r="C764">
+        <v>350</v>
+      </c>
+      <c r="D764" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A765" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B765" t="s">
+        <v>26</v>
+      </c>
+      <c r="C765">
+        <v>249</v>
+      </c>
+      <c r="D765" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A766" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B766" t="s">
+        <v>27</v>
+      </c>
+      <c r="C766">
+        <v>405</v>
+      </c>
+      <c r="D766" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A767" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B767" t="s">
+        <v>38</v>
+      </c>
+      <c r="C767">
+        <v>161</v>
+      </c>
+      <c r="D767" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A768" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B768" t="s">
+        <v>28</v>
+      </c>
+      <c r="C768">
+        <v>163</v>
+      </c>
+      <c r="D768" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A769" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B769" t="s">
+        <v>29</v>
+      </c>
+      <c r="C769">
+        <v>57</v>
+      </c>
+      <c r="D769" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A770" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B770" t="s">
+        <v>30</v>
+      </c>
+      <c r="C770">
+        <v>66</v>
+      </c>
+      <c r="D770" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A771" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B771" t="s">
+        <v>31</v>
+      </c>
+      <c r="C771">
+        <v>251</v>
+      </c>
+      <c r="D771" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A772" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B772" t="s">
+        <v>32</v>
+      </c>
+      <c r="C772">
+        <v>101</v>
+      </c>
+      <c r="D772" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A773" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B773" t="s">
+        <v>33</v>
+      </c>
+      <c r="C773">
+        <v>309</v>
+      </c>
+      <c r="D773" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A774" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B774" t="s">
+        <v>34</v>
+      </c>
+      <c r="C774">
+        <v>71</v>
+      </c>
+      <c r="D774" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A775" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B775" t="s">
+        <v>35</v>
+      </c>
+      <c r="C775">
+        <v>375</v>
+      </c>
+      <c r="D775" s="2">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -22167,10 +22946,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22221,7 +23000,7 @@
         <v>6450</v>
       </c>
       <c r="G2" s="10">
-        <f t="shared" ref="G2:G16" si="0">D2/F2</f>
+        <f t="shared" ref="G2:G17" si="0">D2/F2</f>
         <v>0.10682170542635659</v>
       </c>
     </row>
@@ -22559,6 +23338,30 @@
       <c r="G16" s="10">
         <f t="shared" si="0"/>
         <v>0.15272088940901113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B17">
+        <v>113</v>
+      </c>
+      <c r="C17">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>2201</v>
+      </c>
+      <c r="E17">
+        <v>158</v>
+      </c>
+      <c r="F17">
+        <v>14240</v>
+      </c>
+      <c r="G17" s="10">
+        <f t="shared" si="0"/>
+        <v>0.15456460674157305</v>
       </c>
     </row>
   </sheetData>
@@ -22571,10 +23374,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0979910-C687-6A43-A609-0D992245C102}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22843,7 +23646,7 @@
         <v>43931</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" ref="B24:B28" si="1">B21</f>
+        <f t="shared" ref="B24:B31" si="1">B21</f>
         <v>Female</v>
       </c>
       <c r="C24">
@@ -22896,6 +23699,42 @@
         <v>Unknown</v>
       </c>
       <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B29" t="str">
+        <f>B26</f>
+        <v>Male</v>
+      </c>
+      <c r="C29">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="1"/>
+        <v>Female</v>
+      </c>
+      <c r="C30">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C31">
         <v>1</v>
       </c>
     </row>
@@ -22906,10 +23745,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD393D6-56CC-E749-BDF2-72DC274BB8BB}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="O1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23175,7 +24014,7 @@
         <v>43931</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" ref="B24:B28" si="1">B21</f>
+        <f t="shared" ref="B24:B31" si="1">B21</f>
         <v>45_to_69</v>
       </c>
       <c r="C24">
@@ -23231,6 +24070,42 @@
         <v>632</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B29" t="str">
+        <f>B26</f>
+        <v>0_to_44</v>
+      </c>
+      <c r="C29">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="1"/>
+        <v>45_to_69</v>
+      </c>
+      <c r="C30">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="1"/>
+        <v>70+</v>
+      </c>
+      <c r="C31">
+        <v>668</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewparnell/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D95862-080C-7B42-BD42-8AF2875F685D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4CC9E5-B4CA-0543-8707-4A2A02F79502}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -19,11 +19,12 @@
     <sheet name="by_age" sheetId="3" r:id="rId4"/>
     <sheet name="by_transmission" sheetId="4" r:id="rId5"/>
     <sheet name="by_county" sheetId="2" r:id="rId6"/>
-    <sheet name="NI_totals" sheetId="7" r:id="rId7"/>
-    <sheet name="NI_gender" sheetId="8" r:id="rId8"/>
-    <sheet name="NI_age" sheetId="9" r:id="rId9"/>
-    <sheet name="NI_district" sheetId="10" r:id="rId10"/>
-    <sheet name="NI_county_lookup" sheetId="11" r:id="rId11"/>
+    <sheet name="gender_deaths" sheetId="12" r:id="rId7"/>
+    <sheet name="NI_totals" sheetId="7" r:id="rId8"/>
+    <sheet name="NI_gender" sheetId="8" r:id="rId9"/>
+    <sheet name="NI_age" sheetId="9" r:id="rId10"/>
+    <sheet name="NI_district" sheetId="10" r:id="rId11"/>
+    <sheet name="NI_county_lookup" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="160">
   <si>
     <t>Date</t>
   </si>
@@ -512,11 +513,23 @@
   <si>
     <t>https://www.gov.ie/en/press-release/0906df-statement-from-the-national-public-health-emergency-team-thursday-16/</t>
   </si>
+  <si>
+    <t>Daily deaths (provisional)</t>
+  </si>
+  <si>
+    <t>Cumulative deaths</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1002,7 +1015,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1021,6 +1034,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1413,10 +1427,378 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD393D6-56CC-E749-BDF2-72DC274BB8BB}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <f>A20+1</f>
+        <v>43931</v>
+      </c>
+      <c r="B23" t="str">
+        <f>B20</f>
+        <v>0_to_44</v>
+      </c>
+      <c r="C23">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <f t="shared" ref="A24:A25" si="0">A21+1</f>
+        <v>43931</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" ref="B24:B31" si="1">B21</f>
+        <v>45_to_69</v>
+      </c>
+      <c r="C24">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>43931</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="1"/>
+        <v>70+</v>
+      </c>
+      <c r="C25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B26" t="str">
+        <f>B23</f>
+        <v>0_to_44</v>
+      </c>
+      <c r="C26">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="1"/>
+        <v>45_to_69</v>
+      </c>
+      <c r="C27">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="1"/>
+        <v>70+</v>
+      </c>
+      <c r="C28">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B29" t="str">
+        <f>B26</f>
+        <v>0_to_44</v>
+      </c>
+      <c r="C29">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="1"/>
+        <v>45_to_69</v>
+      </c>
+      <c r="C30">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="1"/>
+        <v>70+</v>
+      </c>
+      <c r="C31">
+        <v>668</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AE50F-07C0-7048-95B5-0C81D93B81F0}">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2695,7 +3077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD4AFB0-01E2-7B4F-9AF4-304BF909169C}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -2825,7 +3207,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4223,13 +4605,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -22945,6 +23330,701 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142B833B-877B-3C49-9423-E5D043A0EF43}">
+  <dimension ref="A1:E45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <f>C2</f>
+        <v>19</v>
+      </c>
+      <c r="E2" s="14">
+        <f>D2/SUM(D2:D3)</f>
+        <v>0.26760563380281688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3">
+        <v>52</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3" si="0">C3</f>
+        <v>52</v>
+      </c>
+      <c r="E3" s="14">
+        <f>D3/SUM(D2:D3)</f>
+        <v>0.73239436619718312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <f>D2+C4</f>
+        <v>26</v>
+      </c>
+      <c r="E4" s="14">
+        <f>D4/SUM(D4:D5)</f>
+        <v>0.30588235294117649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <f>D3+C5</f>
+        <v>59</v>
+      </c>
+      <c r="E5" s="14">
+        <f>D5/SUM(D4:D5)</f>
+        <v>0.69411764705882351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D33" si="1">D4+C6</f>
+        <v>30</v>
+      </c>
+      <c r="E6" s="14">
+        <f>D6/SUM(D6:D7)</f>
+        <v>0.30612244897959184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="E7" s="14">
+        <f>D7/SUM(D6:D7)</f>
+        <v>0.69387755102040816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="E8" s="14">
+        <f>D8/SUM(D8:D9)</f>
+        <v>0.34166666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="E9" s="14">
+        <f>D9/SUM(D8:D9)</f>
+        <v>0.65833333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="E10" s="14">
+        <f>D10/SUM(D10:D11)</f>
+        <v>0.32846715328467152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="E11" s="14">
+        <f>D11/SUM(D10:D11)</f>
+        <v>0.67153284671532842</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="E12" s="14">
+        <f>D12/SUM(D12:D13)</f>
+        <v>0.34177215189873417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="E13" s="14">
+        <f>D13/SUM(D12:D13)</f>
+        <v>0.65822784810126578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="E14" s="14">
+        <f>D14/SUM(D14:D15)</f>
+        <v>0.34482758620689657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="E15" s="14">
+        <f>D15/SUM(D14:D15)</f>
+        <v>0.65517241379310343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="E16" s="14">
+        <f>D16/SUM(D16:D17)</f>
+        <v>0.36666666666666664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+      <c r="E17" s="14">
+        <f>D17/SUM(D16:D17)</f>
+        <v>0.6333333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f>A16+1</f>
+        <v>43929</v>
+      </c>
+      <c r="B18" t="str">
+        <f>B16</f>
+        <v>Female</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="E18" s="14">
+        <f>D18/SUM(D18:D19)</f>
+        <v>0.37021276595744679</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f>A17+1</f>
+        <v>43929</v>
+      </c>
+      <c r="B19" t="str">
+        <f>B17</f>
+        <v>Male</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>148</v>
+      </c>
+      <c r="E19" s="14">
+        <f>D19/SUM(D18:D19)</f>
+        <v>0.62978723404255321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B20" t="str">
+        <f>B18</f>
+        <v>Female</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="E20" s="14">
+        <f>D20/SUM(D20:D21)</f>
+        <v>0.38783269961977185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B21" t="str">
+        <f>B19</f>
+        <v>Male</v>
+      </c>
+      <c r="C21">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>161</v>
+      </c>
+      <c r="E21" s="14">
+        <f>D21/SUM(D20:D21)</f>
+        <v>0.61216730038022815</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B22" t="str">
+        <f>B20</f>
+        <v>Female</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="E22" s="14">
+        <f>D22/SUM(D22:D23)</f>
+        <v>0.3923611111111111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B23" t="str">
+        <f>B21</f>
+        <v>Male</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="E23" s="14">
+        <f>D23/SUM(D22:D23)</f>
+        <v>0.60763888888888884</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B24" t="str">
+        <f>B22</f>
+        <v>Female</v>
+      </c>
+      <c r="C24">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="E24" s="14">
+        <f>D24/SUM(D24:D25)</f>
+        <v>0.39563862928348908</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B25" t="str">
+        <f>B23</f>
+        <v>Male</v>
+      </c>
+      <c r="C25">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>194</v>
+      </c>
+      <c r="E25" s="14">
+        <f>D25/SUM(D24:D25)</f>
+        <v>0.60436137071651086</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B26" t="str">
+        <f>B24</f>
+        <v>Female</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+      <c r="E26" s="14">
+        <f>D26/SUM(D26:D27)</f>
+        <v>0.39701492537313432</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B27" t="str">
+        <f>B25</f>
+        <v>Male</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
+      <c r="E27" s="14">
+        <f>D27/SUM(D26:D27)</f>
+        <v>0.60298507462686568</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B28" t="str">
+        <f>B26</f>
+        <v>Female</v>
+      </c>
+      <c r="C28">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>151</v>
+      </c>
+      <c r="E28" s="14">
+        <f>D28/SUM(D28:D29)</f>
+        <v>0.41256830601092898</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B29" t="str">
+        <f>B27</f>
+        <v>Male</v>
+      </c>
+      <c r="C29">
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>215</v>
+      </c>
+      <c r="E29" s="14">
+        <f>D29/SUM(D28:D29)</f>
+        <v>0.58743169398907102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B30" t="str">
+        <f>B28</f>
+        <v>Female</v>
+      </c>
+      <c r="C30">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>167</v>
+      </c>
+      <c r="E30" s="14">
+        <f>D30/SUM(D30:D31)</f>
+        <v>0.41031941031941033</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B31" t="str">
+        <f>B29</f>
+        <v>Male</v>
+      </c>
+      <c r="C31">
+        <v>25</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="E31" s="14">
+        <f>D31/SUM(D30:D31)</f>
+        <v>0.58968058968058967</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B32" t="str">
+        <f>B30</f>
+        <v>Female</v>
+      </c>
+      <c r="C32">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>183</v>
+      </c>
+      <c r="E32" s="14">
+        <f>D32/SUM(D32:D33)</f>
+        <v>0.41123595505617977</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B33" t="str">
+        <f>B31</f>
+        <v>Male</v>
+      </c>
+      <c r="C33">
+        <v>22</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>262</v>
+      </c>
+      <c r="E33" s="14">
+        <f>D33/SUM(D32:D33)</f>
+        <v>0.58876404494382018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="14"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E35" s="14"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E45" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -23372,7 +24452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0979910-C687-6A43-A609-0D992245C102}">
   <dimension ref="A1:C31"/>
   <sheetViews>
@@ -23741,372 +24821,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD393D6-56CC-E749-BDF2-72DC274BB8BB}">
-  <dimension ref="A1:C31"/>
-  <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>43922</v>
-      </c>
-      <c r="B2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>43922</v>
-      </c>
-      <c r="B3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>43922</v>
-      </c>
-      <c r="B4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>43923</v>
-      </c>
-      <c r="B5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>43923</v>
-      </c>
-      <c r="B6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>43923</v>
-      </c>
-      <c r="B7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>43924</v>
-      </c>
-      <c r="B8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>43924</v>
-      </c>
-      <c r="B9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>43924</v>
-      </c>
-      <c r="B10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>43927</v>
-      </c>
-      <c r="B11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>43927</v>
-      </c>
-      <c r="B12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>43927</v>
-      </c>
-      <c r="B13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>43928</v>
-      </c>
-      <c r="B14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>43928</v>
-      </c>
-      <c r="B15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>43928</v>
-      </c>
-      <c r="B16" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>43929</v>
-      </c>
-      <c r="B17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>43929</v>
-      </c>
-      <c r="B18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>43929</v>
-      </c>
-      <c r="B19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>43930</v>
-      </c>
-      <c r="B20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>43930</v>
-      </c>
-      <c r="B21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>43930</v>
-      </c>
-      <c r="B22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <f>A20+1</f>
-        <v>43931</v>
-      </c>
-      <c r="B23" t="str">
-        <f>B20</f>
-        <v>0_to_44</v>
-      </c>
-      <c r="C23">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <f t="shared" ref="A24:A25" si="0">A21+1</f>
-        <v>43931</v>
-      </c>
-      <c r="B24" t="str">
-        <f t="shared" ref="B24:B31" si="1">B21</f>
-        <v>45_to_69</v>
-      </c>
-      <c r="C24">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <f t="shared" si="0"/>
-        <v>43931</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" si="1"/>
-        <v>70+</v>
-      </c>
-      <c r="C25">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B26" t="str">
-        <f>B23</f>
-        <v>0_to_44</v>
-      </c>
-      <c r="C26">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B27" t="str">
-        <f t="shared" si="1"/>
-        <v>45_to_69</v>
-      </c>
-      <c r="C27">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B28" t="str">
-        <f t="shared" si="1"/>
-        <v>70+</v>
-      </c>
-      <c r="C28">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B29" t="str">
-        <f>B26</f>
-        <v>0_to_44</v>
-      </c>
-      <c r="C29">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B30" t="str">
-        <f t="shared" si="1"/>
-        <v>45_to_69</v>
-      </c>
-      <c r="C30">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B31" t="str">
-        <f t="shared" si="1"/>
-        <v>70+</v>
-      </c>
-      <c r="C31">
-        <v>668</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewparnell/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4CC9E5-B4CA-0543-8707-4A2A02F79502}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC58E50-370D-E642-9E55-9A308AA2E0B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="161">
   <si>
     <t>Date</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/78ca7b-statement-from-the-national-public-health-emergency-team-friday-17-a/</t>
   </si>
 </sst>
 </file>
@@ -1412,10 +1415,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43935.820833333331</v>
+        <v>43936.786805555559</v>
       </c>
       <c r="B2" s="12">
-        <v>43937.820833333331</v>
+        <v>43938.786805555559</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1428,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD393D6-56CC-E749-BDF2-72DC274BB8BB}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1697,7 +1700,7 @@
         <v>43931</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" ref="B24:B31" si="1">B21</f>
+        <f t="shared" ref="B24:B34" si="1">B21</f>
         <v>45_to_69</v>
       </c>
       <c r="C24">
@@ -1787,6 +1790,42 @@
       </c>
       <c r="C31">
         <v>668</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B32" t="str">
+        <f>B29</f>
+        <v>0_to_44</v>
+      </c>
+      <c r="C32">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="1"/>
+        <v>45_to_69</v>
+      </c>
+      <c r="C33">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="1"/>
+        <v>70+</v>
+      </c>
+      <c r="C34">
+        <v>722</v>
       </c>
     </row>
   </sheetData>
@@ -1796,9 +1835,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AE50F-07C0-7048-95B5-0C81D93B81F0}">
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2684,7 +2725,7 @@
         <v>43931</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" ref="B80:B111" si="1">B69</f>
+        <f t="shared" ref="B80:B122" si="1">B69</f>
         <v>Ards And North Down</v>
       </c>
       <c r="C80" s="8">
@@ -3070,6 +3111,138 @@
       </c>
       <c r="C111" s="8">
         <v>132</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B112" t="str">
+        <f>B101</f>
+        <v>Antrim And Newtownabbey</v>
+      </c>
+      <c r="C112" s="8">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B113" t="str">
+        <f t="shared" si="1"/>
+        <v>Ards And North Down</v>
+      </c>
+      <c r="C113" s="8">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B114" t="str">
+        <f t="shared" si="1"/>
+        <v>Armagh, Banbridge And Craigavon</v>
+      </c>
+      <c r="C114" s="8">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B115" t="str">
+        <f t="shared" si="1"/>
+        <v>Belfast</v>
+      </c>
+      <c r="C115" s="8">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B116" t="str">
+        <f t="shared" si="1"/>
+        <v>Causeway Coast And Glens</v>
+      </c>
+      <c r="C116" s="8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B117" t="str">
+        <f t="shared" si="1"/>
+        <v>Derry And Strabane</v>
+      </c>
+      <c r="C117" s="8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B118" t="str">
+        <f t="shared" si="1"/>
+        <v>Fermanagh And Omagh</v>
+      </c>
+      <c r="C118" s="8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B119" t="str">
+        <f t="shared" si="1"/>
+        <v>Lisburn And Castlereagh</v>
+      </c>
+      <c r="C119" s="8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B120" t="str">
+        <f t="shared" si="1"/>
+        <v>Mid And East Antrim</v>
+      </c>
+      <c r="C120" s="8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B121" t="str">
+        <f t="shared" si="1"/>
+        <v>Mid Ulster</v>
+      </c>
+      <c r="C121" s="8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B122" t="str">
+        <f t="shared" si="1"/>
+        <v>Newry, Mourne And Down</v>
+      </c>
+      <c r="C122" s="8">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3201,13 +3374,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
+      <selection pane="bottomRight" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4139,7 +4312,7 @@
         <v>4916</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" ref="D27:D39" si="0">C27-C26</f>
+        <f t="shared" ref="D27:D40" si="0">C27-C26</f>
         <v>473</v>
       </c>
       <c r="E27" s="5">
@@ -4529,35 +4702,35 @@
         <v>43936</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" s="5">
-        <v>12547</v>
+        <v>13012</v>
       </c>
       <c r="D38" s="5">
         <f t="shared" si="0"/>
-        <v>122</v>
-      </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" t="s">
-        <v>8</v>
+        <v>587</v>
+      </c>
+      <c r="E38">
+        <v>2082</v>
+      </c>
+      <c r="F38">
+        <v>194</v>
       </c>
       <c r="G38" s="5">
-        <v>444</v>
-      </c>
-      <c r="H38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J38" t="s">
-        <v>8</v>
+        <v>521</v>
+      </c>
+      <c r="H38">
+        <v>2723</v>
+      </c>
+      <c r="I38">
+        <v>436</v>
+      </c>
+      <c r="J38">
+        <v>48</v>
       </c>
       <c r="K38" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4572,7 +4745,7 @@
       </c>
       <c r="D39" s="5">
         <f t="shared" si="0"/>
-        <v>724</v>
+        <v>259</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
@@ -4593,6 +4766,42 @@
         <v>8</v>
       </c>
       <c r="K39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="5">
+        <v>13980</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" si="0"/>
+        <v>709</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="5">
+        <v>530</v>
+      </c>
+      <c r="H40" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" t="s">
+        <v>8</v>
+      </c>
+      <c r="K40" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4603,11 +4812,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5549,7 +5758,7 @@
         <v>43929</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B86" si="1">B64</f>
+        <f t="shared" ref="B67:B89" si="1">B64</f>
         <v>Male</v>
       </c>
       <c r="C67">
@@ -5842,6 +6051,51 @@
         <v>111</v>
       </c>
       <c r="D86">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B87" t="str">
+        <f>B84</f>
+        <v>Female</v>
+      </c>
+      <c r="C87">
+        <v>7117</v>
+      </c>
+      <c r="D87">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="1"/>
+        <v>Male</v>
+      </c>
+      <c r="C88">
+        <v>5773</v>
+      </c>
+      <c r="D88">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C89">
+        <v>122</v>
+      </c>
+      <c r="D89">
         <v>0.9</v>
       </c>
     </row>
@@ -5852,11 +6106,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:F325"/>
+  <dimension ref="A1:F336"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A324" sqref="A324"/>
+      <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E332" sqref="E332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10367,7 +10621,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>43935</v>
       </c>
@@ -10381,7 +10635,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>43935</v>
       </c>
@@ -10395,7 +10649,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>43935</v>
       </c>
@@ -10409,7 +10663,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>43935</v>
       </c>
@@ -10423,7 +10677,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>43935</v>
       </c>
@@ -10436,6 +10690,171 @@
       <c r="D325">
         <v>2</v>
       </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A326" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C326">
+        <v>27</v>
+      </c>
+      <c r="D326" t="s">
+        <v>8</v>
+      </c>
+      <c r="F326" s="14"/>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A327" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C327">
+        <v>44</v>
+      </c>
+      <c r="D327" t="s">
+        <v>8</v>
+      </c>
+      <c r="F327" s="14"/>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A328" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C328" t="s">
+        <v>8</v>
+      </c>
+      <c r="D328">
+        <v>13</v>
+      </c>
+      <c r="F328" s="14"/>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A329" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C329">
+        <v>136</v>
+      </c>
+      <c r="D329">
+        <v>5</v>
+      </c>
+      <c r="F329" s="14"/>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A330" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C330">
+        <v>846</v>
+      </c>
+      <c r="D330">
+        <v>44</v>
+      </c>
+      <c r="F330" s="14"/>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A331" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C331">
+        <v>2231</v>
+      </c>
+      <c r="D331">
+        <v>134</v>
+      </c>
+      <c r="F331" s="14"/>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A332" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C332">
+        <v>2415</v>
+      </c>
+      <c r="D332">
+        <v>168</v>
+      </c>
+      <c r="F332" s="14"/>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A333" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C333">
+        <v>2498</v>
+      </c>
+      <c r="D333">
+        <v>304</v>
+      </c>
+      <c r="F333" s="14"/>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A334" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C334">
+        <v>1806</v>
+      </c>
+      <c r="D334">
+        <v>318</v>
+      </c>
+      <c r="F334" s="14"/>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A335" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C335">
+        <v>2862</v>
+      </c>
+      <c r="D335">
+        <v>1094</v>
+      </c>
+      <c r="F335" s="14"/>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A336" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C336">
+        <v>20</v>
+      </c>
+      <c r="D336">
+        <v>2</v>
+      </c>
+      <c r="F336" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10444,11 +10863,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B108" sqref="B108"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D107" sqref="D107:D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11670,7 +12089,7 @@
         <v>43929</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" ref="B87:B106" si="1">B84</f>
+        <f t="shared" ref="B87:B109" si="1">B84</f>
         <v>Close contact with confirmed case</v>
       </c>
       <c r="C87" s="11">
@@ -11963,6 +12382,51 @@
         <v>6</v>
       </c>
       <c r="D106" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B107" t="str">
+        <f>B104</f>
+        <v>Community transmission</v>
+      </c>
+      <c r="C107" s="11">
+        <v>52</v>
+      </c>
+      <c r="D107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="1"/>
+        <v>Close contact with confirmed case</v>
+      </c>
+      <c r="C108" s="11">
+        <v>42</v>
+      </c>
+      <c r="D108" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="1"/>
+        <v>Travel Abroad</v>
+      </c>
+      <c r="C109" s="11">
+        <v>6</v>
+      </c>
+      <c r="D109" t="s">
         <v>106</v>
       </c>
     </row>
@@ -11973,10 +12437,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E775"/>
+  <dimension ref="A1:E801"/>
   <sheetViews>
-    <sheetView topLeftCell="A729" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D751" sqref="D751"/>
+    <sheetView topLeftCell="A763" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B785" sqref="B785"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23324,6 +23788,370 @@
         <v>0.03</v>
       </c>
     </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A776" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B776" t="s">
+        <v>12</v>
+      </c>
+      <c r="C776">
+        <v>59</v>
+      </c>
+      <c r="D776" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A777" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B777" t="s">
+        <v>14</v>
+      </c>
+      <c r="C777">
+        <v>345</v>
+      </c>
+      <c r="D777" s="3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A778" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B778" t="s">
+        <v>15</v>
+      </c>
+      <c r="C778">
+        <v>136</v>
+      </c>
+      <c r="D778" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A779" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B779" t="s">
+        <v>16</v>
+      </c>
+      <c r="C779">
+        <v>945</v>
+      </c>
+      <c r="D779" s="3">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A780" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B780" t="s">
+        <v>17</v>
+      </c>
+      <c r="C780">
+        <v>352</v>
+      </c>
+      <c r="D780" s="3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A781" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B781" t="s">
+        <v>18</v>
+      </c>
+      <c r="C781">
+        <v>6567</v>
+      </c>
+      <c r="D781" s="3">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A782" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B782" t="s">
+        <v>19</v>
+      </c>
+      <c r="C782">
+        <v>266</v>
+      </c>
+      <c r="D782" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A783" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B783" t="s">
+        <v>20</v>
+      </c>
+      <c r="C783">
+        <v>254</v>
+      </c>
+      <c r="D783" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A784" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B784" t="s">
+        <v>21</v>
+      </c>
+      <c r="C784">
+        <v>621</v>
+      </c>
+      <c r="D784" s="3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A785" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B785" t="s">
+        <v>22</v>
+      </c>
+      <c r="C785">
+        <v>179</v>
+      </c>
+      <c r="D785" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A786" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B786" t="s">
+        <v>36</v>
+      </c>
+      <c r="C786">
+        <v>139</v>
+      </c>
+      <c r="D786" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A787" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B787" t="s">
+        <v>37</v>
+      </c>
+      <c r="C787">
+        <v>46</v>
+      </c>
+      <c r="D787" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A788" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B788" t="s">
+        <v>23</v>
+      </c>
+      <c r="C788">
+        <v>343</v>
+      </c>
+      <c r="D788" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A789" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B789" t="s">
+        <v>24</v>
+      </c>
+      <c r="C789">
+        <v>79</v>
+      </c>
+      <c r="D789" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A790" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B790" t="s">
+        <v>25</v>
+      </c>
+      <c r="C790">
+        <v>384</v>
+      </c>
+      <c r="D790" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A791" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B791" t="s">
+        <v>26</v>
+      </c>
+      <c r="C791">
+        <v>259</v>
+      </c>
+      <c r="D791" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A792" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B792" t="s">
+        <v>27</v>
+      </c>
+      <c r="C792">
+        <v>421</v>
+      </c>
+      <c r="D792" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A793" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B793" t="s">
+        <v>38</v>
+      </c>
+      <c r="C793">
+        <v>166</v>
+      </c>
+      <c r="D793" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A794" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B794" t="s">
+        <v>28</v>
+      </c>
+      <c r="C794">
+        <v>171</v>
+      </c>
+      <c r="D794" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A795" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B795" t="s">
+        <v>29</v>
+      </c>
+      <c r="C795">
+        <v>61</v>
+      </c>
+      <c r="D795" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A796" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B796" t="s">
+        <v>30</v>
+      </c>
+      <c r="C796">
+        <v>69</v>
+      </c>
+      <c r="D796" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A797" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B797" t="s">
+        <v>31</v>
+      </c>
+      <c r="C797">
+        <v>270</v>
+      </c>
+      <c r="D797" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A798" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B798" t="s">
+        <v>32</v>
+      </c>
+      <c r="C798">
+        <v>102</v>
+      </c>
+      <c r="D798" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A799" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B799" t="s">
+        <v>33</v>
+      </c>
+      <c r="C799">
+        <v>318</v>
+      </c>
+      <c r="D799" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A800" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B800" t="s">
+        <v>34</v>
+      </c>
+      <c r="C800">
+        <v>76</v>
+      </c>
+      <c r="D800" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A801" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B801" t="s">
+        <v>35</v>
+      </c>
+      <c r="C801">
+        <v>384</v>
+      </c>
+      <c r="D801" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23333,7 +24161,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142B833B-877B-3C49-9423-E5D043A0EF43}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView topLeftCell="A20" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -23444,7 +24274,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D33" si="1">D4+C6</f>
+        <f t="shared" ref="D6:D37" si="1">D4+C6</f>
         <v>30</v>
       </c>
       <c r="E6" s="14">
@@ -23667,7 +24497,7 @@
         <v>43929</v>
       </c>
       <c r="B18" t="str">
-        <f>B16</f>
+        <f t="shared" ref="B18:B37" si="2">B16</f>
         <v>Female</v>
       </c>
       <c r="C18">
@@ -23688,7 +24518,7 @@
         <v>43929</v>
       </c>
       <c r="B19" t="str">
-        <f>B17</f>
+        <f t="shared" si="2"/>
         <v>Male</v>
       </c>
       <c r="C19">
@@ -23708,7 +24538,7 @@
         <v>43930</v>
       </c>
       <c r="B20" t="str">
-        <f>B18</f>
+        <f t="shared" si="2"/>
         <v>Female</v>
       </c>
       <c r="C20">
@@ -23728,7 +24558,7 @@
         <v>43930</v>
       </c>
       <c r="B21" t="str">
-        <f>B19</f>
+        <f t="shared" si="2"/>
         <v>Male</v>
       </c>
       <c r="C21">
@@ -23748,7 +24578,7 @@
         <v>43931</v>
       </c>
       <c r="B22" t="str">
-        <f>B20</f>
+        <f t="shared" si="2"/>
         <v>Female</v>
       </c>
       <c r="C22">
@@ -23768,7 +24598,7 @@
         <v>43931</v>
       </c>
       <c r="B23" t="str">
-        <f>B21</f>
+        <f t="shared" si="2"/>
         <v>Male</v>
       </c>
       <c r="C23">
@@ -23788,7 +24618,7 @@
         <v>43932</v>
       </c>
       <c r="B24" t="str">
-        <f>B22</f>
+        <f t="shared" si="2"/>
         <v>Female</v>
       </c>
       <c r="C24">
@@ -23808,7 +24638,7 @@
         <v>43932</v>
       </c>
       <c r="B25" t="str">
-        <f>B23</f>
+        <f t="shared" si="2"/>
         <v>Male</v>
       </c>
       <c r="C25">
@@ -23828,7 +24658,7 @@
         <v>43933</v>
       </c>
       <c r="B26" t="str">
-        <f>B24</f>
+        <f t="shared" si="2"/>
         <v>Female</v>
       </c>
       <c r="C26">
@@ -23848,7 +24678,7 @@
         <v>43933</v>
       </c>
       <c r="B27" t="str">
-        <f>B25</f>
+        <f t="shared" si="2"/>
         <v>Male</v>
       </c>
       <c r="C27">
@@ -23868,7 +24698,7 @@
         <v>43934</v>
       </c>
       <c r="B28" t="str">
-        <f>B26</f>
+        <f t="shared" si="2"/>
         <v>Female</v>
       </c>
       <c r="C28">
@@ -23888,7 +24718,7 @@
         <v>43934</v>
       </c>
       <c r="B29" t="str">
-        <f>B27</f>
+        <f t="shared" si="2"/>
         <v>Male</v>
       </c>
       <c r="C29">
@@ -23908,7 +24738,7 @@
         <v>43935</v>
       </c>
       <c r="B30" t="str">
-        <f>B28</f>
+        <f t="shared" si="2"/>
         <v>Female</v>
       </c>
       <c r="C30">
@@ -23928,7 +24758,7 @@
         <v>43935</v>
       </c>
       <c r="B31" t="str">
-        <f>B29</f>
+        <f t="shared" si="2"/>
         <v>Male</v>
       </c>
       <c r="C31">
@@ -23948,7 +24778,7 @@
         <v>43936</v>
       </c>
       <c r="B32" t="str">
-        <f>B30</f>
+        <f t="shared" si="2"/>
         <v>Female</v>
       </c>
       <c r="C32">
@@ -23968,7 +24798,7 @@
         <v>43936</v>
       </c>
       <c r="B33" t="str">
-        <f>B31</f>
+        <f t="shared" si="2"/>
         <v>Male</v>
       </c>
       <c r="C33">
@@ -23984,16 +24814,84 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E34" s="14"/>
+      <c r="A34" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="2"/>
+        <v>Female</v>
+      </c>
+      <c r="C34">
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>204</v>
+      </c>
+      <c r="E34" s="14">
+        <f>D34/SUM(D34:D35)</f>
+        <v>0.41803278688524592</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E35" s="14"/>
+      <c r="A35" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="2"/>
+        <v>Male</v>
+      </c>
+      <c r="C35">
+        <v>22</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>284</v>
+      </c>
+      <c r="E35" s="14">
+        <f>D35/SUM(D34:D35)</f>
+        <v>0.58196721311475408</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E36" s="14"/>
+      <c r="A36" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="2"/>
+        <v>Female</v>
+      </c>
+      <c r="C36">
+        <v>19</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>223</v>
+      </c>
+      <c r="E36" s="14">
+        <f>D36/SUM(D36:D37)</f>
+        <v>0.41917293233082709</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E37" s="14"/>
+      <c r="A37" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="2"/>
+        <v>Male</v>
+      </c>
+      <c r="C37">
+        <v>25</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>309</v>
+      </c>
+      <c r="E37" s="14">
+        <f>D37/SUM(D36:D37)</f>
+        <v>0.58082706766917291</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E38" s="14"/>
@@ -24026,10 +24924,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24080,7 +24978,7 @@
         <v>6450</v>
       </c>
       <c r="G2" s="10">
-        <f t="shared" ref="G2:G17" si="0">D2/F2</f>
+        <f t="shared" ref="G2:G18" si="0">D2/F2</f>
         <v>0.10682170542635659</v>
       </c>
     </row>
@@ -24442,6 +25340,30 @@
       <c r="G17" s="10">
         <f t="shared" si="0"/>
         <v>0.15456460674157305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B18">
+        <v>137</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>2338</v>
+      </c>
+      <c r="E18">
+        <v>176</v>
+      </c>
+      <c r="F18">
+        <v>15025</v>
+      </c>
+      <c r="G18" s="10">
+        <f t="shared" si="0"/>
+        <v>0.1556073211314476</v>
       </c>
     </row>
   </sheetData>
@@ -24454,10 +25376,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0979910-C687-6A43-A609-0D992245C102}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A17" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24726,7 +25648,7 @@
         <v>43931</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" ref="B24:B31" si="1">B21</f>
+        <f t="shared" ref="B24:B34" si="1">B21</f>
         <v>Female</v>
       </c>
       <c r="C24">
@@ -24818,6 +25740,42 @@
         <v>1</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B32" t="str">
+        <f>B29</f>
+        <v>Male</v>
+      </c>
+      <c r="C32">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="1"/>
+        <v>Female</v>
+      </c>
+      <c r="C33">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewparnell/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC58E50-370D-E642-9E55-9A308AA2E0B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6917A2B5-8696-9444-B200-25B5192E32F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -1837,8 +1837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AE50F-07C0-7048-95B5-0C81D93B81F0}">
   <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView topLeftCell="A98" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112:A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="1"/>
@@ -3139,7 +3139,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="1"/>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43941</v>
+        <v>43938</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="1"/>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43942</v>
+        <v>43938</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="1"/>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43943</v>
+        <v>43938</v>
       </c>
       <c r="B117" t="str">
         <f t="shared" si="1"/>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43944</v>
+        <v>43938</v>
       </c>
       <c r="B118" t="str">
         <f t="shared" si="1"/>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43945</v>
+        <v>43938</v>
       </c>
       <c r="B119" t="str">
         <f t="shared" si="1"/>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>43946</v>
+        <v>43938</v>
       </c>
       <c r="B120" t="str">
         <f t="shared" si="1"/>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43947</v>
+        <v>43938</v>
       </c>
       <c r="B121" t="str">
         <f t="shared" si="1"/>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43948</v>
+        <v>43938</v>
       </c>
       <c r="B122" t="str">
         <f t="shared" si="1"/>
@@ -12439,8 +12439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
   <dimension ref="A1:E801"/>
   <sheetViews>
-    <sheetView topLeftCell="A763" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B785" sqref="B785"/>
+    <sheetView tabSelected="1" topLeftCell="A764" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A776" sqref="A776:A801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23804,7 +23804,7 @@
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A777" s="1">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B777" t="s">
         <v>14</v>
@@ -23818,7 +23818,7 @@
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A778" s="1">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="B778" t="s">
         <v>15</v>
@@ -23832,7 +23832,7 @@
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A779" s="1">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="B779" t="s">
         <v>16</v>
@@ -23846,7 +23846,7 @@
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A780" s="1">
-        <v>43940</v>
+        <v>43936</v>
       </c>
       <c r="B780" t="s">
         <v>17</v>
@@ -23860,7 +23860,7 @@
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A781" s="1">
-        <v>43941</v>
+        <v>43936</v>
       </c>
       <c r="B781" t="s">
         <v>18</v>
@@ -23874,7 +23874,7 @@
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A782" s="1">
-        <v>43942</v>
+        <v>43936</v>
       </c>
       <c r="B782" t="s">
         <v>19</v>
@@ -23888,7 +23888,7 @@
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A783" s="1">
-        <v>43943</v>
+        <v>43936</v>
       </c>
       <c r="B783" t="s">
         <v>20</v>
@@ -23902,7 +23902,7 @@
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A784" s="1">
-        <v>43944</v>
+        <v>43936</v>
       </c>
       <c r="B784" t="s">
         <v>21</v>
@@ -23916,7 +23916,7 @@
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A785" s="1">
-        <v>43945</v>
+        <v>43936</v>
       </c>
       <c r="B785" t="s">
         <v>22</v>
@@ -23930,7 +23930,7 @@
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A786" s="1">
-        <v>43946</v>
+        <v>43936</v>
       </c>
       <c r="B786" t="s">
         <v>36</v>
@@ -23944,7 +23944,7 @@
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A787" s="1">
-        <v>43947</v>
+        <v>43936</v>
       </c>
       <c r="B787" t="s">
         <v>37</v>
@@ -23958,7 +23958,7 @@
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A788" s="1">
-        <v>43948</v>
+        <v>43936</v>
       </c>
       <c r="B788" t="s">
         <v>23</v>
@@ -23972,7 +23972,7 @@
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A789" s="1">
-        <v>43949</v>
+        <v>43936</v>
       </c>
       <c r="B789" t="s">
         <v>24</v>
@@ -23986,7 +23986,7 @@
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A790" s="1">
-        <v>43950</v>
+        <v>43936</v>
       </c>
       <c r="B790" t="s">
         <v>25</v>
@@ -24000,7 +24000,7 @@
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A791" s="1">
-        <v>43951</v>
+        <v>43936</v>
       </c>
       <c r="B791" t="s">
         <v>26</v>
@@ -24014,7 +24014,7 @@
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A792" s="1">
-        <v>43952</v>
+        <v>43936</v>
       </c>
       <c r="B792" t="s">
         <v>27</v>
@@ -24028,7 +24028,7 @@
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A793" s="1">
-        <v>43953</v>
+        <v>43936</v>
       </c>
       <c r="B793" t="s">
         <v>38</v>
@@ -24042,7 +24042,7 @@
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A794" s="1">
-        <v>43954</v>
+        <v>43936</v>
       </c>
       <c r="B794" t="s">
         <v>28</v>
@@ -24056,7 +24056,7 @@
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A795" s="1">
-        <v>43955</v>
+        <v>43936</v>
       </c>
       <c r="B795" t="s">
         <v>29</v>
@@ -24070,7 +24070,7 @@
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A796" s="1">
-        <v>43956</v>
+        <v>43936</v>
       </c>
       <c r="B796" t="s">
         <v>30</v>
@@ -24084,7 +24084,7 @@
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A797" s="1">
-        <v>43957</v>
+        <v>43936</v>
       </c>
       <c r="B797" t="s">
         <v>31</v>
@@ -24098,7 +24098,7 @@
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A798" s="1">
-        <v>43958</v>
+        <v>43936</v>
       </c>
       <c r="B798" t="s">
         <v>32</v>
@@ -24112,7 +24112,7 @@
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A799" s="1">
-        <v>43959</v>
+        <v>43936</v>
       </c>
       <c r="B799" t="s">
         <v>33</v>
@@ -24126,7 +24126,7 @@
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A800" s="1">
-        <v>43960</v>
+        <v>43936</v>
       </c>
       <c r="B800" t="s">
         <v>34</v>
@@ -24140,7 +24140,7 @@
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A801" s="1">
-        <v>43961</v>
+        <v>43936</v>
       </c>
       <c r="B801" t="s">
         <v>35</v>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewparnell/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6917A2B5-8696-9444-B200-25B5192E32F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1782BEB7-AEA7-0A43-B14E-97AEDCAD4AAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -3376,11 +3376,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K38" sqref="K38"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4715,7 +4715,7 @@
         <v>2082</v>
       </c>
       <c r="F38">
-        <v>194</v>
+        <v>294</v>
       </c>
       <c r="G38" s="5">
         <v>521</v>
@@ -12439,7 +12439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
   <dimension ref="A1:E801"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A764" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A764" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A776" sqref="A776:A801"/>
     </sheetView>
   </sheetViews>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewparnell/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1782BEB7-AEA7-0A43-B14E-97AEDCAD4AAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9B2D7C-5EF8-5D4B-8FEA-483F0FEE1D27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="162">
   <si>
     <t>Date</t>
   </si>
@@ -524,6 +524,9 @@
   </si>
   <si>
     <t>https://www.gov.ie/en/press-release/78ca7b-statement-from-the-national-public-health-emergency-team-friday-17-a/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/03791b-statement-from-the-national-public-health-emergency-team-saturday-18/</t>
   </si>
 </sst>
 </file>
@@ -1415,10 +1418,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43936.786805555559</v>
+        <v>43937.769444444442</v>
       </c>
       <c r="B2" s="12">
-        <v>43938.786805555559</v>
+        <v>43939.769444444442</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3374,13 +3377,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4312,7 +4315,7 @@
         <v>4916</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" ref="D27:D40" si="0">C27-C26</f>
+        <f t="shared" ref="D27:D41" si="0">C27-C26</f>
         <v>473</v>
       </c>
       <c r="E27" s="5">
@@ -4738,35 +4741,35 @@
         <v>43937</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C39" s="5">
-        <v>13271</v>
+        <v>13746</v>
       </c>
       <c r="D39" s="5">
         <f t="shared" si="0"/>
-        <v>259</v>
-      </c>
-      <c r="E39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" t="s">
-        <v>8</v>
+        <v>734</v>
+      </c>
+      <c r="E39">
+        <v>2168</v>
+      </c>
+      <c r="F39">
+        <v>296</v>
       </c>
       <c r="G39" s="5">
-        <v>486</v>
-      </c>
-      <c r="H39" t="s">
-        <v>8</v>
-      </c>
-      <c r="I39" t="s">
-        <v>8</v>
-      </c>
-      <c r="J39" t="s">
-        <v>8</v>
+        <v>566</v>
+      </c>
+      <c r="H39">
+        <v>3573</v>
+      </c>
+      <c r="I39">
+        <v>454</v>
+      </c>
+      <c r="J39">
+        <v>48</v>
       </c>
       <c r="K39" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4781,7 +4784,7 @@
       </c>
       <c r="D40" s="5">
         <f t="shared" si="0"/>
-        <v>709</v>
+        <v>234</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
@@ -4803,6 +4806,42 @@
       </c>
       <c r="K40" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="5">
+        <v>14758</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" si="0"/>
+        <v>778</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="5">
+        <v>571</v>
+      </c>
+      <c r="H41" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4812,11 +4851,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
+      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5758,7 +5797,7 @@
         <v>43929</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B89" si="1">B64</f>
+        <f t="shared" ref="B67:B92" si="1">B64</f>
         <v>Male</v>
       </c>
       <c r="C67">
@@ -6096,6 +6135,51 @@
         <v>122</v>
       </c>
       <c r="D89">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B90" t="str">
+        <f>B87</f>
+        <v>Female</v>
+      </c>
+      <c r="C90">
+        <v>7568</v>
+      </c>
+      <c r="D90">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="1"/>
+        <v>Male</v>
+      </c>
+      <c r="C91">
+        <v>6048</v>
+      </c>
+      <c r="D91">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C92">
+        <v>130</v>
+      </c>
+      <c r="D92">
         <v>0.9</v>
       </c>
     </row>
@@ -6106,11 +6190,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:F336"/>
+  <dimension ref="A1:F347"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E332" sqref="E332"/>
+      <selection pane="bottomLeft" activeCell="D338" sqref="D338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10856,6 +10940,160 @@
       </c>
       <c r="F336" s="14"/>
     </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C337">
+        <v>28</v>
+      </c>
+      <c r="D337" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C338">
+        <v>38</v>
+      </c>
+      <c r="D338" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C339" t="s">
+        <v>8</v>
+      </c>
+      <c r="D339">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C340">
+        <v>142</v>
+      </c>
+      <c r="D340">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C341">
+        <v>892</v>
+      </c>
+      <c r="D341">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C342">
+        <v>2329</v>
+      </c>
+      <c r="D342">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C343">
+        <v>2522</v>
+      </c>
+      <c r="D343">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C344">
+        <v>2659</v>
+      </c>
+      <c r="D344">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C345">
+        <v>2010</v>
+      </c>
+      <c r="D345">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C346">
+        <v>3094</v>
+      </c>
+      <c r="D346">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C347">
+        <v>22</v>
+      </c>
+      <c r="D347">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10863,11 +11101,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D107" sqref="D107:D109"/>
+      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12089,7 +12327,7 @@
         <v>43929</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" ref="B87:B109" si="1">B84</f>
+        <f t="shared" ref="B87:B112" si="1">B84</f>
         <v>Close contact with confirmed case</v>
       </c>
       <c r="C87" s="11">
@@ -12427,6 +12665,51 @@
         <v>6</v>
       </c>
       <c r="D109" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B110" t="str">
+        <f>B107</f>
+        <v>Community transmission</v>
+      </c>
+      <c r="C110" s="11">
+        <v>52</v>
+      </c>
+      <c r="D110" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="1"/>
+        <v>Close contact with confirmed case</v>
+      </c>
+      <c r="C111" s="11">
+        <v>43</v>
+      </c>
+      <c r="D111" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B112" t="str">
+        <f t="shared" si="1"/>
+        <v>Travel Abroad</v>
+      </c>
+      <c r="C112" s="11">
+        <v>5</v>
+      </c>
+      <c r="D112" t="s">
         <v>106</v>
       </c>
     </row>
@@ -12437,10 +12720,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E801"/>
+  <dimension ref="A1:E827"/>
   <sheetViews>
-    <sheetView topLeftCell="A764" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A776" sqref="A776:A801"/>
+    <sheetView topLeftCell="A790" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A802" sqref="A802:A827"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24152,6 +24435,370 @@
         <v>0.03</v>
       </c>
     </row>
+    <row r="802" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A802" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B802" t="s">
+        <v>12</v>
+      </c>
+      <c r="C802">
+        <v>69</v>
+      </c>
+      <c r="D802" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A803" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B803" t="s">
+        <v>14</v>
+      </c>
+      <c r="C803">
+        <v>353</v>
+      </c>
+      <c r="D803" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A804" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B804" t="s">
+        <v>15</v>
+      </c>
+      <c r="C804">
+        <v>151</v>
+      </c>
+      <c r="D804" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A805" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B805" t="s">
+        <v>16</v>
+      </c>
+      <c r="C805">
+        <v>979</v>
+      </c>
+      <c r="D805" s="3">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A806" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B806" t="s">
+        <v>17</v>
+      </c>
+      <c r="C806">
+        <v>369</v>
+      </c>
+      <c r="D806" s="3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A807" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B807" t="s">
+        <v>18</v>
+      </c>
+      <c r="C807">
+        <v>6934</v>
+      </c>
+      <c r="D807" s="3">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A808" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B808" t="s">
+        <v>19</v>
+      </c>
+      <c r="C808">
+        <v>273</v>
+      </c>
+      <c r="D808" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A809" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B809" t="s">
+        <v>20</v>
+      </c>
+      <c r="C809">
+        <v>256</v>
+      </c>
+      <c r="D809" s="3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A810" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B810" t="s">
+        <v>21</v>
+      </c>
+      <c r="C810">
+        <v>684</v>
+      </c>
+      <c r="D810" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A811" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B811" t="s">
+        <v>22</v>
+      </c>
+      <c r="C811">
+        <v>188</v>
+      </c>
+      <c r="D811" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A812" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B812" t="s">
+        <v>36</v>
+      </c>
+      <c r="C812">
+        <v>147</v>
+      </c>
+      <c r="D812" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A813" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B813" t="s">
+        <v>37</v>
+      </c>
+      <c r="C813">
+        <v>46</v>
+      </c>
+      <c r="D813" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A814" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B814" t="s">
+        <v>23</v>
+      </c>
+      <c r="C814">
+        <v>382</v>
+      </c>
+      <c r="D814" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A815" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B815" t="s">
+        <v>24</v>
+      </c>
+      <c r="C815">
+        <v>83</v>
+      </c>
+      <c r="D815" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A816" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B816" t="s">
+        <v>25</v>
+      </c>
+      <c r="C816">
+        <v>406</v>
+      </c>
+      <c r="D816" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A817" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B817" t="s">
+        <v>26</v>
+      </c>
+      <c r="C817">
+        <v>273</v>
+      </c>
+      <c r="D817" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A818" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B818" t="s">
+        <v>27</v>
+      </c>
+      <c r="C818">
+        <v>461</v>
+      </c>
+      <c r="D818" s="3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A819" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B819" t="s">
+        <v>38</v>
+      </c>
+      <c r="C819">
+        <v>170</v>
+      </c>
+      <c r="D819" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A820" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B820" t="s">
+        <v>28</v>
+      </c>
+      <c r="C820">
+        <v>177</v>
+      </c>
+      <c r="D820" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A821" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B821" t="s">
+        <v>29</v>
+      </c>
+      <c r="C821">
+        <v>74</v>
+      </c>
+      <c r="D821" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A822" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B822" t="s">
+        <v>30</v>
+      </c>
+      <c r="C822">
+        <v>70</v>
+      </c>
+      <c r="D822" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A823" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B823" t="s">
+        <v>31</v>
+      </c>
+      <c r="C823">
+        <v>283</v>
+      </c>
+      <c r="D823" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A824" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B824" t="s">
+        <v>32</v>
+      </c>
+      <c r="C824">
+        <v>110</v>
+      </c>
+      <c r="D824" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A825" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B825" t="s">
+        <v>33</v>
+      </c>
+      <c r="C825">
+        <v>332</v>
+      </c>
+      <c r="D825" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A826" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B826" t="s">
+        <v>34</v>
+      </c>
+      <c r="C826">
+        <v>85</v>
+      </c>
+      <c r="D826" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A827" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B827" t="s">
+        <v>35</v>
+      </c>
+      <c r="C827">
+        <v>391</v>
+      </c>
+      <c r="D827" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24162,7 +24809,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView topLeftCell="A20" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24274,7 +24921,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D37" si="1">D4+C6</f>
+        <f t="shared" ref="D6:D39" si="1">D4+C6</f>
         <v>30</v>
       </c>
       <c r="E6" s="14">
@@ -24497,7 +25144,7 @@
         <v>43929</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" ref="B18:B37" si="2">B16</f>
+        <f t="shared" ref="B18:B39" si="2">B16</f>
         <v>Female</v>
       </c>
       <c r="C18">
@@ -24894,10 +25541,44 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E38" s="14"/>
+      <c r="A38" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="2"/>
+        <v>Female</v>
+      </c>
+      <c r="C38">
+        <v>23</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>246</v>
+      </c>
+      <c r="E38" s="14">
+        <f>D38/SUM(D38:D39)</f>
+        <v>0.4293193717277487</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E39" s="14"/>
+      <c r="A39" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="2"/>
+        <v>Male</v>
+      </c>
+      <c r="C39">
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>327</v>
+      </c>
+      <c r="E39" s="14">
+        <f>D39/SUM(D38:D39)</f>
+        <v>0.5706806282722513</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E40" s="14"/>
@@ -24924,10 +25605,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24978,7 +25659,7 @@
         <v>6450</v>
       </c>
       <c r="G2" s="10">
-        <f t="shared" ref="G2:G18" si="0">D2/F2</f>
+        <f t="shared" ref="G2:G19" si="0">D2/F2</f>
         <v>0.10682170542635659</v>
       </c>
     </row>
@@ -25364,6 +26045,30 @@
       <c r="G18" s="10">
         <f t="shared" si="0"/>
         <v>0.1556073211314476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B19">
+        <v>148</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>2486</v>
+      </c>
+      <c r="E19">
+        <v>193</v>
+      </c>
+      <c r="F19">
+        <v>15749</v>
+      </c>
+      <c r="G19" s="10">
+        <f t="shared" si="0"/>
+        <v>0.15785129214553306</v>
       </c>
     </row>
   </sheetData>
@@ -25378,7 +26083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0979910-C687-6A43-A609-0D992245C102}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9B2D7C-5EF8-5D4B-8FEA-483F0FEE1D27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2C21CB-7CE3-9E40-9DDA-960628C3915B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -6192,9 +6192,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
   <dimension ref="A1:F347"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D338" sqref="D338"/>
+      <selection pane="bottomLeft" activeCell="D347" sqref="D347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11077,7 +11077,7 @@
         <v>3094</v>
       </c>
       <c r="D346">
-        <v>114</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
@@ -26083,7 +26083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0979910-C687-6A43-A609-0D992245C102}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2C21CB-7CE3-9E40-9DDA-960628C3915B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D30413-471F-7447-A383-B71E93B6E4A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D30413-471F-7447-A383-B71E93B6E4A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A6EAED-4EEB-3046-AE88-34676DD44AE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="162">
   <si>
     <t>Date</t>
   </si>
@@ -1400,7 +1400,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1418,10 +1418,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43937.769444444442</v>
+        <v>43938.851388888892</v>
       </c>
       <c r="B2" s="12">
-        <v>43939.769444444442</v>
+        <v>43940.851388888892</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3377,13 +3377,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
+      <selection pane="bottomRight" activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4315,7 +4315,7 @@
         <v>4916</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" ref="D27:D41" si="0">C27-C26</f>
+        <f t="shared" ref="D27:D42" si="0">C27-C26</f>
         <v>473</v>
       </c>
       <c r="E27" s="5">
@@ -4777,32 +4777,32 @@
         <v>43938</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C40" s="5">
-        <v>13980</v>
+        <v>14602</v>
       </c>
       <c r="D40" s="5">
         <f t="shared" si="0"/>
-        <v>234</v>
-      </c>
-      <c r="E40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" t="s">
-        <v>8</v>
+        <v>856</v>
+      </c>
+      <c r="E40">
+        <v>2233</v>
+      </c>
+      <c r="F40">
+        <v>303</v>
       </c>
       <c r="G40" s="5">
-        <v>530</v>
-      </c>
-      <c r="H40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I40" t="s">
-        <v>8</v>
-      </c>
-      <c r="J40" t="s">
-        <v>8</v>
+        <v>605</v>
+      </c>
+      <c r="H40">
+        <v>3788</v>
+      </c>
+      <c r="I40">
+        <v>472</v>
+      </c>
+      <c r="J40">
+        <v>48</v>
       </c>
       <c r="K40" t="s">
         <v>155</v>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="D41" s="5">
         <f t="shared" si="0"/>
-        <v>778</v>
+        <v>156</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -4842,6 +4842,42 @@
       </c>
       <c r="K41" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="5">
+        <v>15251</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="0"/>
+        <v>493</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="5">
+        <v>610</v>
+      </c>
+      <c r="H42" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4851,11 +4887,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
+      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5797,7 +5833,7 @@
         <v>43929</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B92" si="1">B64</f>
+        <f t="shared" ref="B67:B95" si="1">B64</f>
         <v>Male</v>
       </c>
       <c r="C67">
@@ -6181,6 +6217,51 @@
       </c>
       <c r="D92">
         <v>0.9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B93" t="str">
+        <f>B90</f>
+        <v>Female</v>
+      </c>
+      <c r="C93">
+        <v>8060</v>
+      </c>
+      <c r="D93">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="1"/>
+        <v>Male</v>
+      </c>
+      <c r="C94">
+        <v>6397</v>
+      </c>
+      <c r="D94">
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C95">
+        <v>145</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6190,11 +6271,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:F347"/>
+  <dimension ref="A1:F358"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D347" sqref="D347"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A324" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B351" sqref="B351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10940,7 +11021,7 @@
       </c>
       <c r="F336" s="14"/>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>43937</v>
       </c>
@@ -10954,7 +11035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>43937</v>
       </c>
@@ -10968,7 +11049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>43937</v>
       </c>
@@ -10982,7 +11063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>43937</v>
       </c>
@@ -10996,7 +11077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>43937</v>
       </c>
@@ -11010,7 +11091,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>43937</v>
       </c>
@@ -11024,7 +11105,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>43937</v>
       </c>
@@ -11038,7 +11119,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>43937</v>
       </c>
@@ -11052,7 +11133,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>43937</v>
       </c>
@@ -11066,7 +11147,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>43937</v>
       </c>
@@ -11080,7 +11161,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>43937</v>
       </c>
@@ -11091,6 +11172,161 @@
         <v>22</v>
       </c>
       <c r="D347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A348" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C348">
+        <v>28</v>
+      </c>
+      <c r="D348" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A349" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C349">
+        <v>50</v>
+      </c>
+      <c r="D349" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A350" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C350" t="s">
+        <v>8</v>
+      </c>
+      <c r="D350">
+        <v>13</v>
+      </c>
+      <c r="F350" s="7"/>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A351" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C351">
+        <v>154</v>
+      </c>
+      <c r="D351">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A352" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C352">
+        <v>953</v>
+      </c>
+      <c r="D352">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C353">
+        <v>2467</v>
+      </c>
+      <c r="D353">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B354" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C354">
+        <v>2659</v>
+      </c>
+      <c r="D354">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C355">
+        <v>2825</v>
+      </c>
+      <c r="D355">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B356" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C356">
+        <v>2122</v>
+      </c>
+      <c r="D356">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C357">
+        <v>3320</v>
+      </c>
+      <c r="D357">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C358">
+        <v>24</v>
+      </c>
+      <c r="D358">
         <v>2</v>
       </c>
     </row>
@@ -11101,11 +11337,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
+      <selection pane="bottomLeft" activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12327,7 +12563,7 @@
         <v>43929</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" ref="B87:B112" si="1">B84</f>
+        <f t="shared" ref="B87:B115" si="1">B84</f>
         <v>Close contact with confirmed case</v>
       </c>
       <c r="C87" s="11">
@@ -12710,6 +12946,51 @@
         <v>5</v>
       </c>
       <c r="D112" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B113" t="str">
+        <f>B110</f>
+        <v>Community transmission</v>
+      </c>
+      <c r="C113" s="11">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B114" t="str">
+        <f t="shared" si="1"/>
+        <v>Close contact with confirmed case</v>
+      </c>
+      <c r="C114" s="11">
+        <v>32</v>
+      </c>
+      <c r="D114" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B115" t="str">
+        <f t="shared" si="1"/>
+        <v>Travel Abroad</v>
+      </c>
+      <c r="C115" s="11">
+        <v>5</v>
+      </c>
+      <c r="D115" t="s">
         <v>106</v>
       </c>
     </row>
@@ -12720,10 +13001,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E827"/>
+  <dimension ref="A1:E853"/>
   <sheetViews>
-    <sheetView topLeftCell="A790" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A802" sqref="A802:A827"/>
+    <sheetView topLeftCell="A813" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A828" sqref="A828:A853"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24799,6 +25080,370 @@
         <v>0.03</v>
       </c>
     </row>
+    <row r="828" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A828" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B828" t="s">
+        <v>12</v>
+      </c>
+      <c r="C828">
+        <v>71</v>
+      </c>
+      <c r="D828" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A829" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B829" t="s">
+        <v>14</v>
+      </c>
+      <c r="C829">
+        <v>386</v>
+      </c>
+      <c r="D829" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A830" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B830" t="s">
+        <v>15</v>
+      </c>
+      <c r="C830">
+        <v>153</v>
+      </c>
+      <c r="D830" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A831" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B831" t="s">
+        <v>16</v>
+      </c>
+      <c r="C831">
+        <v>1028</v>
+      </c>
+      <c r="D831" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A832" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B832" t="s">
+        <v>17</v>
+      </c>
+      <c r="C832">
+        <v>376</v>
+      </c>
+      <c r="D832" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A833" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B833" t="s">
+        <v>18</v>
+      </c>
+      <c r="C833">
+        <v>7379</v>
+      </c>
+      <c r="D833" s="3">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A834" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B834" t="s">
+        <v>19</v>
+      </c>
+      <c r="C834">
+        <v>283</v>
+      </c>
+      <c r="D834" s="3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A835" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B835" t="s">
+        <v>20</v>
+      </c>
+      <c r="C835">
+        <v>262</v>
+      </c>
+      <c r="D835" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A836" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B836" t="s">
+        <v>21</v>
+      </c>
+      <c r="C836">
+        <v>763</v>
+      </c>
+      <c r="D836" s="3">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A837" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B837" t="s">
+        <v>22</v>
+      </c>
+      <c r="C837">
+        <v>197</v>
+      </c>
+      <c r="D837" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A838" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B838" t="s">
+        <v>36</v>
+      </c>
+      <c r="C838">
+        <v>168</v>
+      </c>
+      <c r="D838" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A839" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B839" t="s">
+        <v>37</v>
+      </c>
+      <c r="C839">
+        <v>47</v>
+      </c>
+      <c r="D839" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A840" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B840" t="s">
+        <v>23</v>
+      </c>
+      <c r="C840">
+        <v>384</v>
+      </c>
+      <c r="D840" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A841" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B841" t="s">
+        <v>24</v>
+      </c>
+      <c r="C841">
+        <v>88</v>
+      </c>
+      <c r="D841" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A842" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B842" t="s">
+        <v>25</v>
+      </c>
+      <c r="C842">
+        <v>405</v>
+      </c>
+      <c r="D842" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A843" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B843" t="s">
+        <v>26</v>
+      </c>
+      <c r="C843">
+        <v>312</v>
+      </c>
+      <c r="D843" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A844" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B844" t="s">
+        <v>27</v>
+      </c>
+      <c r="C844">
+        <v>500</v>
+      </c>
+      <c r="D844" s="3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A845" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B845" t="s">
+        <v>38</v>
+      </c>
+      <c r="C845">
+        <v>174</v>
+      </c>
+      <c r="D845" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A846" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B846" t="s">
+        <v>28</v>
+      </c>
+      <c r="C846">
+        <v>187</v>
+      </c>
+      <c r="D846" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A847" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B847" t="s">
+        <v>29</v>
+      </c>
+      <c r="C847">
+        <v>76</v>
+      </c>
+      <c r="D847" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A848" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B848" t="s">
+        <v>30</v>
+      </c>
+      <c r="C848">
+        <v>76</v>
+      </c>
+      <c r="D848" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A849" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B849" t="s">
+        <v>31</v>
+      </c>
+      <c r="C849">
+        <v>292</v>
+      </c>
+      <c r="D849" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A850" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B850" t="s">
+        <v>32</v>
+      </c>
+      <c r="C850">
+        <v>112</v>
+      </c>
+      <c r="D850" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A851" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B851" t="s">
+        <v>33</v>
+      </c>
+      <c r="C851">
+        <v>358</v>
+      </c>
+      <c r="D851" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A852" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B852" t="s">
+        <v>34</v>
+      </c>
+      <c r="C852">
+        <v>98</v>
+      </c>
+      <c r="D852" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A853" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B853" t="s">
+        <v>35</v>
+      </c>
+      <c r="C853">
+        <v>427</v>
+      </c>
+      <c r="D853" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24809,7 +25454,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView topLeftCell="A20" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="E40" sqref="E40:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24921,7 +25566,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D39" si="1">D4+C6</f>
+        <f t="shared" ref="D6:D41" si="1">D4+C6</f>
         <v>30</v>
       </c>
       <c r="E6" s="14">
@@ -25144,7 +25789,7 @@
         <v>43929</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" ref="B18:B39" si="2">B16</f>
+        <f t="shared" ref="B18:B41" si="2">B16</f>
         <v>Female</v>
       </c>
       <c r="C18">
@@ -25581,10 +26226,44 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E40" s="14"/>
+      <c r="A40" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="2"/>
+        <v>Female</v>
+      </c>
+      <c r="C40">
+        <v>19</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>265</v>
+      </c>
+      <c r="E40" s="14">
+        <f>D40/SUM(D40:D41)</f>
+        <v>0.43300653594771243</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E41" s="14"/>
+      <c r="A41" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="2"/>
+        <v>Male</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>347</v>
+      </c>
+      <c r="E41" s="14">
+        <f>D41/SUM(D40:D41)</f>
+        <v>0.56699346405228757</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E42" s="14"/>
@@ -25605,10 +26284,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25659,7 +26338,7 @@
         <v>6450</v>
       </c>
       <c r="G2" s="10">
-        <f t="shared" ref="G2:G19" si="0">D2/F2</f>
+        <f t="shared" ref="G2:G20" si="0">D2/F2</f>
         <v>0.10682170542635659</v>
       </c>
     </row>
@@ -26069,6 +26748,30 @@
       <c r="G19" s="10">
         <f t="shared" si="0"/>
         <v>0.15785129214553306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B20">
+        <v>159</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2645</v>
+      </c>
+      <c r="E20">
+        <v>194</v>
+      </c>
+      <c r="F20">
+        <v>16490</v>
+      </c>
+      <c r="G20" s="10">
+        <f t="shared" si="0"/>
+        <v>0.16040024257125532</v>
       </c>
     </row>
   </sheetData>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A6EAED-4EEB-3046-AE88-34676DD44AE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B43D7B-65E9-A14E-BEB7-CCAC8237E713}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -3380,10 +3380,10 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K40" sqref="K40"/>
+      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11339,9 +11339,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
   <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B117" sqref="B117"/>
+      <selection pane="bottomLeft" activeCell="A113" sqref="A113:B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26286,7 +26286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B43D7B-65E9-A14E-BEB7-CCAC8237E713}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5755674-705C-2E40-85EB-3C61C232199A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="162">
   <si>
     <t>Date</t>
   </si>
@@ -1418,10 +1418,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43938.851388888892</v>
+        <v>43939.85833333333</v>
       </c>
       <c r="B2" s="12">
-        <v>43940.851388888892</v>
+        <v>43941.85833333333</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3377,13 +3377,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4315,7 +4315,7 @@
         <v>4916</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" ref="D27:D42" si="0">C27-C26</f>
+        <f t="shared" ref="D27:D43" si="0">C27-C26</f>
         <v>473</v>
       </c>
       <c r="E27" s="5">
@@ -4813,32 +4813,32 @@
         <v>43939</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C41" s="5">
-        <v>14758</v>
+        <v>15185</v>
       </c>
       <c r="D41" s="5">
         <f t="shared" si="0"/>
-        <v>156</v>
-      </c>
-      <c r="E41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" t="s">
-        <v>8</v>
+        <v>583</v>
+      </c>
+      <c r="E41">
+        <v>2272</v>
+      </c>
+      <c r="F41">
+        <v>306</v>
       </c>
       <c r="G41" s="5">
-        <v>571</v>
-      </c>
-      <c r="H41" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" t="s">
-        <v>8</v>
+        <v>642</v>
+      </c>
+      <c r="H41">
+        <v>4009</v>
+      </c>
+      <c r="I41">
+        <v>478</v>
+      </c>
+      <c r="J41">
+        <v>48</v>
       </c>
       <c r="K41" t="s">
         <v>161</v>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="D42" s="5">
         <f t="shared" si="0"/>
-        <v>493</v>
+        <v>66</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
@@ -4877,6 +4877,42 @@
         <v>8</v>
       </c>
       <c r="K42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="5">
+        <v>15652</v>
+      </c>
+      <c r="D43" s="5">
+        <f t="shared" si="0"/>
+        <v>401</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="5">
+        <v>687</v>
+      </c>
+      <c r="H43" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4887,11 +4923,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96:A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5833,7 +5869,7 @@
         <v>43929</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B95" si="1">B64</f>
+        <f t="shared" ref="B67:B98" si="1">B64</f>
         <v>Male</v>
       </c>
       <c r="C67">
@@ -6261,6 +6297,51 @@
         <v>145</v>
       </c>
       <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B96" t="str">
+        <f>B93</f>
+        <v>Female</v>
+      </c>
+      <c r="C96">
+        <v>8433</v>
+      </c>
+      <c r="D96">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="1"/>
+        <v>Male</v>
+      </c>
+      <c r="C97">
+        <v>6603</v>
+      </c>
+      <c r="D97">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C98">
+        <v>149</v>
+      </c>
+      <c r="D98">
         <v>1</v>
       </c>
     </row>
@@ -6271,11 +6352,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:F358"/>
+  <dimension ref="A1:F369"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A324" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B351" sqref="B351"/>
+      <selection pane="bottomLeft" activeCell="D359" sqref="D359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11246,7 +11327,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>43938</v>
       </c>
@@ -11260,7 +11341,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>43938</v>
       </c>
@@ -11274,7 +11355,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>43938</v>
       </c>
@@ -11288,7 +11369,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>43938</v>
       </c>
@@ -11302,7 +11383,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>43938</v>
       </c>
@@ -11316,9 +11397,9 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B358" s="4" t="s">
         <v>52</v>
@@ -11327,6 +11408,163 @@
         <v>24</v>
       </c>
       <c r="D358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A359" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C359">
+        <v>30</v>
+      </c>
+      <c r="D359" t="s">
+        <v>8</v>
+      </c>
+      <c r="F359" s="7"/>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A360" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C360">
+        <v>54</v>
+      </c>
+      <c r="D360" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A361" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C361" t="s">
+        <v>8</v>
+      </c>
+      <c r="D361">
+        <v>13</v>
+      </c>
+      <c r="E361" s="13"/>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A362" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C362">
+        <v>161</v>
+      </c>
+      <c r="D362">
+        <v>7</v>
+      </c>
+      <c r="E362" s="7"/>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A363" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B363" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C363">
+        <v>1000</v>
+      </c>
+      <c r="D363">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A364" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B364" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C364">
+        <v>2557</v>
+      </c>
+      <c r="D364">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A365" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B365" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C365">
+        <v>2744</v>
+      </c>
+      <c r="D365">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A366" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B366" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C366">
+        <v>2943</v>
+      </c>
+      <c r="D366">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A367" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B367" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C367">
+        <v>2184</v>
+      </c>
+      <c r="D367">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A368" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B368" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C368">
+        <v>3488</v>
+      </c>
+      <c r="D368">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A369" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B369" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C369">
+        <v>24</v>
+      </c>
+      <c r="D369">
         <v>2</v>
       </c>
     </row>
@@ -11337,11 +11575,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A113" sqref="A113:B115"/>
+      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12563,7 +12801,7 @@
         <v>43929</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" ref="B87:B115" si="1">B84</f>
+        <f t="shared" ref="B87:B118" si="1">B84</f>
         <v>Close contact with confirmed case</v>
       </c>
       <c r="C87" s="11">
@@ -12991,6 +13229,51 @@
         <v>5</v>
       </c>
       <c r="D115" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B116" t="str">
+        <f>B113</f>
+        <v>Community transmission</v>
+      </c>
+      <c r="C116" s="11">
+        <v>62</v>
+      </c>
+      <c r="D116" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B117" t="str">
+        <f t="shared" si="1"/>
+        <v>Close contact with confirmed case</v>
+      </c>
+      <c r="C117" s="11">
+        <v>34</v>
+      </c>
+      <c r="D117" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B118" t="str">
+        <f t="shared" si="1"/>
+        <v>Travel Abroad</v>
+      </c>
+      <c r="C118" s="11">
+        <v>4</v>
+      </c>
+      <c r="D118" t="s">
         <v>106</v>
       </c>
     </row>
@@ -13001,10 +13284,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E853"/>
+  <dimension ref="A1:E879"/>
   <sheetViews>
-    <sheetView topLeftCell="A813" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A828" sqref="A828:A853"/>
+    <sheetView topLeftCell="A837" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A854" sqref="A854:A879"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25444,6 +25727,370 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
+    <row r="854" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A854" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B854" t="s">
+        <v>12</v>
+      </c>
+      <c r="C854">
+        <v>78</v>
+      </c>
+      <c r="D854" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A855" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B855" t="s">
+        <v>14</v>
+      </c>
+      <c r="C855">
+        <v>401</v>
+      </c>
+      <c r="D855" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A856" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B856" t="s">
+        <v>15</v>
+      </c>
+      <c r="C856">
+        <v>160</v>
+      </c>
+      <c r="D856" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A857" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B857" t="s">
+        <v>16</v>
+      </c>
+      <c r="C857">
+        <v>1047</v>
+      </c>
+      <c r="D857" s="3">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A858" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B858" t="s">
+        <v>17</v>
+      </c>
+      <c r="C858">
+        <v>383</v>
+      </c>
+      <c r="D858" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A859" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B859" t="s">
+        <v>18</v>
+      </c>
+      <c r="C859">
+        <v>7666</v>
+      </c>
+      <c r="D859" s="3">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A860" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B860" t="s">
+        <v>19</v>
+      </c>
+      <c r="C860">
+        <v>294</v>
+      </c>
+      <c r="D860" s="3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A861" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B861" t="s">
+        <v>20</v>
+      </c>
+      <c r="C861">
+        <v>268</v>
+      </c>
+      <c r="D861" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A862" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B862" t="s">
+        <v>21</v>
+      </c>
+      <c r="C862">
+        <v>817</v>
+      </c>
+      <c r="D862" s="3">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A863" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B863" t="s">
+        <v>22</v>
+      </c>
+      <c r="C863">
+        <v>206</v>
+      </c>
+      <c r="D863" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A864" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B864" t="s">
+        <v>36</v>
+      </c>
+      <c r="C864">
+        <v>170</v>
+      </c>
+      <c r="D864" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A865" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B865" t="s">
+        <v>37</v>
+      </c>
+      <c r="C865">
+        <v>49</v>
+      </c>
+      <c r="D865" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A866" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B866" t="s">
+        <v>23</v>
+      </c>
+      <c r="C866">
+        <v>401</v>
+      </c>
+      <c r="D866" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A867" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B867" t="s">
+        <v>24</v>
+      </c>
+      <c r="C867">
+        <v>91</v>
+      </c>
+      <c r="D867" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A868" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B868" t="s">
+        <v>25</v>
+      </c>
+      <c r="C868">
+        <v>437</v>
+      </c>
+      <c r="D868" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A869" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B869" t="s">
+        <v>26</v>
+      </c>
+      <c r="C869">
+        <v>332</v>
+      </c>
+      <c r="D869" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A870" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B870" t="s">
+        <v>27</v>
+      </c>
+      <c r="C870">
+        <v>513</v>
+      </c>
+      <c r="D870" s="3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A871" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B871" t="s">
+        <v>38</v>
+      </c>
+      <c r="C871">
+        <v>187</v>
+      </c>
+      <c r="D871" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A872" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B872" t="s">
+        <v>28</v>
+      </c>
+      <c r="C872">
+        <v>190</v>
+      </c>
+      <c r="D872" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A873" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B873" t="s">
+        <v>29</v>
+      </c>
+      <c r="C873">
+        <v>91</v>
+      </c>
+      <c r="D873" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A874" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B874" t="s">
+        <v>30</v>
+      </c>
+      <c r="C874">
+        <v>78</v>
+      </c>
+      <c r="D874" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A875" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B875" t="s">
+        <v>31</v>
+      </c>
+      <c r="C875">
+        <v>300</v>
+      </c>
+      <c r="D875" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A876" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B876" t="s">
+        <v>32</v>
+      </c>
+      <c r="C876">
+        <v>113</v>
+      </c>
+      <c r="D876" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A877" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B877" t="s">
+        <v>33</v>
+      </c>
+      <c r="C877">
+        <v>369</v>
+      </c>
+      <c r="D877" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A878" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B878" t="s">
+        <v>34</v>
+      </c>
+      <c r="C878">
+        <v>100</v>
+      </c>
+      <c r="D878" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A879" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B879" t="s">
+        <v>35</v>
+      </c>
+      <c r="C879">
+        <v>444</v>
+      </c>
+      <c r="D879" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25453,8 +26100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142B833B-877B-3C49-9423-E5D043A0EF43}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:E41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25566,7 +26213,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D41" si="1">D4+C6</f>
+        <f t="shared" ref="D6:D43" si="1">D4+C6</f>
         <v>30</v>
       </c>
       <c r="E6" s="14">
@@ -25789,7 +26436,7 @@
         <v>43929</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" ref="B18:B41" si="2">B16</f>
+        <f t="shared" ref="B18:B43" si="2">B16</f>
         <v>Female</v>
       </c>
       <c r="C18">
@@ -26266,10 +26913,44 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E42" s="14"/>
+      <c r="A42" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="2"/>
+        <v>Female</v>
+      </c>
+      <c r="C42">
+        <v>42</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>307</v>
+      </c>
+      <c r="E42" s="14">
+        <f>D42/SUM(D42:D43)</f>
+        <v>0.44622093023255816</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E43" s="14"/>
+      <c r="A43" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="2"/>
+        <v>Male</v>
+      </c>
+      <c r="C43">
+        <v>34</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>381</v>
+      </c>
+      <c r="E43" s="14">
+        <f>D43/SUM(D42:D43)</f>
+        <v>0.55377906976744184</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E44" s="14"/>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5755674-705C-2E40-85EB-3C61C232199A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CA7668-69F2-6E40-8B5C-15B7055D18F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="162">
   <si>
     <t>Date</t>
   </si>
@@ -1400,7 +1400,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1418,10 +1418,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43939.85833333333</v>
+        <v>43940.802083333336</v>
       </c>
       <c r="B2" s="12">
-        <v>43941.85833333333</v>
+        <v>43942.85833333333</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3377,13 +3377,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4315,7 +4315,7 @@
         <v>4916</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" ref="D27:D43" si="0">C27-C26</f>
+        <f t="shared" ref="D27:D44" si="0">C27-C26</f>
         <v>473</v>
       </c>
       <c r="E27" s="5">
@@ -4913,6 +4913,42 @@
         <v>8</v>
       </c>
       <c r="K43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="5">
+        <v>16040</v>
+      </c>
+      <c r="D44" s="5">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="5">
+        <v>730</v>
+      </c>
+      <c r="H44" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" t="s">
         <v>155</v>
       </c>
     </row>
@@ -26101,7 +26137,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26436,7 +26472,7 @@
         <v>43929</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" ref="B18:B43" si="2">B16</f>
+        <f t="shared" ref="B18:B45" si="2">B16</f>
         <v>Female</v>
       </c>
       <c r="C18">
@@ -26953,10 +26989,44 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E44" s="14"/>
+      <c r="A44" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="2"/>
+        <v>Female</v>
+      </c>
+      <c r="C44">
+        <v>26</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:D45" si="3">D42+C44</f>
+        <v>333</v>
+      </c>
+      <c r="E44" s="14">
+        <f>D44/SUM(D44:D45)</f>
+        <v>0.45491803278688525</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E45" s="14"/>
+      <c r="A45" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="2"/>
+        <v>Male</v>
+      </c>
+      <c r="C45">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="3"/>
+        <v>399</v>
+      </c>
+      <c r="E45" s="14">
+        <f>D45/SUM(D44:D45)</f>
+        <v>0.54508196721311475</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CA7668-69F2-6E40-8B5C-15B7055D18F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C27644-EFDB-F14A-9756-464676215AB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -1399,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5E2DA3-023C-FF46-A014-0C2E672468A0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1421,7 +1421,7 @@
         <v>43940.802083333336</v>
       </c>
       <c r="B2" s="12">
-        <v>43942.85833333333</v>
+        <v>43942.816666666666</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -26136,7 +26136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142B833B-877B-3C49-9423-E5D043A0EF43}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C27644-EFDB-F14A-9756-464676215AB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD550F0C-3933-EB43-82D5-090EF6088A69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="163">
   <si>
     <t>Date</t>
   </si>
@@ -527,6 +527,9 @@
   </si>
   <si>
     <t>https://www.gov.ie/en/press-release/03791b-statement-from-the-national-public-health-emergency-team-saturday-18/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/1826d2-statement-from-the-national-public-health-emergency-team-tuesday-21-/</t>
   </si>
 </sst>
 </file>
@@ -1399,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5E2DA3-023C-FF46-A014-0C2E672468A0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1418,10 +1421,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43940.802083333336</v>
+        <v>43940.809027777781</v>
       </c>
       <c r="B2" s="12">
-        <v>43942.816666666666</v>
+        <v>43942.802083333336</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3380,10 +3383,10 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4849,35 +4852,35 @@
         <v>43940</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C42" s="5">
-        <v>15251</v>
+        <v>15464</v>
       </c>
       <c r="D42" s="5">
         <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="E42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" t="s">
-        <v>8</v>
+        <v>279</v>
+      </c>
+      <c r="E42">
+        <v>2323</v>
+      </c>
+      <c r="F42">
+        <v>315</v>
       </c>
       <c r="G42" s="5">
-        <v>610</v>
-      </c>
-      <c r="H42" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" t="s">
-        <v>8</v>
+        <v>719</v>
+      </c>
+      <c r="H42">
+        <v>4180</v>
+      </c>
+      <c r="I42">
+        <v>491</v>
+      </c>
+      <c r="J42">
+        <v>48</v>
       </c>
       <c r="K42" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4892,7 +4895,7 @@
       </c>
       <c r="D43" s="5">
         <f t="shared" si="0"/>
-        <v>401</v>
+        <v>188</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -4959,11 +4962,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A96" sqref="A96:A98"/>
+      <selection pane="bottomLeft" activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5905,7 +5908,7 @@
         <v>43929</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B98" si="1">B64</f>
+        <f t="shared" ref="B67:B101" si="1">B64</f>
         <v>Male</v>
       </c>
       <c r="C67">
@@ -6378,6 +6381,51 @@
         <v>149</v>
       </c>
       <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B99" t="str">
+        <f>B96</f>
+        <v>Female</v>
+      </c>
+      <c r="C99">
+        <v>8595</v>
+      </c>
+      <c r="D99">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="1"/>
+        <v>Male</v>
+      </c>
+      <c r="C100">
+        <v>6708</v>
+      </c>
+      <c r="D100">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C101">
+        <v>149</v>
+      </c>
+      <c r="D101">
         <v>1</v>
       </c>
     </row>
@@ -6388,11 +6436,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:F369"/>
+  <dimension ref="A1:F380"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A324" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D359" sqref="D359"/>
+      <pane ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F371" sqref="F371:H379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11590,7 +11638,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>43939</v>
       </c>
@@ -11601,6 +11649,161 @@
         <v>24</v>
       </c>
       <c r="D369">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A370" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B370" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C370">
+        <v>29</v>
+      </c>
+      <c r="D370" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A371" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B371" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C371">
+        <v>54</v>
+      </c>
+      <c r="D371" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A372" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C372" t="s">
+        <v>8</v>
+      </c>
+      <c r="D372">
+        <v>13</v>
+      </c>
+      <c r="F372" s="7"/>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A373" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C373">
+        <v>162</v>
+      </c>
+      <c r="D373">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A374" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C374">
+        <v>1009</v>
+      </c>
+      <c r="D374">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A375" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C375">
+        <v>2580</v>
+      </c>
+      <c r="D375">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A376" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C376">
+        <v>2781</v>
+      </c>
+      <c r="D376">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A377" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C377">
+        <v>2972</v>
+      </c>
+      <c r="D377">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A378" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C378">
+        <v>2207</v>
+      </c>
+      <c r="D378">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A379" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C379">
+        <v>3646</v>
+      </c>
+      <c r="D379">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A380" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C380">
+        <v>24</v>
+      </c>
+      <c r="D380">
         <v>2</v>
       </c>
     </row>
@@ -11611,11 +11814,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
+      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12837,7 +13040,7 @@
         <v>43929</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" ref="B87:B118" si="1">B84</f>
+        <f t="shared" ref="B87:B121" si="1">B84</f>
         <v>Close contact with confirmed case</v>
       </c>
       <c r="C87" s="11">
@@ -13311,6 +13514,42 @@
       </c>
       <c r="D118" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B119" t="str">
+        <f>B116</f>
+        <v>Community transmission</v>
+      </c>
+      <c r="C119" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B120" t="str">
+        <f t="shared" si="1"/>
+        <v>Close contact with confirmed case</v>
+      </c>
+      <c r="C120" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B121" t="str">
+        <f t="shared" si="1"/>
+        <v>Travel Abroad</v>
+      </c>
+      <c r="C121" s="11">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -13320,10 +13559,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E879"/>
+  <dimension ref="A1:E905"/>
   <sheetViews>
-    <sheetView topLeftCell="A837" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A854" sqref="A854:A879"/>
+    <sheetView tabSelected="1" topLeftCell="A880" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B901" sqref="B901"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26124,6 +26363,370 @@
         <v>444</v>
       </c>
       <c r="D879" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A880" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B880" t="s">
+        <v>12</v>
+      </c>
+      <c r="C880">
+        <v>79</v>
+      </c>
+      <c r="D880" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A881" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B881" t="s">
+        <v>14</v>
+      </c>
+      <c r="C881">
+        <v>403</v>
+      </c>
+      <c r="D881" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A882" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B882" t="s">
+        <v>15</v>
+      </c>
+      <c r="C882">
+        <v>164</v>
+      </c>
+      <c r="D882" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A883" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B883" t="s">
+        <v>16</v>
+      </c>
+      <c r="C883">
+        <v>1053</v>
+      </c>
+      <c r="D883" s="3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A884" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B884" t="s">
+        <v>17</v>
+      </c>
+      <c r="C884">
+        <v>392</v>
+      </c>
+      <c r="D884" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A885" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B885" t="s">
+        <v>18</v>
+      </c>
+      <c r="C885">
+        <v>7781</v>
+      </c>
+      <c r="D885" s="3">
+        <v>0.503</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A886" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B886" t="s">
+        <v>19</v>
+      </c>
+      <c r="C886">
+        <v>294</v>
+      </c>
+      <c r="D886" s="3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A887" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B887" t="s">
+        <v>20</v>
+      </c>
+      <c r="C887">
+        <v>268</v>
+      </c>
+      <c r="D887" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A888" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B888" t="s">
+        <v>21</v>
+      </c>
+      <c r="C888">
+        <v>822</v>
+      </c>
+      <c r="D888" s="3">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A889" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B889" t="s">
+        <v>22</v>
+      </c>
+      <c r="C889">
+        <v>210</v>
+      </c>
+      <c r="D889" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A890" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B890" t="s">
+        <v>36</v>
+      </c>
+      <c r="C890">
+        <v>177</v>
+      </c>
+      <c r="D890" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A891" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B891" t="s">
+        <v>37</v>
+      </c>
+      <c r="C891">
+        <v>54</v>
+      </c>
+      <c r="D891" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A892" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B892" t="s">
+        <v>23</v>
+      </c>
+      <c r="C892">
+        <v>409</v>
+      </c>
+      <c r="D892" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A893" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B893" t="s">
+        <v>24</v>
+      </c>
+      <c r="C893">
+        <v>94</v>
+      </c>
+      <c r="D893" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A894" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B894" t="s">
+        <v>25</v>
+      </c>
+      <c r="C894">
+        <v>469</v>
+      </c>
+      <c r="D894" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A895" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B895" t="s">
+        <v>26</v>
+      </c>
+      <c r="C895">
+        <v>335</v>
+      </c>
+      <c r="D895" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A896" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B896" t="s">
+        <v>27</v>
+      </c>
+      <c r="C896">
+        <v>522</v>
+      </c>
+      <c r="D896" s="3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A897" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B897" t="s">
+        <v>38</v>
+      </c>
+      <c r="C897">
+        <v>199</v>
+      </c>
+      <c r="D897" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A898" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B898" t="s">
+        <v>28</v>
+      </c>
+      <c r="C898">
+        <v>195</v>
+      </c>
+      <c r="D898" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A899" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B899" t="s">
+        <v>29</v>
+      </c>
+      <c r="C899">
+        <v>91</v>
+      </c>
+      <c r="D899" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A900" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B900" t="s">
+        <v>30</v>
+      </c>
+      <c r="C900">
+        <v>93</v>
+      </c>
+      <c r="D900" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A901" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B901" t="s">
+        <v>31</v>
+      </c>
+      <c r="C901">
+        <v>306</v>
+      </c>
+      <c r="D901" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A902" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B902" t="s">
+        <v>32</v>
+      </c>
+      <c r="C902">
+        <v>117</v>
+      </c>
+      <c r="D902" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A903" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B903" t="s">
+        <v>33</v>
+      </c>
+      <c r="C903">
+        <v>377</v>
+      </c>
+      <c r="D903" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A904" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B904" t="s">
+        <v>34</v>
+      </c>
+      <c r="C904">
+        <v>114</v>
+      </c>
+      <c r="D904" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A905" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B905" t="s">
+        <v>35</v>
+      </c>
+      <c r="C905">
+        <v>446</v>
+      </c>
+      <c r="D905" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD550F0C-3933-EB43-82D5-090EF6088A69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC541914-9FAA-D14E-8A53-04D474725557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="164">
   <si>
     <t>Date</t>
   </si>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t>https://www.gov.ie/en/press-release/1826d2-statement-from-the-national-public-health-emergency-team-tuesday-21-/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/d7aa52-statement-from-the-national-public-health-emergency-team-wednesday-2/</t>
   </si>
 </sst>
 </file>
@@ -1421,10 +1424,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43940.809027777781</v>
+        <v>43941.802777777775</v>
       </c>
       <c r="B2" s="12">
-        <v>43942.802083333336</v>
+        <v>43943.802777777775</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3380,13 +3383,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4318,7 +4321,7 @@
         <v>4916</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" ref="D27:D44" si="0">C27-C26</f>
+        <f t="shared" ref="D27:D45" si="0">C27-C26</f>
         <v>473</v>
       </c>
       <c r="E27" s="5">
@@ -4888,35 +4891,35 @@
         <v>43941</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C43" s="5">
-        <v>15652</v>
+        <v>15871</v>
       </c>
       <c r="D43" s="5">
         <f t="shared" si="0"/>
-        <v>188</v>
-      </c>
-      <c r="E43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" t="s">
-        <v>8</v>
+        <v>407</v>
+      </c>
+      <c r="E43">
+        <v>2387</v>
+      </c>
+      <c r="F43">
+        <v>322</v>
       </c>
       <c r="G43" s="5">
-        <v>687</v>
-      </c>
-      <c r="H43" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" t="s">
-        <v>8</v>
+        <v>757</v>
+      </c>
+      <c r="H43">
+        <v>4393</v>
+      </c>
+      <c r="I43">
+        <v>507</v>
+      </c>
+      <c r="J43">
+        <v>48</v>
       </c>
       <c r="K43" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4931,7 +4934,7 @@
       </c>
       <c r="D44" s="5">
         <f t="shared" si="0"/>
-        <v>388</v>
+        <v>169</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
@@ -4952,6 +4955,42 @@
         <v>8</v>
       </c>
       <c r="K44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="5">
+        <v>16671</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" si="0"/>
+        <v>631</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="5">
+        <v>769</v>
+      </c>
+      <c r="H45" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4962,11 +5001,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D102" sqref="D102"/>
+      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5908,7 +5947,7 @@
         <v>43929</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B101" si="1">B64</f>
+        <f t="shared" ref="B67:B104" si="1">B64</f>
         <v>Male</v>
       </c>
       <c r="C67">
@@ -6427,6 +6466,51 @@
       </c>
       <c r="D101">
         <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B102" t="str">
+        <f>B99</f>
+        <v>Female</v>
+      </c>
+      <c r="C102">
+        <v>8906</v>
+      </c>
+      <c r="D102">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="1"/>
+        <v>Male</v>
+      </c>
+      <c r="C103">
+        <v>6909</v>
+      </c>
+      <c r="D103">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C104">
+        <v>56</v>
+      </c>
+      <c r="D104">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -6436,11 +6520,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:F380"/>
+  <dimension ref="A1:F391"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F371" sqref="F371:H379"/>
+      <pane ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B388" sqref="B388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11807,6 +11891,161 @@
         <v>2</v>
       </c>
     </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A381" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C381">
+        <v>28</v>
+      </c>
+      <c r="D381" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A382" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C382">
+        <v>58</v>
+      </c>
+      <c r="D382" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A383" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C383" t="s">
+        <v>8</v>
+      </c>
+      <c r="D383">
+        <v>13</v>
+      </c>
+      <c r="F383" s="7"/>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A384" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C384">
+        <v>169</v>
+      </c>
+      <c r="D384">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A385" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C385">
+        <v>1039</v>
+      </c>
+      <c r="D385">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A386" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B386" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C386">
+        <v>2635</v>
+      </c>
+      <c r="D386">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A387" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C387">
+        <v>2843</v>
+      </c>
+      <c r="D387">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A388" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B388" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C388">
+        <v>3039</v>
+      </c>
+      <c r="D388">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A389" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B389" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C389">
+        <v>2254</v>
+      </c>
+      <c r="D389">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A390" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B390" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C390">
+        <v>3782</v>
+      </c>
+      <c r="D390">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A391" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B391" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C391">
+        <v>24</v>
+      </c>
+      <c r="D391">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11814,11 +12053,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
+      <selection pane="bottomLeft" activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13040,7 +13279,7 @@
         <v>43929</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" ref="B87:B121" si="1">B84</f>
+        <f t="shared" ref="B87:B124" si="1">B84</f>
         <v>Close contact with confirmed case</v>
       </c>
       <c r="C87" s="11">
@@ -13527,6 +13766,9 @@
       <c r="C119" s="11">
         <v>60</v>
       </c>
+      <c r="D119" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
@@ -13539,6 +13781,9 @@
       <c r="C120" s="11">
         <v>35</v>
       </c>
+      <c r="D120" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
@@ -13550,6 +13795,54 @@
       </c>
       <c r="C121" s="11">
         <v>5</v>
+      </c>
+      <c r="D121" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B122" t="str">
+        <f>B119</f>
+        <v>Community transmission</v>
+      </c>
+      <c r="C122" s="11">
+        <v>61</v>
+      </c>
+      <c r="D122" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B123" t="str">
+        <f t="shared" si="1"/>
+        <v>Close contact with confirmed case</v>
+      </c>
+      <c r="C123" s="11">
+        <v>35</v>
+      </c>
+      <c r="D123" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="1"/>
+        <v>Travel Abroad</v>
+      </c>
+      <c r="C124" s="11">
+        <v>4</v>
+      </c>
+      <c r="D124" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -13559,10 +13852,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E905"/>
+  <dimension ref="A1:E931"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A880" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B901" sqref="B901"/>
+    <sheetView topLeftCell="A898" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A906" sqref="A906:A931"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26730,6 +27023,370 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A906" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B906" t="s">
+        <v>12</v>
+      </c>
+      <c r="C906">
+        <v>80</v>
+      </c>
+      <c r="D906" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A907" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B907" t="s">
+        <v>14</v>
+      </c>
+      <c r="C907">
+        <v>430</v>
+      </c>
+      <c r="D907" s="3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A908" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B908" t="s">
+        <v>15</v>
+      </c>
+      <c r="C908">
+        <v>165</v>
+      </c>
+      <c r="D908" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A909" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B909" t="s">
+        <v>16</v>
+      </c>
+      <c r="C909">
+        <v>1077</v>
+      </c>
+      <c r="D909" s="3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A910" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B910" t="s">
+        <v>17</v>
+      </c>
+      <c r="C910">
+        <v>416</v>
+      </c>
+      <c r="D910" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A911" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B911" t="s">
+        <v>18</v>
+      </c>
+      <c r="C911">
+        <v>7905</v>
+      </c>
+      <c r="D911" s="3">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A912" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B912" t="s">
+        <v>19</v>
+      </c>
+      <c r="C912">
+        <v>309</v>
+      </c>
+      <c r="D912" s="3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A913" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B913" t="s">
+        <v>20</v>
+      </c>
+      <c r="C913">
+        <v>268</v>
+      </c>
+      <c r="D913" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A914" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B914" t="s">
+        <v>21</v>
+      </c>
+      <c r="C914">
+        <v>851</v>
+      </c>
+      <c r="D914" s="3">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A915" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B915" t="s">
+        <v>22</v>
+      </c>
+      <c r="C915">
+        <v>216</v>
+      </c>
+      <c r="D915" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A916" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B916" t="s">
+        <v>36</v>
+      </c>
+      <c r="C916">
+        <v>185</v>
+      </c>
+      <c r="D916" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A917" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B917" t="s">
+        <v>37</v>
+      </c>
+      <c r="C917">
+        <v>55</v>
+      </c>
+      <c r="D917" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A918" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B918" t="s">
+        <v>23</v>
+      </c>
+      <c r="C918">
+        <v>415</v>
+      </c>
+      <c r="D918" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A919" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B919" t="s">
+        <v>24</v>
+      </c>
+      <c r="C919">
+        <v>101</v>
+      </c>
+      <c r="D919" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A920" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B920" t="s">
+        <v>25</v>
+      </c>
+      <c r="C920">
+        <v>489</v>
+      </c>
+      <c r="D920" s="3">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A921" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B921" t="s">
+        <v>26</v>
+      </c>
+      <c r="C921">
+        <v>339</v>
+      </c>
+      <c r="D921" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A922" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B922" t="s">
+        <v>27</v>
+      </c>
+      <c r="C922">
+        <v>539</v>
+      </c>
+      <c r="D922" s="3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A923" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B923" t="s">
+        <v>38</v>
+      </c>
+      <c r="C923">
+        <v>220</v>
+      </c>
+      <c r="D923" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A924" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B924" t="s">
+        <v>28</v>
+      </c>
+      <c r="C924">
+        <v>198</v>
+      </c>
+      <c r="D924" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="925" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A925" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B925" t="s">
+        <v>29</v>
+      </c>
+      <c r="C925">
+        <v>91</v>
+      </c>
+      <c r="D925" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A926" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B926" t="s">
+        <v>30</v>
+      </c>
+      <c r="C926">
+        <v>97</v>
+      </c>
+      <c r="D926" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="927" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A927" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B927" t="s">
+        <v>31</v>
+      </c>
+      <c r="C927">
+        <v>320</v>
+      </c>
+      <c r="D927" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A928" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B928" t="s">
+        <v>32</v>
+      </c>
+      <c r="C928">
+        <v>119</v>
+      </c>
+      <c r="D928" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A929" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B929" t="s">
+        <v>33</v>
+      </c>
+      <c r="C929">
+        <v>386</v>
+      </c>
+      <c r="D929" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A930" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B930" t="s">
+        <v>34</v>
+      </c>
+      <c r="C930">
+        <v>137</v>
+      </c>
+      <c r="D930" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A931" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B931" t="s">
+        <v>35</v>
+      </c>
+      <c r="C931">
+        <v>463</v>
+      </c>
+      <c r="D931" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26737,10 +27394,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142B833B-877B-3C49-9423-E5D043A0EF43}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="A46" sqref="A46:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27075,7 +27732,7 @@
         <v>43929</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" ref="B18:B45" si="2">B16</f>
+        <f t="shared" ref="B18:B47" si="2">B16</f>
         <v>Female</v>
       </c>
       <c r="C18">
@@ -27603,7 +28260,7 @@
         <v>26</v>
       </c>
       <c r="D44">
-        <f t="shared" ref="D44:D45" si="3">D42+C44</f>
+        <f t="shared" ref="D44:D47" si="3">D42+C44</f>
         <v>333</v>
       </c>
       <c r="E44" s="14">
@@ -27630,6 +28287,12 @@
         <f>D45/SUM(D44:D45)</f>
         <v>0.54508196721311475</v>
       </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC541914-9FAA-D14E-8A53-04D474725557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E12BE01-2A6E-444E-9901-D7ACD1F8C82E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="165">
   <si>
     <t>Date</t>
   </si>
@@ -533,6 +533,9 @@
   </si>
   <si>
     <t>https://www.gov.ie/en/press-release/d7aa52-statement-from-the-national-public-health-emergency-team-wednesday-2/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/f4ad12-statement-from-the-national-public-health-emergency-team-thursday-23/</t>
   </si>
 </sst>
 </file>
@@ -1424,10 +1427,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43941.802777777775</v>
+        <v>43942.802777777775</v>
       </c>
       <c r="B2" s="12">
-        <v>43943.802777777775</v>
+        <v>43944.802777777775</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1442,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD393D6-56CC-E749-BDF2-72DC274BB8BB}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3383,13 +3386,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4321,7 +4324,7 @@
         <v>4916</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" ref="D27:D45" si="0">C27-C26</f>
+        <f t="shared" ref="D27:D46" si="0">C27-C26</f>
         <v>473</v>
       </c>
       <c r="E27" s="5">
@@ -4927,35 +4930,35 @@
         <v>43942</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C44" s="5">
-        <v>16040</v>
+        <v>16439</v>
       </c>
       <c r="D44" s="5">
         <f t="shared" si="0"/>
-        <v>169</v>
-      </c>
-      <c r="E44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" t="s">
-        <v>8</v>
+        <v>568</v>
+      </c>
+      <c r="E44">
+        <v>2424</v>
+      </c>
+      <c r="F44">
+        <v>331</v>
       </c>
       <c r="G44" s="5">
-        <v>730</v>
-      </c>
-      <c r="H44" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" t="s">
-        <v>8</v>
+        <v>789</v>
+      </c>
+      <c r="H44">
+        <v>4545</v>
+      </c>
+      <c r="I44">
+        <v>522</v>
+      </c>
+      <c r="J44">
+        <v>48</v>
       </c>
       <c r="K44" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4970,7 +4973,7 @@
       </c>
       <c r="D45" s="5">
         <f t="shared" si="0"/>
-        <v>631</v>
+        <v>232</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -4991,6 +4994,42 @@
         <v>8</v>
       </c>
       <c r="K45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="5">
+        <v>17607</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="0"/>
+        <v>936</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="5">
+        <v>794</v>
+      </c>
+      <c r="H46" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5001,11 +5040,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
+      <selection pane="bottomLeft" activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5947,7 +5986,7 @@
         <v>43929</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B104" si="1">B64</f>
+        <f t="shared" ref="B67:B107" si="1">B64</f>
         <v>Male</v>
       </c>
       <c r="C67">
@@ -6510,6 +6549,51 @@
         <v>56</v>
       </c>
       <c r="D104">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B105" t="str">
+        <f>B102</f>
+        <v>Female</v>
+      </c>
+      <c r="C105">
+        <v>9272</v>
+      </c>
+      <c r="D105">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="1"/>
+        <v>Male</v>
+      </c>
+      <c r="C106">
+        <v>7105</v>
+      </c>
+      <c r="D106">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C107">
+        <v>62</v>
+      </c>
+      <c r="D107">
         <v>0.4</v>
       </c>
     </row>
@@ -6520,11 +6604,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:F391"/>
+  <dimension ref="A1:F402"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B388" sqref="B388"/>
+      <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B399" sqref="B399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11948,7 +12032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>43941</v>
       </c>
@@ -11962,7 +12046,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>43941</v>
       </c>
@@ -11976,7 +12060,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>43941</v>
       </c>
@@ -11990,7 +12074,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>43941</v>
       </c>
@@ -12004,7 +12088,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>43941</v>
       </c>
@@ -12018,7 +12102,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>43941</v>
       </c>
@@ -12032,7 +12116,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>43941</v>
       </c>
@@ -12043,6 +12127,162 @@
         <v>24</v>
       </c>
       <c r="D391">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A392" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B392" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C392">
+        <v>28</v>
+      </c>
+      <c r="D392" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A393" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B393" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C393">
+        <v>61</v>
+      </c>
+      <c r="D393" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A394" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B394" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C394" t="s">
+        <v>8</v>
+      </c>
+      <c r="D394">
+        <v>13</v>
+      </c>
+      <c r="F394" s="13"/>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A395" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B395" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C395">
+        <v>174</v>
+      </c>
+      <c r="D395">
+        <v>8</v>
+      </c>
+      <c r="F395" s="7"/>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A396" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B396" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C396">
+        <v>1071</v>
+      </c>
+      <c r="D396">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A397" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B397" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C397">
+        <v>2712</v>
+      </c>
+      <c r="D397">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A398" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B398" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C398">
+        <v>2929</v>
+      </c>
+      <c r="D398">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A399" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B399" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C399">
+        <v>3125</v>
+      </c>
+      <c r="D399">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A400" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B400" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C400">
+        <v>2311</v>
+      </c>
+      <c r="D400">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A401" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B401" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C401">
+        <v>4004</v>
+      </c>
+      <c r="D401">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A402" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B402" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C402">
+        <v>24</v>
+      </c>
+      <c r="D402">
         <v>3</v>
       </c>
     </row>
@@ -12053,11 +12293,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C125" sqref="C125"/>
+      <selection pane="bottomLeft" activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13279,7 +13519,7 @@
         <v>43929</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" ref="B87:B124" si="1">B84</f>
+        <f t="shared" ref="B87:B127" si="1">B84</f>
         <v>Close contact with confirmed case</v>
       </c>
       <c r="C87" s="11">
@@ -13842,6 +14082,51 @@
         <v>4</v>
       </c>
       <c r="D124" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B125" t="str">
+        <f>B122</f>
+        <v>Community transmission</v>
+      </c>
+      <c r="C125" s="11">
+        <v>52</v>
+      </c>
+      <c r="D125" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="1"/>
+        <v>Close contact with confirmed case</v>
+      </c>
+      <c r="C126" s="11">
+        <v>44</v>
+      </c>
+      <c r="D126" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="1"/>
+        <v>Travel Abroad</v>
+      </c>
+      <c r="C127" s="11">
+        <v>4</v>
+      </c>
+      <c r="D127" t="s">
         <v>106</v>
       </c>
     </row>
@@ -13852,10 +14137,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E931"/>
+  <dimension ref="A1:E957"/>
   <sheetViews>
-    <sheetView topLeftCell="A898" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A906" sqref="A906:A931"/>
+    <sheetView topLeftCell="A919" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C933" sqref="C933"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27387,6 +27672,370 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
+    <row r="932" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A932" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B932" t="s">
+        <v>12</v>
+      </c>
+      <c r="C932">
+        <v>84</v>
+      </c>
+      <c r="D932" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A933" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B933" t="s">
+        <v>14</v>
+      </c>
+      <c r="C933">
+        <v>466</v>
+      </c>
+      <c r="D933" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A934" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B934" t="s">
+        <v>15</v>
+      </c>
+      <c r="C934">
+        <v>187</v>
+      </c>
+      <c r="D934" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A935" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B935" t="s">
+        <v>16</v>
+      </c>
+      <c r="C935">
+        <v>1087</v>
+      </c>
+      <c r="D935" s="3">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A936" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B936" t="s">
+        <v>17</v>
+      </c>
+      <c r="C936">
+        <v>431</v>
+      </c>
+      <c r="D936" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A937" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B937" t="s">
+        <v>18</v>
+      </c>
+      <c r="C937">
+        <v>8216</v>
+      </c>
+      <c r="D937" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A938" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B938" t="s">
+        <v>19</v>
+      </c>
+      <c r="C938">
+        <v>315</v>
+      </c>
+      <c r="D938" s="3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A939" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B939" t="s">
+        <v>20</v>
+      </c>
+      <c r="C939">
+        <v>271</v>
+      </c>
+      <c r="D939" s="3">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A940" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B940" t="s">
+        <v>21</v>
+      </c>
+      <c r="C940">
+        <v>875</v>
+      </c>
+      <c r="D940" s="3">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="941" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A941" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B941" t="s">
+        <v>22</v>
+      </c>
+      <c r="C941">
+        <v>222</v>
+      </c>
+      <c r="D941" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A942" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B942" t="s">
+        <v>36</v>
+      </c>
+      <c r="C942">
+        <v>192</v>
+      </c>
+      <c r="D942" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A943" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B943" t="s">
+        <v>37</v>
+      </c>
+      <c r="C943">
+        <v>56</v>
+      </c>
+      <c r="D943" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A944" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B944" t="s">
+        <v>23</v>
+      </c>
+      <c r="C944">
+        <v>420</v>
+      </c>
+      <c r="D944" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A945" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B945" t="s">
+        <v>24</v>
+      </c>
+      <c r="C945">
+        <v>102</v>
+      </c>
+      <c r="D945" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="946" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A946" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B946" t="s">
+        <v>25</v>
+      </c>
+      <c r="C946">
+        <v>506</v>
+      </c>
+      <c r="D946" s="3">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A947" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B947" t="s">
+        <v>26</v>
+      </c>
+      <c r="C947">
+        <v>365</v>
+      </c>
+      <c r="D947" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="948" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A948" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B948" t="s">
+        <v>27</v>
+      </c>
+      <c r="C948">
+        <v>550</v>
+      </c>
+      <c r="D948" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="949" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A949" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B949" t="s">
+        <v>38</v>
+      </c>
+      <c r="C949">
+        <v>249</v>
+      </c>
+      <c r="D949" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="950" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A950" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B950" t="s">
+        <v>28</v>
+      </c>
+      <c r="C950">
+        <v>205</v>
+      </c>
+      <c r="D950" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="951" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A951" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B951" t="s">
+        <v>29</v>
+      </c>
+      <c r="C951">
+        <v>92</v>
+      </c>
+      <c r="D951" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A952" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B952" t="s">
+        <v>30</v>
+      </c>
+      <c r="C952">
+        <v>98</v>
+      </c>
+      <c r="D952" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="953" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A953" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B953" t="s">
+        <v>31</v>
+      </c>
+      <c r="C953">
+        <v>327</v>
+      </c>
+      <c r="D953" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="954" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A954" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B954" t="s">
+        <v>32</v>
+      </c>
+      <c r="C954">
+        <v>122</v>
+      </c>
+      <c r="D954" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="955" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A955" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B955" t="s">
+        <v>33</v>
+      </c>
+      <c r="C955">
+        <v>395</v>
+      </c>
+      <c r="D955" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="956" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A956" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B956" t="s">
+        <v>34</v>
+      </c>
+      <c r="C956">
+        <v>137</v>
+      </c>
+      <c r="D956" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="957" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A957" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B957" t="s">
+        <v>35</v>
+      </c>
+      <c r="C957">
+        <v>469</v>
+      </c>
+      <c r="D957" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27397,7 +28046,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:E48"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28289,10 +28938,44 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="2"/>
+        <v>Female</v>
+      </c>
+      <c r="C46">
+        <f>D46-D44</f>
+        <v>40</v>
+      </c>
+      <c r="D46">
+        <v>373</v>
+      </c>
+      <c r="E46" s="14">
+        <f>D46/SUM(D46:D47)</f>
+        <v>0.46977329974811083</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="2"/>
+        <v>Male</v>
+      </c>
+      <c r="C47">
+        <f>D47-D45</f>
+        <v>22</v>
+      </c>
+      <c r="D47">
+        <v>421</v>
+      </c>
+      <c r="E47" s="14">
+        <f>D47/SUM(D46:D47)</f>
+        <v>0.53022670025188912</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28301,10 +28984,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28355,7 +29038,7 @@
         <v>6450</v>
       </c>
       <c r="G2" s="10">
-        <f t="shared" ref="G2:G20" si="0">D2/F2</f>
+        <f t="shared" ref="G2:G21" si="0">D2/F2</f>
         <v>0.10682170542635659</v>
       </c>
     </row>
@@ -28789,6 +29472,30 @@
       <c r="G20" s="10">
         <f t="shared" si="0"/>
         <v>0.16040024257125532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B21">
+        <v>142</v>
+      </c>
+      <c r="C21">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>3016</v>
+      </c>
+      <c r="E21">
+        <v>263</v>
+      </c>
+      <c r="F21">
+        <v>19254</v>
+      </c>
+      <c r="G21" s="10">
+        <f t="shared" si="0"/>
+        <v>0.15664277552716319</v>
       </c>
     </row>
   </sheetData>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E12BE01-2A6E-444E-9901-D7ACD1F8C82E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C61599-DC96-1A44-88A4-A527F87C7B6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="168">
   <si>
     <t>Date</t>
   </si>
@@ -536,6 +536,15 @@
   </si>
   <si>
     <t>https://www.gov.ie/en/press-release/f4ad12-statement-from-the-national-public-health-emergency-team-thursday-23/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/903129-statement-from-the-national-public-health-emergency-team-friday-24-a/</t>
+  </si>
+  <si>
+    <t>Previous provisional cases</t>
+  </si>
+  <si>
+    <t>Previous provisional deaths</t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1418,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1427,10 +1436,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43942.802777777775</v>
+        <v>43943.810416666667</v>
       </c>
       <c r="B2" s="12">
-        <v>43944.802777777775</v>
+        <v>43945.810416666667</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1445,7 +1454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD393D6-56CC-E749-BDF2-72DC274BB8BB}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -3386,24 +3395,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="3" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3414,31 +3423,37 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>43900</v>
       </c>
@@ -3448,32 +3463,34 @@
       <c r="C2" s="5">
         <v>34</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5">
         <v>34</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5">
         <v>0</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="I2" s="5"/>
       <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>43901</v>
       </c>
@@ -3483,32 +3500,34 @@
       <c r="C3" s="5">
         <v>43</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5">
         <v>9</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="5">
         <v>1</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="I3" s="5"/>
       <c r="J3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>43902</v>
       </c>
@@ -3518,32 +3537,34 @@
       <c r="C4" s="5">
         <v>70</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
         <v>27</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>6</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>1</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="I4" s="5"/>
       <c r="J4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>43903</v>
       </c>
@@ -3553,32 +3574,34 @@
       <c r="C5" s="5">
         <v>90</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
         <v>20</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="5">
         <v>1</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>43904</v>
       </c>
@@ -3588,32 +3611,34 @@
       <c r="C6" s="5">
         <v>129</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
         <v>39</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="5">
         <v>2</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>43905</v>
       </c>
@@ -3623,32 +3648,34 @@
       <c r="C7" s="5">
         <v>169</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
         <v>40</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="5">
         <v>2</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>43906</v>
       </c>
@@ -3658,32 +3685,34 @@
       <c r="C8" s="5">
         <v>271</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
         <v>102</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="5">
         <v>84</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>6</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>2</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5">
         <v>59</v>
       </c>
-      <c r="I8" s="5">
+      <c r="K8" s="5">
         <v>23</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>43907</v>
       </c>
@@ -3693,32 +3722,34 @@
       <c r="C9" s="5">
         <v>350</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5">
         <v>79</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>108</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>7</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>2</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5">
         <v>84</v>
       </c>
-      <c r="I9" s="5">
+      <c r="K9" s="5">
         <v>26</v>
       </c>
-      <c r="J9" s="5">
+      <c r="L9" s="5">
         <v>43</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>43908</v>
       </c>
@@ -3728,32 +3759,34 @@
       <c r="C10" s="5">
         <v>438</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5">
         <v>88</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <v>140</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>12</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>3</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5"/>
+      <c r="J10" s="5">
         <v>114</v>
       </c>
-      <c r="I10" s="5">
+      <c r="K10" s="5">
         <v>27</v>
       </c>
-      <c r="J10" s="5">
+      <c r="L10" s="5">
         <v>44</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>43909</v>
       </c>
@@ -3763,32 +3796,34 @@
       <c r="C11" s="5">
         <v>584</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
         <v>146</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F11" s="5">
         <v>173</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>13</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
         <v>3</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="5"/>
+      <c r="J11" s="5">
         <v>147</v>
       </c>
-      <c r="I11" s="5">
+      <c r="K11" s="5">
         <v>29</v>
       </c>
-      <c r="J11" s="5">
+      <c r="L11" s="5">
         <v>44</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>43910</v>
       </c>
@@ -3798,32 +3833,34 @@
       <c r="C12" s="5">
         <v>712</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
         <v>128</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5">
         <v>211</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>17</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
         <v>4</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5"/>
+      <c r="J12" s="5">
         <v>159</v>
       </c>
-      <c r="I12" s="5">
+      <c r="K12" s="5">
         <v>35</v>
       </c>
-      <c r="J12" s="5">
+      <c r="L12" s="5">
         <v>44</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>43911</v>
       </c>
@@ -3833,32 +3870,34 @@
       <c r="C13" s="5">
         <v>836</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
         <v>124</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
         <v>239</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>25</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H13" s="5">
         <v>6</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I13" s="5"/>
+      <c r="J13" s="5">
         <v>208</v>
       </c>
-      <c r="I13" s="5">
+      <c r="K13" s="5">
         <v>37</v>
       </c>
-      <c r="J13" s="5">
+      <c r="L13" s="5">
         <v>44</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>43912</v>
       </c>
@@ -3868,32 +3907,34 @@
       <c r="C14" s="5">
         <v>965</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5">
         <v>129</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="5">
         <v>277</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
         <v>36</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H14" s="5">
         <v>6</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5">
         <v>247</v>
       </c>
-      <c r="I14" s="5">
+      <c r="K14" s="5">
         <v>44</v>
       </c>
-      <c r="J14" s="5">
+      <c r="L14" s="5">
         <v>45</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>43913</v>
       </c>
@@ -3903,32 +3944,34 @@
       <c r="C15" s="5">
         <v>1146</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
         <v>181</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="5">
         <v>305</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <v>39</v>
       </c>
-      <c r="G15" s="5">
+      <c r="H15" s="5">
         <v>7</v>
       </c>
-      <c r="H15" s="5">
+      <c r="I15" s="5"/>
+      <c r="J15" s="5">
         <v>283</v>
       </c>
-      <c r="I15" s="5">
+      <c r="K15" s="5">
         <v>63</v>
       </c>
-      <c r="J15" s="5">
+      <c r="L15" s="5">
         <v>45</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>43914</v>
       </c>
@@ -3938,32 +3981,34 @@
       <c r="C16" s="5">
         <v>1383</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5">
         <v>237</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F16" s="5">
         <v>340</v>
       </c>
-      <c r="F16" s="5">
+      <c r="G16" s="5">
         <v>47</v>
       </c>
-      <c r="G16" s="5">
+      <c r="H16" s="5">
         <v>9</v>
       </c>
-      <c r="H16" s="5">
+      <c r="I16" s="5"/>
+      <c r="J16" s="5">
         <v>321</v>
       </c>
-      <c r="I16" s="5">
+      <c r="K16" s="5">
         <v>66</v>
       </c>
-      <c r="J16" s="5">
+      <c r="L16" s="5">
         <v>46</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>43915</v>
       </c>
@@ -3973,32 +4018,34 @@
       <c r="C17" s="5">
         <v>1639</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5">
         <v>256</v>
       </c>
-      <c r="E17" s="5">
+      <c r="F17" s="5">
         <v>419</v>
       </c>
-      <c r="F17" s="5">
+      <c r="G17" s="5">
         <v>59</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="5">
+      <c r="I17" s="5"/>
+      <c r="J17" s="5">
         <v>375</v>
       </c>
-      <c r="I17" s="5">
+      <c r="K17" s="5">
         <v>79</v>
       </c>
-      <c r="J17" s="5">
+      <c r="L17" s="5">
         <v>46</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>43916</v>
       </c>
@@ -4008,32 +4055,34 @@
       <c r="C18" s="5">
         <v>1904</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5">
         <v>265</v>
       </c>
-      <c r="E18" s="5">
+      <c r="F18" s="5">
         <v>489</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G18" s="5">
         <v>67</v>
       </c>
-      <c r="G18" s="5">
+      <c r="H18" s="5">
         <v>33</v>
       </c>
-      <c r="H18" s="5">
+      <c r="I18" s="5"/>
+      <c r="J18" s="5">
         <v>445</v>
       </c>
-      <c r="I18" s="5">
+      <c r="K18" s="5">
         <v>91</v>
       </c>
-      <c r="J18" s="5">
+      <c r="L18" s="5">
         <v>46</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>43917</v>
       </c>
@@ -4043,32 +4092,34 @@
       <c r="C19" s="5">
         <v>2216</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5">
         <v>312</v>
       </c>
-      <c r="E19" s="5">
+      <c r="F19" s="5">
         <v>564</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G19" s="5">
         <v>77</v>
       </c>
-      <c r="G19" s="5">
+      <c r="H19" s="5">
         <v>43</v>
       </c>
-      <c r="H19" s="5">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5">
         <v>506</v>
       </c>
-      <c r="I19" s="5">
+      <c r="K19" s="5">
         <v>103</v>
       </c>
-      <c r="J19" s="5">
+      <c r="L19" s="5">
         <v>47</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>43918</v>
       </c>
@@ -4078,32 +4129,34 @@
       <c r="C20" s="5">
         <v>2475</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5">
         <v>259</v>
       </c>
-      <c r="E20" s="5">
+      <c r="F20" s="5">
         <v>645</v>
       </c>
-      <c r="F20" s="5">
+      <c r="G20" s="5">
         <v>84</v>
       </c>
-      <c r="G20" s="5">
+      <c r="H20" s="5">
         <v>44</v>
       </c>
-      <c r="H20" s="5">
+      <c r="I20" s="5"/>
+      <c r="J20" s="5">
         <v>578</v>
       </c>
-      <c r="I20" s="5">
+      <c r="K20" s="5">
         <v>111</v>
       </c>
-      <c r="J20" s="5">
+      <c r="L20" s="5">
         <v>47</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>43919</v>
       </c>
@@ -4113,32 +4166,34 @@
       <c r="C21" s="5">
         <v>2677</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5">
         <v>202</v>
       </c>
-      <c r="E21" s="5">
+      <c r="F21" s="5">
         <v>703</v>
       </c>
-      <c r="F21" s="5">
+      <c r="G21" s="5">
         <v>113</v>
       </c>
-      <c r="G21" s="5">
+      <c r="H21" s="5">
         <v>64</v>
       </c>
-      <c r="H21" s="5">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5">
         <v>674</v>
       </c>
-      <c r="I21" s="5">
+      <c r="K21" s="5">
         <v>118</v>
       </c>
-      <c r="J21" s="5">
+      <c r="L21" s="5">
         <v>47</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M21" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>43920</v>
       </c>
@@ -4148,32 +4203,34 @@
       <c r="C22" s="5">
         <v>2990</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5">
         <v>313</v>
       </c>
-      <c r="E22" s="5">
+      <c r="F22" s="5">
         <v>834</v>
       </c>
-      <c r="F22" s="5">
+      <c r="G22" s="5">
         <v>126</v>
       </c>
-      <c r="G22" s="5">
+      <c r="H22" s="5">
         <v>84</v>
       </c>
-      <c r="H22" s="5">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5">
         <v>752</v>
       </c>
-      <c r="I22" s="5">
+      <c r="K22" s="5">
         <v>134</v>
       </c>
-      <c r="J22" s="5">
+      <c r="L22" s="5">
         <v>48</v>
       </c>
-      <c r="K22" t="s">
+      <c r="M22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>43921</v>
       </c>
@@ -4183,32 +4240,34 @@
       <c r="C23" s="5">
         <v>3282</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5">
         <v>292</v>
       </c>
-      <c r="E23" s="5">
+      <c r="F23" s="5">
         <v>932</v>
       </c>
-      <c r="F23" s="5">
+      <c r="G23" s="5">
         <v>134</v>
       </c>
-      <c r="G23" s="5">
+      <c r="H23" s="5">
         <v>91</v>
       </c>
-      <c r="H23" s="5">
+      <c r="I23" s="5"/>
+      <c r="J23" s="5">
         <v>841</v>
       </c>
-      <c r="I23" s="5">
+      <c r="K23" s="5">
         <v>160</v>
       </c>
-      <c r="J23" s="5">
+      <c r="L23" s="5">
         <v>48</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>43922</v>
       </c>
@@ -4218,32 +4277,34 @@
       <c r="C24" s="5">
         <v>3655</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5">
         <v>373</v>
       </c>
-      <c r="E24" s="5">
+      <c r="F24" s="5">
         <v>1039</v>
       </c>
-      <c r="F24" s="5">
+      <c r="G24" s="5">
         <v>148</v>
       </c>
-      <c r="G24" s="5">
+      <c r="H24" s="5">
         <v>113</v>
       </c>
-      <c r="H24" s="5">
+      <c r="I24" s="5"/>
+      <c r="J24" s="5">
         <v>948</v>
       </c>
-      <c r="I24" s="5">
+      <c r="K24" s="5">
         <v>171</v>
       </c>
-      <c r="J24" s="5">
+      <c r="L24" s="5">
         <v>48</v>
       </c>
-      <c r="K24" t="s">
+      <c r="M24" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>43923</v>
       </c>
@@ -4253,32 +4314,34 @@
       <c r="C25" s="5">
         <v>4014</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5">
         <v>359</v>
       </c>
-      <c r="E25" s="5">
+      <c r="F25" s="5">
         <v>1118</v>
       </c>
-      <c r="F25" s="5">
+      <c r="G25" s="5">
         <v>158</v>
       </c>
-      <c r="G25" s="5">
+      <c r="H25" s="5">
         <v>131</v>
       </c>
-      <c r="H25" s="5">
+      <c r="I25" s="5"/>
+      <c r="J25" s="5">
         <v>1084</v>
       </c>
-      <c r="I25" s="5">
+      <c r="K25" s="5">
         <v>206</v>
       </c>
-      <c r="J25" s="5">
+      <c r="L25" s="5">
         <v>48</v>
       </c>
-      <c r="K25" t="s">
+      <c r="M25" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>43924</v>
       </c>
@@ -4288,32 +4351,34 @@
       <c r="C26" s="5">
         <v>4443</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5">
         <v>429</v>
       </c>
-      <c r="E26" s="5">
+      <c r="F26" s="5">
         <v>1203</v>
       </c>
-      <c r="F26" s="5">
+      <c r="G26" s="5">
         <v>165</v>
       </c>
-      <c r="G26" s="5">
+      <c r="H26" s="5">
         <v>151</v>
       </c>
-      <c r="H26" s="5">
+      <c r="I26" s="5"/>
+      <c r="J26" s="5">
         <v>1163</v>
       </c>
-      <c r="I26" s="5">
+      <c r="K26" s="5">
         <v>236</v>
       </c>
-      <c r="J26" s="5">
+      <c r="L26" s="5">
         <v>48</v>
       </c>
-      <c r="K26" t="s">
+      <c r="M26" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>43925</v>
       </c>
@@ -4323,33 +4388,35 @@
       <c r="C27" s="5">
         <v>4916</v>
       </c>
-      <c r="D27" s="5">
-        <f t="shared" ref="D27:D46" si="0">C27-C26</f>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5">
+        <f t="shared" ref="E27:E47" si="0">C27-C26</f>
         <v>473</v>
       </c>
-      <c r="E27" s="5">
+      <c r="F27" s="5">
         <v>1265</v>
       </c>
-      <c r="F27" s="5">
+      <c r="G27" s="5">
         <v>169</v>
       </c>
-      <c r="G27" s="5">
+      <c r="H27" s="5">
         <v>167</v>
       </c>
-      <c r="H27" s="5">
+      <c r="I27" s="5"/>
+      <c r="J27" s="5">
         <v>1263</v>
       </c>
-      <c r="I27" s="5">
+      <c r="K27" s="5">
         <v>260</v>
       </c>
-      <c r="J27" s="5">
+      <c r="L27" s="5">
         <v>49</v>
       </c>
-      <c r="K27" t="s">
+      <c r="M27" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>43926</v>
       </c>
@@ -4359,33 +4426,35 @@
       <c r="C28" s="5">
         <v>5593</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5">
         <f t="shared" si="0"/>
         <v>677</v>
       </c>
-      <c r="E28" s="5">
+      <c r="F28" s="5">
         <v>1345</v>
       </c>
-      <c r="F28" s="5">
+      <c r="G28" s="5">
         <v>194</v>
       </c>
-      <c r="G28" s="5">
+      <c r="H28" s="5">
         <v>204</v>
       </c>
-      <c r="H28">
+      <c r="I28" s="5"/>
+      <c r="J28">
         <v>1388</v>
       </c>
-      <c r="I28" s="5">
+      <c r="K28" s="5">
         <v>270</v>
       </c>
-      <c r="J28" s="5">
+      <c r="L28" s="5">
         <v>48</v>
       </c>
-      <c r="K28" t="s">
+      <c r="M28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43927</v>
       </c>
@@ -4395,33 +4464,35 @@
       <c r="C29" s="5">
         <v>5981</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5">
         <f t="shared" si="0"/>
         <v>388</v>
       </c>
-      <c r="E29" s="5">
+      <c r="F29" s="5">
         <v>1472</v>
       </c>
-      <c r="F29" s="5">
+      <c r="G29" s="5">
         <v>224</v>
       </c>
-      <c r="G29" s="5">
+      <c r="H29" s="5">
         <v>223</v>
       </c>
-      <c r="H29">
+      <c r="I29" s="5"/>
+      <c r="J29">
         <v>1568</v>
       </c>
-      <c r="I29" s="5">
+      <c r="K29" s="5">
         <v>299</v>
       </c>
-      <c r="J29" s="5">
+      <c r="L29" s="5">
         <v>48</v>
       </c>
-      <c r="K29" t="s">
+      <c r="M29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43928</v>
       </c>
@@ -4431,33 +4502,35 @@
       <c r="C30" s="5">
         <v>6444</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5">
         <f t="shared" si="0"/>
         <v>463</v>
       </c>
-      <c r="E30" s="5">
+      <c r="F30" s="5">
         <v>1521</v>
       </c>
-      <c r="F30" s="5">
+      <c r="G30" s="5">
         <v>230</v>
       </c>
-      <c r="G30" s="5">
+      <c r="H30" s="5">
         <v>257</v>
       </c>
-      <c r="H30">
+      <c r="I30" s="5"/>
+      <c r="J30">
         <v>1765</v>
       </c>
-      <c r="I30" s="5">
+      <c r="K30" s="5">
         <v>317</v>
       </c>
-      <c r="J30" s="5">
+      <c r="L30" s="5">
         <v>48</v>
       </c>
-      <c r="K30" t="s">
+      <c r="M30" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43929</v>
       </c>
@@ -4467,33 +4540,35 @@
       <c r="C31" s="5">
         <v>7071</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5">
         <f t="shared" si="0"/>
         <v>627</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1631</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>233</v>
       </c>
-      <c r="G31" s="5">
+      <c r="H31" s="5">
         <v>283</v>
       </c>
-      <c r="H31">
+      <c r="I31" s="5"/>
+      <c r="J31">
         <v>1949</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>333</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>48</v>
       </c>
-      <c r="K31" t="s">
+      <c r="M31" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43930</v>
       </c>
@@ -4503,33 +4578,34 @@
       <c r="C32">
         <v>7787</v>
       </c>
-      <c r="D32" s="5">
+      <c r="E32" s="5">
         <f t="shared" si="0"/>
         <v>716</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>1718</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>253</v>
       </c>
-      <c r="G32" s="5">
+      <c r="H32" s="5">
         <v>314</v>
       </c>
-      <c r="H32">
+      <c r="I32" s="5"/>
+      <c r="J32">
         <v>2141</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>356</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>48</v>
       </c>
-      <c r="K32" t="s">
+      <c r="M32" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43931</v>
       </c>
@@ -4539,33 +4615,35 @@
       <c r="C33" s="5">
         <v>8496</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5">
         <f t="shared" si="0"/>
         <v>709</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>1777</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>261</v>
       </c>
-      <c r="G33" s="5">
+      <c r="H33" s="5">
         <v>329</v>
       </c>
-      <c r="H33">
+      <c r="I33" s="5"/>
+      <c r="J33">
         <v>2312</v>
       </c>
-      <c r="I33">
+      <c r="K33">
         <v>383</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>48</v>
       </c>
-      <c r="K33" t="s">
+      <c r="M33" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43932</v>
       </c>
@@ -4575,33 +4653,35 @@
       <c r="C34" s="5">
         <v>9484</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="5"/>
+      <c r="E34" s="5">
         <f t="shared" si="0"/>
         <v>988</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>1849</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>268</v>
       </c>
-      <c r="G34" s="5">
+      <c r="H34" s="5">
         <v>362</v>
       </c>
-      <c r="H34">
+      <c r="I34" s="5"/>
+      <c r="J34">
         <v>2489</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <v>401</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>48</v>
       </c>
-      <c r="K34" t="s">
+      <c r="M34" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43933</v>
       </c>
@@ -4611,33 +4691,35 @@
       <c r="C35" s="5">
         <v>10385</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="5"/>
+      <c r="E35" s="5">
         <f t="shared" si="0"/>
         <v>901</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>1903</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>275</v>
       </c>
-      <c r="G35" s="5">
+      <c r="H35" s="5">
         <v>395</v>
       </c>
-      <c r="H35">
+      <c r="I35" s="5"/>
+      <c r="J35">
         <v>2707</v>
       </c>
-      <c r="I35">
+      <c r="K35">
         <v>408</v>
       </c>
-      <c r="J35">
+      <c r="L35">
         <v>48</v>
       </c>
-      <c r="K35" t="s">
+      <c r="M35" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43934</v>
       </c>
@@ -4647,33 +4729,35 @@
       <c r="C36" s="5">
         <v>11261</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="5"/>
+      <c r="E36" s="5">
         <f t="shared" si="0"/>
         <v>876</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>1968</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>280</v>
       </c>
-      <c r="G36" s="5">
+      <c r="H36" s="5">
         <v>435</v>
       </c>
-      <c r="H36">
+      <c r="I36" s="5"/>
+      <c r="J36">
         <v>2872</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <v>413</v>
       </c>
-      <c r="J36">
+      <c r="L36">
         <v>48</v>
       </c>
-      <c r="K36" t="s">
+      <c r="M36" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43935</v>
       </c>
@@ -4683,33 +4767,35 @@
       <c r="C37" s="5">
         <v>12425</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="5"/>
+      <c r="E37" s="5">
         <f t="shared" si="0"/>
         <v>1164</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>2026</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>284</v>
       </c>
-      <c r="G37" s="5">
+      <c r="H37" s="5">
         <v>480</v>
       </c>
-      <c r="H37">
+      <c r="I37" s="5"/>
+      <c r="J37">
         <v>2451</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <v>425</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <v>48</v>
       </c>
-      <c r="K37" t="s">
+      <c r="M37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43936</v>
       </c>
@@ -4719,33 +4805,35 @@
       <c r="C38" s="5">
         <v>13012</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="5"/>
+      <c r="E38" s="5">
         <f t="shared" si="0"/>
         <v>587</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>2082</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>294</v>
       </c>
-      <c r="G38" s="5">
+      <c r="H38" s="5">
         <v>521</v>
       </c>
-      <c r="H38">
+      <c r="I38" s="5"/>
+      <c r="J38">
         <v>2723</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>436</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>48</v>
       </c>
-      <c r="K38" t="s">
+      <c r="M38" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43937</v>
       </c>
@@ -4755,33 +4843,35 @@
       <c r="C39" s="5">
         <v>13746</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5">
         <f t="shared" si="0"/>
         <v>734</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>2168</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>296</v>
       </c>
-      <c r="G39" s="5">
+      <c r="H39" s="5">
         <v>566</v>
       </c>
-      <c r="H39">
+      <c r="I39" s="5"/>
+      <c r="J39">
         <v>3573</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <v>454</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <v>48</v>
       </c>
-      <c r="K39" t="s">
+      <c r="M39" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43938</v>
       </c>
@@ -4791,33 +4881,35 @@
       <c r="C40" s="5">
         <v>14602</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="5"/>
+      <c r="E40" s="5">
         <f t="shared" si="0"/>
         <v>856</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>2233</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>303</v>
       </c>
-      <c r="G40" s="5">
+      <c r="H40" s="5">
         <v>605</v>
       </c>
-      <c r="H40">
+      <c r="I40" s="5"/>
+      <c r="J40">
         <v>3788</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <v>472</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <v>48</v>
       </c>
-      <c r="K40" t="s">
+      <c r="M40" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43939</v>
       </c>
@@ -4827,33 +4919,35 @@
       <c r="C41" s="5">
         <v>15185</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="5"/>
+      <c r="E41" s="5">
         <f t="shared" si="0"/>
         <v>583</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>2272</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>306</v>
       </c>
-      <c r="G41" s="5">
+      <c r="H41" s="5">
         <v>642</v>
       </c>
-      <c r="H41">
+      <c r="I41" s="5"/>
+      <c r="J41">
         <v>4009</v>
       </c>
-      <c r="I41">
+      <c r="K41">
         <v>478</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <v>48</v>
       </c>
-      <c r="K41" t="s">
+      <c r="M41" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43940</v>
       </c>
@@ -4863,33 +4957,35 @@
       <c r="C42" s="5">
         <v>15464</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5">
         <f t="shared" si="0"/>
         <v>279</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>2323</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>315</v>
       </c>
-      <c r="G42" s="5">
+      <c r="H42" s="5">
         <v>719</v>
       </c>
-      <c r="H42">
+      <c r="I42" s="5"/>
+      <c r="J42">
         <v>4180</v>
       </c>
-      <c r="I42">
+      <c r="K42">
         <v>491</v>
       </c>
-      <c r="J42">
+      <c r="L42">
         <v>48</v>
       </c>
-      <c r="K42" t="s">
+      <c r="M42" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43941</v>
       </c>
@@ -4899,33 +4995,35 @@
       <c r="C43" s="5">
         <v>15871</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5">
         <f t="shared" si="0"/>
         <v>407</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>2387</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>322</v>
       </c>
-      <c r="G43" s="5">
+      <c r="H43" s="5">
         <v>757</v>
       </c>
-      <c r="H43">
+      <c r="I43" s="5"/>
+      <c r="J43">
         <v>4393</v>
       </c>
-      <c r="I43">
+      <c r="K43">
         <v>507</v>
       </c>
-      <c r="J43">
+      <c r="L43">
         <v>48</v>
       </c>
-      <c r="K43" t="s">
+      <c r="M43" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43942</v>
       </c>
@@ -4935,69 +5033,77 @@
       <c r="C44" s="5">
         <v>16439</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="5"/>
+      <c r="E44" s="5">
         <f t="shared" si="0"/>
         <v>568</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>2424</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>331</v>
       </c>
-      <c r="G44" s="5">
+      <c r="H44" s="5">
         <v>789</v>
       </c>
-      <c r="H44">
+      <c r="I44" s="5"/>
+      <c r="J44">
         <v>4545</v>
       </c>
-      <c r="I44">
+      <c r="K44">
         <v>522</v>
       </c>
-      <c r="J44">
+      <c r="L44">
         <v>48</v>
       </c>
-      <c r="K44" t="s">
+      <c r="M44" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43943</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" s="5">
+        <v>17420</v>
+      </c>
+      <c r="D45" s="5">
         <v>16671</v>
       </c>
-      <c r="D45" s="5">
+      <c r="E45" s="5">
         <f t="shared" si="0"/>
-        <v>232</v>
-      </c>
-      <c r="E45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="5">
+        <v>981</v>
+      </c>
+      <c r="F45">
+        <v>2486</v>
+      </c>
+      <c r="G45">
+        <v>338</v>
+      </c>
+      <c r="H45" s="5">
+        <v>821</v>
+      </c>
+      <c r="I45" s="5">
         <v>769</v>
       </c>
-      <c r="H45" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="J45">
+        <v>4713</v>
+      </c>
+      <c r="K45">
+        <v>548</v>
+      </c>
+      <c r="L45">
+        <v>48</v>
+      </c>
+      <c r="M45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43944</v>
       </c>
@@ -5007,29 +5113,69 @@
       <c r="C46" s="5">
         <v>17607</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="5"/>
+      <c r="E46" s="5">
         <f t="shared" si="0"/>
-        <v>936</v>
-      </c>
-      <c r="E46" t="s">
-        <v>8</v>
+        <v>187</v>
       </c>
       <c r="F46" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="5">
         <v>794</v>
       </c>
-      <c r="H46" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" t="s">
-        <v>8</v>
-      </c>
+      <c r="I46" s="5"/>
       <c r="J46" t="s">
         <v>8</v>
       </c>
       <c r="K46" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="5">
+        <v>18184</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5">
+        <f t="shared" si="0"/>
+        <v>577</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="5">
+        <v>829</v>
+      </c>
+      <c r="I47" s="5"/>
+      <c r="J47" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5040,11 +5186,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D108" sqref="D108"/>
+      <selection pane="bottomLeft" activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5986,7 +6132,7 @@
         <v>43929</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B107" si="1">B64</f>
+        <f t="shared" ref="B67:B110" si="1">B64</f>
         <v>Male</v>
       </c>
       <c r="C67">
@@ -6594,6 +6740,51 @@
         <v>62</v>
       </c>
       <c r="D107">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B108" t="str">
+        <f>B105</f>
+        <v>Female</v>
+      </c>
+      <c r="C108">
+        <v>9893</v>
+      </c>
+      <c r="D108">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="1"/>
+        <v>Male</v>
+      </c>
+      <c r="C109">
+        <v>7457</v>
+      </c>
+      <c r="D109">
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C110">
+        <v>70</v>
+      </c>
+      <c r="D110">
         <v>0.4</v>
       </c>
     </row>
@@ -6604,11 +6795,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:F402"/>
+  <dimension ref="A1:F413"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B399" sqref="B399"/>
+      <selection pane="bottomLeft" activeCell="G414" sqref="G414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12258,7 +12449,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>43942</v>
       </c>
@@ -12272,7 +12463,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>43942</v>
       </c>
@@ -12283,6 +12474,163 @@
         <v>24</v>
       </c>
       <c r="D402">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A403" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B403" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C403">
+        <v>30</v>
+      </c>
+      <c r="D403" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A404" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B404" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C404">
+        <v>62</v>
+      </c>
+      <c r="D404" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A405" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B405" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C405" t="s">
+        <v>8</v>
+      </c>
+      <c r="D405">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A406" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B406" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C406" s="11">
+        <v>177</v>
+      </c>
+      <c r="D406">
+        <v>8</v>
+      </c>
+      <c r="E406" s="7"/>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A407" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B407" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C407" s="11">
+        <v>1130</v>
+      </c>
+      <c r="D407">
+        <v>53</v>
+      </c>
+      <c r="E407" s="13"/>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A408" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B408" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C408" s="11">
+        <v>2838</v>
+      </c>
+      <c r="D408">
+        <v>155</v>
+      </c>
+      <c r="E408" s="7"/>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A409" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B409" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C409" s="11">
+        <v>3041</v>
+      </c>
+      <c r="D409">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A410" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B410" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C410" s="11">
+        <v>3280</v>
+      </c>
+      <c r="D410">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A411" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B411" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C411" s="11">
+        <v>2408</v>
+      </c>
+      <c r="D411">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A412" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B412" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C412" s="11">
+        <v>4431</v>
+      </c>
+      <c r="D412">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A413" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B413" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C413" s="11">
+        <v>23</v>
+      </c>
+      <c r="D413">
         <v>3</v>
       </c>
     </row>
@@ -12293,11 +12641,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B125" sqref="B125"/>
+      <selection pane="bottomLeft" activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13519,7 +13867,7 @@
         <v>43929</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" ref="B87:B127" si="1">B84</f>
+        <f t="shared" ref="B87:B130" si="1">B84</f>
         <v>Close contact with confirmed case</v>
       </c>
       <c r="C87" s="11">
@@ -14127,6 +14475,51 @@
         <v>4</v>
       </c>
       <c r="D127" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B128" t="str">
+        <f>B125</f>
+        <v>Community transmission</v>
+      </c>
+      <c r="C128" s="11">
+        <v>47.8</v>
+      </c>
+      <c r="D128" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B129" t="str">
+        <f t="shared" si="1"/>
+        <v>Close contact with confirmed case</v>
+      </c>
+      <c r="C129" s="11">
+        <v>49.2</v>
+      </c>
+      <c r="D129" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B130" t="str">
+        <f t="shared" si="1"/>
+        <v>Travel Abroad</v>
+      </c>
+      <c r="C130" s="11">
+        <v>3</v>
+      </c>
+      <c r="D130" t="s">
         <v>106</v>
       </c>
     </row>
@@ -14137,10 +14530,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E957"/>
+  <dimension ref="A1:E983"/>
   <sheetViews>
-    <sheetView topLeftCell="A919" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C933" sqref="C933"/>
+    <sheetView topLeftCell="A944" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A958" sqref="A958:A983"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28033,6 +28426,370 @@
         <v>469</v>
       </c>
       <c r="D957" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="958" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A958" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B958" t="s">
+        <v>12</v>
+      </c>
+      <c r="C958">
+        <v>86</v>
+      </c>
+      <c r="D958" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="959" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A959" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B959" t="s">
+        <v>14</v>
+      </c>
+      <c r="C959">
+        <v>506</v>
+      </c>
+      <c r="D959" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="960" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A960" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B960" t="s">
+        <v>15</v>
+      </c>
+      <c r="C960">
+        <v>206</v>
+      </c>
+      <c r="D960" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A961" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B961" t="s">
+        <v>16</v>
+      </c>
+      <c r="C961">
+        <v>1096</v>
+      </c>
+      <c r="D961" s="3">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A962" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B962" t="s">
+        <v>17</v>
+      </c>
+      <c r="C962">
+        <v>440</v>
+      </c>
+      <c r="D962" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A963" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B963" t="s">
+        <v>18</v>
+      </c>
+      <c r="C963">
+        <v>8729</v>
+      </c>
+      <c r="D963" s="3">
+        <v>0.501</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A964" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B964" t="s">
+        <v>19</v>
+      </c>
+      <c r="C964">
+        <v>331</v>
+      </c>
+      <c r="D964" s="3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A965" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B965" t="s">
+        <v>20</v>
+      </c>
+      <c r="C965">
+        <v>271</v>
+      </c>
+      <c r="D965" s="3">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A966" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B966" t="s">
+        <v>21</v>
+      </c>
+      <c r="C966">
+        <v>954</v>
+      </c>
+      <c r="D966" s="3">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A967" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B967" t="s">
+        <v>22</v>
+      </c>
+      <c r="C967">
+        <v>227</v>
+      </c>
+      <c r="D967" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A968" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B968" t="s">
+        <v>36</v>
+      </c>
+      <c r="C968">
+        <v>202</v>
+      </c>
+      <c r="D968" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A969" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B969" t="s">
+        <v>37</v>
+      </c>
+      <c r="C969">
+        <v>62</v>
+      </c>
+      <c r="D969" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A970" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B970" t="s">
+        <v>23</v>
+      </c>
+      <c r="C970">
+        <v>439</v>
+      </c>
+      <c r="D970" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A971" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B971" t="s">
+        <v>24</v>
+      </c>
+      <c r="C971">
+        <v>102</v>
+      </c>
+      <c r="D971" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A972" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B972" t="s">
+        <v>25</v>
+      </c>
+      <c r="C972">
+        <v>536</v>
+      </c>
+      <c r="D972" s="3">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A973" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B973" t="s">
+        <v>26</v>
+      </c>
+      <c r="C973">
+        <v>391</v>
+      </c>
+      <c r="D973" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A974" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B974" t="s">
+        <v>27</v>
+      </c>
+      <c r="C974">
+        <v>568</v>
+      </c>
+      <c r="D974" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A975" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B975" t="s">
+        <v>38</v>
+      </c>
+      <c r="C975">
+        <v>318</v>
+      </c>
+      <c r="D975" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A976" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B976" t="s">
+        <v>28</v>
+      </c>
+      <c r="C976">
+        <v>217</v>
+      </c>
+      <c r="D976" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A977" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B977" t="s">
+        <v>29</v>
+      </c>
+      <c r="C977">
+        <v>111</v>
+      </c>
+      <c r="D977" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A978" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B978" t="s">
+        <v>30</v>
+      </c>
+      <c r="C978">
+        <v>105</v>
+      </c>
+      <c r="D978" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A979" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B979" t="s">
+        <v>31</v>
+      </c>
+      <c r="C979">
+        <v>343</v>
+      </c>
+      <c r="D979" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A980" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B980" t="s">
+        <v>32</v>
+      </c>
+      <c r="C980">
+        <v>122</v>
+      </c>
+      <c r="D980" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A981" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B981" t="s">
+        <v>33</v>
+      </c>
+      <c r="C981">
+        <v>409</v>
+      </c>
+      <c r="D981" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A982" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B982" t="s">
+        <v>34</v>
+      </c>
+      <c r="C982">
+        <v>143</v>
+      </c>
+      <c r="D982" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A983" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B983" t="s">
+        <v>35</v>
+      </c>
+      <c r="C983">
+        <v>506</v>
+      </c>
+      <c r="D983" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
@@ -28909,7 +29666,7 @@
         <v>26</v>
       </c>
       <c r="D44">
-        <f t="shared" ref="D44:D47" si="3">D42+C44</f>
+        <f t="shared" ref="D44:D45" si="3">D42+C44</f>
         <v>333</v>
       </c>
       <c r="E44" s="14">
@@ -28984,10 +29741,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29038,7 +29795,7 @@
         <v>6450</v>
       </c>
       <c r="G2" s="10">
-        <f t="shared" ref="G2:G21" si="0">D2/F2</f>
+        <f t="shared" ref="G2:G22" si="0">D2/F2</f>
         <v>0.10682170542635659</v>
       </c>
     </row>
@@ -29496,6 +30253,30 @@
       <c r="G21" s="10">
         <f t="shared" si="0"/>
         <v>0.15664277552716319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B22">
+        <v>106</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>3122</v>
+      </c>
+      <c r="E22">
+        <v>278</v>
+      </c>
+      <c r="F22">
+        <v>20021</v>
+      </c>
+      <c r="G22" s="10">
+        <f t="shared" si="0"/>
+        <v>0.15593626691973428</v>
       </c>
     </row>
   </sheetData>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C61599-DC96-1A44-88A4-A527F87C7B6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF0CF57-6E7F-BB46-BD48-D7511250E84C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="168">
   <si>
     <t>Date</t>
   </si>
@@ -3398,10 +3398,10 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3463,7 +3463,9 @@
       <c r="C2" s="5">
         <v>34</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" s="5">
         <v>34</v>
       </c>
@@ -3476,7 +3478,9 @@
       <c r="H2" s="5">
         <v>0</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
@@ -3500,7 +3504,9 @@
       <c r="C3" s="5">
         <v>43</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E3" s="5">
         <v>9</v>
       </c>
@@ -3513,7 +3519,9 @@
       <c r="H3" s="5">
         <v>1</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J3" s="5" t="s">
         <v>8</v>
       </c>
@@ -3537,7 +3545,9 @@
       <c r="C4" s="5">
         <v>70</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E4" s="5">
         <v>27</v>
       </c>
@@ -3550,7 +3560,9 @@
       <c r="H4" s="5">
         <v>1</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J4" s="5" t="s">
         <v>8</v>
       </c>
@@ -3574,7 +3586,9 @@
       <c r="C5" s="5">
         <v>90</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E5" s="5">
         <v>20</v>
       </c>
@@ -3587,7 +3601,9 @@
       <c r="H5" s="5">
         <v>1</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J5" s="5">
         <v>2</v>
       </c>
@@ -3611,7 +3627,9 @@
       <c r="C6" s="5">
         <v>129</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E6" s="5">
         <v>39</v>
       </c>
@@ -3624,7 +3642,9 @@
       <c r="H6" s="5">
         <v>2</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J6" s="5" t="s">
         <v>8</v>
       </c>
@@ -3648,7 +3668,9 @@
       <c r="C7" s="5">
         <v>169</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E7" s="5">
         <v>40</v>
       </c>
@@ -3661,7 +3683,9 @@
       <c r="H7" s="5">
         <v>2</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J7" s="5" t="s">
         <v>8</v>
       </c>
@@ -3685,7 +3709,9 @@
       <c r="C8" s="5">
         <v>271</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E8" s="5">
         <v>102</v>
       </c>
@@ -3698,7 +3724,9 @@
       <c r="H8" s="5">
         <v>2</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J8" s="5">
         <v>59</v>
       </c>
@@ -3722,7 +3750,9 @@
       <c r="C9" s="5">
         <v>350</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E9" s="5">
         <v>79</v>
       </c>
@@ -3735,7 +3765,9 @@
       <c r="H9" s="5">
         <v>2</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J9" s="5">
         <v>84</v>
       </c>
@@ -3759,7 +3791,9 @@
       <c r="C10" s="5">
         <v>438</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E10" s="5">
         <v>88</v>
       </c>
@@ -3772,7 +3806,9 @@
       <c r="H10" s="5">
         <v>3</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J10" s="5">
         <v>114</v>
       </c>
@@ -3796,7 +3832,9 @@
       <c r="C11" s="5">
         <v>584</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E11" s="5">
         <v>146</v>
       </c>
@@ -3809,7 +3847,9 @@
       <c r="H11" s="5">
         <v>3</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J11" s="5">
         <v>147</v>
       </c>
@@ -3833,7 +3873,9 @@
       <c r="C12" s="5">
         <v>712</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E12" s="5">
         <v>128</v>
       </c>
@@ -3846,7 +3888,9 @@
       <c r="H12" s="5">
         <v>4</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J12" s="5">
         <v>159</v>
       </c>
@@ -3870,7 +3914,9 @@
       <c r="C13" s="5">
         <v>836</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E13" s="5">
         <v>124</v>
       </c>
@@ -3883,7 +3929,9 @@
       <c r="H13" s="5">
         <v>6</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J13" s="5">
         <v>208</v>
       </c>
@@ -3907,7 +3955,9 @@
       <c r="C14" s="5">
         <v>965</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E14" s="5">
         <v>129</v>
       </c>
@@ -3920,7 +3970,9 @@
       <c r="H14" s="5">
         <v>6</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J14" s="5">
         <v>247</v>
       </c>
@@ -3944,7 +3996,9 @@
       <c r="C15" s="5">
         <v>1146</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E15" s="5">
         <v>181</v>
       </c>
@@ -3957,7 +4011,9 @@
       <c r="H15" s="5">
         <v>7</v>
       </c>
-      <c r="I15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J15" s="5">
         <v>283</v>
       </c>
@@ -3981,7 +4037,9 @@
       <c r="C16" s="5">
         <v>1383</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E16" s="5">
         <v>237</v>
       </c>
@@ -3994,7 +4052,9 @@
       <c r="H16" s="5">
         <v>9</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J16" s="5">
         <v>321</v>
       </c>
@@ -4018,7 +4078,9 @@
       <c r="C17" s="5">
         <v>1639</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E17" s="5">
         <v>256</v>
       </c>
@@ -4031,7 +4093,9 @@
       <c r="H17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J17" s="5">
         <v>375</v>
       </c>
@@ -4055,7 +4119,9 @@
       <c r="C18" s="5">
         <v>1904</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E18" s="5">
         <v>265</v>
       </c>
@@ -4068,7 +4134,9 @@
       <c r="H18" s="5">
         <v>33</v>
       </c>
-      <c r="I18" s="5"/>
+      <c r="I18" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J18" s="5">
         <v>445</v>
       </c>
@@ -4092,7 +4160,9 @@
       <c r="C19" s="5">
         <v>2216</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E19" s="5">
         <v>312</v>
       </c>
@@ -4105,7 +4175,9 @@
       <c r="H19" s="5">
         <v>43</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J19" s="5">
         <v>506</v>
       </c>
@@ -4129,7 +4201,9 @@
       <c r="C20" s="5">
         <v>2475</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E20" s="5">
         <v>259</v>
       </c>
@@ -4142,7 +4216,9 @@
       <c r="H20" s="5">
         <v>44</v>
       </c>
-      <c r="I20" s="5"/>
+      <c r="I20" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J20" s="5">
         <v>578</v>
       </c>
@@ -4166,7 +4242,9 @@
       <c r="C21" s="5">
         <v>2677</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E21" s="5">
         <v>202</v>
       </c>
@@ -4179,7 +4257,9 @@
       <c r="H21" s="5">
         <v>64</v>
       </c>
-      <c r="I21" s="5"/>
+      <c r="I21" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J21" s="5">
         <v>674</v>
       </c>
@@ -4203,7 +4283,9 @@
       <c r="C22" s="5">
         <v>2990</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E22" s="5">
         <v>313</v>
       </c>
@@ -4216,7 +4298,9 @@
       <c r="H22" s="5">
         <v>84</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J22" s="5">
         <v>752</v>
       </c>
@@ -4240,7 +4324,9 @@
       <c r="C23" s="5">
         <v>3282</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E23" s="5">
         <v>292</v>
       </c>
@@ -4253,7 +4339,9 @@
       <c r="H23" s="5">
         <v>91</v>
       </c>
-      <c r="I23" s="5"/>
+      <c r="I23" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J23" s="5">
         <v>841</v>
       </c>
@@ -4277,7 +4365,9 @@
       <c r="C24" s="5">
         <v>3655</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E24" s="5">
         <v>373</v>
       </c>
@@ -4290,7 +4380,9 @@
       <c r="H24" s="5">
         <v>113</v>
       </c>
-      <c r="I24" s="5"/>
+      <c r="I24" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J24" s="5">
         <v>948</v>
       </c>
@@ -4314,7 +4406,9 @@
       <c r="C25" s="5">
         <v>4014</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E25" s="5">
         <v>359</v>
       </c>
@@ -4327,7 +4421,9 @@
       <c r="H25" s="5">
         <v>131</v>
       </c>
-      <c r="I25" s="5"/>
+      <c r="I25" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J25" s="5">
         <v>1084</v>
       </c>
@@ -4351,7 +4447,9 @@
       <c r="C26" s="5">
         <v>4443</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E26" s="5">
         <v>429</v>
       </c>
@@ -4364,7 +4462,9 @@
       <c r="H26" s="5">
         <v>151</v>
       </c>
-      <c r="I26" s="5"/>
+      <c r="I26" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J26" s="5">
         <v>1163</v>
       </c>
@@ -4388,7 +4488,9 @@
       <c r="C27" s="5">
         <v>4916</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E27" s="5">
         <f t="shared" ref="E27:E47" si="0">C27-C26</f>
         <v>473</v>
@@ -4402,7 +4504,9 @@
       <c r="H27" s="5">
         <v>167</v>
       </c>
-      <c r="I27" s="5"/>
+      <c r="I27" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J27" s="5">
         <v>1263</v>
       </c>
@@ -4426,7 +4530,9 @@
       <c r="C28" s="5">
         <v>5593</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E28" s="5">
         <f t="shared" si="0"/>
         <v>677</v>
@@ -4440,7 +4546,9 @@
       <c r="H28" s="5">
         <v>204</v>
       </c>
-      <c r="I28" s="5"/>
+      <c r="I28" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J28">
         <v>1388</v>
       </c>
@@ -4464,7 +4572,9 @@
       <c r="C29" s="5">
         <v>5981</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E29" s="5">
         <f t="shared" si="0"/>
         <v>388</v>
@@ -4478,7 +4588,9 @@
       <c r="H29" s="5">
         <v>223</v>
       </c>
-      <c r="I29" s="5"/>
+      <c r="I29" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J29">
         <v>1568</v>
       </c>
@@ -4502,7 +4614,9 @@
       <c r="C30" s="5">
         <v>6444</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E30" s="5">
         <f t="shared" si="0"/>
         <v>463</v>
@@ -4516,7 +4630,9 @@
       <c r="H30" s="5">
         <v>257</v>
       </c>
-      <c r="I30" s="5"/>
+      <c r="I30" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J30">
         <v>1765</v>
       </c>
@@ -4540,7 +4656,9 @@
       <c r="C31" s="5">
         <v>7071</v>
       </c>
-      <c r="D31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E31" s="5">
         <f t="shared" si="0"/>
         <v>627</v>
@@ -4554,7 +4672,9 @@
       <c r="H31" s="5">
         <v>283</v>
       </c>
-      <c r="I31" s="5"/>
+      <c r="I31" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J31">
         <v>1949</v>
       </c>
@@ -4578,6 +4698,9 @@
       <c r="C32">
         <v>7787</v>
       </c>
+      <c r="D32" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E32" s="5">
         <f t="shared" si="0"/>
         <v>716</v>
@@ -4591,7 +4714,9 @@
       <c r="H32" s="5">
         <v>314</v>
       </c>
-      <c r="I32" s="5"/>
+      <c r="I32" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J32">
         <v>2141</v>
       </c>
@@ -4615,7 +4740,9 @@
       <c r="C33" s="5">
         <v>8496</v>
       </c>
-      <c r="D33" s="5"/>
+      <c r="D33" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E33" s="5">
         <f t="shared" si="0"/>
         <v>709</v>
@@ -4629,7 +4756,9 @@
       <c r="H33" s="5">
         <v>329</v>
       </c>
-      <c r="I33" s="5"/>
+      <c r="I33" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J33">
         <v>2312</v>
       </c>
@@ -4653,7 +4782,9 @@
       <c r="C34" s="5">
         <v>9484</v>
       </c>
-      <c r="D34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E34" s="5">
         <f t="shared" si="0"/>
         <v>988</v>
@@ -4667,7 +4798,9 @@
       <c r="H34" s="5">
         <v>362</v>
       </c>
-      <c r="I34" s="5"/>
+      <c r="I34" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J34">
         <v>2489</v>
       </c>
@@ -4691,7 +4824,9 @@
       <c r="C35" s="5">
         <v>10385</v>
       </c>
-      <c r="D35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E35" s="5">
         <f t="shared" si="0"/>
         <v>901</v>
@@ -4705,7 +4840,9 @@
       <c r="H35" s="5">
         <v>395</v>
       </c>
-      <c r="I35" s="5"/>
+      <c r="I35" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J35">
         <v>2707</v>
       </c>
@@ -4729,7 +4866,9 @@
       <c r="C36" s="5">
         <v>11261</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E36" s="5">
         <f t="shared" si="0"/>
         <v>876</v>
@@ -4743,7 +4882,9 @@
       <c r="H36" s="5">
         <v>435</v>
       </c>
-      <c r="I36" s="5"/>
+      <c r="I36" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J36">
         <v>2872</v>
       </c>
@@ -4767,7 +4908,9 @@
       <c r="C37" s="5">
         <v>12425</v>
       </c>
-      <c r="D37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E37" s="5">
         <f t="shared" si="0"/>
         <v>1164</v>
@@ -4781,7 +4924,9 @@
       <c r="H37" s="5">
         <v>480</v>
       </c>
-      <c r="I37" s="5"/>
+      <c r="I37" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J37">
         <v>2451</v>
       </c>
@@ -4805,7 +4950,9 @@
       <c r="C38" s="5">
         <v>13012</v>
       </c>
-      <c r="D38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E38" s="5">
         <f t="shared" si="0"/>
         <v>587</v>
@@ -4819,7 +4966,9 @@
       <c r="H38" s="5">
         <v>521</v>
       </c>
-      <c r="I38" s="5"/>
+      <c r="I38" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J38">
         <v>2723</v>
       </c>
@@ -4843,7 +4992,9 @@
       <c r="C39" s="5">
         <v>13746</v>
       </c>
-      <c r="D39" s="5"/>
+      <c r="D39" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E39" s="5">
         <f t="shared" si="0"/>
         <v>734</v>
@@ -4857,7 +5008,9 @@
       <c r="H39" s="5">
         <v>566</v>
       </c>
-      <c r="I39" s="5"/>
+      <c r="I39" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J39">
         <v>3573</v>
       </c>
@@ -4881,7 +5034,9 @@
       <c r="C40" s="5">
         <v>14602</v>
       </c>
-      <c r="D40" s="5"/>
+      <c r="D40" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E40" s="5">
         <f t="shared" si="0"/>
         <v>856</v>
@@ -4895,7 +5050,9 @@
       <c r="H40" s="5">
         <v>605</v>
       </c>
-      <c r="I40" s="5"/>
+      <c r="I40" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J40">
         <v>3788</v>
       </c>
@@ -4919,7 +5076,9 @@
       <c r="C41" s="5">
         <v>15185</v>
       </c>
-      <c r="D41" s="5"/>
+      <c r="D41" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E41" s="5">
         <f t="shared" si="0"/>
         <v>583</v>
@@ -4933,7 +5092,9 @@
       <c r="H41" s="5">
         <v>642</v>
       </c>
-      <c r="I41" s="5"/>
+      <c r="I41" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J41">
         <v>4009</v>
       </c>
@@ -4957,7 +5118,9 @@
       <c r="C42" s="5">
         <v>15464</v>
       </c>
-      <c r="D42" s="5"/>
+      <c r="D42" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E42" s="5">
         <f t="shared" si="0"/>
         <v>279</v>
@@ -4971,7 +5134,9 @@
       <c r="H42" s="5">
         <v>719</v>
       </c>
-      <c r="I42" s="5"/>
+      <c r="I42" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J42">
         <v>4180</v>
       </c>
@@ -4995,7 +5160,9 @@
       <c r="C43" s="5">
         <v>15871</v>
       </c>
-      <c r="D43" s="5"/>
+      <c r="D43" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E43" s="5">
         <f t="shared" si="0"/>
         <v>407</v>
@@ -5009,7 +5176,9 @@
       <c r="H43" s="5">
         <v>757</v>
       </c>
-      <c r="I43" s="5"/>
+      <c r="I43" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J43">
         <v>4393</v>
       </c>
@@ -5033,7 +5202,9 @@
       <c r="C44" s="5">
         <v>16439</v>
       </c>
-      <c r="D44" s="5"/>
+      <c r="D44" s="5">
+        <v>16040</v>
+      </c>
       <c r="E44" s="5">
         <f t="shared" si="0"/>
         <v>568</v>
@@ -5047,7 +5218,9 @@
       <c r="H44" s="5">
         <v>789</v>
       </c>
-      <c r="I44" s="5"/>
+      <c r="I44" s="5">
+        <v>730</v>
+      </c>
       <c r="J44">
         <v>4545</v>
       </c>
@@ -5113,7 +5286,9 @@
       <c r="C46" s="5">
         <v>17607</v>
       </c>
-      <c r="D46" s="5"/>
+      <c r="D46" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E46" s="5">
         <f t="shared" si="0"/>
         <v>187</v>
@@ -5127,7 +5302,9 @@
       <c r="H46" s="5">
         <v>794</v>
       </c>
-      <c r="I46" s="5"/>
+      <c r="I46" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J46" t="s">
         <v>8</v>
       </c>
@@ -5151,7 +5328,9 @@
       <c r="C47" s="5">
         <v>18184</v>
       </c>
-      <c r="D47" s="5"/>
+      <c r="D47" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E47" s="5">
         <f t="shared" si="0"/>
         <v>577</v>
@@ -5165,7 +5344,9 @@
       <c r="H47" s="5">
         <v>829</v>
       </c>
-      <c r="I47" s="5"/>
+      <c r="I47" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J47" t="s">
         <v>8</v>
       </c>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF0CF57-6E7F-BB46-BD48-D7511250E84C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E5B3CD-6230-844F-A573-DF25647F4D71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="169">
   <si>
     <t>Date</t>
   </si>
@@ -545,6 +545,9 @@
   </si>
   <si>
     <t>Previous provisional deaths</t>
+  </si>
+  <si>
+    <t>Daily deaths</t>
   </si>
 </sst>
 </file>
@@ -3395,24 +3398,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="3" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="10.5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3441,19 +3446,22 @@
         <v>167</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>43900</v>
       </c>
@@ -3481,8 +3489,8 @@
       <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>8</v>
+      <c r="J2" s="5">
+        <v>0</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>8</v>
@@ -3490,11 +3498,14 @@
       <c r="L2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>43901</v>
       </c>
@@ -3522,8 +3533,9 @@
       <c r="I3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>8</v>
+      <c r="J3" s="5">
+        <f t="shared" ref="J2:J47" si="0">H3-H2</f>
+        <v>1</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>8</v>
@@ -3531,11 +3543,14 @@
       <c r="L3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>43902</v>
       </c>
@@ -3563,8 +3578,9 @@
       <c r="I4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>8</v>
+      <c r="J4" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>8</v>
@@ -3572,11 +3588,14 @@
       <c r="L4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>43903</v>
       </c>
@@ -3605,19 +3624,23 @@
         <v>8</v>
       </c>
       <c r="J5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
         <v>2</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>43904</v>
       </c>
@@ -3645,8 +3668,9 @@
       <c r="I6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>8</v>
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>8</v>
@@ -3654,11 +3678,14 @@
       <c r="L6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>43905</v>
       </c>
@@ -3686,8 +3713,9 @@
       <c r="I7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>8</v>
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>8</v>
@@ -3695,11 +3723,14 @@
       <c r="L7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>43906</v>
       </c>
@@ -3728,19 +3759,23 @@
         <v>8</v>
       </c>
       <c r="J8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
         <v>59</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
         <v>23</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>43907</v>
       </c>
@@ -3769,19 +3804,23 @@
         <v>8</v>
       </c>
       <c r="J9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
         <v>84</v>
       </c>
-      <c r="K9" s="5">
+      <c r="L9" s="5">
         <v>26</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M9" s="5">
         <v>43</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>43908</v>
       </c>
@@ -3810,19 +3849,23 @@
         <v>8</v>
       </c>
       <c r="J10" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
         <v>114</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L10" s="5">
         <v>27</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M10" s="5">
         <v>44</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>43909</v>
       </c>
@@ -3851,19 +3894,23 @@
         <v>8</v>
       </c>
       <c r="J11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
         <v>147</v>
       </c>
-      <c r="K11" s="5">
+      <c r="L11" s="5">
         <v>29</v>
       </c>
-      <c r="L11" s="5">
+      <c r="M11" s="5">
         <v>44</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>43910</v>
       </c>
@@ -3892,19 +3939,23 @@
         <v>8</v>
       </c>
       <c r="J12" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
         <v>159</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L12" s="5">
         <v>35</v>
       </c>
-      <c r="L12" s="5">
+      <c r="M12" s="5">
         <v>44</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>43911</v>
       </c>
@@ -3933,19 +3984,23 @@
         <v>8</v>
       </c>
       <c r="J13" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K13" s="5">
         <v>208</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L13" s="5">
         <v>37</v>
       </c>
-      <c r="L13" s="5">
+      <c r="M13" s="5">
         <v>44</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>43912</v>
       </c>
@@ -3974,19 +4029,23 @@
         <v>8</v>
       </c>
       <c r="J14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
         <v>247</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L14" s="5">
         <v>44</v>
       </c>
-      <c r="L14" s="5">
+      <c r="M14" s="5">
         <v>45</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>43913</v>
       </c>
@@ -4015,19 +4074,23 @@
         <v>8</v>
       </c>
       <c r="J15" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
         <v>283</v>
       </c>
-      <c r="K15" s="5">
+      <c r="L15" s="5">
         <v>63</v>
       </c>
-      <c r="L15" s="5">
+      <c r="M15" s="5">
         <v>45</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>43914</v>
       </c>
@@ -4056,19 +4119,23 @@
         <v>8</v>
       </c>
       <c r="J16" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K16" s="5">
         <v>321</v>
       </c>
-      <c r="K16" s="5">
+      <c r="L16" s="5">
         <v>66</v>
       </c>
-      <c r="L16" s="5">
+      <c r="M16" s="5">
         <v>46</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>43915</v>
       </c>
@@ -4096,20 +4163,23 @@
       <c r="I17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="5">
         <v>375</v>
       </c>
-      <c r="K17" s="5">
+      <c r="L17" s="5">
         <v>79</v>
       </c>
-      <c r="L17" s="5">
+      <c r="M17" s="5">
         <v>46</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>43916</v>
       </c>
@@ -4137,20 +4207,23 @@
       <c r="I18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="5">
         <v>445</v>
       </c>
-      <c r="K18" s="5">
+      <c r="L18" s="5">
         <v>91</v>
       </c>
-      <c r="L18" s="5">
+      <c r="M18" s="5">
         <v>46</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>43917</v>
       </c>
@@ -4179,19 +4252,23 @@
         <v>8</v>
       </c>
       <c r="J19" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K19" s="5">
         <v>506</v>
       </c>
-      <c r="K19" s="5">
+      <c r="L19" s="5">
         <v>103</v>
       </c>
-      <c r="L19" s="5">
+      <c r="M19" s="5">
         <v>47</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>43918</v>
       </c>
@@ -4220,19 +4297,23 @@
         <v>8</v>
       </c>
       <c r="J20" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="5">
         <v>578</v>
       </c>
-      <c r="K20" s="5">
+      <c r="L20" s="5">
         <v>111</v>
       </c>
-      <c r="L20" s="5">
+      <c r="M20" s="5">
         <v>47</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>43919</v>
       </c>
@@ -4242,8 +4323,8 @@
       <c r="C21" s="5">
         <v>2677</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>8</v>
+      <c r="D21" s="5">
+        <v>2615</v>
       </c>
       <c r="E21" s="5">
         <v>202</v>
@@ -4261,19 +4342,23 @@
         <v>8</v>
       </c>
       <c r="J21" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K21" s="5">
         <v>674</v>
       </c>
-      <c r="K21" s="5">
+      <c r="L21" s="5">
         <v>118</v>
       </c>
-      <c r="L21" s="5">
+      <c r="M21" s="5">
         <v>47</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>43920</v>
       </c>
@@ -4283,8 +4368,8 @@
       <c r="C22" s="5">
         <v>2990</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>8</v>
+      <c r="D22" s="5">
+        <v>2910</v>
       </c>
       <c r="E22" s="5">
         <v>313</v>
@@ -4302,19 +4387,23 @@
         <v>8</v>
       </c>
       <c r="J22" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K22" s="5">
         <v>752</v>
       </c>
-      <c r="K22" s="5">
+      <c r="L22" s="5">
         <v>134</v>
       </c>
-      <c r="L22" s="5">
+      <c r="M22" s="5">
         <v>48</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>43921</v>
       </c>
@@ -4324,8 +4413,8 @@
       <c r="C23" s="5">
         <v>3282</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>8</v>
+      <c r="D23" s="5">
+        <v>3235</v>
       </c>
       <c r="E23" s="5">
         <v>292</v>
@@ -4339,23 +4428,27 @@
       <c r="H23" s="5">
         <v>91</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>8</v>
+      <c r="I23" s="5">
+        <v>71</v>
       </c>
       <c r="J23" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K23" s="5">
         <v>841</v>
       </c>
-      <c r="K23" s="5">
+      <c r="L23" s="5">
         <v>160</v>
       </c>
-      <c r="L23" s="5">
+      <c r="M23" s="5">
         <v>48</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>43922</v>
       </c>
@@ -4365,8 +4458,8 @@
       <c r="C24" s="5">
         <v>3655</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>8</v>
+      <c r="D24" s="5">
+        <v>3447</v>
       </c>
       <c r="E24" s="5">
         <v>373</v>
@@ -4380,23 +4473,27 @@
       <c r="H24" s="5">
         <v>113</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>8</v>
+      <c r="I24" s="5">
+        <v>85</v>
       </c>
       <c r="J24" s="5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="K24" s="5">
         <v>948</v>
       </c>
-      <c r="K24" s="5">
+      <c r="L24" s="5">
         <v>171</v>
       </c>
-      <c r="L24" s="5">
+      <c r="M24" s="5">
         <v>48</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>43923</v>
       </c>
@@ -4406,8 +4503,8 @@
       <c r="C25" s="5">
         <v>4014</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>8</v>
+      <c r="D25" s="5">
+        <v>3849</v>
       </c>
       <c r="E25" s="5">
         <v>359</v>
@@ -4421,23 +4518,27 @@
       <c r="H25" s="5">
         <v>131</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>8</v>
+      <c r="I25" s="5">
+        <v>98</v>
       </c>
       <c r="J25" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K25" s="5">
         <v>1084</v>
       </c>
-      <c r="K25" s="5">
+      <c r="L25" s="5">
         <v>206</v>
       </c>
-      <c r="L25" s="5">
+      <c r="M25" s="5">
         <v>48</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>43924</v>
       </c>
@@ -4447,8 +4548,8 @@
       <c r="C26" s="5">
         <v>4443</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>8</v>
+      <c r="D26" s="5">
+        <v>4273</v>
       </c>
       <c r="E26" s="5">
         <v>429</v>
@@ -4462,23 +4563,27 @@
       <c r="H26" s="5">
         <v>151</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>8</v>
+      <c r="I26" s="5">
+        <v>120</v>
       </c>
       <c r="J26" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K26" s="5">
         <v>1163</v>
       </c>
-      <c r="K26" s="5">
+      <c r="L26" s="5">
         <v>236</v>
       </c>
-      <c r="L26" s="5">
+      <c r="M26" s="5">
         <v>48</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>43925</v>
       </c>
@@ -4488,11 +4593,11 @@
       <c r="C27" s="5">
         <v>4916</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>8</v>
+      <c r="D27" s="5">
+        <v>4604</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" ref="E27:E47" si="0">C27-C26</f>
+        <f t="shared" ref="E27:E47" si="1">C27-C26</f>
         <v>473</v>
       </c>
       <c r="F27" s="5">
@@ -4504,23 +4609,27 @@
       <c r="H27" s="5">
         <v>167</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>8</v>
+      <c r="I27" s="5">
+        <v>137</v>
       </c>
       <c r="J27" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="K27" s="5">
         <v>1263</v>
       </c>
-      <c r="K27" s="5">
+      <c r="L27" s="5">
         <v>260</v>
       </c>
-      <c r="L27" s="5">
+      <c r="M27" s="5">
         <v>49</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>43926</v>
       </c>
@@ -4530,11 +4639,11 @@
       <c r="C28" s="5">
         <v>5593</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>8</v>
+      <c r="D28" s="5">
+        <v>4994</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>677</v>
       </c>
       <c r="F28" s="5">
@@ -4546,23 +4655,27 @@
       <c r="H28" s="5">
         <v>204</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J28">
+      <c r="I28" s="5">
+        <v>158</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="K28">
         <v>1388</v>
       </c>
-      <c r="K28" s="5">
+      <c r="L28" s="5">
         <v>270</v>
       </c>
-      <c r="L28" s="5">
+      <c r="M28" s="5">
         <v>48</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43927</v>
       </c>
@@ -4572,11 +4685,11 @@
       <c r="C29" s="5">
         <v>5981</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>8</v>
+      <c r="D29" s="5">
+        <v>5364</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>388</v>
       </c>
       <c r="F29" s="5">
@@ -4588,23 +4701,27 @@
       <c r="H29" s="5">
         <v>223</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29">
+      <c r="I29" s="5">
+        <v>174</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="K29">
         <v>1568</v>
       </c>
-      <c r="K29" s="5">
+      <c r="L29" s="5">
         <v>299</v>
       </c>
-      <c r="L29" s="5">
+      <c r="M29" s="5">
         <v>48</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43928</v>
       </c>
@@ -4614,11 +4731,11 @@
       <c r="C30" s="5">
         <v>6444</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>8</v>
+      <c r="D30" s="5">
+        <v>5709</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>463</v>
       </c>
       <c r="F30" s="5">
@@ -4630,23 +4747,27 @@
       <c r="H30" s="5">
         <v>257</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J30">
+      <c r="I30" s="5">
+        <v>210</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="K30">
         <v>1765</v>
       </c>
-      <c r="K30" s="5">
+      <c r="L30" s="5">
         <v>317</v>
       </c>
-      <c r="L30" s="5">
+      <c r="M30" s="5">
         <v>48</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43929</v>
       </c>
@@ -4656,11 +4777,11 @@
       <c r="C31" s="5">
         <v>7071</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>8</v>
+      <c r="D31" s="5">
+        <v>6074</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>627</v>
       </c>
       <c r="F31">
@@ -4672,23 +4793,27 @@
       <c r="H31" s="5">
         <v>283</v>
       </c>
-      <c r="I31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J31">
+      <c r="I31" s="5">
+        <v>235</v>
+      </c>
+      <c r="J31" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="K31">
         <v>1949</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>333</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>48</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43930</v>
       </c>
@@ -4698,11 +4823,11 @@
       <c r="C32">
         <v>7787</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>8</v>
+      <c r="D32" s="5">
+        <v>6574</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>716</v>
       </c>
       <c r="F32">
@@ -4714,23 +4839,27 @@
       <c r="H32" s="5">
         <v>314</v>
       </c>
-      <c r="I32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32">
+      <c r="I32" s="5">
+        <v>263</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="K32">
         <v>2141</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>356</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>48</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43931</v>
       </c>
@@ -4740,11 +4869,11 @@
       <c r="C33" s="5">
         <v>8496</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>8</v>
+      <c r="D33" s="5">
+        <v>7054</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>709</v>
       </c>
       <c r="F33">
@@ -4756,23 +4885,27 @@
       <c r="H33" s="5">
         <v>329</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33">
+      <c r="I33" s="5">
+        <v>287</v>
+      </c>
+      <c r="J33" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K33">
         <v>2312</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>383</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>48</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43932</v>
       </c>
@@ -4786,7 +4919,7 @@
         <v>8</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>988</v>
       </c>
       <c r="F34">
@@ -4798,23 +4931,27 @@
       <c r="H34" s="5">
         <v>362</v>
       </c>
-      <c r="I34" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J34">
+      <c r="I34" s="5">
+        <v>320</v>
+      </c>
+      <c r="J34" s="5">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="K34">
         <v>2489</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>401</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>48</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43933</v>
       </c>
@@ -4824,11 +4961,11 @@
       <c r="C35" s="5">
         <v>10385</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>8</v>
+      <c r="D35" s="5">
+        <v>9655</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>901</v>
       </c>
       <c r="F35">
@@ -4840,23 +4977,27 @@
       <c r="H35" s="5">
         <v>395</v>
       </c>
-      <c r="I35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J35">
+      <c r="I35" s="5">
+        <v>334</v>
+      </c>
+      <c r="J35" s="5">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="K35">
         <v>2707</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>408</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>48</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43934</v>
       </c>
@@ -4866,11 +5007,11 @@
       <c r="C36" s="5">
         <v>11261</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>8</v>
+      <c r="D36" s="5">
+        <v>10647</v>
       </c>
       <c r="E36" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>876</v>
       </c>
       <c r="F36">
@@ -4882,23 +5023,27 @@
       <c r="H36" s="5">
         <v>435</v>
       </c>
-      <c r="I36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J36">
+      <c r="I36" s="5">
+        <v>365</v>
+      </c>
+      <c r="J36" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="K36">
         <v>2872</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>413</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>48</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43935</v>
       </c>
@@ -4908,11 +5053,11 @@
       <c r="C37" s="5">
         <v>12425</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>8</v>
+      <c r="D37" s="5">
+        <v>11479</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1164</v>
       </c>
       <c r="F37">
@@ -4924,23 +5069,27 @@
       <c r="H37" s="5">
         <v>480</v>
       </c>
-      <c r="I37" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J37">
+      <c r="I37" s="5">
+        <v>406</v>
+      </c>
+      <c r="J37" s="5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="K37">
         <v>2451</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>425</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>48</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43936</v>
       </c>
@@ -4950,11 +5099,11 @@
       <c r="C38" s="5">
         <v>13012</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>8</v>
+      <c r="D38" s="5">
+        <v>12547</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>587</v>
       </c>
       <c r="F38">
@@ -4966,23 +5115,27 @@
       <c r="H38" s="5">
         <v>521</v>
       </c>
-      <c r="I38" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J38">
+      <c r="I38" s="5">
+        <v>444</v>
+      </c>
+      <c r="J38" s="5">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="K38">
         <v>2723</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>436</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>48</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43937</v>
       </c>
@@ -4992,11 +5145,11 @@
       <c r="C39" s="5">
         <v>13746</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>8</v>
+      <c r="D39" s="5">
+        <v>13271</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>734</v>
       </c>
       <c r="F39">
@@ -5008,23 +5161,27 @@
       <c r="H39" s="5">
         <v>566</v>
       </c>
-      <c r="I39" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J39">
+      <c r="I39" s="5">
+        <v>486</v>
+      </c>
+      <c r="J39" s="5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="K39">
         <v>3573</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>454</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>48</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43938</v>
       </c>
@@ -5034,11 +5191,11 @@
       <c r="C40" s="5">
         <v>14602</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>8</v>
+      <c r="D40" s="5">
+        <v>13980</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>856</v>
       </c>
       <c r="F40">
@@ -5050,23 +5207,27 @@
       <c r="H40" s="5">
         <v>605</v>
       </c>
-      <c r="I40" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J40">
+      <c r="I40" s="5">
+        <v>530</v>
+      </c>
+      <c r="J40" s="5">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="K40">
         <v>3788</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>472</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>48</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43939</v>
       </c>
@@ -5076,11 +5237,11 @@
       <c r="C41" s="5">
         <v>15185</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>8</v>
+      <c r="D41" s="5">
+        <v>14758</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>583</v>
       </c>
       <c r="F41">
@@ -5092,23 +5253,27 @@
       <c r="H41" s="5">
         <v>642</v>
       </c>
-      <c r="I41" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41">
+      <c r="I41" s="5">
+        <v>571</v>
+      </c>
+      <c r="J41" s="5">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="K41">
         <v>4009</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>478</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>48</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43940</v>
       </c>
@@ -5118,11 +5283,11 @@
       <c r="C42" s="5">
         <v>15464</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>8</v>
+      <c r="D42" s="5">
+        <v>15251</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>279</v>
       </c>
       <c r="F42">
@@ -5134,23 +5299,27 @@
       <c r="H42" s="5">
         <v>719</v>
       </c>
-      <c r="I42" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42">
+      <c r="I42" s="5">
+        <v>610</v>
+      </c>
+      <c r="J42" s="5">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="K42">
         <v>4180</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>491</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>48</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43941</v>
       </c>
@@ -5160,11 +5329,11 @@
       <c r="C43" s="5">
         <v>15871</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>8</v>
+      <c r="D43" s="5">
+        <v>15652</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>407</v>
       </c>
       <c r="F43">
@@ -5176,23 +5345,27 @@
       <c r="H43" s="5">
         <v>757</v>
       </c>
-      <c r="I43" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43">
+      <c r="I43" s="5">
+        <v>687</v>
+      </c>
+      <c r="J43" s="5">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="K43">
         <v>4393</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>507</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>48</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43942</v>
       </c>
@@ -5206,7 +5379,7 @@
         <v>16040</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>568</v>
       </c>
       <c r="F44">
@@ -5221,20 +5394,24 @@
       <c r="I44" s="5">
         <v>730</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="5">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="K44">
         <v>4545</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>522</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>48</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43943</v>
       </c>
@@ -5248,7 +5425,7 @@
         <v>16671</v>
       </c>
       <c r="E45" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>981</v>
       </c>
       <c r="F45">
@@ -5263,20 +5440,24 @@
       <c r="I45" s="5">
         <v>769</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="5">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="K45">
         <v>4713</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>548</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>48</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43944</v>
       </c>
@@ -5290,7 +5471,7 @@
         <v>8</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>187</v>
       </c>
       <c r="F46" t="s">
@@ -5305,8 +5486,9 @@
       <c r="I46" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J46" t="s">
-        <v>8</v>
+      <c r="J46" s="5">
+        <f t="shared" si="0"/>
+        <v>-27</v>
       </c>
       <c r="K46" t="s">
         <v>8</v>
@@ -5315,10 +5497,13 @@
         <v>8</v>
       </c>
       <c r="M46" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43945</v>
       </c>
@@ -5332,7 +5517,7 @@
         <v>8</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>577</v>
       </c>
       <c r="F47" t="s">
@@ -5347,8 +5532,9 @@
       <c r="I47" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J47" t="s">
-        <v>8</v>
+      <c r="J47" s="5">
+        <f>H47-H46</f>
+        <v>35</v>
       </c>
       <c r="K47" t="s">
         <v>8</v>
@@ -5357,6 +5543,9 @@
         <v>8</v>
       </c>
       <c r="M47" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" t="s">
         <v>155</v>
       </c>
     </row>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E5B3CD-6230-844F-A573-DF25647F4D71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031C82AA-9838-274E-B5CB-E7B1B91D47BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2422" uniqueCount="170">
   <si>
     <t>Date</t>
   </si>
@@ -549,6 +549,9 @@
   <si>
     <t>Daily deaths</t>
   </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/6e638a-statement-from-the-national-public-health-emergency-team-saturday-25/</t>
+  </si>
 </sst>
 </file>
 
@@ -1042,7 +1045,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1062,6 +1065,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1420,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5E2DA3-023C-FF46-A014-0C2E672468A0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1439,10 +1443,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43943.810416666667</v>
+        <v>43944.742361111108</v>
       </c>
       <c r="B2" s="12">
-        <v>43945.810416666667</v>
+        <v>43946.742361111108</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3398,23 +3402,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="10.5" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -3534,7 +3537,7 @@
         <v>8</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" ref="J2:J47" si="0">H3-H2</f>
+        <f t="shared" ref="J3:J46" si="0">H3-H2</f>
         <v>1</v>
       </c>
       <c r="K3" s="5" t="s">
@@ -4597,7 +4600,7 @@
         <v>4604</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" ref="E27:E47" si="1">C27-C26</f>
+        <f t="shared" ref="E27:E48" si="1">C27-C26</f>
         <v>473</v>
       </c>
       <c r="F27" s="5">
@@ -5465,42 +5468,42 @@
         <v>104</v>
       </c>
       <c r="C46" s="5">
+        <v>17975</v>
+      </c>
+      <c r="D46" s="5">
         <v>17607</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="E46" s="5">
         <f t="shared" si="1"/>
-        <v>187</v>
-      </c>
-      <c r="F46" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" t="s">
-        <v>8</v>
+        <v>555</v>
+      </c>
+      <c r="F46">
+        <v>2536</v>
+      </c>
+      <c r="G46">
+        <v>344</v>
       </c>
       <c r="H46" s="5">
+        <v>859</v>
+      </c>
+      <c r="I46" s="5">
         <v>794</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="J46" s="5">
         <f t="shared" si="0"/>
-        <v>-27</v>
-      </c>
-      <c r="K46" t="s">
-        <v>8</v>
-      </c>
-      <c r="L46" t="s">
-        <v>8</v>
-      </c>
-      <c r="M46" t="s">
-        <v>8</v>
+        <v>38</v>
+      </c>
+      <c r="K46">
+        <v>4847</v>
+      </c>
+      <c r="L46">
+        <v>567</v>
+      </c>
+      <c r="M46">
+        <v>49</v>
       </c>
       <c r="N46" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -5513,12 +5516,12 @@
       <c r="C47" s="5">
         <v>18184</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>8</v>
+      <c r="D47" s="5">
+        <v>18184</v>
       </c>
       <c r="E47" s="5">
         <f t="shared" si="1"/>
-        <v>577</v>
+        <v>209</v>
       </c>
       <c r="F47" t="s">
         <v>8</v>
@@ -5527,14 +5530,14 @@
         <v>8</v>
       </c>
       <c r="H47" s="5">
-        <v>829</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>8</v>
+        <v>1014</v>
+      </c>
+      <c r="I47" s="5">
+        <v>1014</v>
       </c>
       <c r="J47" s="5">
         <f>H47-H46</f>
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="K47" t="s">
         <v>8</v>
@@ -5546,6 +5549,52 @@
         <v>8</v>
       </c>
       <c r="N47" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="5">
+        <v>18561</v>
+      </c>
+      <c r="D48" s="5">
+        <v>18561</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="1"/>
+        <v>377</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="5">
+        <v>1063</v>
+      </c>
+      <c r="I48" s="5">
+        <v>1063</v>
+      </c>
+      <c r="J48" s="5">
+        <f>H48-H47</f>
+        <v>49</v>
+      </c>
+      <c r="K48" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5556,11 +5605,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D111" sqref="D111"/>
+      <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6502,7 +6551,7 @@
         <v>43929</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B110" si="1">B64</f>
+        <f t="shared" ref="B67:B113" si="1">B64</f>
         <v>Male</v>
       </c>
       <c r="C67">
@@ -7156,6 +7205,51 @@
       </c>
       <c r="D110">
         <v>0.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B111" t="str">
+        <f>B108</f>
+        <v>Female</v>
+      </c>
+      <c r="C111">
+        <v>10261</v>
+      </c>
+      <c r="D111">
+        <v>57.1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B112" t="str">
+        <f t="shared" si="1"/>
+        <v>Male</v>
+      </c>
+      <c r="C112">
+        <v>7656</v>
+      </c>
+      <c r="D112">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B113" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C113">
+        <v>58</v>
+      </c>
+      <c r="D113">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -7165,11 +7259,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:F413"/>
+  <dimension ref="A1:F424"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G414" sqref="G414"/>
+      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A413" sqref="A413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12819,7 +12913,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>43942</v>
       </c>
@@ -12833,7 +12927,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>43942</v>
       </c>
@@ -12847,7 +12941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>43943</v>
       </c>
@@ -12861,7 +12955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>43943</v>
       </c>
@@ -12875,7 +12969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>43943</v>
       </c>
@@ -12889,7 +12983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>43943</v>
       </c>
@@ -12904,7 +12998,7 @@
       </c>
       <c r="E406" s="7"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>43943</v>
       </c>
@@ -12919,7 +13013,7 @@
       </c>
       <c r="E407" s="13"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>43943</v>
       </c>
@@ -12934,7 +13028,7 @@
       </c>
       <c r="E408" s="7"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>43943</v>
       </c>
@@ -12948,7 +13042,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>43943</v>
       </c>
@@ -12962,7 +13056,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>43943</v>
       </c>
@@ -12976,7 +13070,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>43943</v>
       </c>
@@ -12990,7 +13084,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>43943</v>
       </c>
@@ -13002,6 +13096,163 @@
       </c>
       <c r="D413">
         <v>3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A414" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B414" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C414">
+        <v>30</v>
+      </c>
+      <c r="D414" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A415" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B415" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C415">
+        <v>63</v>
+      </c>
+      <c r="D415" t="s">
+        <v>8</v>
+      </c>
+      <c r="F415" s="7"/>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A416" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B416" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C416" t="s">
+        <v>8</v>
+      </c>
+      <c r="D416">
+        <v>14</v>
+      </c>
+      <c r="F416" s="13"/>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A417" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B417" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C417">
+        <v>181</v>
+      </c>
+      <c r="D417">
+        <v>8</v>
+      </c>
+      <c r="F417" s="7"/>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A418" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B418" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C418" s="15">
+        <v>1161</v>
+      </c>
+      <c r="D418">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A419" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B419" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C419" s="15">
+        <v>2904</v>
+      </c>
+      <c r="D419">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A420" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B420" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C420" s="15">
+        <v>3119</v>
+      </c>
+      <c r="D420">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A421" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B421" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C421" s="15">
+        <v>3346</v>
+      </c>
+      <c r="D421">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A422" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B422" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C422" s="15">
+        <v>2462</v>
+      </c>
+      <c r="D422">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A423" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B423" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C423" s="15">
+        <v>4685</v>
+      </c>
+      <c r="D423">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A424" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B424" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C424">
+        <v>24</v>
+      </c>
+      <c r="D424">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -13011,11 +13262,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B131" sqref="B131"/>
+      <selection pane="bottomLeft" activeCell="D130" sqref="D130:D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14237,7 +14488,7 @@
         <v>43929</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" ref="B87:B130" si="1">B84</f>
+        <f t="shared" ref="B87:B133" si="1">B84</f>
         <v>Close contact with confirmed case</v>
       </c>
       <c r="C87" s="11">
@@ -14890,6 +15141,51 @@
         <v>3</v>
       </c>
       <c r="D130" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B131" t="str">
+        <f>B128</f>
+        <v>Community transmission</v>
+      </c>
+      <c r="C131" s="11">
+        <v>63.4</v>
+      </c>
+      <c r="D131" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B132" t="str">
+        <f t="shared" si="1"/>
+        <v>Close contact with confirmed case</v>
+      </c>
+      <c r="C132" s="11">
+        <v>32.9</v>
+      </c>
+      <c r="D132" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B133" t="str">
+        <f t="shared" si="1"/>
+        <v>Travel Abroad</v>
+      </c>
+      <c r="C133" s="11">
+        <v>3.7</v>
+      </c>
+      <c r="D133" t="s">
         <v>106</v>
       </c>
     </row>
@@ -14900,10 +15196,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E983"/>
+  <dimension ref="A1:E1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A944" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A958" sqref="A958:A983"/>
+    <sheetView topLeftCell="A959" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A984" sqref="A984:A1009"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29163,6 +29459,370 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
+    <row r="984" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A984" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B984" t="s">
+        <v>12</v>
+      </c>
+      <c r="C984">
+        <v>88</v>
+      </c>
+      <c r="D984" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A985" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B985" t="s">
+        <v>14</v>
+      </c>
+      <c r="C985">
+        <v>536</v>
+      </c>
+      <c r="D985" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="986" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A986" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B986" t="s">
+        <v>15</v>
+      </c>
+      <c r="C986">
+        <v>207</v>
+      </c>
+      <c r="D986" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="987" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A987" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B987" t="s">
+        <v>16</v>
+      </c>
+      <c r="C987">
+        <v>1103</v>
+      </c>
+      <c r="D987" s="3">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A988" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B988" t="s">
+        <v>17</v>
+      </c>
+      <c r="C988">
+        <v>437</v>
+      </c>
+      <c r="D988" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="989" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A989" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B989" t="s">
+        <v>18</v>
+      </c>
+      <c r="C989">
+        <v>9010</v>
+      </c>
+      <c r="D989" s="3">
+        <v>0.501</v>
+      </c>
+    </row>
+    <row r="990" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A990" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B990" t="s">
+        <v>19</v>
+      </c>
+      <c r="C990">
+        <v>332</v>
+      </c>
+      <c r="D990" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="991" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A991" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B991" t="s">
+        <v>20</v>
+      </c>
+      <c r="C991">
+        <v>276</v>
+      </c>
+      <c r="D991" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="992" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A992" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B992" t="s">
+        <v>21</v>
+      </c>
+      <c r="C992">
+        <v>1003</v>
+      </c>
+      <c r="D992" s="3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A993" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B993" t="s">
+        <v>22</v>
+      </c>
+      <c r="C993">
+        <v>229</v>
+      </c>
+      <c r="D993" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A994" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B994" t="s">
+        <v>36</v>
+      </c>
+      <c r="C994">
+        <v>204</v>
+      </c>
+      <c r="D994" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="995" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A995" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B995" t="s">
+        <v>37</v>
+      </c>
+      <c r="C995">
+        <v>62</v>
+      </c>
+      <c r="D995" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A996" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B996" t="s">
+        <v>23</v>
+      </c>
+      <c r="C996">
+        <v>441</v>
+      </c>
+      <c r="D996" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="997" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A997" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B997" t="s">
+        <v>24</v>
+      </c>
+      <c r="C997">
+        <v>113</v>
+      </c>
+      <c r="D997" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="998" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A998" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B998" t="s">
+        <v>25</v>
+      </c>
+      <c r="C998">
+        <v>590</v>
+      </c>
+      <c r="D998" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="999" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A999" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B999" t="s">
+        <v>26</v>
+      </c>
+      <c r="C999">
+        <v>395</v>
+      </c>
+      <c r="D999" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1000" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1000">
+        <v>578</v>
+      </c>
+      <c r="D1000" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1001" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1001">
+        <v>327</v>
+      </c>
+      <c r="D1001" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1002" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1002">
+        <v>222</v>
+      </c>
+      <c r="D1002" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1003" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1003">
+        <v>114</v>
+      </c>
+      <c r="D1003" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1004" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1004">
+        <v>104</v>
+      </c>
+      <c r="D1004" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1005" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1005">
+        <v>345</v>
+      </c>
+      <c r="D1005" s="3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1006" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1006">
+        <v>129</v>
+      </c>
+      <c r="D1006" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1007" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1007">
+        <v>421</v>
+      </c>
+      <c r="D1007" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1008" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1008">
+        <v>151</v>
+      </c>
+      <c r="D1008" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1009" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1009">
+        <v>558</v>
+      </c>
+      <c r="D1009" s="3">
+        <v>3.1E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29170,10 +29830,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142B833B-877B-3C49-9423-E5D043A0EF43}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="A48" sqref="A48:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29508,7 +30168,7 @@
         <v>43929</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" ref="B18:B47" si="2">B16</f>
+        <f t="shared" ref="B18:B49" si="2">B16</f>
         <v>Female</v>
       </c>
       <c r="C18">
@@ -30102,6 +30762,46 @@
       <c r="E47" s="14">
         <f>D47/SUM(D46:D47)</f>
         <v>0.53022670025188912</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="2"/>
+        <v>Female</v>
+      </c>
+      <c r="C48">
+        <v>30</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48:D49" si="4">D46+C48</f>
+        <v>403</v>
+      </c>
+      <c r="E48" s="14">
+        <f>D48/SUM(D48:D49)</f>
+        <v>0.47635933806146574</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="2"/>
+        <v>Male</v>
+      </c>
+      <c r="C49">
+        <v>22</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="4"/>
+        <v>443</v>
+      </c>
+      <c r="E49" s="14">
+        <f>D49/SUM(D48:D49)</f>
+        <v>0.52364066193853431</v>
       </c>
     </row>
   </sheetData>
@@ -30111,11 +30811,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -30165,7 +30863,7 @@
         <v>6450</v>
       </c>
       <c r="G2" s="10">
-        <f t="shared" ref="G2:G22" si="0">D2/F2</f>
+        <f t="shared" ref="G2:G23" si="0">D2/F2</f>
         <v>0.10682170542635659</v>
       </c>
     </row>
@@ -30648,6 +31346,33 @@
         <f t="shared" si="0"/>
         <v>0.15593626691973428</v>
       </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B23">
+        <v>104</v>
+      </c>
+      <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>3226</v>
+      </c>
+      <c r="E23">
+        <v>294</v>
+      </c>
+      <c r="F23">
+        <v>21153</v>
+      </c>
+      <c r="G23" s="10">
+        <f t="shared" si="0"/>
+        <v>0.15250791849855813</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031C82AA-9838-274E-B5CB-E7B1B91D47BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EAD910-343D-1B4F-B41E-C19C0EB6E8B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2422" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2429" uniqueCount="170">
   <si>
     <t>Date</t>
   </si>
@@ -1424,7 +1424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5E2DA3-023C-FF46-A014-0C2E672468A0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3402,13 +3402,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N46" sqref="N46"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4600,7 +4600,7 @@
         <v>4604</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" ref="E27:E48" si="1">C27-C26</f>
+        <f t="shared" ref="E27:E49" si="1">C27-C26</f>
         <v>473</v>
       </c>
       <c r="F27" s="5">
@@ -5595,6 +5595,52 @@
         <v>8</v>
       </c>
       <c r="N48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="5">
+        <v>19262</v>
+      </c>
+      <c r="D49" s="5">
+        <v>19262</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="1"/>
+        <v>701</v>
+      </c>
+      <c r="F49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="5">
+        <v>1087</v>
+      </c>
+      <c r="I49" s="5">
+        <v>1087</v>
+      </c>
+      <c r="J49" s="5">
+        <f>H49-H48</f>
+        <v>24</v>
+      </c>
+      <c r="K49" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" t="s">
         <v>155</v>
       </c>
     </row>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EAD910-343D-1B4F-B41E-C19C0EB6E8B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C66EC4-B357-5644-8085-C84A34E3C8B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -1424,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5E2DA3-023C-FF46-A014-0C2E672468A0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1446,7 +1446,7 @@
         <v>43944.742361111108</v>
       </c>
       <c r="B2" s="12">
-        <v>43946.742361111108</v>
+        <v>43947.788888888892</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3404,7 +3404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C66EC4-B357-5644-8085-C84A34E3C8B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6194D26-DFCA-4C48-81AF-A810C9889929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2429" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2467" uniqueCount="171">
   <si>
     <t>Date</t>
   </si>
@@ -551,6 +551,9 @@
   </si>
   <si>
     <t>https://www.gov.ie/en/press-release/6e638a-statement-from-the-national-public-health-emergency-team-saturday-25/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/2aa01f-statement-from-the-national-public-health-emergency-team-sunday-26-a/</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1428,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43944.742361111108</v>
+        <v>43945.613888888889</v>
       </c>
       <c r="B2" s="12">
         <v>43947.788888888892</v>
@@ -3405,10 +3408,10 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomRight" activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5465,7 +5468,7 @@
         <v>43944</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C46" s="5">
         <v>17975</v>
@@ -5511,45 +5514,45 @@
         <v>43945</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C47" s="5">
-        <v>18184</v>
+        <v>18431</v>
       </c>
       <c r="D47" s="5">
         <v>18184</v>
       </c>
       <c r="E47" s="5">
         <f t="shared" si="1"/>
-        <v>209</v>
-      </c>
-      <c r="F47" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" t="s">
-        <v>8</v>
+        <v>456</v>
+      </c>
+      <c r="F47">
+        <v>2576</v>
+      </c>
+      <c r="G47">
+        <v>349</v>
       </c>
       <c r="H47" s="5">
-        <v>1014</v>
+        <v>882</v>
       </c>
       <c r="I47" s="5">
         <v>1014</v>
       </c>
       <c r="J47" s="5">
         <f>H47-H46</f>
-        <v>155</v>
-      </c>
-      <c r="K47" t="s">
-        <v>8</v>
-      </c>
-      <c r="L47" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="K47">
+        <v>5064</v>
+      </c>
+      <c r="L47">
+        <v>601</v>
+      </c>
+      <c r="M47">
+        <v>49</v>
       </c>
       <c r="N47" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -5567,7 +5570,7 @@
       </c>
       <c r="E48" s="5">
         <f t="shared" si="1"/>
-        <v>377</v>
+        <v>130</v>
       </c>
       <c r="F48" t="s">
         <v>8</v>
@@ -5583,7 +5586,7 @@
       </c>
       <c r="J48" s="5">
         <f>H48-H47</f>
-        <v>49</v>
+        <v>181</v>
       </c>
       <c r="K48" t="s">
         <v>8</v>
@@ -5651,11 +5654,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A114" sqref="A114:A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6597,7 +6600,7 @@
         <v>43929</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B113" si="1">B64</f>
+        <f t="shared" ref="B67:B116" si="1">B64</f>
         <v>Male</v>
       </c>
       <c r="C67">
@@ -7295,6 +7298,51 @@
         <v>58</v>
       </c>
       <c r="D113">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B114" t="str">
+        <f>B111</f>
+        <v>Female</v>
+      </c>
+      <c r="C114">
+        <v>10570</v>
+      </c>
+      <c r="D114">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B115" t="str">
+        <f t="shared" si="1"/>
+        <v>Male</v>
+      </c>
+      <c r="C115">
+        <v>7797</v>
+      </c>
+      <c r="D115">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B116" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C116">
+        <v>64</v>
+      </c>
+      <c r="D116">
         <v>0.3</v>
       </c>
     </row>
@@ -7305,11 +7353,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:F424"/>
+  <dimension ref="A1:G435"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A413" sqref="A413"/>
+      <pane ySplit="1" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A425" sqref="A425:A435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13188,7 +13236,7 @@
       </c>
       <c r="F416" s="13"/>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>43944</v>
       </c>
@@ -13203,7 +13251,7 @@
       </c>
       <c r="F417" s="7"/>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>43944</v>
       </c>
@@ -13217,7 +13265,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>43944</v>
       </c>
@@ -13231,7 +13279,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>43944</v>
       </c>
@@ -13245,7 +13293,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>43944</v>
       </c>
@@ -13259,7 +13307,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>43944</v>
       </c>
@@ -13273,7 +13321,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>43944</v>
       </c>
@@ -13287,7 +13335,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>43944</v>
       </c>
@@ -13299,6 +13347,162 @@
       </c>
       <c r="D424">
         <v>330</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A425" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B425" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C425">
+        <v>30</v>
+      </c>
+      <c r="D425" t="s">
+        <v>8</v>
+      </c>
+      <c r="G425" s="13"/>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A426" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B426" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C426">
+        <v>63</v>
+      </c>
+      <c r="D426" t="s">
+        <v>8</v>
+      </c>
+      <c r="G426" s="7"/>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A427" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B427" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C427" t="s">
+        <v>8</v>
+      </c>
+      <c r="D427">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A428" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B428" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C428">
+        <v>184</v>
+      </c>
+      <c r="D428">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A429" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B429" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C429" s="15">
+        <v>1193</v>
+      </c>
+      <c r="D429">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A430" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B430" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C430" s="15">
+        <v>2977</v>
+      </c>
+      <c r="D430">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A431" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B431" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C431" s="15">
+        <v>3181</v>
+      </c>
+      <c r="D431">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A432" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B432" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C432" s="15">
+        <v>3403</v>
+      </c>
+      <c r="D432">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A433" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B433" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C433" s="15">
+        <v>2513</v>
+      </c>
+      <c r="D433">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A434" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B434" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C434" s="15">
+        <v>4862</v>
+      </c>
+      <c r="D434">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A435" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B435" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C435">
+        <v>25</v>
+      </c>
+      <c r="D435">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -13308,11 +13512,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D130" sqref="D130:D133"/>
+      <selection pane="bottomLeft" activeCell="D132" sqref="D132:D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14534,7 +14738,7 @@
         <v>43929</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" ref="B87:B133" si="1">B84</f>
+        <f t="shared" ref="B87:B136" si="1">B84</f>
         <v>Close contact with confirmed case</v>
       </c>
       <c r="C87" s="11">
@@ -15232,6 +15436,51 @@
         <v>3.7</v>
       </c>
       <c r="D133" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B134" t="str">
+        <f>B131</f>
+        <v>Community transmission</v>
+      </c>
+      <c r="C134" s="11">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B135" t="str">
+        <f t="shared" si="1"/>
+        <v>Close contact with confirmed case</v>
+      </c>
+      <c r="C135" s="11">
+        <v>33</v>
+      </c>
+      <c r="D135" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B136" t="str">
+        <f t="shared" si="1"/>
+        <v>Travel Abroad</v>
+      </c>
+      <c r="C136" s="11">
+        <v>4</v>
+      </c>
+      <c r="D136" t="s">
         <v>106</v>
       </c>
     </row>
@@ -15242,10 +15491,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E1009"/>
+  <dimension ref="A1:E1035"/>
   <sheetViews>
-    <sheetView topLeftCell="A959" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A984" sqref="A984:A1009"/>
+    <sheetView topLeftCell="A989" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D1015" sqref="D1015"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29869,6 +30118,370 @@
         <v>3.1E-2</v>
       </c>
     </row>
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1010" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1010">
+        <v>91</v>
+      </c>
+      <c r="D1010" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1011" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1011">
+        <v>574</v>
+      </c>
+      <c r="D1011" s="3">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1012" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1012">
+        <v>209</v>
+      </c>
+      <c r="D1012" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1013" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1013">
+        <v>1110</v>
+      </c>
+      <c r="D1013" s="2">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1014" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1014">
+        <v>446</v>
+      </c>
+      <c r="D1014" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1015" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1015">
+        <v>9224</v>
+      </c>
+      <c r="D1015" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1016" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1016">
+        <v>332</v>
+      </c>
+      <c r="D1016" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1017" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1017">
+        <v>277</v>
+      </c>
+      <c r="D1017" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1018" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1018">
+        <v>1028</v>
+      </c>
+      <c r="D1018" s="3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1019" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1019">
+        <v>230</v>
+      </c>
+      <c r="D1019" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1020" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1020">
+        <v>205</v>
+      </c>
+      <c r="D1020" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1021" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1021">
+        <v>64</v>
+      </c>
+      <c r="D1021" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1022" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1022">
+        <v>442</v>
+      </c>
+      <c r="D1022" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1023" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1023">
+        <v>124</v>
+      </c>
+      <c r="D1023" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1024" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1024">
+        <v>597</v>
+      </c>
+      <c r="D1024" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1025" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1025">
+        <v>435</v>
+      </c>
+      <c r="D1025" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1026" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1026">
+        <v>613</v>
+      </c>
+      <c r="D1026" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1027" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1027">
+        <v>350</v>
+      </c>
+      <c r="D1027" s="3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1028" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1028">
+        <v>225</v>
+      </c>
+      <c r="D1028" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1029" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1029">
+        <v>116</v>
+      </c>
+      <c r="D1029" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1030" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1030">
+        <v>104</v>
+      </c>
+      <c r="D1030" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1031" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1031">
+        <v>346</v>
+      </c>
+      <c r="D1031" s="3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1032" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1032">
+        <v>135</v>
+      </c>
+      <c r="D1032" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1033" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1033">
+        <v>437</v>
+      </c>
+      <c r="D1033" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1034" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1034">
+        <v>156</v>
+      </c>
+      <c r="D1034" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1035" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1035">
+        <v>568</v>
+      </c>
+      <c r="D1035" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29876,10 +30489,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142B833B-877B-3C49-9423-E5D043A0EF43}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:A49"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30214,7 +30827,7 @@
         <v>43929</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" ref="B18:B49" si="2">B16</f>
+        <f t="shared" ref="B18:B51" si="2">B16</f>
         <v>Female</v>
       </c>
       <c r="C18">
@@ -30849,6 +31462,12 @@
         <f>D49/SUM(D48:D49)</f>
         <v>0.52364066193853431</v>
       </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6194D26-DFCA-4C48-81AF-A810C9889929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3675D5AE-CB83-B047-A7BD-2B2FF23CEAB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2467" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="172">
   <si>
     <t>Date</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>https://www.gov.ie/en/press-release/2aa01f-statement-from-the-national-public-health-emergency-team-sunday-26-a/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/64fb75-statement-from-the-national-public-health-emergency-team-monday-28-a/</t>
   </si>
 </sst>
 </file>
@@ -1446,10 +1449,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43945.613888888889</v>
+        <v>43946.838194444441</v>
       </c>
       <c r="B2" s="12">
-        <v>43947.788888888892</v>
+        <v>43948.838194444441</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3405,13 +3408,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N47" sqref="N47"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4603,7 +4606,7 @@
         <v>4604</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" ref="E27:E49" si="1">C27-C26</f>
+        <f t="shared" ref="E27:E50" si="1">C27-C26</f>
         <v>473</v>
       </c>
       <c r="F27" s="5">
@@ -5560,45 +5563,45 @@
         <v>43946</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" s="5">
-        <v>18561</v>
+        <v>19095</v>
       </c>
       <c r="D48" s="5">
         <v>18561</v>
       </c>
       <c r="E48" s="5">
         <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="F48" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" t="s">
-        <v>8</v>
+        <v>664</v>
+      </c>
+      <c r="F48">
+        <v>2625</v>
+      </c>
+      <c r="G48">
+        <v>353</v>
       </c>
       <c r="H48" s="5">
-        <v>1063</v>
+        <v>897</v>
       </c>
       <c r="I48" s="5">
         <v>1063</v>
       </c>
       <c r="J48" s="5">
         <f>H48-H47</f>
-        <v>181</v>
-      </c>
-      <c r="K48" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="K48">
+        <v>5204</v>
+      </c>
+      <c r="L48">
+        <v>604</v>
+      </c>
+      <c r="M48">
+        <v>49</v>
       </c>
       <c r="N48" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -5616,7 +5619,7 @@
       </c>
       <c r="E49" s="5">
         <f t="shared" si="1"/>
-        <v>701</v>
+        <v>167</v>
       </c>
       <c r="F49" t="s">
         <v>8</v>
@@ -5632,7 +5635,7 @@
       </c>
       <c r="J49" s="5">
         <f>H49-H48</f>
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="K49" t="s">
         <v>8</v>
@@ -5644,6 +5647,52 @@
         <v>8</v>
       </c>
       <c r="N49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="5">
+        <v>19648</v>
+      </c>
+      <c r="D50" s="5">
+        <v>19648</v>
+      </c>
+      <c r="E50" s="5">
+        <f t="shared" si="1"/>
+        <v>386</v>
+      </c>
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="5">
+        <v>1102</v>
+      </c>
+      <c r="I50" s="5">
+        <v>1102</v>
+      </c>
+      <c r="J50" s="5">
+        <f>H50-H49</f>
+        <v>15</v>
+      </c>
+      <c r="K50" t="s">
+        <v>8</v>
+      </c>
+      <c r="L50" t="s">
+        <v>8</v>
+      </c>
+      <c r="M50" t="s">
+        <v>8</v>
+      </c>
+      <c r="N50" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5654,11 +5703,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A114" sqref="A114:A116"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6600,7 +6649,7 @@
         <v>43929</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B116" si="1">B64</f>
+        <f t="shared" ref="B67:B119" si="1">B64</f>
         <v>Male</v>
       </c>
       <c r="C67">
@@ -7344,6 +7393,51 @@
       </c>
       <c r="D116">
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B117" t="str">
+        <f>B114</f>
+        <v>Female</v>
+      </c>
+      <c r="C117">
+        <v>10963</v>
+      </c>
+      <c r="D117">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B118" t="str">
+        <f t="shared" si="1"/>
+        <v>Male</v>
+      </c>
+      <c r="C118">
+        <v>8051</v>
+      </c>
+      <c r="D118">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B119" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C119">
+        <v>81</v>
+      </c>
+      <c r="D119">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -7353,11 +7447,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:G435"/>
+  <dimension ref="A1:G446"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A425" sqref="A425:A435"/>
+      <pane ySplit="1" topLeftCell="A408" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F436" sqref="F436:H446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13463,7 +13557,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>43945</v>
       </c>
@@ -13477,7 +13571,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>43945</v>
       </c>
@@ -13491,7 +13585,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>43945</v>
       </c>
@@ -13502,6 +13596,163 @@
         <v>25</v>
       </c>
       <c r="D435">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A436" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B436" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C436">
+        <v>33</v>
+      </c>
+      <c r="D436" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A437" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B437" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C437">
+        <v>64</v>
+      </c>
+      <c r="D437" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A438" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B438" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C438" t="s">
+        <v>8</v>
+      </c>
+      <c r="D438">
+        <v>14</v>
+      </c>
+      <c r="F438" s="7"/>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A439" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B439" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C439">
+        <v>190</v>
+      </c>
+      <c r="D439">
+        <v>8</v>
+      </c>
+      <c r="F439" s="13"/>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A440" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B440" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C440" s="15">
+        <v>1236</v>
+      </c>
+      <c r="D440">
+        <v>54</v>
+      </c>
+      <c r="F440" s="7"/>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A441" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B441" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C441" s="15">
+        <v>3069</v>
+      </c>
+      <c r="D441">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A442" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B442" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C442" s="15">
+        <v>3285</v>
+      </c>
+      <c r="D442">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A443" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B443" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C443" s="15">
+        <v>3526</v>
+      </c>
+      <c r="D443">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A444" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B444" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C444" s="15">
+        <v>2566</v>
+      </c>
+      <c r="D444">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A445" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B445" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C445" s="15">
+        <v>5101</v>
+      </c>
+      <c r="D445">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A446" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B446" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C446">
+        <v>25</v>
+      </c>
+      <c r="D446">
         <v>3</v>
       </c>
     </row>
@@ -13512,11 +13763,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D132" sqref="D132:D136"/>
+      <selection pane="bottomLeft" activeCell="A137" sqref="A137:A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15484,6 +15735,48 @@
         <v>106</v>
       </c>
     </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B137" t="s">
+        <v>56</v>
+      </c>
+      <c r="C137" s="11">
+        <v>64</v>
+      </c>
+      <c r="D137" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B138" t="s">
+        <v>57</v>
+      </c>
+      <c r="C138" s="11">
+        <v>33</v>
+      </c>
+      <c r="D138" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B139" t="s">
+        <v>58</v>
+      </c>
+      <c r="C139" s="11">
+        <v>3</v>
+      </c>
+      <c r="D139" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15491,10 +15784,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E1035"/>
+  <dimension ref="A1:E1061"/>
   <sheetViews>
-    <sheetView topLeftCell="A989" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D1015" sqref="D1015"/>
+    <sheetView topLeftCell="A1015" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C1037" sqref="C1037"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30480,6 +30773,370 @@
       </c>
       <c r="D1035" s="3">
         <v>0.03</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1036" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1036">
+        <v>92</v>
+      </c>
+      <c r="D1036" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1037" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1037">
+        <v>609</v>
+      </c>
+      <c r="D1037" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1038" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1038">
+        <v>212</v>
+      </c>
+      <c r="D1038" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1039" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1039">
+        <v>1125</v>
+      </c>
+      <c r="D1039" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1040" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1040">
+        <v>452</v>
+      </c>
+      <c r="D1040" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1041" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1041">
+        <v>9532</v>
+      </c>
+      <c r="D1041" s="3">
+        <v>0.49799999999999978</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1042" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1042">
+        <v>335</v>
+      </c>
+      <c r="D1042" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1043" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1043">
+        <v>288</v>
+      </c>
+      <c r="D1043" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1044" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1044">
+        <v>1127</v>
+      </c>
+      <c r="D1044" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1045" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1045">
+        <v>233</v>
+      </c>
+      <c r="D1045" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1046" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1046">
+        <v>205</v>
+      </c>
+      <c r="D1046" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1047" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1047">
+        <v>66</v>
+      </c>
+      <c r="D1047" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1048" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1048">
+        <v>457</v>
+      </c>
+      <c r="D1048" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1049" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1049">
+        <v>129</v>
+      </c>
+      <c r="D1049" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1050" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1050">
+        <v>627</v>
+      </c>
+      <c r="D1050" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1051" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1051">
+        <v>464</v>
+      </c>
+      <c r="D1051" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1052" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1052">
+        <v>626</v>
+      </c>
+      <c r="D1052" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1053" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1053">
+        <v>373</v>
+      </c>
+      <c r="D1053" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1054" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1054">
+        <v>228</v>
+      </c>
+      <c r="D1054" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1055" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1055">
+        <v>135</v>
+      </c>
+      <c r="D1055" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1056" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1056">
+        <v>114</v>
+      </c>
+      <c r="D1056" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1057" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1057">
+        <v>364</v>
+      </c>
+      <c r="D1057" s="3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1058" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1058">
+        <v>137</v>
+      </c>
+      <c r="D1058" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1059" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1059">
+        <v>446</v>
+      </c>
+      <c r="D1059" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1060" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1060">
+        <v>162</v>
+      </c>
+      <c r="D1060" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1061" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1061">
+        <v>557</v>
+      </c>
+      <c r="D1061" s="3">
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -30827,7 +31484,7 @@
         <v>43929</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" ref="B18:B51" si="2">B16</f>
+        <f t="shared" ref="B18:B49" si="2">B16</f>
         <v>Female</v>
       </c>
       <c r="C18">
@@ -31476,9 +32133,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -31528,7 +32187,7 @@
         <v>6450</v>
       </c>
       <c r="G2" s="10">
-        <f t="shared" ref="G2:G23" si="0">D2/F2</f>
+        <f t="shared" ref="G2:G24" si="0">D2/F2</f>
         <v>0.10682170542635659</v>
       </c>
     </row>
@@ -32037,7 +32696,52 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B24">
+        <v>82</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>3308</v>
+      </c>
+      <c r="E24">
+        <v>299</v>
+      </c>
+      <c r="F24">
+        <v>22027</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" si="0"/>
+        <v>0.15017932537340536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B25">
+        <v>66</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>3374</v>
+      </c>
+      <c r="E25">
+        <v>309</v>
+      </c>
+      <c r="F25">
+        <v>22781</v>
+      </c>
+      <c r="G25" s="10">
+        <f>D25/F25</f>
+        <v>0.14810587770510514</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3675D5AE-CB83-B047-A7BD-2B2FF23CEAB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E21593-CB5E-7B47-BCD3-C5B9275583B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="173">
   <si>
     <t>Date</t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>https://www.gov.ie/en/press-release/64fb75-statement-from-the-national-public-health-emergency-team-monday-28-a/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/3006d2-statement-from-the-national-public-health-emergency-team-tuesday-29-/</t>
   </si>
 </sst>
 </file>
@@ -1449,10 +1452,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43946.838194444441</v>
+        <v>43947.780555555553</v>
       </c>
       <c r="B2" s="12">
-        <v>43948.838194444441</v>
+        <v>43949.780555555553</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3408,13 +3411,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomRight" activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4606,7 +4609,7 @@
         <v>4604</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" ref="E27:E50" si="1">C27-C26</f>
+        <f t="shared" ref="E27:E51" si="1">C27-C26</f>
         <v>473</v>
       </c>
       <c r="F27" s="5">
@@ -5609,45 +5612,45 @@
         <v>43947</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C49" s="5">
-        <v>19262</v>
+        <v>19383</v>
       </c>
       <c r="D49" s="5">
         <v>19262</v>
       </c>
       <c r="E49" s="5">
         <f t="shared" si="1"/>
-        <v>167</v>
-      </c>
-      <c r="F49" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" t="s">
-        <v>8</v>
+        <v>288</v>
+      </c>
+      <c r="F49">
+        <v>2638</v>
+      </c>
+      <c r="G49">
+        <v>358</v>
       </c>
       <c r="H49" s="5">
-        <v>1087</v>
+        <v>924</v>
       </c>
       <c r="I49" s="5">
         <v>1087</v>
       </c>
       <c r="J49" s="5">
         <f>H49-H48</f>
-        <v>190</v>
-      </c>
-      <c r="K49" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="K49">
+        <v>5414</v>
+      </c>
+      <c r="L49">
+        <v>608</v>
+      </c>
+      <c r="M49">
+        <v>49</v>
       </c>
       <c r="N49" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -5665,7 +5668,7 @@
       </c>
       <c r="E50" s="5">
         <f t="shared" si="1"/>
-        <v>386</v>
+        <v>265</v>
       </c>
       <c r="F50" t="s">
         <v>8</v>
@@ -5681,7 +5684,7 @@
       </c>
       <c r="J50" s="5">
         <f>H50-H49</f>
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="K50" t="s">
         <v>8</v>
@@ -5693,6 +5696,52 @@
         <v>8</v>
       </c>
       <c r="N50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="5">
+        <v>19877</v>
+      </c>
+      <c r="D51" s="5">
+        <v>19877</v>
+      </c>
+      <c r="E51" s="5">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+      <c r="F51" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="5">
+        <v>1159</v>
+      </c>
+      <c r="I51" s="5">
+        <v>1159</v>
+      </c>
+      <c r="J51" s="5">
+        <f>H51-H50</f>
+        <v>57</v>
+      </c>
+      <c r="K51" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" t="s">
+        <v>8</v>
+      </c>
+      <c r="M51" t="s">
+        <v>8</v>
+      </c>
+      <c r="N51" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5703,11 +5752,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D120" sqref="D120"/>
+      <selection pane="bottomLeft" activeCell="A120" sqref="A120:A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6649,7 +6698,7 @@
         <v>43929</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B119" si="1">B64</f>
+        <f t="shared" ref="B67:B122" si="1">B64</f>
         <v>Male</v>
       </c>
       <c r="C67">
@@ -7438,6 +7487,51 @@
       </c>
       <c r="D119">
         <v>0.4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B120" t="str">
+        <f>B117</f>
+        <v>Female</v>
+      </c>
+      <c r="C120">
+        <v>11179</v>
+      </c>
+      <c r="D120">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B121" t="str">
+        <f t="shared" si="1"/>
+        <v>Male</v>
+      </c>
+      <c r="C121">
+        <v>8152</v>
+      </c>
+      <c r="D121">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B122" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C122">
+        <v>52</v>
+      </c>
+      <c r="D122">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -7447,11 +7541,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:G446"/>
+  <dimension ref="A1:G457"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A408" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F436" sqref="F436:H446"/>
+      <pane ySplit="1" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A447" sqref="A447:A457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13557,7 +13651,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>43945</v>
       </c>
@@ -13571,7 +13665,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>43945</v>
       </c>
@@ -13585,7 +13679,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>43945</v>
       </c>
@@ -13599,7 +13693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>43946</v>
       </c>
@@ -13613,7 +13707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>43946</v>
       </c>
@@ -13627,7 +13721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>43946</v>
       </c>
@@ -13642,7 +13736,7 @@
       </c>
       <c r="F438" s="7"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>43946</v>
       </c>
@@ -13657,7 +13751,7 @@
       </c>
       <c r="F439" s="13"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>43946</v>
       </c>
@@ -13672,7 +13766,7 @@
       </c>
       <c r="F440" s="7"/>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>43946</v>
       </c>
@@ -13686,7 +13780,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>43946</v>
       </c>
@@ -13700,7 +13794,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>43946</v>
       </c>
@@ -13714,7 +13808,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>43946</v>
       </c>
@@ -13728,7 +13822,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>43946</v>
       </c>
@@ -13742,7 +13836,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>43946</v>
       </c>
@@ -13753,6 +13847,162 @@
         <v>25</v>
       </c>
       <c r="D446">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A447" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B447" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C447">
+        <v>33</v>
+      </c>
+      <c r="D447" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A448" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B448" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C448">
+        <v>64</v>
+      </c>
+      <c r="D448" t="s">
+        <v>8</v>
+      </c>
+      <c r="G448" s="13"/>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A449" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B449" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C449" t="s">
+        <v>8</v>
+      </c>
+      <c r="D449">
+        <v>14</v>
+      </c>
+      <c r="G449" s="7"/>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A450" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B450" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C450">
+        <v>193</v>
+      </c>
+      <c r="D450">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A451" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B451" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C451" s="15">
+        <v>1262</v>
+      </c>
+      <c r="D451">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A452" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B452" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C452" s="15">
+        <v>3096</v>
+      </c>
+      <c r="D452">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A453" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B453" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C453" s="15">
+        <v>3319</v>
+      </c>
+      <c r="D453">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A454" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B454" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C454" s="15">
+        <v>3567</v>
+      </c>
+      <c r="D454">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A455" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B455" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C455" s="15">
+        <v>2586</v>
+      </c>
+      <c r="D455">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A456" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B456" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C456" s="15">
+        <v>5239</v>
+      </c>
+      <c r="D456">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A457" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B457" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C457">
+        <v>24</v>
+      </c>
+      <c r="D457">
         <v>3</v>
       </c>
     </row>
@@ -13763,11 +14013,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A137" sqref="A137:A139"/>
+      <selection pane="bottomLeft" activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15777,6 +16027,48 @@
         <v>106</v>
       </c>
     </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B140" t="s">
+        <v>56</v>
+      </c>
+      <c r="C140" s="11">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B141" t="s">
+        <v>57</v>
+      </c>
+      <c r="C141" s="11">
+        <v>34</v>
+      </c>
+      <c r="D141" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B142" t="s">
+        <v>58</v>
+      </c>
+      <c r="C142" s="11">
+        <v>3</v>
+      </c>
+      <c r="D142" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15784,10 +16076,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E1061"/>
+  <dimension ref="A1:E1087"/>
   <sheetViews>
-    <sheetView topLeftCell="A1015" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C1037" sqref="C1037"/>
+    <sheetView topLeftCell="A1043" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A1062" sqref="A1062:A1087"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31136,6 +31428,370 @@
         <v>557</v>
       </c>
       <c r="D1061" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1062" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1062">
+        <v>93</v>
+      </c>
+      <c r="D1062" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1063" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1063">
+        <v>627</v>
+      </c>
+      <c r="D1063" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1064" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1064">
+        <v>229</v>
+      </c>
+      <c r="D1064" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1065" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1065">
+        <v>1126</v>
+      </c>
+      <c r="D1065" s="3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1066" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1066">
+        <v>453</v>
+      </c>
+      <c r="D1066" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1067" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1067">
+        <v>9624</v>
+      </c>
+      <c r="D1067" s="3">
+        <v>0.497</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1068" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1068">
+        <v>332</v>
+      </c>
+      <c r="D1068" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1069" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1069">
+        <v>288</v>
+      </c>
+      <c r="D1069" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1070" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1070">
+        <v>1147</v>
+      </c>
+      <c r="D1070" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1071" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1071">
+        <v>233</v>
+      </c>
+      <c r="D1071" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1072" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1072">
+        <v>212</v>
+      </c>
+      <c r="D1072" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1073" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1073">
+        <v>67</v>
+      </c>
+      <c r="D1073" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1074" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1074">
+        <v>518</v>
+      </c>
+      <c r="D1074" s="3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1075" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1075">
+        <v>135</v>
+      </c>
+      <c r="D1075" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1076" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1076">
+        <v>640</v>
+      </c>
+      <c r="D1076" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1077" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1077">
+        <v>466</v>
+      </c>
+      <c r="D1077" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1078" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1078">
+        <v>638</v>
+      </c>
+      <c r="D1078" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1079" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1079">
+        <v>385</v>
+      </c>
+      <c r="D1079" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1080" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1080">
+        <v>236</v>
+      </c>
+      <c r="D1080" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1081" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1081">
+        <v>141</v>
+      </c>
+      <c r="D1081" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1082" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1082">
+        <v>117</v>
+      </c>
+      <c r="D1082" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1083" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1083">
+        <v>370</v>
+      </c>
+      <c r="D1083" s="3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1084" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1084">
+        <v>138</v>
+      </c>
+      <c r="D1084" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1085" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1085">
+        <v>448</v>
+      </c>
+      <c r="D1085" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1086" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1086">
+        <v>162</v>
+      </c>
+      <c r="D1086" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1087" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1087">
+        <v>558</v>
+      </c>
+      <c r="D1087" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
@@ -32133,10 +32789,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32741,6 +33397,30 @@
       <c r="G25" s="10">
         <f>D25/F25</f>
         <v>0.14810587770510514</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B26">
+        <v>34</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>3408</v>
+      </c>
+      <c r="E26">
+        <v>329</v>
+      </c>
+      <c r="F26">
+        <v>23376</v>
+      </c>
+      <c r="G26" s="10">
+        <f>D26/F26</f>
+        <v>0.14579055441478439</v>
       </c>
     </row>
   </sheetData>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E21593-CB5E-7B47-BCD3-C5B9275583B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911622E3-423D-964A-ADD9-6BA57E2A356B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2615" uniqueCount="174">
   <si>
     <t>Date</t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>https://www.gov.ie/en/press-release/3006d2-statement-from-the-national-public-health-emergency-team-tuesday-29-/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/c8ab91-statement-from-the-national-public-health-emergency-team-wednesday-2/</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1437,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1452,10 +1455,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43947.780555555553</v>
+        <v>43948.869444444441</v>
       </c>
       <c r="B2" s="12">
-        <v>43949.780555555553</v>
+        <v>43950.869444444441</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3411,13 +3414,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J51" sqref="J51"/>
+      <selection pane="bottomRight" activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4609,7 +4612,7 @@
         <v>4604</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" ref="E27:E51" si="1">C27-C26</f>
+        <f t="shared" ref="E27:E52" si="1">C27-C26</f>
         <v>473</v>
       </c>
       <c r="F27" s="5">
@@ -5658,33 +5661,33 @@
         <v>43948</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C50" s="5">
-        <v>19648</v>
+        <v>19723</v>
       </c>
       <c r="D50" s="5">
         <v>19648</v>
       </c>
       <c r="E50" s="5">
         <f t="shared" si="1"/>
-        <v>265</v>
-      </c>
-      <c r="F50" t="s">
+        <v>340</v>
+      </c>
+      <c r="F50">
+        <v>2669</v>
+      </c>
+      <c r="G50">
+        <v>355</v>
+      </c>
+      <c r="H50" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="G50" t="s">
-        <v>8</v>
-      </c>
-      <c r="H50" s="5">
-        <v>1102</v>
       </c>
       <c r="I50" s="5">
         <v>1102</v>
       </c>
       <c r="J50" s="5">
-        <f>H50-H49</f>
-        <v>178</v>
+        <f>I50-I49</f>
+        <v>15</v>
       </c>
       <c r="K50" t="s">
         <v>8</v>
@@ -5696,7 +5699,7 @@
         <v>8</v>
       </c>
       <c r="N50" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -5714,7 +5717,7 @@
       </c>
       <c r="E51" s="5">
         <f t="shared" si="1"/>
-        <v>229</v>
+        <v>154</v>
       </c>
       <c r="F51" t="s">
         <v>8</v>
@@ -5729,7 +5732,7 @@
         <v>1159</v>
       </c>
       <c r="J51" s="5">
-        <f>H51-H50</f>
+        <f>I51-I50</f>
         <v>57</v>
       </c>
       <c r="K51" t="s">
@@ -5743,6 +5746,52 @@
       </c>
       <c r="N51" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="5">
+        <v>20253</v>
+      </c>
+      <c r="D52" s="5">
+        <v>20253</v>
+      </c>
+      <c r="E52" s="5">
+        <f t="shared" si="1"/>
+        <v>376</v>
+      </c>
+      <c r="F52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="5">
+        <v>1190</v>
+      </c>
+      <c r="I52" s="5">
+        <v>1190</v>
+      </c>
+      <c r="J52" s="5">
+        <f>I52-I51</f>
+        <v>31</v>
+      </c>
+      <c r="K52" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -5752,11 +5801,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A120" sqref="A120:A122"/>
+      <selection pane="bottomLeft" activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6698,7 +6747,7 @@
         <v>43929</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B122" si="1">B64</f>
+        <f t="shared" ref="B67:B125" si="1">B64</f>
         <v>Male</v>
       </c>
       <c r="C67">
@@ -7531,6 +7580,51 @@
         <v>52</v>
       </c>
       <c r="D122">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B123" t="str">
+        <f>B120</f>
+        <v>Female</v>
+      </c>
+      <c r="C123">
+        <v>11379</v>
+      </c>
+      <c r="D123">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="1"/>
+        <v>Male</v>
+      </c>
+      <c r="C124">
+        <v>8287</v>
+      </c>
+      <c r="D124">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C125">
+        <v>57</v>
+      </c>
+      <c r="D125">
         <v>0.3</v>
       </c>
     </row>
@@ -7541,11 +7635,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:G457"/>
+  <dimension ref="A1:G468"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A447" sqref="A447:A457"/>
+      <selection pane="bottomLeft" activeCell="F458" sqref="F458:H469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14006,6 +14100,163 @@
         <v>3</v>
       </c>
     </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A458" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B458" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C458">
+        <v>34</v>
+      </c>
+      <c r="D458" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A459" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B459" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C459">
+        <v>64</v>
+      </c>
+      <c r="D459" t="s">
+        <v>8</v>
+      </c>
+      <c r="F459" s="7"/>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A460" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B460" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C460" t="s">
+        <v>8</v>
+      </c>
+      <c r="D460">
+        <v>15</v>
+      </c>
+      <c r="F460" s="13"/>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A461" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B461" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C461">
+        <v>196</v>
+      </c>
+      <c r="D461">
+        <v>8</v>
+      </c>
+      <c r="F461" s="7"/>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A462" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B462" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C462" s="15">
+        <v>1295</v>
+      </c>
+      <c r="D462">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A463" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B463" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C463" s="15">
+        <v>3149</v>
+      </c>
+      <c r="D463">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A464" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B464" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C464" s="15">
+        <v>3376</v>
+      </c>
+      <c r="D464">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A465" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B465" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C465" s="15">
+        <v>3632</v>
+      </c>
+      <c r="D465">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A466" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B466" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C466" s="15">
+        <v>2620</v>
+      </c>
+      <c r="D466">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A467" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B467" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C467" s="15">
+        <v>5334</v>
+      </c>
+      <c r="D467">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A468" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B468" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C468">
+        <v>23</v>
+      </c>
+      <c r="D468">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14013,11 +14264,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C143" sqref="C143"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16069,6 +16320,48 @@
         <v>106</v>
       </c>
     </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B143" t="s">
+        <v>56</v>
+      </c>
+      <c r="C143" s="11">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B144" t="s">
+        <v>57</v>
+      </c>
+      <c r="C144" s="11">
+        <v>34</v>
+      </c>
+      <c r="D144" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B145" t="s">
+        <v>58</v>
+      </c>
+      <c r="C145" s="11">
+        <v>3</v>
+      </c>
+      <c r="D145" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16076,10 +16369,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E1087"/>
+  <dimension ref="A1:E1113"/>
   <sheetViews>
-    <sheetView topLeftCell="A1043" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A1062" sqref="A1062:A1087"/>
+    <sheetView topLeftCell="A1065" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A1088" sqref="A1088:A1113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31792,6 +32085,370 @@
         <v>558</v>
       </c>
       <c r="D1087" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1088" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1088">
+        <v>95</v>
+      </c>
+      <c r="D1088" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1089" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1089">
+        <v>634</v>
+      </c>
+      <c r="D1089" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1090" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1090">
+        <v>232</v>
+      </c>
+      <c r="D1090" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1091" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1091">
+        <v>1136</v>
+      </c>
+      <c r="D1091" s="3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1092" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1092">
+        <v>454</v>
+      </c>
+      <c r="D1092" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1093" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1093">
+        <v>9751</v>
+      </c>
+      <c r="D1093" s="3">
+        <v>0.49399999999999999</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1094" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1094">
+        <v>351</v>
+      </c>
+      <c r="D1094" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1095" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1095">
+        <v>292</v>
+      </c>
+      <c r="D1095" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1096" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1096">
+        <v>1162</v>
+      </c>
+      <c r="D1096" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1097" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1097">
+        <v>236</v>
+      </c>
+      <c r="D1097" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1098" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1098">
+        <v>216</v>
+      </c>
+      <c r="D1098" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1099" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1099">
+        <v>67</v>
+      </c>
+      <c r="D1099" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1100" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1100">
+        <v>532</v>
+      </c>
+      <c r="D1100" s="3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1101" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1101">
+        <v>145</v>
+      </c>
+      <c r="D1101" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1102" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1102">
+        <v>652</v>
+      </c>
+      <c r="D1102" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1103" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1103">
+        <v>478</v>
+      </c>
+      <c r="D1103" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1104" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1104">
+        <v>661</v>
+      </c>
+      <c r="D1104" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1105" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1105">
+        <v>388</v>
+      </c>
+      <c r="D1105" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1106" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1106">
+        <v>264</v>
+      </c>
+      <c r="D1106" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1107" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1107">
+        <v>148</v>
+      </c>
+      <c r="D1107" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1108" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1108">
+        <v>116</v>
+      </c>
+      <c r="D1108" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1109" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1109">
+        <v>389</v>
+      </c>
+      <c r="D1109" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1110" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1110">
+        <v>137</v>
+      </c>
+      <c r="D1110" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1111" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1111">
+        <v>461</v>
+      </c>
+      <c r="D1111" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1112" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1112">
+        <v>162</v>
+      </c>
+      <c r="D1112" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1113" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1113">
+        <v>564</v>
+      </c>
+      <c r="D1113" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
@@ -32789,11 +33446,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -33421,6 +34076,30 @@
       <c r="G26" s="10">
         <f>D26/F26</f>
         <v>0.14579055441478439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B27">
+        <v>55</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>3463</v>
+      </c>
+      <c r="E27">
+        <v>338</v>
+      </c>
+      <c r="F27">
+        <v>24359</v>
+      </c>
+      <c r="G27" s="10">
+        <f>D27/F27</f>
+        <v>0.14216511351040684</v>
       </c>
     </row>
   </sheetData>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911622E3-423D-964A-ADD9-6BA57E2A356B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2658989-9B86-3E49-8D4B-ECAABAFA02D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2615" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2663" uniqueCount="175">
   <si>
     <t>Date</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>https://www.gov.ie/en/press-release/c8ab91-statement-from-the-national-public-health-emergency-team-wednesday-2/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/6185ef-statement-from-the-national-public-health-emergency-team-thursday-30/</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1440,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1455,10 +1458,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43948.869444444441</v>
+        <v>43949.759027777778</v>
       </c>
       <c r="B2" s="12">
-        <v>43950.869444444441</v>
+        <v>43951.759027777778</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3414,13 +3417,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J50" sqref="J50"/>
+      <selection pane="bottomRight" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4612,7 +4615,7 @@
         <v>4604</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" ref="E27:E52" si="1">C27-C26</f>
+        <f t="shared" ref="E27:E53" si="1">C27-C26</f>
         <v>473</v>
       </c>
       <c r="F27" s="5">
@@ -5707,26 +5710,26 @@
         <v>43949</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C51" s="5">
-        <v>19877</v>
+        <v>20111</v>
       </c>
       <c r="D51" s="5">
         <v>19877</v>
       </c>
       <c r="E51" s="5">
         <f t="shared" si="1"/>
-        <v>154</v>
-      </c>
-      <c r="F51" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" t="s">
-        <v>8</v>
+        <v>388</v>
+      </c>
+      <c r="F51">
+        <v>2709</v>
+      </c>
+      <c r="G51">
+        <v>360</v>
       </c>
       <c r="H51" s="5">
-        <v>1159</v>
+        <v>995</v>
       </c>
       <c r="I51" s="5">
         <v>1159</v>
@@ -5735,17 +5738,17 @@
         <f>I51-I50</f>
         <v>57</v>
       </c>
-      <c r="K51" t="s">
-        <v>8</v>
-      </c>
-      <c r="L51" t="s">
-        <v>8</v>
-      </c>
-      <c r="M51" t="s">
-        <v>8</v>
+      <c r="K51">
+        <v>5684</v>
+      </c>
+      <c r="L51">
+        <v>630</v>
+      </c>
+      <c r="M51">
+        <v>49</v>
       </c>
       <c r="N51" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -5763,7 +5766,7 @@
       </c>
       <c r="E52" s="5">
         <f t="shared" si="1"/>
-        <v>376</v>
+        <v>142</v>
       </c>
       <c r="F52" t="s">
         <v>8</v>
@@ -5778,8 +5781,8 @@
         <v>1190</v>
       </c>
       <c r="J52" s="5">
-        <f>I52-I51</f>
-        <v>31</v>
+        <f>H52-H51</f>
+        <v>195</v>
       </c>
       <c r="K52" t="s">
         <v>8</v>
@@ -5792,6 +5795,52 @@
       </c>
       <c r="N52" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="5">
+        <v>20612</v>
+      </c>
+      <c r="D53" s="5">
+        <v>20612</v>
+      </c>
+      <c r="E53" s="5">
+        <f t="shared" si="1"/>
+        <v>359</v>
+      </c>
+      <c r="F53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="5">
+        <v>1232</v>
+      </c>
+      <c r="I53" s="5">
+        <v>1232</v>
+      </c>
+      <c r="J53" s="5">
+        <f>H53-H52</f>
+        <v>42</v>
+      </c>
+      <c r="K53" t="s">
+        <v>8</v>
+      </c>
+      <c r="L53" t="s">
+        <v>8</v>
+      </c>
+      <c r="M53" t="s">
+        <v>8</v>
+      </c>
+      <c r="N53" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5801,11 +5850,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D126" sqref="D126"/>
+      <selection pane="bottomLeft" activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6747,7 +6796,7 @@
         <v>43929</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B125" si="1">B64</f>
+        <f t="shared" ref="B67:B128" si="1">B64</f>
         <v>Male</v>
       </c>
       <c r="C67">
@@ -7625,6 +7674,51 @@
         <v>57</v>
       </c>
       <c r="D125">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B126" t="str">
+        <f>B123</f>
+        <v>Female</v>
+      </c>
+      <c r="C126">
+        <v>11625</v>
+      </c>
+      <c r="D126">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="1"/>
+        <v>Male</v>
+      </c>
+      <c r="C127">
+        <v>8427</v>
+      </c>
+      <c r="D127">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B128" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C128">
+        <v>59</v>
+      </c>
+      <c r="D128">
         <v>0.3</v>
       </c>
     </row>
@@ -7635,11 +7729,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:G468"/>
+  <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F458" sqref="F458:H469"/>
+      <pane ySplit="1" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A469" sqref="A469:A479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14201,7 +14295,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>43948</v>
       </c>
@@ -14215,7 +14309,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>43948</v>
       </c>
@@ -14229,7 +14323,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>43948</v>
       </c>
@@ -14243,7 +14337,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>43948</v>
       </c>
@@ -14254,6 +14348,162 @@
         <v>23</v>
       </c>
       <c r="D468">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A469" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B469" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C469">
+        <v>34</v>
+      </c>
+      <c r="D469" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A470" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B470" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C470">
+        <v>65</v>
+      </c>
+      <c r="D470" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A471" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B471" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C471" t="s">
+        <v>8</v>
+      </c>
+      <c r="D471">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A472" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B472" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C472">
+        <v>201</v>
+      </c>
+      <c r="D472">
+        <v>8</v>
+      </c>
+      <c r="F472" s="13"/>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A473" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B473" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C473" s="15">
+        <v>1323</v>
+      </c>
+      <c r="D473">
+        <v>55</v>
+      </c>
+      <c r="F473" s="7"/>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A474" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B474" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C474" s="15">
+        <v>3201</v>
+      </c>
+      <c r="D474">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A475" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B475" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C475" s="15">
+        <v>3438</v>
+      </c>
+      <c r="D475">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A476" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B476" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C476" s="15">
+        <v>3698</v>
+      </c>
+      <c r="D476">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A477" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B477" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C477" s="15">
+        <v>2665</v>
+      </c>
+      <c r="D477">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A478" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B478" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C478" s="15">
+        <v>5460</v>
+      </c>
+      <c r="D478">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A479" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B479" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C479">
+        <v>26</v>
+      </c>
+      <c r="D479">
         <v>2</v>
       </c>
     </row>
@@ -14264,11 +14514,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C146" sqref="C146"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16362,6 +16612,48 @@
         <v>106</v>
       </c>
     </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B146" t="s">
+        <v>56</v>
+      </c>
+      <c r="C146" s="11">
+        <v>64</v>
+      </c>
+      <c r="D146" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B147" t="s">
+        <v>57</v>
+      </c>
+      <c r="C147" s="11">
+        <v>33</v>
+      </c>
+      <c r="D147" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B148" t="s">
+        <v>58</v>
+      </c>
+      <c r="C148" s="11">
+        <v>3</v>
+      </c>
+      <c r="D148" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16369,10 +16661,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E1113"/>
+  <dimension ref="A1:E1139"/>
   <sheetViews>
-    <sheetView topLeftCell="A1065" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A1088" sqref="A1088:A1113"/>
+    <sheetView topLeftCell="A1099" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C1122" sqref="C1122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32449,6 +32741,370 @@
         <v>564</v>
       </c>
       <c r="D1113" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1114" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1114">
+        <v>95</v>
+      </c>
+      <c r="D1114" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1115" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1115">
+        <v>634</v>
+      </c>
+      <c r="D1115" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1116" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1116">
+        <v>232</v>
+      </c>
+      <c r="D1116" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1117" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1117">
+        <v>1146</v>
+      </c>
+      <c r="D1117" s="3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1118" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1118">
+        <v>456</v>
+      </c>
+      <c r="D1118" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1119" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1119">
+        <v>9967</v>
+      </c>
+      <c r="D1119" s="3">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1120" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1120">
+        <v>355</v>
+      </c>
+      <c r="D1120" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1121" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1121">
+        <v>292</v>
+      </c>
+      <c r="D1121" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1122" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1122">
+        <v>1193</v>
+      </c>
+      <c r="D1122" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1123" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1123">
+        <v>242</v>
+      </c>
+      <c r="D1123" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1124" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1124">
+        <v>218</v>
+      </c>
+      <c r="D1124" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1125" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1125">
+        <v>68</v>
+      </c>
+      <c r="D1125" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1126" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1126">
+        <v>535</v>
+      </c>
+      <c r="D1126" s="3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1127" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1127">
+        <v>146</v>
+      </c>
+      <c r="D1127" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1128" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1128">
+        <v>655</v>
+      </c>
+      <c r="D1128" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1129" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1129">
+        <v>483</v>
+      </c>
+      <c r="D1129" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1130" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1130">
+        <v>671</v>
+      </c>
+      <c r="D1130" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1131" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1131">
+        <v>393</v>
+      </c>
+      <c r="D1131" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1132" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1132">
+        <v>282</v>
+      </c>
+      <c r="D1132" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1133" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1133">
+        <v>150</v>
+      </c>
+      <c r="D1133" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1134" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1134">
+        <v>116</v>
+      </c>
+      <c r="D1134" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1135" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1135">
+        <v>415</v>
+      </c>
+      <c r="D1135" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1136" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1136">
+        <v>137</v>
+      </c>
+      <c r="D1136" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1137" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1137">
+        <v>474</v>
+      </c>
+      <c r="D1137" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1138" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1138">
+        <v>167</v>
+      </c>
+      <c r="D1138" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1139" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1139">
+        <v>589</v>
+      </c>
+      <c r="D1139" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
@@ -33446,9 +34102,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -34100,6 +34758,30 @@
       <c r="G27" s="10">
         <f>D27/F27</f>
         <v>0.14216511351040684</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B28">
+        <v>73</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>3536</v>
+      </c>
+      <c r="E28">
+        <v>347</v>
+      </c>
+      <c r="F28">
+        <v>25778</v>
+      </c>
+      <c r="G28" s="10">
+        <f>D28/F28</f>
+        <v>0.13717123128248895</v>
       </c>
     </row>
   </sheetData>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2658989-9B86-3E49-8D4B-ECAABAFA02D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DBDAED-6D64-1640-A832-7FAC1BAADA58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2663" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="175">
   <si>
     <t>Date</t>
   </si>
@@ -1060,7 +1060,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1081,6 +1081,10 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1138,6 +1142,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1439,7 +1447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5E2DA3-023C-FF46-A014-0C2E672468A0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3419,11 +3427,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A53" sqref="A53"/>
+      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5682,8 +5690,8 @@
       <c r="G50">
         <v>355</v>
       </c>
-      <c r="H50" s="5" t="s">
-        <v>8</v>
+      <c r="H50" s="17">
+        <v>924</v>
       </c>
       <c r="I50" s="5">
         <v>1102</v>
@@ -5692,14 +5700,14 @@
         <f>I50-I49</f>
         <v>15</v>
       </c>
-      <c r="K50" t="s">
-        <v>8</v>
-      </c>
-      <c r="L50" t="s">
-        <v>8</v>
-      </c>
-      <c r="M50" t="s">
-        <v>8</v>
+      <c r="K50" s="16">
+        <v>5414</v>
+      </c>
+      <c r="L50" s="16">
+        <v>608</v>
+      </c>
+      <c r="M50" s="16">
+        <v>49</v>
       </c>
       <c r="N50" t="s">
         <v>173</v>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewparnell/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DBDAED-6D64-1640-A832-7FAC1BAADA58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF16DC9-1B48-ED44-82D6-713FB3E8C24C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16160" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2707" uniqueCount="176">
   <si>
     <t>Date</t>
   </si>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>https://www.gov.ie/en/press-release/6185ef-statement-from-the-national-public-health-emergency-team-thursday-30/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/9ba740-statement-from-the-national-public-health-emergency-team-friday-1-ma/</t>
   </si>
 </sst>
 </file>
@@ -1144,10 +1147,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3425,13 +3424,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="I43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
+      <selection pane="bottomRight" activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4623,7 +4622,7 @@
         <v>4604</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" ref="E27:E53" si="1">C27-C26</f>
+        <f t="shared" ref="E27:E54" si="1">C27-C26</f>
         <v>473</v>
       </c>
       <c r="F27" s="5">
@@ -5764,45 +5763,45 @@
         <v>43950</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" s="5">
-        <v>20253</v>
+        <v>20510</v>
       </c>
       <c r="D52" s="5">
         <v>20253</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" si="1"/>
-        <v>142</v>
-      </c>
-      <c r="F52" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" t="s">
-        <v>8</v>
+        <f>C52-C51</f>
+        <v>399</v>
+      </c>
+      <c r="F52">
+        <v>2768</v>
+      </c>
+      <c r="G52">
+        <v>367</v>
       </c>
       <c r="H52" s="5">
-        <v>1190</v>
+        <v>1033</v>
       </c>
       <c r="I52" s="5">
         <v>1190</v>
       </c>
       <c r="J52" s="5">
         <f>H52-H51</f>
-        <v>195</v>
-      </c>
-      <c r="K52" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" t="s">
-        <v>8</v>
+        <v>38</v>
+      </c>
+      <c r="K52">
+        <v>5840</v>
+      </c>
+      <c r="L52">
+        <v>646</v>
+      </c>
+      <c r="M52">
+        <v>49</v>
       </c>
       <c r="N52" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -5820,7 +5819,7 @@
       </c>
       <c r="E53" s="5">
         <f t="shared" si="1"/>
-        <v>359</v>
+        <v>102</v>
       </c>
       <c r="F53" t="s">
         <v>8</v>
@@ -5836,7 +5835,7 @@
       </c>
       <c r="J53" s="5">
         <f>H53-H52</f>
-        <v>42</v>
+        <v>199</v>
       </c>
       <c r="K53" t="s">
         <v>8</v>
@@ -5848,6 +5847,52 @@
         <v>8</v>
       </c>
       <c r="N53" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="5">
+        <v>20833</v>
+      </c>
+      <c r="D54" s="5">
+        <v>20833</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="1"/>
+        <v>221</v>
+      </c>
+      <c r="F54" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="5">
+        <v>1265</v>
+      </c>
+      <c r="I54" s="5">
+        <v>1265</v>
+      </c>
+      <c r="J54" s="5">
+        <f>H54-H53</f>
+        <v>33</v>
+      </c>
+      <c r="K54" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5858,11 +5903,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D129" sqref="D129"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6804,7 +6849,7 @@
         <v>43929</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B128" si="1">B64</f>
+        <f t="shared" ref="B67:B130" si="1">B64</f>
         <v>Male</v>
       </c>
       <c r="C67">
@@ -7727,6 +7772,51 @@
         <v>59</v>
       </c>
       <c r="D128">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B129" t="str">
+        <f>B126</f>
+        <v>Female</v>
+      </c>
+      <c r="C129">
+        <v>11841</v>
+      </c>
+      <c r="D129">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B130" t="str">
+        <f t="shared" si="1"/>
+        <v>Male</v>
+      </c>
+      <c r="C130">
+        <v>8605</v>
+      </c>
+      <c r="D130">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B131" t="str">
+        <f t="shared" ref="B131" si="2">B128</f>
+        <v>Unknown</v>
+      </c>
+      <c r="C131">
+        <v>64</v>
+      </c>
+      <c r="D131">
         <v>0.3</v>
       </c>
     </row>
@@ -7737,11 +7827,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:G479"/>
+  <dimension ref="A1:G490"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A469" sqref="A469:A479"/>
+      <pane ySplit="1" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D479" sqref="D479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14515,6 +14605,164 @@
         <v>2</v>
       </c>
     </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A480" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B480" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C480">
+        <v>35</v>
+      </c>
+      <c r="D480" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A481" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B481" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C481">
+        <v>66</v>
+      </c>
+      <c r="D481" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A482" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B482" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C482" t="s">
+        <v>8</v>
+      </c>
+      <c r="D482">
+        <v>16</v>
+      </c>
+      <c r="E482" s="7"/>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A483" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B483" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C483">
+        <v>205</v>
+      </c>
+      <c r="D483">
+        <v>8</v>
+      </c>
+      <c r="E483" s="13"/>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A484" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B484" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C484" s="15">
+        <v>1363</v>
+      </c>
+      <c r="D484">
+        <v>56</v>
+      </c>
+      <c r="E484" s="7"/>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A485" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B485" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C485" s="15">
+        <v>3271</v>
+      </c>
+      <c r="D485">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A486" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B486" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C486" s="15">
+        <v>3491</v>
+      </c>
+      <c r="D486" s="15">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A487" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B487" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C487" s="15">
+        <v>3752</v>
+      </c>
+      <c r="D487" s="15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A488" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B488" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C488" s="15">
+        <v>2706</v>
+      </c>
+      <c r="D488" s="15">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A489" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B489" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C489" s="15">
+        <v>5596</v>
+      </c>
+      <c r="D489" s="15">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A490" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B490" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C490">
+        <v>25</v>
+      </c>
+      <c r="D490" s="15">
+        <v>3</v>
+      </c>
+      <c r="F490" s="15"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14522,11 +14770,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B146" sqref="B146"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16662,6 +16910,48 @@
         <v>106</v>
       </c>
     </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B149" t="s">
+        <v>56</v>
+      </c>
+      <c r="C149" s="11">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B150" t="s">
+        <v>57</v>
+      </c>
+      <c r="C150" s="11">
+        <v>33</v>
+      </c>
+      <c r="D150" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B151" t="s">
+        <v>58</v>
+      </c>
+      <c r="C151" s="11">
+        <v>3</v>
+      </c>
+      <c r="D151" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16669,10 +16959,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E1139"/>
+  <dimension ref="A1:E1165"/>
   <sheetViews>
-    <sheetView topLeftCell="A1099" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C1122" sqref="C1122"/>
+    <sheetView topLeftCell="A1128" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A1140" sqref="A1140:A1165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33113,6 +33403,370 @@
         <v>589</v>
       </c>
       <c r="D1139" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1140" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1140">
+        <v>100</v>
+      </c>
+      <c r="D1140" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1141" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1141">
+        <v>644</v>
+      </c>
+      <c r="D1141" s="3">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1142" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1142">
+        <v>236</v>
+      </c>
+      <c r="D1142" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1143" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1143">
+        <v>1154</v>
+      </c>
+      <c r="D1143" s="3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1144" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1144">
+        <v>458</v>
+      </c>
+      <c r="D1144" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1145" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1145">
+        <v>10170</v>
+      </c>
+      <c r="D1145" s="3">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1146" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1146">
+        <v>355</v>
+      </c>
+      <c r="D1146" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1147" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1147">
+        <v>293</v>
+      </c>
+      <c r="D1147" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1148" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1148">
+        <v>1215</v>
+      </c>
+      <c r="D1148" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1149" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1149">
+        <v>250</v>
+      </c>
+      <c r="D1149" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1150" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1150">
+        <v>224</v>
+      </c>
+      <c r="D1150" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1151" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1151">
+        <v>68</v>
+      </c>
+      <c r="D1151" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1152" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1152">
+        <v>548</v>
+      </c>
+      <c r="D1152" s="3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1153" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1153">
+        <v>149</v>
+      </c>
+      <c r="D1153" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1154" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1154">
+        <v>659</v>
+      </c>
+      <c r="D1154" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1155" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1155">
+        <v>485</v>
+      </c>
+      <c r="D1155" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1156" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1156">
+        <v>681</v>
+      </c>
+      <c r="D1156" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1157" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1157">
+        <v>399</v>
+      </c>
+      <c r="D1157" s="3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1158" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1158">
+        <v>284</v>
+      </c>
+      <c r="D1158" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1159" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1159">
+        <v>151</v>
+      </c>
+      <c r="D1159" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1160" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1160">
+        <v>116</v>
+      </c>
+      <c r="D1160" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1161" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1161">
+        <v>468</v>
+      </c>
+      <c r="D1161" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1162" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1162">
+        <v>138</v>
+      </c>
+      <c r="D1162" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1163" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1163">
+        <v>487</v>
+      </c>
+      <c r="D1163" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1164" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1164">
+        <v>179</v>
+      </c>
+      <c r="D1164" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1165" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1165">
+        <v>599</v>
+      </c>
+      <c r="D1165" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
@@ -34110,10 +34764,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34791,6 +35445,9 @@
         <f>D28/F28</f>
         <v>0.13717123128248895</v>
       </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewparnell/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF16DC9-1B48-ED44-82D6-713FB3E8C24C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3E9189-D08B-234D-BDD0-8C658E1197F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16160" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -1446,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5E2DA3-023C-FF46-A014-0C2E672468A0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1465,10 +1465,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43949.759027777778</v>
+        <v>43950.775694444441</v>
       </c>
       <c r="B2" s="12">
-        <v>43951.759027777778</v>
+        <v>43952.775694444441</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -34766,7 +34766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewparnell/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3E9189-D08B-234D-BDD0-8C658E1197F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E47478-866C-2C4B-9B8A-738DFE1A54AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2707" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="177">
   <si>
     <t>Date</t>
   </si>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t>https://www.gov.ie/en/press-release/9ba740-statement-from-the-national-public-health-emergency-team-friday-1-ma/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/5cb99f-statement-from-the-national-public-health-emergency-team-saturday-2-/</t>
   </si>
 </sst>
 </file>
@@ -1465,10 +1468,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43950.775694444441</v>
+        <v>43951.762499999997</v>
       </c>
       <c r="B2" s="12">
-        <v>43952.775694444441</v>
+        <v>43953.762499999997</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1885,10 +1888,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AE50F-07C0-7048-95B5-0C81D93B81F0}">
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
     <sheetView topLeftCell="A98" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112:A122"/>
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2775,7 +2778,7 @@
         <v>43931</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" ref="B80:B122" si="1">B69</f>
+        <f t="shared" ref="B80:B133" si="1">B69</f>
         <v>Ards And North Down</v>
       </c>
       <c r="C80" s="8">
@@ -3293,6 +3296,138 @@
       </c>
       <c r="C122" s="8">
         <v>140</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B123" t="str">
+        <f>B112</f>
+        <v>Antrim And Newtownabbey</v>
+      </c>
+      <c r="C123" s="8">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="1"/>
+        <v>Ards And North Down</v>
+      </c>
+      <c r="C124" s="8">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="1"/>
+        <v>Armagh, Banbridge And Craigavon</v>
+      </c>
+      <c r="C125" s="8">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="1"/>
+        <v>Belfast</v>
+      </c>
+      <c r="C126">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="1"/>
+        <v>Causeway Coast And Glens</v>
+      </c>
+      <c r="C127" s="8">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B128" t="str">
+        <f t="shared" si="1"/>
+        <v>Derry And Strabane</v>
+      </c>
+      <c r="C128" s="8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B129" t="str">
+        <f t="shared" si="1"/>
+        <v>Fermanagh And Omagh</v>
+      </c>
+      <c r="C129" s="8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B130" t="str">
+        <f t="shared" si="1"/>
+        <v>Lisburn And Castlereagh</v>
+      </c>
+      <c r="C130" s="8">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B131" t="str">
+        <f t="shared" si="1"/>
+        <v>Mid And East Antrim</v>
+      </c>
+      <c r="C131" s="8">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B132" t="str">
+        <f t="shared" si="1"/>
+        <v>Mid Ulster</v>
+      </c>
+      <c r="C132" s="8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B133" t="str">
+        <f t="shared" si="1"/>
+        <v>Newry, Mourne And Down</v>
+      </c>
+      <c r="C133" s="8">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -3424,13 +3559,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N52" sqref="N52"/>
+      <selection pane="bottomRight" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5809,45 +5944,45 @@
         <v>43951</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C53" s="5">
-        <v>20612</v>
+        <v>20742</v>
       </c>
       <c r="D53" s="5">
         <v>20612</v>
       </c>
       <c r="E53" s="5">
         <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="F53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53" t="s">
-        <v>8</v>
+        <v>232</v>
+      </c>
+      <c r="F53">
+        <v>2785</v>
+      </c>
+      <c r="G53">
+        <v>368</v>
       </c>
       <c r="H53" s="5">
-        <v>1232</v>
+        <v>1050</v>
       </c>
       <c r="I53" s="5">
         <v>1232</v>
       </c>
       <c r="J53" s="5">
         <f>H53-H52</f>
-        <v>199</v>
-      </c>
-      <c r="K53" t="s">
-        <v>8</v>
-      </c>
-      <c r="L53" t="s">
-        <v>8</v>
-      </c>
-      <c r="M53" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="K53">
+        <v>5973</v>
+      </c>
+      <c r="L53">
+        <v>676</v>
+      </c>
+      <c r="M53">
+        <v>49</v>
       </c>
       <c r="N53" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -5865,7 +6000,7 @@
       </c>
       <c r="E54" s="5">
         <f t="shared" si="1"/>
-        <v>221</v>
+        <v>91</v>
       </c>
       <c r="F54" t="s">
         <v>8</v>
@@ -5881,7 +6016,7 @@
       </c>
       <c r="J54" s="5">
         <f>H54-H53</f>
-        <v>33</v>
+        <v>215</v>
       </c>
       <c r="K54" t="s">
         <v>8</v>
@@ -5894,6 +6029,52 @@
       </c>
       <c r="N54" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="5">
+        <v>21176</v>
+      </c>
+      <c r="D55" s="5">
+        <v>21176</v>
+      </c>
+      <c r="E55" s="5">
+        <f t="shared" ref="E55" si="2">C55-C54</f>
+        <v>343</v>
+      </c>
+      <c r="F55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="5">
+        <v>1286</v>
+      </c>
+      <c r="I55" s="5">
+        <v>1286</v>
+      </c>
+      <c r="J55" s="5">
+        <f>H55-H54</f>
+        <v>21</v>
+      </c>
+      <c r="K55" t="s">
+        <v>8</v>
+      </c>
+      <c r="L55" t="s">
+        <v>8</v>
+      </c>
+      <c r="M55" t="s">
+        <v>8</v>
+      </c>
+      <c r="N55" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5903,11 +6084,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:D134"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D133" sqref="D133"/>
+      <selection pane="bottomLeft" activeCell="A132" sqref="A132:A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7820,6 +8001,51 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B132" t="str">
+        <f>B129</f>
+        <v>Female</v>
+      </c>
+      <c r="C132">
+        <v>11979</v>
+      </c>
+      <c r="D132">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B133" t="str">
+        <f t="shared" ref="B133:B134" si="3">B130</f>
+        <v>Male</v>
+      </c>
+      <c r="C133">
+        <v>8695</v>
+      </c>
+      <c r="D133">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B134" t="str">
+        <f t="shared" si="3"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C134">
+        <v>68</v>
+      </c>
+      <c r="D134">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7827,11 +8053,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:G490"/>
+  <dimension ref="A1:G501"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D479" sqref="D479"/>
+      <pane ySplit="1" topLeftCell="A469" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A490" sqref="A490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14619,7 +14845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>43950</v>
       </c>
@@ -14633,7 +14859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>43950</v>
       </c>
@@ -14648,7 +14874,7 @@
       </c>
       <c r="E482" s="7"/>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>43950</v>
       </c>
@@ -14663,7 +14889,7 @@
       </c>
       <c r="E483" s="13"/>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>43950</v>
       </c>
@@ -14678,7 +14904,7 @@
       </c>
       <c r="E484" s="7"/>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>43950</v>
       </c>
@@ -14692,7 +14918,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>43950</v>
       </c>
@@ -14706,7 +14932,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>43950</v>
       </c>
@@ -14720,7 +14946,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>43950</v>
       </c>
@@ -14734,7 +14960,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>43950</v>
       </c>
@@ -14748,7 +14974,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>43950</v>
       </c>
@@ -14762,6 +14988,162 @@
         <v>3</v>
       </c>
       <c r="F490" s="15"/>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A491" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B491" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C491">
+        <v>35</v>
+      </c>
+      <c r="D491" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A492" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B492" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C492">
+        <v>66</v>
+      </c>
+      <c r="D492" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A493" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B493" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C493" t="s">
+        <v>8</v>
+      </c>
+      <c r="D493">
+        <v>16</v>
+      </c>
+      <c r="G493" s="13"/>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A494" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B494" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C494">
+        <v>206</v>
+      </c>
+      <c r="D494">
+        <v>8</v>
+      </c>
+      <c r="G494" s="7"/>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A495" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B495" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C495" s="15">
+        <v>1383</v>
+      </c>
+      <c r="D495">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A496" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B496" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C496" s="15">
+        <v>3314</v>
+      </c>
+      <c r="D496">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A497" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B497" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C497" s="15">
+        <v>3532</v>
+      </c>
+      <c r="D497">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A498" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B498" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C498" s="15">
+        <v>3803</v>
+      </c>
+      <c r="D498">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A499" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B499" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C499" s="15">
+        <v>2736</v>
+      </c>
+      <c r="D499">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A500" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B500" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C500" s="15">
+        <v>5642</v>
+      </c>
+      <c r="D500" s="15">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A501" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B501" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C501">
+        <v>25</v>
+      </c>
+      <c r="D501">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14770,11 +15152,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B149" sqref="B149"/>
+      <selection pane="bottomLeft" activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16952,6 +17334,48 @@
         <v>106</v>
       </c>
     </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B152" t="s">
+        <v>56</v>
+      </c>
+      <c r="C152" s="11">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B153" t="s">
+        <v>57</v>
+      </c>
+      <c r="C153" s="11">
+        <v>34</v>
+      </c>
+      <c r="D153" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B154" t="s">
+        <v>58</v>
+      </c>
+      <c r="C154" s="11">
+        <v>3</v>
+      </c>
+      <c r="D154" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16959,10 +17383,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E1165"/>
+  <dimension ref="A1:E1191"/>
   <sheetViews>
-    <sheetView topLeftCell="A1128" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A1140" sqref="A1140:A1165"/>
+    <sheetView topLeftCell="A1148" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A1166" sqref="A1166:A1191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33767,6 +34191,370 @@
         <v>599</v>
       </c>
       <c r="D1165" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1166" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1166">
+        <v>100</v>
+      </c>
+      <c r="D1166" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1167" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1167">
+        <v>656</v>
+      </c>
+      <c r="D1167" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1168" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1168">
+        <v>237</v>
+      </c>
+      <c r="D1168" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1169" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1169" s="15">
+        <v>1156</v>
+      </c>
+      <c r="D1169" s="3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1170" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1170">
+        <v>459</v>
+      </c>
+      <c r="D1170" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1171" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1171" s="15">
+        <v>10277</v>
+      </c>
+      <c r="D1171" s="3">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1172" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1172">
+        <v>357</v>
+      </c>
+      <c r="D1172" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1173" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1173">
+        <v>294</v>
+      </c>
+      <c r="D1173" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1174" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1174" s="15">
+        <v>1226</v>
+      </c>
+      <c r="D1174" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1175" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1175">
+        <v>254</v>
+      </c>
+      <c r="D1175" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1176" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1176">
+        <v>230</v>
+      </c>
+      <c r="D1176" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1177" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1177">
+        <v>68</v>
+      </c>
+      <c r="D1177" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1178" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1178">
+        <v>564</v>
+      </c>
+      <c r="D1178" s="3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1179" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1179">
+        <v>150</v>
+      </c>
+      <c r="D1179" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1180" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1180">
+        <v>667</v>
+      </c>
+      <c r="D1180" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1181" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1181">
+        <v>488</v>
+      </c>
+      <c r="D1181" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1182" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1182">
+        <v>687</v>
+      </c>
+      <c r="D1182" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1183" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1183">
+        <v>403</v>
+      </c>
+      <c r="D1183" s="3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1184" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1184">
+        <v>293</v>
+      </c>
+      <c r="D1184" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1185" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1185">
+        <v>160</v>
+      </c>
+      <c r="D1185" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1186" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1186">
+        <v>118</v>
+      </c>
+      <c r="D1186" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1187" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1187">
+        <v>473</v>
+      </c>
+      <c r="D1187" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1188" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1188">
+        <v>138</v>
+      </c>
+      <c r="D1188" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1189" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1189">
+        <v>500</v>
+      </c>
+      <c r="D1189" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1190" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1190">
+        <v>183</v>
+      </c>
+      <c r="D1190" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1191" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1191">
+        <v>604</v>
+      </c>
+      <c r="D1191" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
@@ -34764,10 +35552,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35447,7 +36235,51 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>3623</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>27097</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B30">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>3689</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>28425</v>
+      </c>
+      <c r="G30" s="10">
+        <f>D30/F30</f>
+        <v>0.12978012313104662</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E47478-866C-2C4B-9B8A-738DFE1A54AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19A11E8-7886-9941-A741-01E75728E262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="178">
   <si>
     <t>Date</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>https://www.gov.ie/en/press-release/5cb99f-statement-from-the-national-public-health-emergency-team-saturday-2-/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/514383-statement-from-the-national-public-health-emergency-team-sunday-3-ma/</t>
   </si>
 </sst>
 </file>
@@ -1449,7 +1452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5E2DA3-023C-FF46-A014-0C2E672468A0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1468,10 +1471,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43951.762499999997</v>
+        <v>43952.842361111114</v>
       </c>
       <c r="B2" s="12">
-        <v>43953.762499999997</v>
+        <v>43954.842361111114</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1484,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD393D6-56CC-E749-BDF2-72DC274BB8BB}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1881,6 +1884,15 @@
         <v>722</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1888,10 +1900,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AE50F-07C0-7048-95B5-0C81D93B81F0}">
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView topLeftCell="A104" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2778,7 +2790,7 @@
         <v>43931</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" ref="B80:B133" si="1">B69</f>
+        <f t="shared" ref="B80:B143" si="1">B69</f>
         <v>Ards And North Down</v>
       </c>
       <c r="C80" s="8">
@@ -3428,6 +3440,138 @@
       </c>
       <c r="C133" s="8">
         <v>223</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B134" t="str">
+        <f>B123</f>
+        <v>Antrim And Newtownabbey</v>
+      </c>
+      <c r="C134" s="8">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B135" t="str">
+        <f t="shared" si="1"/>
+        <v>Ards And North Down</v>
+      </c>
+      <c r="C135" s="8">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B136" t="str">
+        <f t="shared" si="1"/>
+        <v>Armagh, Banbridge And Craigavon</v>
+      </c>
+      <c r="C136" s="8">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B137" t="str">
+        <f t="shared" si="1"/>
+        <v>Belfast</v>
+      </c>
+      <c r="C137" s="8">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B138" t="str">
+        <f t="shared" si="1"/>
+        <v>Causeway Coast And Glens</v>
+      </c>
+      <c r="C138" s="8">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B139" t="str">
+        <f t="shared" si="1"/>
+        <v>Derry And Strabane</v>
+      </c>
+      <c r="C139" s="8">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B140" t="str">
+        <f t="shared" si="1"/>
+        <v>Fermanagh And Omagh</v>
+      </c>
+      <c r="C140" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B141" t="str">
+        <f t="shared" si="1"/>
+        <v>Lisburn And Castlereagh</v>
+      </c>
+      <c r="C141" s="8">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B142" t="str">
+        <f t="shared" si="1"/>
+        <v>Mid And East Antrim</v>
+      </c>
+      <c r="C142" s="8">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B143" t="str">
+        <f t="shared" si="1"/>
+        <v>Mid Ulster</v>
+      </c>
+      <c r="C143" s="8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B144" t="str">
+        <f t="shared" ref="B144" si="2">B133</f>
+        <v>Newry, Mourne And Down</v>
+      </c>
+      <c r="C144" s="8">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3559,13 +3703,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E55" sqref="E55"/>
+      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5990,45 +6134,45 @@
         <v>43952</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C54" s="5">
         <v>20833</v>
       </c>
       <c r="D54" s="5">
-        <v>20833</v>
+        <v>21064</v>
       </c>
       <c r="E54" s="5">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="F54" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" t="s">
-        <v>8</v>
+      <c r="F54">
+        <v>2825</v>
+      </c>
+      <c r="G54">
+        <v>363</v>
       </c>
       <c r="H54" s="5">
-        <v>1265</v>
+        <v>1074</v>
       </c>
       <c r="I54" s="5">
         <v>1265</v>
       </c>
       <c r="J54" s="5">
         <f>H54-H53</f>
-        <v>215</v>
-      </c>
-      <c r="K54" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54" t="s">
-        <v>8</v>
-      </c>
-      <c r="M54" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="K54">
+        <v>6068</v>
+      </c>
+      <c r="L54">
+        <v>694</v>
+      </c>
+      <c r="M54">
+        <v>49</v>
       </c>
       <c r="N54" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -6062,7 +6206,7 @@
       </c>
       <c r="J55" s="5">
         <f>H55-H54</f>
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="K55" t="s">
         <v>8</v>
@@ -6075,6 +6219,52 @@
       </c>
       <c r="N55" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="5">
+        <v>21506</v>
+      </c>
+      <c r="D56" s="5">
+        <v>21506</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" ref="E56" si="3">C56-C55</f>
+        <v>330</v>
+      </c>
+      <c r="F56" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="5">
+        <v>1303</v>
+      </c>
+      <c r="I56" s="5">
+        <v>1303</v>
+      </c>
+      <c r="J56" s="5">
+        <f>H56-H55</f>
+        <v>17</v>
+      </c>
+      <c r="K56" t="s">
+        <v>8</v>
+      </c>
+      <c r="L56" t="s">
+        <v>8</v>
+      </c>
+      <c r="M56" t="s">
+        <v>8</v>
+      </c>
+      <c r="N56" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -6084,11 +6274,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A132" sqref="A132:A134"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8021,7 +8211,7 @@
         <v>43951</v>
       </c>
       <c r="B133" t="str">
-        <f t="shared" ref="B133:B134" si="3">B130</f>
+        <f t="shared" ref="B133:B137" si="3">B130</f>
         <v>Male</v>
       </c>
       <c r="C133">
@@ -8043,6 +8233,51 @@
         <v>68</v>
       </c>
       <c r="D134">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B135" t="str">
+        <f>B132</f>
+        <v>Female</v>
+      </c>
+      <c r="C135">
+        <v>12166</v>
+      </c>
+      <c r="D135">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B136" t="str">
+        <f t="shared" si="3"/>
+        <v>Male</v>
+      </c>
+      <c r="C136">
+        <v>8841</v>
+      </c>
+      <c r="D136">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B137" t="str">
+        <f t="shared" si="3"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C137">
+        <v>57</v>
+      </c>
+      <c r="D137">
         <v>0.3</v>
       </c>
     </row>
@@ -8053,11 +8288,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:G501"/>
+  <dimension ref="A1:J512"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A469" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A490" sqref="A490"/>
+      <selection pane="bottomLeft" activeCell="F503" sqref="F503:L512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15075,7 +15310,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>43951</v>
       </c>
@@ -15089,7 +15324,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>43951</v>
       </c>
@@ -15103,7 +15338,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>43951</v>
       </c>
@@ -15117,7 +15352,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>43951</v>
       </c>
@@ -15131,7 +15366,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>43951</v>
       </c>
@@ -15143,6 +15378,163 @@
       </c>
       <c r="D501">
         <v>3</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A502" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B502" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C502">
+        <v>38</v>
+      </c>
+      <c r="D502" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A503" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B503" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C503">
+        <v>69</v>
+      </c>
+      <c r="D503" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A504" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B504" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C504" t="s">
+        <v>8</v>
+      </c>
+      <c r="D504">
+        <v>18</v>
+      </c>
+      <c r="F504" s="13"/>
+      <c r="J504" s="7"/>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A505" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B505" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C505">
+        <v>215</v>
+      </c>
+      <c r="D505">
+        <v>11</v>
+      </c>
+      <c r="F505" s="7"/>
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A506" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B506" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C506" s="15">
+        <v>1417</v>
+      </c>
+      <c r="D506">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A507" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B507" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C507" s="15">
+        <v>3373</v>
+      </c>
+      <c r="D507">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A508" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B508" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C508" s="15">
+        <v>3588</v>
+      </c>
+      <c r="D508">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A509" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B509" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C509" s="15">
+        <v>3858</v>
+      </c>
+      <c r="D509">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A510" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B510" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C510" s="15">
+        <v>2772</v>
+      </c>
+      <c r="D510">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="511" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A511" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B511" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C511" s="15">
+        <v>5711</v>
+      </c>
+      <c r="D511" s="15">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A512" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B512" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C512">
+        <v>23</v>
+      </c>
+      <c r="D512">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -15152,11 +15544,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D157"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C153" sqref="C153"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17376,6 +17768,48 @@
         <v>106</v>
       </c>
     </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B155" t="s">
+        <v>56</v>
+      </c>
+      <c r="C155" s="11">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B156" t="s">
+        <v>57</v>
+      </c>
+      <c r="C156" s="11">
+        <v>34</v>
+      </c>
+      <c r="D156" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B157" t="s">
+        <v>58</v>
+      </c>
+      <c r="C157" s="11">
+        <v>3</v>
+      </c>
+      <c r="D157" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17383,10 +17817,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E1191"/>
+  <dimension ref="A1:E1217"/>
   <sheetViews>
-    <sheetView topLeftCell="A1148" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A1166" sqref="A1166:A1191"/>
+    <sheetView topLeftCell="A1176" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A1192" sqref="A1192:A1217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34555,6 +34989,370 @@
         <v>604</v>
       </c>
       <c r="D1191" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1192" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1192">
+        <v>126</v>
+      </c>
+      <c r="D1192" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1193" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1193">
+        <v>673</v>
+      </c>
+      <c r="D1193" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1194" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1194">
+        <v>240</v>
+      </c>
+      <c r="D1194" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1195" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1195" s="15">
+        <v>1164</v>
+      </c>
+      <c r="D1195" s="3">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1196" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1196">
+        <v>461</v>
+      </c>
+      <c r="D1196" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1197" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1197" s="15">
+        <v>10406</v>
+      </c>
+      <c r="D1197" s="3">
+        <v>0.49399999999999999</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1198" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1198">
+        <v>365</v>
+      </c>
+      <c r="D1198" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1199" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1199">
+        <v>295</v>
+      </c>
+      <c r="D1199" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1200" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1200" s="15">
+        <v>1242</v>
+      </c>
+      <c r="D1200" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1201" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1201">
+        <v>258</v>
+      </c>
+      <c r="D1201" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1202" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1202">
+        <v>234</v>
+      </c>
+      <c r="D1202" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1203" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1203">
+        <v>67</v>
+      </c>
+      <c r="D1203" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1204" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1204">
+        <v>580</v>
+      </c>
+      <c r="D1204" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1205" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1205">
+        <v>153</v>
+      </c>
+      <c r="D1205" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1206" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1206">
+        <v>673</v>
+      </c>
+      <c r="D1206" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1207" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1207">
+        <v>494</v>
+      </c>
+      <c r="D1207" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1208" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1208">
+        <v>699</v>
+      </c>
+      <c r="D1208" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1209" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1209">
+        <v>409</v>
+      </c>
+      <c r="D1209" s="3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1210" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1210">
+        <v>305</v>
+      </c>
+      <c r="D1210" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1211" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1211">
+        <v>174</v>
+      </c>
+      <c r="D1211" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1212" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1212">
+        <v>117</v>
+      </c>
+      <c r="D1212" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1213" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1213">
+        <v>478</v>
+      </c>
+      <c r="D1213" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1214" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1214">
+        <v>139</v>
+      </c>
+      <c r="D1214" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1215" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1215">
+        <v>509</v>
+      </c>
+      <c r="D1215" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1216" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1216">
+        <v>185</v>
+      </c>
+      <c r="D1216" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1217" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1217">
+        <v>618</v>
+      </c>
+      <c r="D1217" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
@@ -35552,10 +36350,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36270,8 +37068,8 @@
       <c r="D30">
         <v>3689</v>
       </c>
-      <c r="E30" t="s">
-        <v>8</v>
+      <c r="E30">
+        <v>376</v>
       </c>
       <c r="F30">
         <v>28425</v>
@@ -36279,6 +37077,31 @@
       <c r="G30" s="10">
         <f>D30/F30</f>
         <v>0.12978012313104662</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B31">
+        <v>78</v>
+      </c>
+      <c r="C31">
+        <f>E31-E30</f>
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>3767</v>
+      </c>
+      <c r="E31">
+        <v>381</v>
+      </c>
+      <c r="F31">
+        <v>29629</v>
+      </c>
+      <c r="G31" s="10">
+        <f>D31/F31</f>
+        <v>0.12713895170272368</v>
       </c>
     </row>
   </sheetData>
@@ -36291,10 +37114,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0979910-C687-6A43-A609-0D992245C102}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView topLeftCell="A17" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36563,7 +37386,7 @@
         <v>43931</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" ref="B24:B34" si="1">B21</f>
+        <f t="shared" ref="B24:B36" si="1">B21</f>
         <v>Female</v>
       </c>
       <c r="C24">
@@ -36691,6 +37514,33 @@
         <v>1</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B35" t="str">
+        <f>B32</f>
+        <v>Male</v>
+      </c>
+      <c r="C35">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="1"/>
+        <v>Female</v>
+      </c>
+      <c r="C36">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19A11E8-7886-9941-A741-01E75728E262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95DF8BC-79DC-B248-A98F-AE20AAB5E6EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="181">
   <si>
     <t>Date</t>
   </si>
@@ -576,13 +576,23 @@
   <si>
     <t>https://www.gov.ie/en/press-release/514383-statement-from-the-national-public-health-emergency-team-sunday-3-ma/</t>
   </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/e000c4-statement-from-the-national-public-health-emergency-team-monday-4-ma/</t>
+  </si>
+  <si>
+    <t>5-day average daily cases</t>
+  </si>
+  <si>
+    <t>5-day average daily deaths</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1069,7 +1079,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1092,6 +1102,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1452,7 +1465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5E2DA3-023C-FF46-A014-0C2E672468A0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1471,10 +1484,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43952.842361111114</v>
+        <v>43953.8125</v>
       </c>
       <c r="B2" s="12">
-        <v>43954.842361111114</v>
+        <v>43955.8125</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1900,10 +1913,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AE50F-07C0-7048-95B5-0C81D93B81F0}">
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:C155"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView topLeftCell="A112" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3572,6 +3585,138 @@
       </c>
       <c r="C144" s="8">
         <v>227</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B145" t="str">
+        <f>B134</f>
+        <v>Antrim And Newtownabbey</v>
+      </c>
+      <c r="C145" s="8">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B146" t="str">
+        <f t="shared" ref="B146:B155" si="3">B135</f>
+        <v>Ards And North Down</v>
+      </c>
+      <c r="C146" s="8">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B147" t="str">
+        <f t="shared" si="3"/>
+        <v>Armagh, Banbridge And Craigavon</v>
+      </c>
+      <c r="C147" s="8">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B148" t="str">
+        <f t="shared" si="3"/>
+        <v>Belfast</v>
+      </c>
+      <c r="C148" s="8">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B149" t="str">
+        <f t="shared" si="3"/>
+        <v>Causeway Coast And Glens</v>
+      </c>
+      <c r="C149" s="8">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B150" t="str">
+        <f t="shared" si="3"/>
+        <v>Derry And Strabane</v>
+      </c>
+      <c r="C150" s="8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B151" t="str">
+        <f t="shared" si="3"/>
+        <v>Fermanagh And Omagh</v>
+      </c>
+      <c r="C151" s="8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B152" t="str">
+        <f t="shared" si="3"/>
+        <v>Lisburn And Castlereagh</v>
+      </c>
+      <c r="C152" s="8">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B153" t="str">
+        <f t="shared" si="3"/>
+        <v>Mid And East Antrim</v>
+      </c>
+      <c r="C153" s="8">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B154" t="str">
+        <f t="shared" si="3"/>
+        <v>Mid Ulster</v>
+      </c>
+      <c r="C154" s="8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B155" t="str">
+        <f t="shared" si="3"/>
+        <v>Newry, Mourne And Down</v>
+      </c>
+      <c r="C155" s="8">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3703,25 +3848,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomRight" activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" customWidth="1"/>
+    <col min="3" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3738,34 +3883,40 @@
         <v>101</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>43900</v>
       </c>
@@ -3787,17 +3938,17 @@
       <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5">
         <v>0</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="5">
+      <c r="K2" s="5">
         <v>0</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>8</v>
@@ -3805,11 +3956,17 @@
       <c r="M2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>43901</v>
       </c>
@@ -3831,18 +3988,18 @@
       <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="5">
         <v>1</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="5">
-        <f t="shared" ref="J3:J46" si="0">H3-H2</f>
+      <c r="K3" s="5">
+        <f t="shared" ref="K3:K46" si="0">I3-I2</f>
         <v>1</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>8</v>
@@ -3850,11 +4007,17 @@
       <c r="M3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>43902</v>
       </c>
@@ -3873,33 +4036,39 @@
       <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="5">
         <v>6</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>1</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="L4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>43903</v>
       </c>
@@ -3921,30 +4090,36 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="5">
         <v>1</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="5">
-        <v>2</v>
-      </c>
       <c r="L5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="5">
+        <v>2</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>43904</v>
       </c>
@@ -3960,36 +4135,44 @@
       <c r="E6" s="5">
         <v>39</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>8</v>
+      <c r="F6" s="18">
+        <f>AVERAGE(E2:E6)</f>
+        <v>25.8</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="5">
         <v>2</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>8</v>
+      <c r="L6" s="18">
+        <f>AVERAGE(K2:K6)</f>
+        <v>0.4</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>43905</v>
       </c>
@@ -4005,36 +4188,44 @@
       <c r="E7" s="5">
         <v>40</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>8</v>
+      <c r="F7" s="18">
+        <f t="shared" ref="F7:F57" si="1">AVERAGE(E3:E7)</f>
+        <v>27</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="5">
         <v>2</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="5">
+      <c r="K7" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>8</v>
+      <c r="L7" s="18">
+        <f t="shared" ref="L7:L57" si="2">AVERAGE(K3:K7)</f>
+        <v>0.4</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>43906</v>
       </c>
@@ -4050,36 +4241,44 @@
       <c r="E8" s="5">
         <v>102</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="18">
+        <f t="shared" si="1"/>
+        <v>45.6</v>
+      </c>
+      <c r="G8" s="5">
         <v>84</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>6</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>2</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K8" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="18">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="M8" s="5">
         <v>59</v>
       </c>
-      <c r="L8" s="5">
+      <c r="N8" s="5">
         <v>23</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>43907</v>
       </c>
@@ -4095,36 +4294,44 @@
       <c r="E9" s="5">
         <v>79</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="18">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="G9" s="5">
         <v>108</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>7</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <v>2</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="5">
+      <c r="K9" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="5">
+      <c r="L9" s="18">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="M9" s="5">
         <v>84</v>
       </c>
-      <c r="L9" s="5">
+      <c r="N9" s="5">
         <v>26</v>
       </c>
-      <c r="M9" s="5">
+      <c r="O9" s="5">
         <v>43</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>43908</v>
       </c>
@@ -4140,36 +4347,44 @@
       <c r="E10" s="5">
         <v>88</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="18">
+        <f t="shared" si="1"/>
+        <v>69.599999999999994</v>
+      </c>
+      <c r="G10" s="5">
         <v>140</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>12</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>3</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="5">
+      <c r="K10" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L10" s="18">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="M10" s="5">
         <v>114</v>
       </c>
-      <c r="L10" s="5">
+      <c r="N10" s="5">
         <v>27</v>
       </c>
-      <c r="M10" s="5">
+      <c r="O10" s="5">
         <v>44</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>43909</v>
       </c>
@@ -4185,36 +4400,44 @@
       <c r="E11" s="5">
         <v>146</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="18">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="G11" s="5">
         <v>173</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
         <v>13</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="5">
         <v>3</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="5">
+      <c r="K11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="5">
+      <c r="L11" s="18">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="M11" s="5">
         <v>147</v>
       </c>
-      <c r="L11" s="5">
+      <c r="N11" s="5">
         <v>29</v>
       </c>
-      <c r="M11" s="5">
+      <c r="O11" s="5">
         <v>44</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>43910</v>
       </c>
@@ -4230,36 +4453,44 @@
       <c r="E12" s="5">
         <v>128</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="18">
+        <f t="shared" si="1"/>
+        <v>108.6</v>
+      </c>
+      <c r="G12" s="5">
         <v>211</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
         <v>17</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <v>4</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="5">
+      <c r="K12" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L12" s="18">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="M12" s="5">
         <v>159</v>
       </c>
-      <c r="L12" s="5">
+      <c r="N12" s="5">
         <v>35</v>
       </c>
-      <c r="M12" s="5">
+      <c r="O12" s="5">
         <v>44</v>
       </c>
-      <c r="N12" t="s">
+      <c r="P12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>43911</v>
       </c>
@@ -4275,36 +4506,44 @@
       <c r="E13" s="5">
         <v>124</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="18">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="G13" s="5">
         <v>239</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H13" s="5">
         <v>25</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I13" s="5">
         <v>6</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="5">
+      <c r="K13" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L13" s="18">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="M13" s="5">
         <v>208</v>
       </c>
-      <c r="L13" s="5">
+      <c r="N13" s="5">
         <v>37</v>
       </c>
-      <c r="M13" s="5">
+      <c r="O13" s="5">
         <v>44</v>
       </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>43912</v>
       </c>
@@ -4320,36 +4559,44 @@
       <c r="E14" s="5">
         <v>129</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="18">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="G14" s="5">
         <v>277</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H14" s="5">
         <v>36</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I14" s="5">
         <v>6</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="5">
+      <c r="K14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L14" s="18">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="M14" s="5">
         <v>247</v>
       </c>
-      <c r="L14" s="5">
+      <c r="N14" s="5">
         <v>44</v>
       </c>
-      <c r="M14" s="5">
+      <c r="O14" s="5">
         <v>45</v>
       </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>43913</v>
       </c>
@@ -4365,36 +4612,44 @@
       <c r="E15" s="5">
         <v>181</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="18">
+        <f t="shared" si="1"/>
+        <v>141.6</v>
+      </c>
+      <c r="G15" s="5">
         <v>305</v>
       </c>
-      <c r="G15" s="5">
+      <c r="H15" s="5">
         <v>39</v>
       </c>
-      <c r="H15" s="5">
+      <c r="I15" s="5">
         <v>7</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="5">
+      <c r="K15" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K15" s="5">
+      <c r="L15" s="18">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="M15" s="5">
         <v>283</v>
       </c>
-      <c r="L15" s="5">
+      <c r="N15" s="5">
         <v>63</v>
       </c>
-      <c r="M15" s="5">
+      <c r="O15" s="5">
         <v>45</v>
       </c>
-      <c r="N15" t="s">
+      <c r="P15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>43914</v>
       </c>
@@ -4410,36 +4665,44 @@
       <c r="E16" s="5">
         <v>237</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="18">
+        <f t="shared" si="1"/>
+        <v>159.80000000000001</v>
+      </c>
+      <c r="G16" s="5">
         <v>340</v>
       </c>
-      <c r="G16" s="5">
+      <c r="H16" s="5">
         <v>47</v>
       </c>
-      <c r="H16" s="5">
+      <c r="I16" s="5">
         <v>9</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="5">
+      <c r="K16" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K16" s="5">
+      <c r="L16" s="18">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="M16" s="5">
         <v>321</v>
       </c>
-      <c r="L16" s="5">
+      <c r="N16" s="5">
         <v>66</v>
       </c>
-      <c r="M16" s="5">
+      <c r="O16" s="5">
         <v>46</v>
       </c>
-      <c r="N16" t="s">
+      <c r="P16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>43915</v>
       </c>
@@ -4455,14 +4718,15 @@
       <c r="E17" s="5">
         <v>256</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="18">
+        <f t="shared" si="1"/>
+        <v>185.4</v>
+      </c>
+      <c r="G17" s="5">
         <v>419</v>
       </c>
-      <c r="G17" s="5">
+      <c r="H17" s="5">
         <v>59</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>8</v>
@@ -4470,20 +4734,27 @@
       <c r="J17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="18">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="M17" s="5">
         <v>375</v>
       </c>
-      <c r="L17" s="5">
+      <c r="N17" s="5">
         <v>79</v>
       </c>
-      <c r="M17" s="5">
+      <c r="O17" s="5">
         <v>46</v>
       </c>
-      <c r="N17" t="s">
+      <c r="P17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>43916</v>
       </c>
@@ -4499,35 +4770,43 @@
       <c r="E18" s="5">
         <v>265</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="18">
+        <f t="shared" si="1"/>
+        <v>213.6</v>
+      </c>
+      <c r="G18" s="5">
         <v>489</v>
       </c>
-      <c r="G18" s="5">
+      <c r="H18" s="5">
         <v>67</v>
       </c>
-      <c r="H18" s="5">
+      <c r="I18" s="5">
         <v>33</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M18" s="5">
         <v>445</v>
       </c>
-      <c r="L18" s="5">
+      <c r="N18" s="5">
         <v>91</v>
       </c>
-      <c r="M18" s="5">
+      <c r="O18" s="5">
         <v>46</v>
       </c>
-      <c r="N18" t="s">
+      <c r="P18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>43917</v>
       </c>
@@ -4543,36 +4822,44 @@
       <c r="E19" s="5">
         <v>312</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="18">
+        <f t="shared" si="1"/>
+        <v>250.2</v>
+      </c>
+      <c r="G19" s="5">
         <v>564</v>
       </c>
-      <c r="G19" s="5">
+      <c r="H19" s="5">
         <v>77</v>
       </c>
-      <c r="H19" s="5">
+      <c r="I19" s="5">
         <v>43</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="5">
+      <c r="K19" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K19" s="5">
+      <c r="L19" s="18">
+        <f t="shared" si="2"/>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="M19" s="5">
         <v>506</v>
       </c>
-      <c r="L19" s="5">
+      <c r="N19" s="5">
         <v>103</v>
       </c>
-      <c r="M19" s="5">
+      <c r="O19" s="5">
         <v>47</v>
       </c>
-      <c r="N19" t="s">
+      <c r="P19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>43918</v>
       </c>
@@ -4588,36 +4875,44 @@
       <c r="E20" s="5">
         <v>259</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="18">
+        <f t="shared" si="1"/>
+        <v>265.8</v>
+      </c>
+      <c r="G20" s="5">
         <v>645</v>
       </c>
-      <c r="G20" s="5">
+      <c r="H20" s="5">
         <v>84</v>
       </c>
-      <c r="H20" s="5">
+      <c r="I20" s="5">
         <v>44</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="5">
+      <c r="K20" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K20" s="5">
+      <c r="L20" s="18">
+        <f t="shared" si="2"/>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="M20" s="5">
         <v>578</v>
       </c>
-      <c r="L20" s="5">
+      <c r="N20" s="5">
         <v>111</v>
       </c>
-      <c r="M20" s="5">
+      <c r="O20" s="5">
         <v>47</v>
       </c>
-      <c r="N20" t="s">
+      <c r="P20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>43919</v>
       </c>
@@ -4633,36 +4928,44 @@
       <c r="E21" s="5">
         <v>202</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="18">
+        <f t="shared" si="1"/>
+        <v>258.8</v>
+      </c>
+      <c r="G21" s="5">
         <v>703</v>
       </c>
-      <c r="G21" s="5">
+      <c r="H21" s="5">
         <v>113</v>
       </c>
-      <c r="H21" s="5">
+      <c r="I21" s="5">
         <v>64</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="5">
+      <c r="K21" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K21" s="5">
+      <c r="L21" s="18">
+        <f t="shared" si="2"/>
+        <v>10.333333333333334</v>
+      </c>
+      <c r="M21" s="5">
         <v>674</v>
       </c>
-      <c r="L21" s="5">
+      <c r="N21" s="5">
         <v>118</v>
       </c>
-      <c r="M21" s="5">
+      <c r="O21" s="5">
         <v>47</v>
       </c>
-      <c r="N21" t="s">
+      <c r="P21" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>43920</v>
       </c>
@@ -4678,36 +4981,44 @@
       <c r="E22" s="5">
         <v>313</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="18">
+        <f t="shared" si="1"/>
+        <v>270.2</v>
+      </c>
+      <c r="G22" s="5">
         <v>834</v>
       </c>
-      <c r="G22" s="5">
+      <c r="H22" s="5">
         <v>126</v>
       </c>
-      <c r="H22" s="5">
+      <c r="I22" s="5">
         <v>84</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="J22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="5">
+      <c r="K22" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K22" s="5">
+      <c r="L22" s="18">
+        <f t="shared" si="2"/>
+        <v>12.75</v>
+      </c>
+      <c r="M22" s="5">
         <v>752</v>
       </c>
-      <c r="L22" s="5">
+      <c r="N22" s="5">
         <v>134</v>
       </c>
-      <c r="M22" s="5">
+      <c r="O22" s="5">
         <v>48</v>
       </c>
-      <c r="N22" t="s">
+      <c r="P22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>43921</v>
       </c>
@@ -4723,36 +5034,44 @@
       <c r="E23" s="5">
         <v>292</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="18">
+        <f t="shared" si="1"/>
+        <v>275.60000000000002</v>
+      </c>
+      <c r="G23" s="5">
         <v>932</v>
       </c>
-      <c r="G23" s="5">
+      <c r="H23" s="5">
         <v>134</v>
       </c>
-      <c r="H23" s="5">
+      <c r="I23" s="5">
         <v>91</v>
       </c>
-      <c r="I23" s="5">
+      <c r="J23" s="5">
         <v>71</v>
       </c>
-      <c r="J23" s="5">
+      <c r="K23" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K23" s="5">
+      <c r="L23" s="18">
+        <f t="shared" si="2"/>
+        <v>11.6</v>
+      </c>
+      <c r="M23" s="5">
         <v>841</v>
       </c>
-      <c r="L23" s="5">
+      <c r="N23" s="5">
         <v>160</v>
       </c>
-      <c r="M23" s="5">
+      <c r="O23" s="5">
         <v>48</v>
       </c>
-      <c r="N23" t="s">
+      <c r="P23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>43922</v>
       </c>
@@ -4768,36 +5087,44 @@
       <c r="E24" s="5">
         <v>373</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="18">
+        <f t="shared" si="1"/>
+        <v>287.8</v>
+      </c>
+      <c r="G24" s="5">
         <v>1039</v>
       </c>
-      <c r="G24" s="5">
+      <c r="H24" s="5">
         <v>148</v>
       </c>
-      <c r="H24" s="5">
+      <c r="I24" s="5">
         <v>113</v>
       </c>
-      <c r="I24" s="5">
+      <c r="J24" s="5">
         <v>85</v>
       </c>
-      <c r="J24" s="5">
+      <c r="K24" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="K24" s="5">
+      <c r="L24" s="18">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="M24" s="5">
         <v>948</v>
       </c>
-      <c r="L24" s="5">
+      <c r="N24" s="5">
         <v>171</v>
       </c>
-      <c r="M24" s="5">
+      <c r="O24" s="5">
         <v>48</v>
       </c>
-      <c r="N24" t="s">
+      <c r="P24" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>43923</v>
       </c>
@@ -4813,36 +5140,44 @@
       <c r="E25" s="5">
         <v>359</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="18">
+        <f t="shared" si="1"/>
+        <v>307.8</v>
+      </c>
+      <c r="G25" s="5">
         <v>1118</v>
       </c>
-      <c r="G25" s="5">
+      <c r="H25" s="5">
         <v>158</v>
       </c>
-      <c r="H25" s="5">
+      <c r="I25" s="5">
         <v>131</v>
       </c>
-      <c r="I25" s="5">
+      <c r="J25" s="5">
         <v>98</v>
       </c>
-      <c r="J25" s="5">
+      <c r="K25" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="K25" s="5">
+      <c r="L25" s="18">
+        <f t="shared" si="2"/>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="M25" s="5">
         <v>1084</v>
       </c>
-      <c r="L25" s="5">
+      <c r="N25" s="5">
         <v>206</v>
       </c>
-      <c r="M25" s="5">
+      <c r="O25" s="5">
         <v>48</v>
       </c>
-      <c r="N25" t="s">
+      <c r="P25" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>43924</v>
       </c>
@@ -4858,36 +5193,44 @@
       <c r="E26" s="5">
         <v>429</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="18">
+        <f t="shared" si="1"/>
+        <v>353.2</v>
+      </c>
+      <c r="G26" s="5">
         <v>1203</v>
       </c>
-      <c r="G26" s="5">
+      <c r="H26" s="5">
         <v>165</v>
       </c>
-      <c r="H26" s="5">
+      <c r="I26" s="5">
         <v>151</v>
       </c>
-      <c r="I26" s="5">
+      <c r="J26" s="5">
         <v>120</v>
       </c>
-      <c r="J26" s="5">
+      <c r="K26" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K26" s="5">
+      <c r="L26" s="18">
+        <f t="shared" si="2"/>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="M26" s="5">
         <v>1163</v>
       </c>
-      <c r="L26" s="5">
+      <c r="N26" s="5">
         <v>236</v>
       </c>
-      <c r="M26" s="5">
+      <c r="O26" s="5">
         <v>48</v>
       </c>
-      <c r="N26" t="s">
+      <c r="P26" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>43925</v>
       </c>
@@ -4901,39 +5244,47 @@
         <v>4604</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" ref="E27:E54" si="1">C27-C26</f>
+        <f t="shared" ref="E27:E54" si="3">C27-C26</f>
         <v>473</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="18">
+        <f t="shared" si="1"/>
+        <v>385.2</v>
+      </c>
+      <c r="G27" s="5">
         <v>1265</v>
       </c>
-      <c r="G27" s="5">
+      <c r="H27" s="5">
         <v>169</v>
       </c>
-      <c r="H27" s="5">
+      <c r="I27" s="5">
         <v>167</v>
       </c>
-      <c r="I27" s="5">
+      <c r="J27" s="5">
         <v>137</v>
       </c>
-      <c r="J27" s="5">
+      <c r="K27" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="K27" s="5">
+      <c r="L27" s="18">
+        <f t="shared" si="2"/>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="M27" s="5">
         <v>1263</v>
       </c>
-      <c r="L27" s="5">
+      <c r="N27" s="5">
         <v>260</v>
       </c>
-      <c r="M27" s="5">
+      <c r="O27" s="5">
         <v>49</v>
       </c>
-      <c r="N27" t="s">
+      <c r="P27" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>43926</v>
       </c>
@@ -4947,39 +5298,47 @@
         <v>4994</v>
       </c>
       <c r="E28" s="5">
+        <f t="shared" si="3"/>
+        <v>677</v>
+      </c>
+      <c r="F28" s="18">
         <f t="shared" si="1"/>
-        <v>677</v>
-      </c>
-      <c r="F28" s="5">
+        <v>462.2</v>
+      </c>
+      <c r="G28" s="5">
         <v>1345</v>
       </c>
-      <c r="G28" s="5">
+      <c r="H28" s="5">
         <v>194</v>
       </c>
-      <c r="H28" s="5">
+      <c r="I28" s="5">
         <v>204</v>
       </c>
-      <c r="I28" s="5">
+      <c r="J28" s="5">
         <v>158</v>
       </c>
-      <c r="J28" s="5">
+      <c r="K28" s="5">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="K28">
+      <c r="L28" s="18">
+        <f t="shared" si="2"/>
+        <v>22.6</v>
+      </c>
+      <c r="M28">
         <v>1388</v>
       </c>
-      <c r="L28" s="5">
+      <c r="N28" s="5">
         <v>270</v>
       </c>
-      <c r="M28" s="5">
+      <c r="O28" s="5">
         <v>48</v>
       </c>
-      <c r="N28" t="s">
+      <c r="P28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43927</v>
       </c>
@@ -4993,39 +5352,47 @@
         <v>5364</v>
       </c>
       <c r="E29" s="5">
+        <f t="shared" si="3"/>
+        <v>388</v>
+      </c>
+      <c r="F29" s="18">
         <f t="shared" si="1"/>
-        <v>388</v>
-      </c>
-      <c r="F29" s="5">
+        <v>465.2</v>
+      </c>
+      <c r="G29" s="5">
         <v>1472</v>
       </c>
-      <c r="G29" s="5">
+      <c r="H29" s="5">
         <v>224</v>
       </c>
-      <c r="H29" s="5">
+      <c r="I29" s="5">
         <v>223</v>
       </c>
-      <c r="I29" s="5">
+      <c r="J29" s="5">
         <v>174</v>
       </c>
-      <c r="J29" s="5">
+      <c r="K29" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="K29">
+      <c r="L29" s="18">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="M29">
         <v>1568</v>
       </c>
-      <c r="L29" s="5">
+      <c r="N29" s="5">
         <v>299</v>
       </c>
-      <c r="M29" s="5">
+      <c r="O29" s="5">
         <v>48</v>
       </c>
-      <c r="N29" t="s">
+      <c r="P29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43928</v>
       </c>
@@ -5039,39 +5406,47 @@
         <v>5709</v>
       </c>
       <c r="E30" s="5">
+        <f t="shared" si="3"/>
+        <v>463</v>
+      </c>
+      <c r="F30" s="18">
         <f t="shared" si="1"/>
-        <v>463</v>
-      </c>
-      <c r="F30" s="5">
+        <v>486</v>
+      </c>
+      <c r="G30" s="5">
         <v>1521</v>
       </c>
-      <c r="G30" s="5">
+      <c r="H30" s="5">
         <v>230</v>
       </c>
-      <c r="H30" s="5">
+      <c r="I30" s="5">
         <v>257</v>
       </c>
-      <c r="I30" s="5">
+      <c r="J30" s="5">
         <v>210</v>
       </c>
-      <c r="J30" s="5">
+      <c r="K30" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="K30">
+      <c r="L30" s="18">
+        <f t="shared" si="2"/>
+        <v>25.2</v>
+      </c>
+      <c r="M30">
         <v>1765</v>
       </c>
-      <c r="L30" s="5">
+      <c r="N30" s="5">
         <v>317</v>
       </c>
-      <c r="M30" s="5">
+      <c r="O30" s="5">
         <v>48</v>
       </c>
-      <c r="N30" t="s">
+      <c r="P30" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43929</v>
       </c>
@@ -5085,39 +5460,47 @@
         <v>6074</v>
       </c>
       <c r="E31" s="5">
+        <f t="shared" si="3"/>
+        <v>627</v>
+      </c>
+      <c r="F31" s="18">
         <f t="shared" si="1"/>
-        <v>627</v>
-      </c>
-      <c r="F31">
+        <v>525.6</v>
+      </c>
+      <c r="G31">
         <v>1631</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>233</v>
       </c>
-      <c r="H31" s="5">
+      <c r="I31" s="5">
         <v>283</v>
       </c>
-      <c r="I31" s="5">
+      <c r="J31" s="5">
         <v>235</v>
       </c>
-      <c r="J31" s="5">
+      <c r="K31" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="K31">
+      <c r="L31" s="18">
+        <f t="shared" si="2"/>
+        <v>26.4</v>
+      </c>
+      <c r="M31">
         <v>1949</v>
       </c>
-      <c r="L31">
+      <c r="N31">
         <v>333</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>48</v>
       </c>
-      <c r="N31" t="s">
+      <c r="P31" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43930</v>
       </c>
@@ -5131,39 +5514,47 @@
         <v>6574</v>
       </c>
       <c r="E32" s="5">
+        <f t="shared" si="3"/>
+        <v>716</v>
+      </c>
+      <c r="F32" s="18">
         <f t="shared" si="1"/>
-        <v>716</v>
-      </c>
-      <c r="F32">
+        <v>574.20000000000005</v>
+      </c>
+      <c r="G32">
         <v>1718</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>253</v>
       </c>
-      <c r="H32" s="5">
+      <c r="I32" s="5">
         <v>314</v>
       </c>
-      <c r="I32" s="5">
+      <c r="J32" s="5">
         <v>263</v>
       </c>
-      <c r="J32" s="5">
+      <c r="K32" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="K32">
+      <c r="L32" s="18">
+        <f t="shared" si="2"/>
+        <v>29.4</v>
+      </c>
+      <c r="M32">
         <v>2141</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <v>356</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <v>48</v>
       </c>
-      <c r="N32" t="s">
+      <c r="P32" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43931</v>
       </c>
@@ -5177,39 +5568,47 @@
         <v>7054</v>
       </c>
       <c r="E33" s="5">
+        <f t="shared" si="3"/>
+        <v>709</v>
+      </c>
+      <c r="F33" s="18">
         <f t="shared" si="1"/>
-        <v>709</v>
-      </c>
-      <c r="F33">
+        <v>580.6</v>
+      </c>
+      <c r="G33">
         <v>1777</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>261</v>
       </c>
-      <c r="H33" s="5">
+      <c r="I33" s="5">
         <v>329</v>
       </c>
-      <c r="I33" s="5">
+      <c r="J33" s="5">
         <v>287</v>
       </c>
-      <c r="J33" s="5">
+      <c r="K33" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="K33">
+      <c r="L33" s="18">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="M33">
         <v>2312</v>
       </c>
-      <c r="L33">
+      <c r="N33">
         <v>383</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <v>48</v>
       </c>
-      <c r="N33" t="s">
+      <c r="P33" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43932</v>
       </c>
@@ -5223,39 +5622,47 @@
         <v>8</v>
       </c>
       <c r="E34" s="5">
+        <f t="shared" si="3"/>
+        <v>988</v>
+      </c>
+      <c r="F34" s="18">
         <f t="shared" si="1"/>
-        <v>988</v>
-      </c>
-      <c r="F34">
+        <v>700.6</v>
+      </c>
+      <c r="G34">
         <v>1849</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>268</v>
       </c>
-      <c r="H34" s="5">
+      <c r="I34" s="5">
         <v>362</v>
       </c>
-      <c r="I34" s="5">
+      <c r="J34" s="5">
         <v>320</v>
       </c>
-      <c r="J34" s="5">
+      <c r="K34" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="K34">
+      <c r="L34" s="18">
+        <f t="shared" si="2"/>
+        <v>27.8</v>
+      </c>
+      <c r="M34">
         <v>2489</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <v>401</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <v>48</v>
       </c>
-      <c r="N34" t="s">
+      <c r="P34" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43933</v>
       </c>
@@ -5269,39 +5676,47 @@
         <v>9655</v>
       </c>
       <c r="E35" s="5">
+        <f t="shared" si="3"/>
+        <v>901</v>
+      </c>
+      <c r="F35" s="18">
         <f t="shared" si="1"/>
-        <v>901</v>
-      </c>
-      <c r="F35">
+        <v>788.2</v>
+      </c>
+      <c r="G35">
         <v>1903</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>275</v>
       </c>
-      <c r="H35" s="5">
+      <c r="I35" s="5">
         <v>395</v>
       </c>
-      <c r="I35" s="5">
+      <c r="J35" s="5">
         <v>334</v>
       </c>
-      <c r="J35" s="5">
+      <c r="K35" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="K35">
+      <c r="L35" s="18">
+        <f t="shared" si="2"/>
+        <v>27.6</v>
+      </c>
+      <c r="M35">
         <v>2707</v>
       </c>
-      <c r="L35">
+      <c r="N35">
         <v>408</v>
       </c>
-      <c r="M35">
+      <c r="O35">
         <v>48</v>
       </c>
-      <c r="N35" t="s">
+      <c r="P35" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43934</v>
       </c>
@@ -5315,39 +5730,47 @@
         <v>10647</v>
       </c>
       <c r="E36" s="5">
+        <f t="shared" si="3"/>
+        <v>876</v>
+      </c>
+      <c r="F36" s="18">
         <f t="shared" si="1"/>
-        <v>876</v>
-      </c>
-      <c r="F36">
+        <v>838</v>
+      </c>
+      <c r="G36">
         <v>1968</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>280</v>
       </c>
-      <c r="H36" s="5">
+      <c r="I36" s="5">
         <v>435</v>
       </c>
-      <c r="I36" s="5">
+      <c r="J36" s="5">
         <v>365</v>
       </c>
-      <c r="J36" s="5">
+      <c r="K36" s="5">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="K36">
+      <c r="L36" s="18">
+        <f t="shared" si="2"/>
+        <v>30.4</v>
+      </c>
+      <c r="M36">
         <v>2872</v>
       </c>
-      <c r="L36">
+      <c r="N36">
         <v>413</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>48</v>
       </c>
-      <c r="N36" t="s">
+      <c r="P36" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43935</v>
       </c>
@@ -5361,39 +5784,47 @@
         <v>11479</v>
       </c>
       <c r="E37" s="5">
+        <f t="shared" si="3"/>
+        <v>1164</v>
+      </c>
+      <c r="F37" s="18">
         <f t="shared" si="1"/>
-        <v>1164</v>
-      </c>
-      <c r="F37">
+        <v>927.6</v>
+      </c>
+      <c r="G37">
         <v>2026</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>284</v>
       </c>
-      <c r="H37" s="5">
+      <c r="I37" s="5">
         <v>480</v>
       </c>
-      <c r="I37" s="5">
+      <c r="J37" s="5">
         <v>406</v>
       </c>
-      <c r="J37" s="5">
+      <c r="K37" s="5">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="K37">
+      <c r="L37" s="18">
+        <f t="shared" si="2"/>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="M37">
         <v>2451</v>
       </c>
-      <c r="L37">
+      <c r="N37">
         <v>425</v>
       </c>
-      <c r="M37">
+      <c r="O37">
         <v>48</v>
       </c>
-      <c r="N37" t="s">
+      <c r="P37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43936</v>
       </c>
@@ -5407,39 +5838,47 @@
         <v>12547</v>
       </c>
       <c r="E38" s="5">
+        <f t="shared" si="3"/>
+        <v>587</v>
+      </c>
+      <c r="F38" s="18">
         <f t="shared" si="1"/>
-        <v>587</v>
-      </c>
-      <c r="F38">
+        <v>903.2</v>
+      </c>
+      <c r="G38">
         <v>2082</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>294</v>
       </c>
-      <c r="H38" s="5">
+      <c r="I38" s="5">
         <v>521</v>
       </c>
-      <c r="I38" s="5">
+      <c r="J38" s="5">
         <v>444</v>
       </c>
-      <c r="J38" s="5">
+      <c r="K38" s="5">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="K38">
+      <c r="L38" s="18">
+        <f t="shared" si="2"/>
+        <v>38.4</v>
+      </c>
+      <c r="M38">
         <v>2723</v>
       </c>
-      <c r="L38">
+      <c r="N38">
         <v>436</v>
       </c>
-      <c r="M38">
+      <c r="O38">
         <v>48</v>
       </c>
-      <c r="N38" t="s">
+      <c r="P38" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43937</v>
       </c>
@@ -5453,39 +5892,47 @@
         <v>13271</v>
       </c>
       <c r="E39" s="5">
+        <f t="shared" si="3"/>
+        <v>734</v>
+      </c>
+      <c r="F39" s="18">
         <f t="shared" si="1"/>
-        <v>734</v>
-      </c>
-      <c r="F39">
+        <v>852.4</v>
+      </c>
+      <c r="G39">
         <v>2168</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>296</v>
       </c>
-      <c r="H39" s="5">
+      <c r="I39" s="5">
         <v>566</v>
       </c>
-      <c r="I39" s="5">
+      <c r="J39" s="5">
         <v>486</v>
       </c>
-      <c r="J39" s="5">
+      <c r="K39" s="5">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="K39">
+      <c r="L39" s="18">
+        <f t="shared" si="2"/>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="M39">
         <v>3573</v>
       </c>
-      <c r="L39">
+      <c r="N39">
         <v>454</v>
       </c>
-      <c r="M39">
+      <c r="O39">
         <v>48</v>
       </c>
-      <c r="N39" t="s">
+      <c r="P39" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43938</v>
       </c>
@@ -5499,39 +5946,47 @@
         <v>13980</v>
       </c>
       <c r="E40" s="5">
+        <f t="shared" si="3"/>
+        <v>856</v>
+      </c>
+      <c r="F40" s="18">
         <f t="shared" si="1"/>
-        <v>856</v>
-      </c>
-      <c r="F40">
+        <v>843.4</v>
+      </c>
+      <c r="G40">
         <v>2233</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>303</v>
       </c>
-      <c r="H40" s="5">
+      <c r="I40" s="5">
         <v>605</v>
       </c>
-      <c r="I40" s="5">
+      <c r="J40" s="5">
         <v>530</v>
       </c>
-      <c r="J40" s="5">
+      <c r="K40" s="5">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="K40">
+      <c r="L40" s="18">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="M40">
         <v>3788</v>
       </c>
-      <c r="L40">
+      <c r="N40">
         <v>472</v>
       </c>
-      <c r="M40">
+      <c r="O40">
         <v>48</v>
       </c>
-      <c r="N40" t="s">
+      <c r="P40" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43939</v>
       </c>
@@ -5545,39 +6000,47 @@
         <v>14758</v>
       </c>
       <c r="E41" s="5">
+        <f t="shared" si="3"/>
+        <v>583</v>
+      </c>
+      <c r="F41" s="18">
         <f t="shared" si="1"/>
-        <v>583</v>
-      </c>
-      <c r="F41">
+        <v>784.8</v>
+      </c>
+      <c r="G41">
         <v>2272</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>306</v>
       </c>
-      <c r="H41" s="5">
+      <c r="I41" s="5">
         <v>642</v>
       </c>
-      <c r="I41" s="5">
+      <c r="J41" s="5">
         <v>571</v>
       </c>
-      <c r="J41" s="5">
+      <c r="K41" s="5">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="K41">
+      <c r="L41" s="18">
+        <f t="shared" si="2"/>
+        <v>41.4</v>
+      </c>
+      <c r="M41">
         <v>4009</v>
       </c>
-      <c r="L41">
+      <c r="N41">
         <v>478</v>
       </c>
-      <c r="M41">
+      <c r="O41">
         <v>48</v>
       </c>
-      <c r="N41" t="s">
+      <c r="P41" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43940</v>
       </c>
@@ -5591,39 +6054,47 @@
         <v>15251</v>
       </c>
       <c r="E42" s="5">
+        <f t="shared" si="3"/>
+        <v>279</v>
+      </c>
+      <c r="F42" s="18">
         <f t="shared" si="1"/>
-        <v>279</v>
-      </c>
-      <c r="F42">
+        <v>607.79999999999995</v>
+      </c>
+      <c r="G42">
         <v>2323</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>315</v>
       </c>
-      <c r="H42" s="5">
+      <c r="I42" s="5">
         <v>719</v>
       </c>
-      <c r="I42" s="5">
+      <c r="J42" s="5">
         <v>610</v>
       </c>
-      <c r="J42" s="5">
+      <c r="K42" s="5">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="K42">
+      <c r="L42" s="18">
+        <f t="shared" si="2"/>
+        <v>47.8</v>
+      </c>
+      <c r="M42">
         <v>4180</v>
       </c>
-      <c r="L42">
+      <c r="N42">
         <v>491</v>
       </c>
-      <c r="M42">
+      <c r="O42">
         <v>48</v>
       </c>
-      <c r="N42" t="s">
+      <c r="P42" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43941</v>
       </c>
@@ -5637,39 +6108,47 @@
         <v>15652</v>
       </c>
       <c r="E43" s="5">
+        <f t="shared" si="3"/>
+        <v>407</v>
+      </c>
+      <c r="F43" s="18">
         <f t="shared" si="1"/>
-        <v>407</v>
-      </c>
-      <c r="F43">
+        <v>571.79999999999995</v>
+      </c>
+      <c r="G43">
         <v>2387</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>322</v>
       </c>
-      <c r="H43" s="5">
+      <c r="I43" s="5">
         <v>757</v>
       </c>
-      <c r="I43" s="5">
+      <c r="J43" s="5">
         <v>687</v>
       </c>
-      <c r="J43" s="5">
+      <c r="K43" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="K43">
+      <c r="L43" s="18">
+        <f t="shared" si="2"/>
+        <v>47.2</v>
+      </c>
+      <c r="M43">
         <v>4393</v>
       </c>
-      <c r="L43">
+      <c r="N43">
         <v>507</v>
       </c>
-      <c r="M43">
+      <c r="O43">
         <v>48</v>
       </c>
-      <c r="N43" t="s">
+      <c r="P43" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43942</v>
       </c>
@@ -5683,39 +6162,47 @@
         <v>16040</v>
       </c>
       <c r="E44" s="5">
+        <f t="shared" si="3"/>
+        <v>568</v>
+      </c>
+      <c r="F44" s="18">
         <f t="shared" si="1"/>
-        <v>568</v>
-      </c>
-      <c r="F44">
+        <v>538.6</v>
+      </c>
+      <c r="G44">
         <v>2424</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>331</v>
       </c>
-      <c r="H44" s="5">
+      <c r="I44" s="5">
         <v>789</v>
       </c>
-      <c r="I44" s="5">
+      <c r="J44" s="5">
         <v>730</v>
       </c>
-      <c r="J44" s="5">
+      <c r="K44" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="K44">
+      <c r="L44" s="18">
+        <f t="shared" si="2"/>
+        <v>44.6</v>
+      </c>
+      <c r="M44">
         <v>4545</v>
       </c>
-      <c r="L44">
+      <c r="N44">
         <v>522</v>
       </c>
-      <c r="M44">
+      <c r="O44">
         <v>48</v>
       </c>
-      <c r="N44" t="s">
+      <c r="P44" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43943</v>
       </c>
@@ -5729,39 +6216,47 @@
         <v>16671</v>
       </c>
       <c r="E45" s="5">
+        <f t="shared" si="3"/>
+        <v>981</v>
+      </c>
+      <c r="F45" s="18">
         <f t="shared" si="1"/>
-        <v>981</v>
-      </c>
-      <c r="F45">
+        <v>563.6</v>
+      </c>
+      <c r="G45">
         <v>2486</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>338</v>
       </c>
-      <c r="H45" s="5">
+      <c r="I45" s="5">
         <v>821</v>
       </c>
-      <c r="I45" s="5">
+      <c r="J45" s="5">
         <v>769</v>
       </c>
-      <c r="J45" s="5">
+      <c r="K45" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="K45">
+      <c r="L45" s="18">
+        <f t="shared" si="2"/>
+        <v>43.2</v>
+      </c>
+      <c r="M45">
         <v>4713</v>
       </c>
-      <c r="L45">
+      <c r="N45">
         <v>548</v>
       </c>
-      <c r="M45">
+      <c r="O45">
         <v>48</v>
       </c>
-      <c r="N45" t="s">
+      <c r="P45" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43944</v>
       </c>
@@ -5775,39 +6270,47 @@
         <v>17607</v>
       </c>
       <c r="E46" s="5">
+        <f t="shared" si="3"/>
+        <v>555</v>
+      </c>
+      <c r="F46" s="18">
         <f t="shared" si="1"/>
-        <v>555</v>
-      </c>
-      <c r="F46">
+        <v>558</v>
+      </c>
+      <c r="G46">
         <v>2536</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>344</v>
       </c>
-      <c r="H46" s="5">
+      <c r="I46" s="5">
         <v>859</v>
       </c>
-      <c r="I46" s="5">
+      <c r="J46" s="5">
         <v>794</v>
       </c>
-      <c r="J46" s="5">
+      <c r="K46" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="K46">
+      <c r="L46" s="18">
+        <f t="shared" si="2"/>
+        <v>43.4</v>
+      </c>
+      <c r="M46">
         <v>4847</v>
       </c>
-      <c r="L46">
+      <c r="N46">
         <v>567</v>
       </c>
-      <c r="M46">
+      <c r="O46">
         <v>49</v>
       </c>
-      <c r="N46" t="s">
+      <c r="P46" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43945</v>
       </c>
@@ -5821,39 +6324,47 @@
         <v>18184</v>
       </c>
       <c r="E47" s="5">
+        <f t="shared" si="3"/>
+        <v>456</v>
+      </c>
+      <c r="F47" s="18">
         <f t="shared" si="1"/>
-        <v>456</v>
-      </c>
-      <c r="F47">
+        <v>593.4</v>
+      </c>
+      <c r="G47">
         <v>2576</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>349</v>
       </c>
-      <c r="H47" s="5">
+      <c r="I47" s="5">
         <v>882</v>
       </c>
-      <c r="I47" s="5">
+      <c r="J47" s="5">
         <v>1014</v>
       </c>
-      <c r="J47" s="5">
-        <f>H47-H46</f>
+      <c r="K47" s="5">
+        <f>I47-I46</f>
         <v>23</v>
       </c>
-      <c r="K47">
+      <c r="L47" s="18">
+        <f t="shared" si="2"/>
+        <v>32.6</v>
+      </c>
+      <c r="M47">
         <v>5064</v>
       </c>
-      <c r="L47">
+      <c r="N47">
         <v>601</v>
       </c>
-      <c r="M47">
+      <c r="O47">
         <v>49</v>
       </c>
-      <c r="N47" t="s">
+      <c r="P47" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43946</v>
       </c>
@@ -5867,39 +6378,47 @@
         <v>18561</v>
       </c>
       <c r="E48" s="5">
+        <f t="shared" si="3"/>
+        <v>664</v>
+      </c>
+      <c r="F48" s="18">
         <f t="shared" si="1"/>
-        <v>664</v>
-      </c>
-      <c r="F48">
+        <v>644.79999999999995</v>
+      </c>
+      <c r="G48">
         <v>2625</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>353</v>
       </c>
-      <c r="H48" s="5">
+      <c r="I48" s="5">
         <v>897</v>
       </c>
-      <c r="I48" s="5">
+      <c r="J48" s="5">
         <v>1063</v>
       </c>
-      <c r="J48" s="5">
-        <f>H48-H47</f>
+      <c r="K48" s="5">
+        <f>I48-I47</f>
         <v>15</v>
       </c>
-      <c r="K48">
+      <c r="L48" s="18">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="M48">
         <v>5204</v>
       </c>
-      <c r="L48">
+      <c r="N48">
         <v>604</v>
       </c>
-      <c r="M48">
+      <c r="O48">
         <v>49</v>
       </c>
-      <c r="N48" t="s">
+      <c r="P48" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43947</v>
       </c>
@@ -5913,39 +6432,47 @@
         <v>19262</v>
       </c>
       <c r="E49" s="5">
+        <f t="shared" si="3"/>
+        <v>288</v>
+      </c>
+      <c r="F49" s="18">
         <f t="shared" si="1"/>
-        <v>288</v>
-      </c>
-      <c r="F49">
+        <v>588.79999999999995</v>
+      </c>
+      <c r="G49">
         <v>2638</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>358</v>
       </c>
-      <c r="H49" s="5">
+      <c r="I49" s="5">
         <v>924</v>
       </c>
-      <c r="I49" s="5">
+      <c r="J49" s="5">
         <v>1087</v>
       </c>
-      <c r="J49" s="5">
-        <f>H49-H48</f>
+      <c r="K49" s="5">
+        <f>I49-I48</f>
         <v>27</v>
       </c>
-      <c r="K49">
+      <c r="L49" s="18">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="M49">
         <v>5414</v>
       </c>
-      <c r="L49">
+      <c r="N49">
         <v>608</v>
       </c>
-      <c r="M49">
+      <c r="O49">
         <v>49</v>
       </c>
-      <c r="N49" t="s">
+      <c r="P49" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43948</v>
       </c>
@@ -5959,39 +6486,47 @@
         <v>19648</v>
       </c>
       <c r="E50" s="5">
+        <f t="shared" si="3"/>
+        <v>340</v>
+      </c>
+      <c r="F50" s="18">
         <f t="shared" si="1"/>
-        <v>340</v>
-      </c>
-      <c r="F50">
+        <v>460.6</v>
+      </c>
+      <c r="G50">
         <v>2669</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>355</v>
       </c>
-      <c r="H50" s="17">
+      <c r="I50" s="17">
         <v>924</v>
       </c>
-      <c r="I50" s="5">
+      <c r="J50" s="5">
         <v>1102</v>
       </c>
-      <c r="J50" s="5">
-        <f>I50-I49</f>
+      <c r="K50" s="5">
+        <f>J50-J49</f>
         <v>15</v>
       </c>
-      <c r="K50" s="16">
+      <c r="L50" s="18">
+        <f t="shared" si="2"/>
+        <v>23.6</v>
+      </c>
+      <c r="M50" s="16">
         <v>5414</v>
       </c>
-      <c r="L50" s="16">
+      <c r="N50" s="16">
         <v>608</v>
       </c>
-      <c r="M50" s="16">
+      <c r="O50" s="16">
         <v>49</v>
       </c>
-      <c r="N50" t="s">
+      <c r="P50" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43949</v>
       </c>
@@ -6005,39 +6540,47 @@
         <v>19877</v>
       </c>
       <c r="E51" s="5">
+        <f t="shared" si="3"/>
+        <v>388</v>
+      </c>
+      <c r="F51" s="18">
         <f t="shared" si="1"/>
-        <v>388</v>
-      </c>
-      <c r="F51">
+        <v>427.2</v>
+      </c>
+      <c r="G51">
         <v>2709</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>360</v>
       </c>
-      <c r="H51" s="5">
+      <c r="I51" s="5">
         <v>995</v>
       </c>
-      <c r="I51" s="5">
+      <c r="J51" s="5">
         <v>1159</v>
       </c>
-      <c r="J51" s="5">
-        <f>I51-I50</f>
+      <c r="K51" s="5">
+        <f>J51-J50</f>
         <v>57</v>
       </c>
-      <c r="K51">
+      <c r="L51" s="18">
+        <f t="shared" si="2"/>
+        <v>27.4</v>
+      </c>
+      <c r="M51">
         <v>5684</v>
       </c>
-      <c r="L51">
+      <c r="N51">
         <v>630</v>
       </c>
-      <c r="M51">
+      <c r="O51">
         <v>49</v>
       </c>
-      <c r="N51" t="s">
+      <c r="P51" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43950</v>
       </c>
@@ -6054,36 +6597,44 @@
         <f>C52-C51</f>
         <v>399</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="18">
+        <f t="shared" si="1"/>
+        <v>415.8</v>
+      </c>
+      <c r="G52">
         <v>2768</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>367</v>
       </c>
-      <c r="H52" s="5">
+      <c r="I52" s="5">
         <v>1033</v>
       </c>
-      <c r="I52" s="5">
+      <c r="J52" s="5">
         <v>1190</v>
       </c>
-      <c r="J52" s="5">
-        <f>H52-H51</f>
+      <c r="K52" s="5">
+        <f>I52-I51</f>
         <v>38</v>
       </c>
-      <c r="K52">
+      <c r="L52" s="18">
+        <f t="shared" si="2"/>
+        <v>30.4</v>
+      </c>
+      <c r="M52">
         <v>5840</v>
       </c>
-      <c r="L52">
+      <c r="N52">
         <v>646</v>
       </c>
-      <c r="M52">
+      <c r="O52">
         <v>49</v>
       </c>
-      <c r="N52" t="s">
+      <c r="P52" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43951</v>
       </c>
@@ -6097,39 +6648,47 @@
         <v>20612</v>
       </c>
       <c r="E53" s="5">
+        <f t="shared" si="3"/>
+        <v>232</v>
+      </c>
+      <c r="F53" s="18">
         <f t="shared" si="1"/>
-        <v>232</v>
-      </c>
-      <c r="F53">
+        <v>329.4</v>
+      </c>
+      <c r="G53">
         <v>2785</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>368</v>
       </c>
-      <c r="H53" s="5">
+      <c r="I53" s="5">
         <v>1050</v>
       </c>
-      <c r="I53" s="5">
+      <c r="J53" s="5">
         <v>1232</v>
       </c>
-      <c r="J53" s="5">
-        <f>H53-H52</f>
+      <c r="K53" s="5">
+        <f>I53-I52</f>
         <v>17</v>
       </c>
-      <c r="K53">
+      <c r="L53" s="18">
+        <f t="shared" si="2"/>
+        <v>30.8</v>
+      </c>
+      <c r="M53">
         <v>5973</v>
       </c>
-      <c r="L53">
+      <c r="N53">
         <v>676</v>
       </c>
-      <c r="M53">
+      <c r="O53">
         <v>49</v>
       </c>
-      <c r="N53" t="s">
+      <c r="P53" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43952</v>
       </c>
@@ -6143,85 +6702,101 @@
         <v>21064</v>
       </c>
       <c r="E54" s="5">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="F54" s="18">
         <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="F54">
+        <v>290</v>
+      </c>
+      <c r="G54">
         <v>2825</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>363</v>
       </c>
-      <c r="H54" s="5">
+      <c r="I54" s="5">
         <v>1074</v>
       </c>
-      <c r="I54" s="5">
+      <c r="J54" s="5">
         <v>1265</v>
       </c>
-      <c r="J54" s="5">
-        <f>H54-H53</f>
+      <c r="K54" s="5">
+        <f>I54-I53</f>
         <v>24</v>
       </c>
-      <c r="K54">
+      <c r="L54" s="18">
+        <f t="shared" si="2"/>
+        <v>30.2</v>
+      </c>
+      <c r="M54">
         <v>6068</v>
       </c>
-      <c r="L54">
+      <c r="N54">
         <v>694</v>
       </c>
-      <c r="M54">
+      <c r="O54">
         <v>49</v>
       </c>
-      <c r="N54" t="s">
+      <c r="P54" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43953</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C55" s="5">
-        <v>21176</v>
+        <v>21437</v>
       </c>
       <c r="D55" s="5">
         <v>21176</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" ref="E55" si="2">C55-C54</f>
-        <v>343</v>
-      </c>
-      <c r="F55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G55" t="s">
-        <v>8</v>
-      </c>
-      <c r="H55" s="5">
+        <f t="shared" ref="E55" si="4">C55-C54</f>
+        <v>604</v>
+      </c>
+      <c r="F55" s="18">
+        <f t="shared" si="1"/>
+        <v>342.8</v>
+      </c>
+      <c r="G55">
+        <v>2840</v>
+      </c>
+      <c r="H55">
+        <v>364</v>
+      </c>
+      <c r="I55" s="5">
+        <v>1088</v>
+      </c>
+      <c r="J55" s="5">
         <v>1286</v>
       </c>
-      <c r="I55" s="5">
-        <v>1286</v>
-      </c>
-      <c r="J55" s="5">
-        <f>H55-H54</f>
-        <v>212</v>
-      </c>
-      <c r="K55" t="s">
-        <v>8</v>
-      </c>
-      <c r="L55" t="s">
-        <v>8</v>
-      </c>
-      <c r="M55" t="s">
-        <v>8</v>
-      </c>
-      <c r="N55" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="K55" s="5">
+        <f>I55-I54</f>
+        <v>14</v>
+      </c>
+      <c r="L55" s="18">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="M55">
+        <v>6211</v>
+      </c>
+      <c r="N55">
+        <v>703</v>
+      </c>
+      <c r="O55">
+        <v>49</v>
+      </c>
+      <c r="P55" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43954</v>
       </c>
@@ -6235,36 +6810,98 @@
         <v>21506</v>
       </c>
       <c r="E56" s="5">
-        <f t="shared" ref="E56" si="3">C56-C55</f>
-        <v>330</v>
-      </c>
-      <c r="F56" t="s">
-        <v>8</v>
+        <f t="shared" ref="E56" si="5">C56-C55</f>
+        <v>69</v>
+      </c>
+      <c r="F56" s="18">
+        <f t="shared" si="1"/>
+        <v>279</v>
       </c>
       <c r="G56" t="s">
         <v>8</v>
       </c>
-      <c r="H56" s="5">
-        <v>1303</v>
+      <c r="H56" t="s">
+        <v>8</v>
       </c>
       <c r="I56" s="5">
         <v>1303</v>
       </c>
       <c r="J56" s="5">
-        <f>H56-H55</f>
-        <v>17</v>
-      </c>
-      <c r="K56" t="s">
-        <v>8</v>
-      </c>
-      <c r="L56" t="s">
-        <v>8</v>
+        <v>1303</v>
+      </c>
+      <c r="K56" s="5">
+        <f>I56-I55</f>
+        <v>215</v>
+      </c>
+      <c r="L56" s="18">
+        <f t="shared" si="2"/>
+        <v>61.6</v>
       </c>
       <c r="M56" t="s">
         <v>8</v>
       </c>
       <c r="N56" t="s">
+        <v>8</v>
+      </c>
+      <c r="O56" t="s">
+        <v>8</v>
+      </c>
+      <c r="P56" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="5">
+        <v>21772</v>
+      </c>
+      <c r="D57" s="5">
+        <v>21772</v>
+      </c>
+      <c r="E57" s="5">
+        <f t="shared" ref="E57" si="6">C57-C56</f>
+        <v>266</v>
+      </c>
+      <c r="F57" s="18">
+        <f t="shared" si="1"/>
+        <v>252.4</v>
+      </c>
+      <c r="G57" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="5">
+        <v>1319</v>
+      </c>
+      <c r="J57" s="5">
+        <v>1319</v>
+      </c>
+      <c r="K57" s="5">
+        <f>I57-I56</f>
+        <v>16</v>
+      </c>
+      <c r="L57" s="18">
+        <f t="shared" si="2"/>
+        <v>57.2</v>
+      </c>
+      <c r="M57" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" t="s">
+        <v>8</v>
+      </c>
+      <c r="P57" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -6274,11 +6911,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
+      <selection pane="bottomLeft" activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8211,7 +8848,7 @@
         <v>43951</v>
       </c>
       <c r="B133" t="str">
-        <f t="shared" ref="B133:B137" si="3">B130</f>
+        <f t="shared" ref="B133:B140" si="3">B130</f>
         <v>Male</v>
       </c>
       <c r="C133">
@@ -8278,6 +8915,51 @@
         <v>57</v>
       </c>
       <c r="D137">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B138" t="str">
+        <f>B135</f>
+        <v>Female</v>
+      </c>
+      <c r="C138">
+        <v>12334</v>
+      </c>
+      <c r="D138">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B139" t="str">
+        <f t="shared" si="3"/>
+        <v>Male</v>
+      </c>
+      <c r="C139">
+        <v>9045</v>
+      </c>
+      <c r="D139">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B140" t="str">
+        <f t="shared" si="3"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C140">
+        <v>58</v>
+      </c>
+      <c r="D140">
         <v>0.3</v>
       </c>
     </row>
@@ -8288,11 +8970,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:J512"/>
+  <dimension ref="A1:J523"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A469" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F503" sqref="F503:L512"/>
+      <pane ySplit="1" topLeftCell="A483" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F512" sqref="F512:M524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15537,6 +16219,163 @@
         <v>2</v>
       </c>
     </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A513" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B513" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C513">
+        <v>39</v>
+      </c>
+      <c r="D513" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A514" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B514" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C514">
+        <v>70</v>
+      </c>
+      <c r="D514" t="s">
+        <v>8</v>
+      </c>
+      <c r="J514" s="7"/>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A515" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B515" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C515" t="s">
+        <v>8</v>
+      </c>
+      <c r="D515">
+        <v>18</v>
+      </c>
+      <c r="F515" s="13"/>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A516" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B516" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C516">
+        <v>223</v>
+      </c>
+      <c r="D516">
+        <v>12</v>
+      </c>
+      <c r="F516" s="7"/>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A517" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B517" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C517">
+        <v>1460</v>
+      </c>
+      <c r="D517">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A518" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B518" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C518">
+        <v>3463</v>
+      </c>
+      <c r="D518">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A519" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B519" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C519">
+        <v>3667</v>
+      </c>
+      <c r="D519">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A520" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B520" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C520">
+        <v>3918</v>
+      </c>
+      <c r="D520">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A521" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B521" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C521">
+        <v>2816</v>
+      </c>
+      <c r="D521">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A522" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B522" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C522">
+        <v>5758</v>
+      </c>
+      <c r="D522">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A523" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B523" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C523">
+        <v>23</v>
+      </c>
+      <c r="D523">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15544,11 +16383,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D157"/>
+  <dimension ref="A1:D160"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C137" sqref="C137"/>
+      <selection pane="bottomLeft" activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17810,6 +18649,48 @@
         <v>106</v>
       </c>
     </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B158" t="s">
+        <v>56</v>
+      </c>
+      <c r="C158" s="11">
+        <v>63</v>
+      </c>
+      <c r="D158" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B159" t="s">
+        <v>57</v>
+      </c>
+      <c r="C159" s="11">
+        <v>34</v>
+      </c>
+      <c r="D159" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B160" t="s">
+        <v>58</v>
+      </c>
+      <c r="C160" s="11">
+        <v>3</v>
+      </c>
+      <c r="D160" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17817,10 +18698,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E1217"/>
+  <dimension ref="A1:E1243"/>
   <sheetViews>
-    <sheetView topLeftCell="A1176" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A1192" sqref="A1192:A1217"/>
+    <sheetView topLeftCell="A1199" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A1228" sqref="A1228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35353,6 +36234,370 @@
         <v>618</v>
       </c>
       <c r="D1217" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1218" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1218">
+        <v>127</v>
+      </c>
+      <c r="D1218" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1219" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1219">
+        <v>682</v>
+      </c>
+      <c r="D1219" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1220" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1220">
+        <v>245</v>
+      </c>
+      <c r="D1220" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1221" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1221">
+        <v>1175</v>
+      </c>
+      <c r="D1221" s="3">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1222" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1222">
+        <v>465</v>
+      </c>
+      <c r="D1222" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1223" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1223">
+        <v>10561</v>
+      </c>
+      <c r="D1223" s="3">
+        <v>0.49299999999999999</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1224" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1224">
+        <v>365</v>
+      </c>
+      <c r="D1224" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1225" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1225">
+        <v>298</v>
+      </c>
+      <c r="D1225" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1226" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1226">
+        <v>1268</v>
+      </c>
+      <c r="D1226" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1227" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1227">
+        <v>259</v>
+      </c>
+      <c r="D1227" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1228" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1228">
+        <v>237</v>
+      </c>
+      <c r="D1228" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1229" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1229">
+        <v>70</v>
+      </c>
+      <c r="D1229" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1230" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1230">
+        <v>583</v>
+      </c>
+      <c r="D1230" s="3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1231" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1231">
+        <v>213</v>
+      </c>
+      <c r="D1231" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1232" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1232">
+        <v>679</v>
+      </c>
+      <c r="D1232" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1233" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1233">
+        <v>501</v>
+      </c>
+      <c r="D1233" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1234" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1234">
+        <v>713</v>
+      </c>
+      <c r="D1234" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1235" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1235">
+        <v>423</v>
+      </c>
+      <c r="D1235" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1236" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1236">
+        <v>314</v>
+      </c>
+      <c r="D1236" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1237" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1237">
+        <v>174</v>
+      </c>
+      <c r="D1237" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1238" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1238">
+        <v>119</v>
+      </c>
+      <c r="D1238" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1239" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1239">
+        <v>479</v>
+      </c>
+      <c r="D1239" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1240" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1240">
+        <v>140</v>
+      </c>
+      <c r="D1240" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1241" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1241">
+        <v>540</v>
+      </c>
+      <c r="D1241" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1242" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1242">
+        <v>185</v>
+      </c>
+      <c r="D1242" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1243" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1243">
+        <v>622</v>
+      </c>
+      <c r="D1243" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
@@ -36350,10 +37595,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37104,6 +38349,30 @@
         <v>0.12713895170272368</v>
       </c>
     </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B32">
+        <v>69</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>3836</v>
+      </c>
+      <c r="E32">
+        <v>387</v>
+      </c>
+      <c r="F32">
+        <v>30946</v>
+      </c>
+      <c r="G32" s="10">
+        <f>D32/F32</f>
+        <v>0.12395786208233697</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
     <sortCondition ref="A2:A10"/>
@@ -37114,10 +38383,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0979910-C687-6A43-A609-0D992245C102}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A17" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37386,7 +38655,7 @@
         <v>43931</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" ref="B24:B36" si="1">B21</f>
+        <f t="shared" ref="B24:B38" si="1">B21</f>
         <v>Female</v>
       </c>
       <c r="C24">
@@ -37539,7 +38808,26 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38">
+        <v>1512</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95DF8BC-79DC-B248-A98F-AE20AAB5E6EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9108C6E9-BC96-D34A-9EA8-C1593A03F572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,8 +40,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={ED7300D1-C478-D94A-8DCB-8D9DC1002B88}</author>
+  </authors>
+  <commentList>
+    <comment ref="D423" authorId="0" shapeId="0" xr:uid="{ED7300D1-C478-D94A-8DCB-8D9DC1002B88}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Checked these values and they match the website. The unknown is definitely wrong</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2923" uniqueCount="181">
   <si>
     <t>Date</t>
   </si>
@@ -1166,6 +1184,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Andrew Parnell" id="{A3D6692B-6772-4B43-A5E4-E7F964751EED}" userId="S::andrew.parnell@ucd.ie::fd0785bf-3bd5-457b-95af-ff2d7c1f5b1b" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1461,6 +1485,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D423" dT="2020-05-04T18:35:17.43" personId="{A3D6692B-6772-4B43-A5E4-E7F964751EED}" id="{ED7300D1-C478-D94A-8DCB-8D9DC1002B88}">
+    <text>Checked these values and they match the website. The unknown is definitely wrong</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5E2DA3-023C-FF46-A014-0C2E672468A0}">
   <dimension ref="A1:B4"/>
@@ -1484,10 +1516,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43953.8125</v>
+        <v>43954.808333333334</v>
       </c>
       <c r="B2" s="12">
-        <v>43955.8125</v>
+        <v>43956.808333333334</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1913,10 +1945,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AE50F-07C0-7048-95B5-0C81D93B81F0}">
-  <dimension ref="A1:C155"/>
+  <dimension ref="A1:C166"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C156" sqref="C156"/>
+    <sheetView topLeftCell="A122" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3604,7 +3636,7 @@
         <v>43954</v>
       </c>
       <c r="B146" t="str">
-        <f t="shared" ref="B146:B155" si="3">B135</f>
+        <f t="shared" ref="B146:B166" si="3">B135</f>
         <v>Ards And North Down</v>
       </c>
       <c r="C146" s="8">
@@ -3717,6 +3749,138 @@
       </c>
       <c r="C155" s="8">
         <v>231</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B156" t="str">
+        <f>B145</f>
+        <v>Antrim And Newtownabbey</v>
+      </c>
+      <c r="C156" s="8">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B157" t="str">
+        <f t="shared" si="3"/>
+        <v>Ards And North Down</v>
+      </c>
+      <c r="C157" s="8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B158" t="str">
+        <f t="shared" si="3"/>
+        <v>Armagh, Banbridge And Craigavon</v>
+      </c>
+      <c r="C158" s="8">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B159" t="str">
+        <f t="shared" si="3"/>
+        <v>Belfast</v>
+      </c>
+      <c r="C159" s="8">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B160" t="str">
+        <f t="shared" si="3"/>
+        <v>Causeway Coast And Glens</v>
+      </c>
+      <c r="C160" s="8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B161" t="str">
+        <f t="shared" si="3"/>
+        <v>Derry And Strabane</v>
+      </c>
+      <c r="C161" s="8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B162" t="str">
+        <f t="shared" si="3"/>
+        <v>Fermanagh And Omagh</v>
+      </c>
+      <c r="C162" s="8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B163" t="str">
+        <f t="shared" si="3"/>
+        <v>Lisburn And Castlereagh</v>
+      </c>
+      <c r="C163" s="8">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B164" t="str">
+        <f t="shared" si="3"/>
+        <v>Mid And East Antrim</v>
+      </c>
+      <c r="C164" s="8">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B165" t="str">
+        <f t="shared" si="3"/>
+        <v>Mid Ulster</v>
+      </c>
+      <c r="C165" s="8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B166" t="str">
+        <f t="shared" si="3"/>
+        <v>Newry, Mourne And Down</v>
+      </c>
+      <c r="C166" s="8">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3848,13 +4012,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L52" sqref="L52"/>
+      <selection pane="bottomRight" activeCell="P58" sqref="P58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6614,7 +6778,7 @@
         <v>1190</v>
       </c>
       <c r="K52" s="5">
-        <f>I52-I51</f>
+        <f t="shared" ref="K52:K57" si="4">I52-I51</f>
         <v>38</v>
       </c>
       <c r="L52" s="18">
@@ -6668,7 +6832,7 @@
         <v>1232</v>
       </c>
       <c r="K53" s="5">
-        <f>I53-I52</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="L53" s="18">
@@ -6722,7 +6886,7 @@
         <v>1265</v>
       </c>
       <c r="K54" s="5">
-        <f>I54-I53</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="L54" s="18">
@@ -6756,7 +6920,7 @@
         <v>21176</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" ref="E55" si="4">C55-C54</f>
+        <f t="shared" ref="E55" si="5">C55-C54</f>
         <v>604</v>
       </c>
       <c r="F55" s="18">
@@ -6776,7 +6940,7 @@
         <v>1286</v>
       </c>
       <c r="K55" s="5">
-        <f>I55-I54</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="L55" s="18">
@@ -6810,7 +6974,7 @@
         <v>21506</v>
       </c>
       <c r="E56" s="5">
-        <f t="shared" ref="E56" si="5">C56-C55</f>
+        <f t="shared" ref="E56" si="6">C56-C55</f>
         <v>69</v>
       </c>
       <c r="F56" s="18">
@@ -6830,7 +6994,7 @@
         <v>1303</v>
       </c>
       <c r="K56" s="5">
-        <f>I56-I55</f>
+        <f t="shared" si="4"/>
         <v>215</v>
       </c>
       <c r="L56" s="18">
@@ -6864,7 +7028,7 @@
         <v>21772</v>
       </c>
       <c r="E57" s="5">
-        <f t="shared" ref="E57" si="6">C57-C56</f>
+        <f t="shared" ref="E57" si="7">C57-C56</f>
         <v>266</v>
       </c>
       <c r="F57" s="18">
@@ -6884,7 +7048,7 @@
         <v>1319</v>
       </c>
       <c r="K57" s="5">
-        <f>I57-I56</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="L57" s="18">
@@ -6901,6 +7065,60 @@
         <v>8</v>
       </c>
       <c r="P57" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="5">
+        <v>21983</v>
+      </c>
+      <c r="D58" s="5">
+        <v>21983</v>
+      </c>
+      <c r="E58" s="5">
+        <f t="shared" ref="E58" si="8">C58-C57</f>
+        <v>211</v>
+      </c>
+      <c r="F58" s="18">
+        <f t="shared" ref="F58" si="9">AVERAGE(E54:E58)</f>
+        <v>248.2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="5">
+        <v>1339</v>
+      </c>
+      <c r="J58" s="5">
+        <v>1339</v>
+      </c>
+      <c r="K58" s="5">
+        <f t="shared" ref="K58" si="10">I58-I57</f>
+        <v>20</v>
+      </c>
+      <c r="L58" s="18">
+        <f t="shared" ref="L58" si="11">AVERAGE(K54:K58)</f>
+        <v>57.8</v>
+      </c>
+      <c r="M58" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6911,11 +7129,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D141" sqref="D141"/>
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8848,7 +9066,7 @@
         <v>43951</v>
       </c>
       <c r="B133" t="str">
-        <f t="shared" ref="B133:B140" si="3">B130</f>
+        <f t="shared" ref="B133:B143" si="3">B130</f>
         <v>Male</v>
       </c>
       <c r="C133">
@@ -8960,6 +9178,51 @@
         <v>58</v>
       </c>
       <c r="D140">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B141" t="str">
+        <f>B138</f>
+        <v>Female</v>
+      </c>
+      <c r="C141">
+        <v>12446</v>
+      </c>
+      <c r="D141">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B142" t="str">
+        <f t="shared" si="3"/>
+        <v>Male</v>
+      </c>
+      <c r="C142">
+        <v>9151</v>
+      </c>
+      <c r="D142">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B143" t="str">
+        <f t="shared" si="3"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C143">
+        <v>62</v>
+      </c>
+      <c r="D143">
         <v>0.3</v>
       </c>
     </row>
@@ -8969,12 +9232,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:J523"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
+  <dimension ref="A1:J534"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A483" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F512" sqref="F512:M524"/>
+      <pane ySplit="1" topLeftCell="A501" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A524" sqref="A524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14948,7 +15211,7 @@
       <c r="C423" s="15">
         <v>4685</v>
       </c>
-      <c r="D423">
+      <c r="D423" s="16">
         <v>1028</v>
       </c>
     </row>
@@ -14962,7 +15225,7 @@
       <c r="C424">
         <v>24</v>
       </c>
-      <c r="D424">
+      <c r="D424" s="16">
         <v>330</v>
       </c>
     </row>
@@ -16376,18 +16639,176 @@
         <v>2</v>
       </c>
     </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A524" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B524" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C524">
+        <v>39</v>
+      </c>
+      <c r="D524" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A525" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B525" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C525">
+        <v>72</v>
+      </c>
+      <c r="D525" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A526" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B526" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C526" t="s">
+        <v>8</v>
+      </c>
+      <c r="D526">
+        <v>18</v>
+      </c>
+      <c r="E526" s="13"/>
+      <c r="I526" s="7"/>
+    </row>
+    <row r="527" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A527" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B527" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C527">
+        <v>230</v>
+      </c>
+      <c r="D527">
+        <v>13</v>
+      </c>
+      <c r="E527" s="7"/>
+    </row>
+    <row r="528" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A528" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B528" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C528">
+        <v>1475</v>
+      </c>
+      <c r="D528">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A529" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B529" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C529">
+        <v>3496</v>
+      </c>
+      <c r="D529">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A530" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B530" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C530">
+        <v>3714</v>
+      </c>
+      <c r="D530">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A531" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B531" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C531">
+        <v>3956</v>
+      </c>
+      <c r="D531">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A532" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B532" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C532">
+        <v>2843</v>
+      </c>
+      <c r="D532">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A533" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B533" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C533">
+        <v>5810</v>
+      </c>
+      <c r="D533">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A534" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B534" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C534">
+        <v>24</v>
+      </c>
+      <c r="D534">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D160"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B162" sqref="B162"/>
+      <selection pane="bottomLeft" activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18691,6 +19112,48 @@
         <v>106</v>
       </c>
     </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B161" t="s">
+        <v>56</v>
+      </c>
+      <c r="C161" s="11">
+        <v>62</v>
+      </c>
+      <c r="D161" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B162" t="s">
+        <v>57</v>
+      </c>
+      <c r="C162" s="11">
+        <v>35</v>
+      </c>
+      <c r="D162" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B163" t="s">
+        <v>58</v>
+      </c>
+      <c r="C163" s="11">
+        <v>3</v>
+      </c>
+      <c r="D163" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18698,10 +19161,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E1243"/>
+  <dimension ref="A1:E1269"/>
   <sheetViews>
-    <sheetView topLeftCell="A1199" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A1228" sqref="A1228"/>
+    <sheetView topLeftCell="A1225" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A1244" sqref="A1244:A1269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36598,6 +37061,370 @@
         <v>622</v>
       </c>
       <c r="D1243" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1244" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1244">
+        <v>127</v>
+      </c>
+      <c r="D1244" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1245" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1245">
+        <v>694</v>
+      </c>
+      <c r="D1245" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1246" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1246">
+        <v>249</v>
+      </c>
+      <c r="D1246" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1247" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1247">
+        <v>1177</v>
+      </c>
+      <c r="D1247" s="3">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1248" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1248">
+        <v>466</v>
+      </c>
+      <c r="D1248" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1249" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1249">
+        <v>10670</v>
+      </c>
+      <c r="D1249" s="3">
+        <v>0.49299999999999999</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1250" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1250">
+        <v>369</v>
+      </c>
+      <c r="D1250" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1251" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1251">
+        <v>301</v>
+      </c>
+      <c r="D1251" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1252" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1252">
+        <v>1280</v>
+      </c>
+      <c r="D1252" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1253" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1253">
+        <v>258</v>
+      </c>
+      <c r="D1253" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1254" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1254">
+        <v>238</v>
+      </c>
+      <c r="D1254" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1255" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1255">
+        <v>70</v>
+      </c>
+      <c r="D1255" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1256" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1256">
+        <v>585</v>
+      </c>
+      <c r="D1256" s="3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1257" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1257">
+        <v>235</v>
+      </c>
+      <c r="D1257" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1258" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1258">
+        <v>685</v>
+      </c>
+      <c r="D1258" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1259" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1259">
+        <v>510</v>
+      </c>
+      <c r="D1259" s="3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1260" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1260">
+        <v>717</v>
+      </c>
+      <c r="D1260" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1261" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1261">
+        <v>429</v>
+      </c>
+      <c r="D1261" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1262" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1262">
+        <v>317</v>
+      </c>
+      <c r="D1262" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1263" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1263">
+        <v>181</v>
+      </c>
+      <c r="D1263" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1264" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1264">
+        <v>120</v>
+      </c>
+      <c r="D1264" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1265" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1265">
+        <v>486</v>
+      </c>
+      <c r="D1265" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1266" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1266">
+        <v>139</v>
+      </c>
+      <c r="D1266" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1267" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1267">
+        <v>547</v>
+      </c>
+      <c r="D1267" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1268" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1268">
+        <v>184</v>
+      </c>
+      <c r="D1268" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1269" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1269">
+        <v>625</v>
+      </c>
+      <c r="D1269" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
@@ -37595,10 +38422,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38240,7 +39067,7 @@
         <v>9</v>
       </c>
       <c r="D27">
-        <v>3463</v>
+        <v>3408</v>
       </c>
       <c r="E27">
         <v>338</v>
@@ -38250,7 +39077,7 @@
       </c>
       <c r="G27" s="10">
         <f>D27/F27</f>
-        <v>0.14216511351040684</v>
+        <v>0.13990722115029353</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -38264,7 +39091,7 @@
         <v>9</v>
       </c>
       <c r="D28">
-        <v>3536</v>
+        <v>3463</v>
       </c>
       <c r="E28">
         <v>347</v>
@@ -38274,7 +39101,7 @@
       </c>
       <c r="G28" s="10">
         <f>D28/F28</f>
-        <v>0.13717123128248895</v>
+        <v>0.13433935914345566</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -38371,6 +39198,30 @@
       <c r="G32" s="10">
         <f>D32/F32</f>
         <v>0.12395786208233697</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B33">
+        <v>45</v>
+      </c>
+      <c r="C33">
+        <v>17</v>
+      </c>
+      <c r="D33">
+        <v>3881</v>
+      </c>
+      <c r="E33">
+        <v>404</v>
+      </c>
+      <c r="F33">
+        <v>32094</v>
+      </c>
+      <c r="G33" s="10">
+        <f>D33/F33</f>
+        <v>0.12092602978749922</v>
       </c>
     </row>
   </sheetData>
@@ -38383,10 +39234,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0979910-C687-6A43-A609-0D992245C102}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A20" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38655,7 +39506,7 @@
         <v>43931</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" ref="B24:B38" si="1">B21</f>
+        <f t="shared" ref="B24:B36" si="1">B21</f>
         <v>Female</v>
       </c>
       <c r="C24">
@@ -38829,6 +39680,28 @@
         <v>1512</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40">
+        <v>1527</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9108C6E9-BC96-D34A-9EA8-C1593A03F572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14587EFC-05B3-7E41-A7C5-1C6500FA9108}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2923" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2968" uniqueCount="183">
   <si>
     <t>Date</t>
   </si>
@@ -602,6 +602,12 @@
   </si>
   <si>
     <t>5-day average daily deaths</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/6f789f-statement-from-the-national-public-health-emergency-team-tuesday-5-m/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/02ab5c-statement-from-the-national-public-health-emergency-team-wednesday-6/</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1504,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1516,10 +1522,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43954.808333333334</v>
+        <v>43955.845833333333</v>
       </c>
       <c r="B2" s="12">
-        <v>43956.808333333334</v>
+        <v>43957.845833333333</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1945,10 +1951,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AE50F-07C0-7048-95B5-0C81D93B81F0}">
-  <dimension ref="A1:C166"/>
+  <dimension ref="A1:C177"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView topLeftCell="A133" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3636,7 +3642,7 @@
         <v>43954</v>
       </c>
       <c r="B146" t="str">
-        <f t="shared" ref="B146:B166" si="3">B135</f>
+        <f t="shared" ref="B146:B177" si="3">B135</f>
         <v>Ards And North Down</v>
       </c>
       <c r="C146" s="8">
@@ -3881,6 +3887,138 @@
       </c>
       <c r="C166" s="8">
         <v>232</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B167" t="str">
+        <f>B156</f>
+        <v>Antrim And Newtownabbey</v>
+      </c>
+      <c r="C167" s="8">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B168" t="str">
+        <f t="shared" si="3"/>
+        <v>Ards And North Down</v>
+      </c>
+      <c r="C168" s="8">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B169" t="str">
+        <f t="shared" si="3"/>
+        <v>Armagh, Banbridge And Craigavon</v>
+      </c>
+      <c r="C169" s="8">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B170" t="str">
+        <f t="shared" si="3"/>
+        <v>Belfast</v>
+      </c>
+      <c r="C170" s="8">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B171" t="str">
+        <f t="shared" si="3"/>
+        <v>Causeway Coast And Glens</v>
+      </c>
+      <c r="C171" s="8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B172" t="str">
+        <f t="shared" si="3"/>
+        <v>Derry And Strabane</v>
+      </c>
+      <c r="C172" s="8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B173" t="str">
+        <f t="shared" si="3"/>
+        <v>Fermanagh And Omagh</v>
+      </c>
+      <c r="C173" s="8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B174" t="str">
+        <f t="shared" si="3"/>
+        <v>Lisburn And Castlereagh</v>
+      </c>
+      <c r="C174" s="8">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B175" t="str">
+        <f t="shared" si="3"/>
+        <v>Mid And East Antrim</v>
+      </c>
+      <c r="C175" s="8">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B176" t="str">
+        <f t="shared" si="3"/>
+        <v>Mid Ulster</v>
+      </c>
+      <c r="C176" s="8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B177" t="str">
+        <f t="shared" si="3"/>
+        <v>Newry, Mourne And Down</v>
+      </c>
+      <c r="C177" s="8">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4012,13 +4150,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P58" sqref="P58"/>
+      <selection pane="bottomRight" activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6965,53 +7103,53 @@
         <v>43954</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C56" s="5">
-        <v>21506</v>
+        <v>21659</v>
       </c>
       <c r="D56" s="5">
         <v>21506</v>
       </c>
       <c r="E56" s="5">
         <f t="shared" ref="E56" si="6">C56-C55</f>
-        <v>69</v>
+        <v>222</v>
       </c>
       <c r="F56" s="18">
         <f t="shared" si="1"/>
-        <v>279</v>
-      </c>
-      <c r="G56" t="s">
-        <v>8</v>
-      </c>
-      <c r="H56" t="s">
-        <v>8</v>
+        <v>309.60000000000002</v>
+      </c>
+      <c r="G56">
+        <v>2879</v>
+      </c>
+      <c r="H56">
+        <v>369</v>
       </c>
       <c r="I56" s="5">
-        <v>1303</v>
+        <v>1099</v>
       </c>
       <c r="J56" s="5">
         <v>1303</v>
       </c>
       <c r="K56" s="5">
         <f t="shared" si="4"/>
-        <v>215</v>
+        <v>11</v>
       </c>
       <c r="L56" s="18">
         <f t="shared" si="2"/>
-        <v>61.6</v>
-      </c>
-      <c r="M56" t="s">
-        <v>8</v>
-      </c>
-      <c r="N56" t="s">
-        <v>8</v>
-      </c>
-      <c r="O56" t="s">
-        <v>8</v>
+        <v>20.8</v>
+      </c>
+      <c r="M56">
+        <v>6293</v>
+      </c>
+      <c r="N56">
+        <v>706</v>
+      </c>
+      <c r="O56">
+        <v>49</v>
       </c>
       <c r="P56" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -7019,53 +7157,53 @@
         <v>43955</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C57" s="5">
-        <v>21772</v>
+        <v>21908</v>
       </c>
       <c r="D57" s="5">
         <v>21772</v>
       </c>
       <c r="E57" s="5">
         <f t="shared" ref="E57" si="7">C57-C56</f>
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F57" s="18">
         <f t="shared" si="1"/>
-        <v>252.4</v>
-      </c>
-      <c r="G57" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" t="s">
-        <v>8</v>
+        <v>279.60000000000002</v>
+      </c>
+      <c r="G57">
+        <v>2878</v>
+      </c>
+      <c r="H57">
+        <v>373</v>
       </c>
       <c r="I57" s="5">
-        <v>1319</v>
+        <v>1128</v>
       </c>
       <c r="J57" s="5">
         <v>1319</v>
       </c>
       <c r="K57" s="5">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L57" s="18">
         <f t="shared" si="2"/>
-        <v>57.2</v>
-      </c>
-      <c r="M57" t="s">
-        <v>8</v>
-      </c>
-      <c r="N57" t="s">
-        <v>8</v>
-      </c>
-      <c r="O57" t="s">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="M57">
+        <v>6393</v>
+      </c>
+      <c r="N57">
+        <v>710</v>
+      </c>
+      <c r="O57">
+        <v>49</v>
       </c>
       <c r="P57" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -7083,7 +7221,7 @@
       </c>
       <c r="E58" s="5">
         <f t="shared" ref="E58" si="8">C58-C57</f>
-        <v>211</v>
+        <v>75</v>
       </c>
       <c r="F58" s="18">
         <f t="shared" ref="F58" si="9">AVERAGE(E54:E58)</f>
@@ -7103,7 +7241,7 @@
       </c>
       <c r="K58" s="5">
         <f t="shared" ref="K58" si="10">I58-I57</f>
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="L58" s="18">
         <f t="shared" ref="L58" si="11">AVERAGE(K54:K58)</f>
@@ -7119,6 +7257,60 @@
         <v>8</v>
       </c>
       <c r="P58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="5">
+        <v>22248</v>
+      </c>
+      <c r="D59" s="5">
+        <v>22248</v>
+      </c>
+      <c r="E59" s="5">
+        <f t="shared" ref="E59" si="12">C59-C58</f>
+        <v>265</v>
+      </c>
+      <c r="F59" s="18">
+        <f t="shared" ref="F59" si="13">AVERAGE(E55:E59)</f>
+        <v>283</v>
+      </c>
+      <c r="G59" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="5">
+        <v>1375</v>
+      </c>
+      <c r="J59" s="5">
+        <v>1375</v>
+      </c>
+      <c r="K59" s="5">
+        <f t="shared" ref="K59" si="14">I59-I58</f>
+        <v>36</v>
+      </c>
+      <c r="L59" s="18">
+        <f t="shared" ref="L59" si="15">AVERAGE(K55:K59)</f>
+        <v>60.2</v>
+      </c>
+      <c r="M59" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7129,11 +7321,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D144" sqref="D144"/>
+      <selection pane="bottomLeft" activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9066,7 +9258,7 @@
         <v>43951</v>
       </c>
       <c r="B133" t="str">
-        <f t="shared" ref="B133:B143" si="3">B130</f>
+        <f t="shared" ref="B133:B146" si="3">B130</f>
         <v>Male</v>
       </c>
       <c r="C133">
@@ -9223,6 +9415,51 @@
         <v>62</v>
       </c>
       <c r="D143">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B144" t="str">
+        <f>B141</f>
+        <v>Female</v>
+      </c>
+      <c r="C144">
+        <v>12562</v>
+      </c>
+      <c r="D144">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B145" t="str">
+        <f t="shared" si="3"/>
+        <v>Male</v>
+      </c>
+      <c r="C145">
+        <v>9283</v>
+      </c>
+      <c r="D145">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B146" t="str">
+        <f t="shared" si="3"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C146">
+        <v>63</v>
+      </c>
+      <c r="D146">
         <v>0.3</v>
       </c>
     </row>
@@ -9233,11 +9470,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:J534"/>
+  <dimension ref="A1:J545"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A501" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A524" sqref="A524"/>
+      <pane ySplit="1" topLeftCell="A508" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G537" sqref="G537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16712,7 +16949,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>43954</v>
       </c>
@@ -16726,7 +16963,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>43954</v>
       </c>
@@ -16740,7 +16977,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>43954</v>
       </c>
@@ -16754,7 +16991,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>43954</v>
       </c>
@@ -16768,7 +17005,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>43954</v>
       </c>
@@ -16782,7 +17019,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>43954</v>
       </c>
@@ -16793,6 +17030,163 @@
         <v>24</v>
       </c>
       <c r="D534">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A535" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B535" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C535">
+        <v>39</v>
+      </c>
+      <c r="D535" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A536" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B536" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C536">
+        <v>75</v>
+      </c>
+      <c r="D536" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A537" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B537" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C537" t="s">
+        <v>8</v>
+      </c>
+      <c r="D537">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A538" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B538" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C538">
+        <v>230</v>
+      </c>
+      <c r="D538">
+        <v>14</v>
+      </c>
+      <c r="E538" s="13"/>
+      <c r="I538" s="7"/>
+    </row>
+    <row r="539" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A539" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B539" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C539">
+        <v>1495</v>
+      </c>
+      <c r="D539">
+        <v>61</v>
+      </c>
+      <c r="E539" s="7"/>
+    </row>
+    <row r="540" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A540" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B540" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C540">
+        <v>3556</v>
+      </c>
+      <c r="D540">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A541" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B541" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C541">
+        <v>3766</v>
+      </c>
+      <c r="D541">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A542" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B542" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C542">
+        <v>3996</v>
+      </c>
+      <c r="D542">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A543" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B543" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C543">
+        <v>2866</v>
+      </c>
+      <c r="D543">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A544" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B544" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C544">
+        <v>5855</v>
+      </c>
+      <c r="D544">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A545" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B545" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C545">
+        <v>24</v>
+      </c>
+      <c r="D545">
         <v>2</v>
       </c>
     </row>
@@ -16804,11 +17198,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:D166"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C163" sqref="C163"/>
+      <selection pane="bottomLeft" activeCell="A164" sqref="A164:A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19154,6 +19548,48 @@
         <v>106</v>
       </c>
     </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B164" t="s">
+        <v>56</v>
+      </c>
+      <c r="C164" s="11">
+        <v>62</v>
+      </c>
+      <c r="D164" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B165" t="s">
+        <v>57</v>
+      </c>
+      <c r="C165" s="11">
+        <v>35</v>
+      </c>
+      <c r="D165" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B166" t="s">
+        <v>58</v>
+      </c>
+      <c r="C166" s="11">
+        <v>3</v>
+      </c>
+      <c r="D166" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19161,10 +19597,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E1269"/>
+  <dimension ref="A1:E1295"/>
   <sheetViews>
-    <sheetView topLeftCell="A1225" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A1244" sqref="A1244:A1269"/>
+    <sheetView topLeftCell="A1249" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A1270" sqref="A1270:A1295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37425,6 +37861,370 @@
         <v>625</v>
       </c>
       <c r="D1269" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1270" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1270">
+        <v>132</v>
+      </c>
+      <c r="D1270" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1271" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1271">
+        <v>709</v>
+      </c>
+      <c r="D1271" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1272" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1272">
+        <v>254</v>
+      </c>
+      <c r="D1272" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1273" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1273">
+        <v>1192</v>
+      </c>
+      <c r="D1273" s="3">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1274" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1274">
+        <v>467</v>
+      </c>
+      <c r="D1274" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1275" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1275">
+        <v>10734</v>
+      </c>
+      <c r="D1275" s="2">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1276" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1276">
+        <v>375</v>
+      </c>
+      <c r="D1276" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1277" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1277">
+        <v>302</v>
+      </c>
+      <c r="D1277" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1278" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1278">
+        <v>1289</v>
+      </c>
+      <c r="D1278" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1279" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1279">
+        <v>259</v>
+      </c>
+      <c r="D1279" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1280" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1280">
+        <v>240</v>
+      </c>
+      <c r="D1280" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1281" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1281">
+        <v>70</v>
+      </c>
+      <c r="D1281" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1282" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1282">
+        <v>591</v>
+      </c>
+      <c r="D1282" s="3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1283" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1283">
+        <v>257</v>
+      </c>
+      <c r="D1283" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1284" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1284">
+        <v>693</v>
+      </c>
+      <c r="D1284" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1285" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1285">
+        <v>512</v>
+      </c>
+      <c r="D1285" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1286" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1286">
+        <v>722</v>
+      </c>
+      <c r="D1286" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1287" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1287">
+        <v>432</v>
+      </c>
+      <c r="D1287" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1288" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1288">
+        <v>339</v>
+      </c>
+      <c r="D1288" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1289" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1289">
+        <v>212</v>
+      </c>
+      <c r="D1289" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1290" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1290">
+        <v>121</v>
+      </c>
+      <c r="D1290" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1291" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1291">
+        <v>501</v>
+      </c>
+      <c r="D1291" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1292" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1292">
+        <v>139</v>
+      </c>
+      <c r="D1292" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1293" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1293">
+        <v>554</v>
+      </c>
+      <c r="D1293" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1294" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1294">
+        <v>184</v>
+      </c>
+      <c r="D1294" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1295" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1295">
+        <v>628</v>
+      </c>
+      <c r="D1295" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
@@ -38422,10 +39222,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39224,6 +40024,30 @@
         <v>0.12092602978749922</v>
       </c>
     </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B34">
+        <v>53</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>3934</v>
+      </c>
+      <c r="E34">
+        <v>418</v>
+      </c>
+      <c r="F34">
+        <v>33395</v>
+      </c>
+      <c r="G34" s="10">
+        <f>D34/F34</f>
+        <v>0.1178020661775715</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
     <sortCondition ref="A2:A10"/>
@@ -39234,10 +40058,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0979910-C687-6A43-A609-0D992245C102}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView topLeftCell="A20" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39702,6 +40526,28 @@
         <v>1527</v>
       </c>
     </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42">
+        <v>1545</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14587EFC-05B3-7E41-A7C5-1C6500FA9108}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F8582D-9C26-AD4A-9BD7-E01D3FA01415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2968" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3018" uniqueCount="184">
   <si>
     <t>Date</t>
   </si>
@@ -608,6 +608,9 @@
   </si>
   <si>
     <t>https://www.gov.ie/en/press-release/02ab5c-statement-from-the-national-public-health-emergency-team-wednesday-6/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/fe4551-statement-from-the-national-public-emergency-team-7-may/</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1507,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1522,10 +1525,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43955.845833333333</v>
+        <v>43956.817361111112</v>
       </c>
       <c r="B2" s="12">
-        <v>43957.845833333333</v>
+        <v>43958.817361111112</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1951,10 +1954,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AE50F-07C0-7048-95B5-0C81D93B81F0}">
-  <dimension ref="A1:C177"/>
+  <dimension ref="A1:C188"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B164" sqref="B164"/>
+    <sheetView topLeftCell="A143" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3642,7 +3645,7 @@
         <v>43954</v>
       </c>
       <c r="B146" t="str">
-        <f t="shared" ref="B146:B177" si="3">B135</f>
+        <f t="shared" ref="B146:B188" si="3">B135</f>
         <v>Ards And North Down</v>
       </c>
       <c r="C146" s="8">
@@ -4019,6 +4022,138 @@
       </c>
       <c r="C177" s="8">
         <v>233</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B178" t="str">
+        <f>B167</f>
+        <v>Antrim And Newtownabbey</v>
+      </c>
+      <c r="C178" s="8">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B179" t="str">
+        <f t="shared" si="3"/>
+        <v>Ards And North Down</v>
+      </c>
+      <c r="C179" s="8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B180" t="str">
+        <f t="shared" si="3"/>
+        <v>Armagh, Banbridge And Craigavon</v>
+      </c>
+      <c r="C180" s="8">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B181" t="str">
+        <f t="shared" si="3"/>
+        <v>Belfast</v>
+      </c>
+      <c r="C181" s="8">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B182" t="str">
+        <f t="shared" si="3"/>
+        <v>Causeway Coast And Glens</v>
+      </c>
+      <c r="C182" s="8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B183" t="str">
+        <f t="shared" si="3"/>
+        <v>Derry And Strabane</v>
+      </c>
+      <c r="C183" s="8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B184" t="str">
+        <f t="shared" si="3"/>
+        <v>Fermanagh And Omagh</v>
+      </c>
+      <c r="C184" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B185" t="str">
+        <f t="shared" si="3"/>
+        <v>Lisburn And Castlereagh</v>
+      </c>
+      <c r="C185" s="8">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B186" t="str">
+        <f t="shared" si="3"/>
+        <v>Mid And East Antrim</v>
+      </c>
+      <c r="C186" s="8">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B187" t="str">
+        <f t="shared" si="3"/>
+        <v>Mid Ulster</v>
+      </c>
+      <c r="C187" s="8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B188" t="str">
+        <f t="shared" si="3"/>
+        <v>Newry, Mourne And Down</v>
+      </c>
+      <c r="C188" s="8">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4150,13 +4285,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P57" sqref="P57"/>
+      <selection pane="bottomRight" activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7211,53 +7346,53 @@
         <v>43956</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C58" s="5">
-        <v>21983</v>
+        <v>22186</v>
       </c>
       <c r="D58" s="5">
         <v>21983</v>
       </c>
       <c r="E58" s="5">
         <f t="shared" ref="E58" si="8">C58-C57</f>
-        <v>75</v>
+        <v>278</v>
       </c>
       <c r="F58" s="18">
         <f t="shared" ref="F58" si="9">AVERAGE(E54:E58)</f>
-        <v>248.2</v>
-      </c>
-      <c r="G58" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" t="s">
-        <v>8</v>
+        <v>288.8</v>
+      </c>
+      <c r="G58">
+        <v>2891</v>
+      </c>
+      <c r="H58">
+        <v>363</v>
       </c>
       <c r="I58" s="5">
-        <v>1339</v>
+        <v>1152</v>
       </c>
       <c r="J58" s="5">
         <v>1339</v>
       </c>
       <c r="K58" s="5">
         <f t="shared" ref="K58" si="10">I58-I57</f>
-        <v>211</v>
+        <v>24</v>
       </c>
       <c r="L58" s="18">
         <f t="shared" ref="L58" si="11">AVERAGE(K54:K58)</f>
-        <v>57.8</v>
-      </c>
-      <c r="M58" t="s">
-        <v>8</v>
-      </c>
-      <c r="N58" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" t="s">
-        <v>8</v>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="M58">
+        <v>6498</v>
+      </c>
+      <c r="N58">
+        <v>733</v>
+      </c>
+      <c r="O58">
+        <v>49</v>
       </c>
       <c r="P58" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -7275,7 +7410,7 @@
       </c>
       <c r="E59" s="5">
         <f t="shared" ref="E59" si="12">C59-C58</f>
-        <v>265</v>
+        <v>62</v>
       </c>
       <c r="F59" s="18">
         <f t="shared" ref="F59" si="13">AVERAGE(E55:E59)</f>
@@ -7295,7 +7430,7 @@
       </c>
       <c r="K59" s="5">
         <f t="shared" ref="K59" si="14">I59-I58</f>
-        <v>36</v>
+        <v>223</v>
       </c>
       <c r="L59" s="18">
         <f t="shared" ref="L59" si="15">AVERAGE(K55:K59)</f>
@@ -7312,6 +7447,60 @@
       </c>
       <c r="P59" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="5">
+        <v>22385</v>
+      </c>
+      <c r="D60" s="5">
+        <v>22385</v>
+      </c>
+      <c r="E60" s="5">
+        <f t="shared" ref="E60" si="16">C60-C59</f>
+        <v>137</v>
+      </c>
+      <c r="F60" s="18">
+        <f t="shared" ref="F60" si="17">AVERAGE(E56:E60)</f>
+        <v>189.6</v>
+      </c>
+      <c r="G60" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="5">
+        <v>1403</v>
+      </c>
+      <c r="J60" s="5">
+        <v>1403</v>
+      </c>
+      <c r="K60" s="5">
+        <f t="shared" ref="K60" si="18">I60-I59</f>
+        <v>28</v>
+      </c>
+      <c r="L60" s="18">
+        <f t="shared" ref="L60" si="19">AVERAGE(K56:K60)</f>
+        <v>63</v>
+      </c>
+      <c r="M60" t="s">
+        <v>8</v>
+      </c>
+      <c r="N60" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" t="s">
+        <v>8</v>
+      </c>
+      <c r="P60" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -7321,11 +7510,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D147" sqref="D147"/>
+      <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9258,7 +9447,7 @@
         <v>43951</v>
       </c>
       <c r="B133" t="str">
-        <f t="shared" ref="B133:B146" si="3">B130</f>
+        <f t="shared" ref="B133:B149" si="3">B130</f>
         <v>Male</v>
       </c>
       <c r="C133">
@@ -9460,6 +9649,51 @@
         <v>63</v>
       </c>
       <c r="D146">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B147" t="str">
+        <f>B144</f>
+        <v>Female</v>
+      </c>
+      <c r="C147">
+        <v>12696</v>
+      </c>
+      <c r="D147">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B148" t="str">
+        <f t="shared" si="3"/>
+        <v>Male</v>
+      </c>
+      <c r="C148">
+        <v>9428</v>
+      </c>
+      <c r="D148">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B149" t="str">
+        <f t="shared" si="3"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C149">
+        <v>62</v>
+      </c>
+      <c r="D149">
         <v>0.3</v>
       </c>
     </row>
@@ -9470,11 +9704,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:J545"/>
+  <dimension ref="A1:J556"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A508" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G537" sqref="G537"/>
+      <pane ySplit="1" topLeftCell="A510" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A547" sqref="A547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17176,7 +17410,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>43955</v>
       </c>
@@ -17187,6 +17421,163 @@
         <v>24</v>
       </c>
       <c r="D545">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A546" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B546" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C546">
+        <v>40</v>
+      </c>
+      <c r="D546" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A547" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B547" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C547">
+        <v>77</v>
+      </c>
+      <c r="D547" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A548" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B548" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C548" t="s">
+        <v>8</v>
+      </c>
+      <c r="D548">
+        <v>18</v>
+      </c>
+      <c r="E548" s="13"/>
+      <c r="H548" s="7"/>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A549" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B549" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C549">
+        <v>241</v>
+      </c>
+      <c r="D549">
+        <v>15</v>
+      </c>
+      <c r="E549" s="7"/>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A550" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B550" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C550">
+        <v>1532</v>
+      </c>
+      <c r="D550">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A551" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B551" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C551">
+        <v>3618</v>
+      </c>
+      <c r="D551">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A552" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B552" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C552">
+        <v>3830</v>
+      </c>
+      <c r="D552">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A553" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B553" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C553">
+        <v>4039</v>
+      </c>
+      <c r="D553">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A554" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B554" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C554">
+        <v>2899</v>
+      </c>
+      <c r="D554">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A555" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B555" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C555">
+        <v>5885</v>
+      </c>
+      <c r="D555">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A556" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B556" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C556">
+        <v>25</v>
+      </c>
+      <c r="D556">
         <v>2</v>
       </c>
     </row>
@@ -17198,11 +17589,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D166"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A164" sqref="A164:A166"/>
+      <selection pane="bottomLeft" activeCell="A167" sqref="A167:A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19590,6 +19981,48 @@
         <v>106</v>
       </c>
     </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B167" t="s">
+        <v>56</v>
+      </c>
+      <c r="C167" s="11">
+        <v>62</v>
+      </c>
+      <c r="D167" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B168" t="s">
+        <v>57</v>
+      </c>
+      <c r="C168" s="11">
+        <v>35</v>
+      </c>
+      <c r="D168" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B169" t="s">
+        <v>58</v>
+      </c>
+      <c r="C169" s="11">
+        <v>3</v>
+      </c>
+      <c r="D169" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19597,10 +20030,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E1295"/>
+  <dimension ref="A1:E1321"/>
   <sheetViews>
-    <sheetView topLeftCell="A1249" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A1270" sqref="A1270:A1295"/>
+    <sheetView topLeftCell="A1278" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A1300" sqref="A1300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38225,6 +38658,370 @@
         <v>628</v>
       </c>
       <c r="D1295" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1296" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1296">
+        <v>132</v>
+      </c>
+      <c r="D1296" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1297" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1297">
+        <v>710</v>
+      </c>
+      <c r="D1297" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1298" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1298">
+        <v>281</v>
+      </c>
+      <c r="D1298" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1299" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1299">
+        <v>1197</v>
+      </c>
+      <c r="D1299" s="3">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1300" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1300">
+        <v>469</v>
+      </c>
+      <c r="D1300" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1301" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1301">
+        <v>10840</v>
+      </c>
+      <c r="D1301" s="3">
+        <v>0.48899999999999999</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1302" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1302">
+        <v>380</v>
+      </c>
+      <c r="D1302" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1303" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1303">
+        <v>302</v>
+      </c>
+      <c r="D1303" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1304" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1304">
+        <v>1302</v>
+      </c>
+      <c r="D1304" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1305" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1305">
+        <v>265</v>
+      </c>
+      <c r="D1305" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1306" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1306">
+        <v>243</v>
+      </c>
+      <c r="D1306" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1307" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1307">
+        <v>70</v>
+      </c>
+      <c r="D1307" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1308" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1308">
+        <v>574</v>
+      </c>
+      <c r="D1308" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1309" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1309">
+        <v>259</v>
+      </c>
+      <c r="D1309" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1310" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1310">
+        <v>699</v>
+      </c>
+      <c r="D1310" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1311" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1311">
+        <v>514</v>
+      </c>
+      <c r="D1311" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1312" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1312">
+        <v>723</v>
+      </c>
+      <c r="D1312" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1313" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1313">
+        <v>441</v>
+      </c>
+      <c r="D1313" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1314" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1314">
+        <v>346</v>
+      </c>
+      <c r="D1314" s="3">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1315" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1315">
+        <v>221</v>
+      </c>
+      <c r="D1315" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1316" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1316">
+        <v>122</v>
+      </c>
+      <c r="D1316" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1317" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1317">
+        <v>506</v>
+      </c>
+      <c r="D1317" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1318" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1318">
+        <v>140</v>
+      </c>
+      <c r="D1318" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1319" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1319">
+        <v>627</v>
+      </c>
+      <c r="D1319" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1320" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1320">
+        <v>190</v>
+      </c>
+      <c r="D1320" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1321" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1321">
+        <v>633</v>
+      </c>
+      <c r="D1321" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
@@ -39222,10 +40019,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40048,6 +40845,30 @@
         <v>0.1178020661775715</v>
       </c>
     </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B35">
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>3984</v>
+      </c>
+      <c r="E35">
+        <v>422</v>
+      </c>
+      <c r="F35">
+        <v>34752</v>
+      </c>
+      <c r="G35" s="10">
+        <f>D35/F35</f>
+        <v>0.11464088397790055</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
     <sortCondition ref="A2:A10"/>
@@ -40058,10 +40879,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0979910-C687-6A43-A609-0D992245C102}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView topLeftCell="A20" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40548,6 +41369,28 @@
         <v>1545</v>
       </c>
     </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44">
+        <v>1562</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F8582D-9C26-AD4A-9BD7-E01D3FA01415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4472C29-90B6-1C47-984D-36D8550B16CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -20,11 +20,12 @@
     <sheet name="by_transmission" sheetId="4" r:id="rId5"/>
     <sheet name="by_county" sheetId="2" r:id="rId6"/>
     <sheet name="gender_deaths" sheetId="12" r:id="rId7"/>
-    <sheet name="NI_totals" sheetId="7" r:id="rId8"/>
-    <sheet name="NI_gender" sheetId="8" r:id="rId9"/>
-    <sheet name="NI_age" sheetId="9" r:id="rId10"/>
-    <sheet name="NI_district" sheetId="10" r:id="rId11"/>
-    <sheet name="NI_county_lookup" sheetId="11" r:id="rId12"/>
+    <sheet name="Cases_deaths_age" sheetId="13" r:id="rId8"/>
+    <sheet name="NI_totals" sheetId="7" r:id="rId9"/>
+    <sheet name="NI_gender" sheetId="8" r:id="rId10"/>
+    <sheet name="NI_age" sheetId="9" r:id="rId11"/>
+    <sheet name="NI_district" sheetId="10" r:id="rId12"/>
+    <sheet name="NI_county_lookup" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,6 +44,40 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Andrew Parnell</author>
+  </authors>
+  <commentList>
+    <comment ref="H58" authorId="0" shapeId="0" xr:uid="{0D16DC02-38A1-4F46-B9F1-9BB0E5B8B9CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Andrew Parnell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={ED7300D1-C478-D94A-8DCB-8D9DC1002B88}</author>
   </authors>
   <commentList>
@@ -59,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3018" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3098" uniqueCount="205">
   <si>
     <t>Date</t>
   </si>
@@ -612,6 +647,69 @@
   <si>
     <t>https://www.gov.ie/en/press-release/fe4551-statement-from-the-national-public-emergency-team-7-may/</t>
   </si>
+  <si>
+    <t>Age Group</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>15-19</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>20-24</t>
+  </si>
+  <si>
+    <t>25-29</t>
+  </si>
+  <si>
+    <t>30-34</t>
+  </si>
+  <si>
+    <t>35-39</t>
+  </si>
+  <si>
+    <t>40-44</t>
+  </si>
+  <si>
+    <t>45-49</t>
+  </si>
+  <si>
+    <t>50-54</t>
+  </si>
+  <si>
+    <t>55-59</t>
+  </si>
+  <si>
+    <t>60-64</t>
+  </si>
+  <si>
+    <t>65-69</t>
+  </si>
+  <si>
+    <t>70-74</t>
+  </si>
+  <si>
+    <t>75-79</t>
+  </si>
+  <si>
+    <t>80-84</t>
+  </si>
+  <si>
+    <t>85+</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>10-14</t>
+  </si>
 </sst>
 </file>
 
@@ -621,7 +719,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -762,6 +860,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1506,7 +1617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5E2DA3-023C-FF46-A014-0C2E672468A0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1540,6 +1651,547 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0979910-C687-6A43-A609-0D992245C102}">
+  <dimension ref="A1:C46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:A46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <f>A20+1</f>
+        <v>43931</v>
+      </c>
+      <c r="B23" t="str">
+        <f>B20</f>
+        <v>Male</v>
+      </c>
+      <c r="C23">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <f t="shared" ref="A24:A25" si="0">A21+1</f>
+        <v>43931</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" ref="B24:B36" si="1">B21</f>
+        <v>Female</v>
+      </c>
+      <c r="C24">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>43931</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B26" t="str">
+        <f>B23</f>
+        <v>Male</v>
+      </c>
+      <c r="C26">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="1"/>
+        <v>Female</v>
+      </c>
+      <c r="C27">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B29" t="str">
+        <f>B26</f>
+        <v>Male</v>
+      </c>
+      <c r="C29">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="1"/>
+        <v>Female</v>
+      </c>
+      <c r="C30">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B32" t="str">
+        <f>B29</f>
+        <v>Male</v>
+      </c>
+      <c r="C32">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="1"/>
+        <v>Female</v>
+      </c>
+      <c r="C33">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="1"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B35" t="str">
+        <f>B32</f>
+        <v>Male</v>
+      </c>
+      <c r="C35">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="1"/>
+        <v>Female</v>
+      </c>
+      <c r="C36">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46">
+        <v>1578</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD393D6-56CC-E749-BDF2-72DC274BB8BB}">
   <dimension ref="A1:C37"/>
   <sheetViews>
@@ -1952,12 +2604,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AE50F-07C0-7048-95B5-0C81D93B81F0}">
-  <dimension ref="A1:C188"/>
+  <dimension ref="A1:C199"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView topLeftCell="A153" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3645,7 +4297,7 @@
         <v>43954</v>
       </c>
       <c r="B146" t="str">
-        <f t="shared" ref="B146:B188" si="3">B135</f>
+        <f t="shared" ref="B146:B199" si="3">B135</f>
         <v>Ards And North Down</v>
       </c>
       <c r="C146" s="8">
@@ -4153,6 +4805,138 @@
         <v>Newry, Mourne And Down</v>
       </c>
       <c r="C188" s="8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B189" t="str">
+        <f>B178</f>
+        <v>Antrim And Newtownabbey</v>
+      </c>
+      <c r="C189" s="8">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B190" t="str">
+        <f t="shared" si="3"/>
+        <v>Ards And North Down</v>
+      </c>
+      <c r="C190" s="8">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B191" t="str">
+        <f t="shared" si="3"/>
+        <v>Armagh, Banbridge And Craigavon</v>
+      </c>
+      <c r="C191" s="8">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B192" t="str">
+        <f t="shared" si="3"/>
+        <v>Belfast</v>
+      </c>
+      <c r="C192" s="8">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B193" t="str">
+        <f t="shared" si="3"/>
+        <v>Causeway Coast And Glens</v>
+      </c>
+      <c r="C193" s="8">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B194" t="str">
+        <f t="shared" si="3"/>
+        <v>Derry And Strabane</v>
+      </c>
+      <c r="C194" s="8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B195" t="str">
+        <f t="shared" si="3"/>
+        <v>Fermanagh And Omagh</v>
+      </c>
+      <c r="C195" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B196" t="str">
+        <f t="shared" si="3"/>
+        <v>Lisburn And Castlereagh</v>
+      </c>
+      <c r="C196" s="8">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B197" t="str">
+        <f t="shared" si="3"/>
+        <v>Mid And East Antrim</v>
+      </c>
+      <c r="C197" s="8">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B198" t="str">
+        <f t="shared" si="3"/>
+        <v>Mid Ulster</v>
+      </c>
+      <c r="C198" s="8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B199" t="str">
+        <f t="shared" si="3"/>
+        <v>Newry, Mourne And Down</v>
+      </c>
+      <c r="C199" s="8">
         <v>237</v>
       </c>
     </row>
@@ -4161,7 +4945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD4AFB0-01E2-7B4F-9AF4-304BF909169C}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -4284,14 +5068,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H61" sqref="H61"/>
+      <selection pane="bottomRight" activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7365,7 +8149,7 @@
       <c r="G58">
         <v>2891</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="16">
         <v>363</v>
       </c>
       <c r="I58" s="5">
@@ -7400,47 +8184,47 @@
         <v>43957</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C59" s="5">
-        <v>22248</v>
+        <v>22301</v>
       </c>
       <c r="D59" s="5">
         <v>22248</v>
       </c>
       <c r="E59" s="5">
         <f t="shared" ref="E59" si="12">C59-C58</f>
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="F59" s="18">
         <f t="shared" ref="F59" si="13">AVERAGE(E55:E59)</f>
-        <v>283</v>
-      </c>
-      <c r="G59" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" t="s">
-        <v>8</v>
+        <v>293.60000000000002</v>
+      </c>
+      <c r="G59">
+        <v>2915</v>
+      </c>
+      <c r="H59">
+        <v>373</v>
       </c>
       <c r="I59" s="5">
-        <v>1375</v>
+        <v>1177</v>
       </c>
       <c r="J59" s="5">
         <v>1375</v>
       </c>
       <c r="K59" s="5">
         <f t="shared" ref="K59" si="14">I59-I58</f>
-        <v>223</v>
+        <v>25</v>
       </c>
       <c r="L59" s="18">
         <f t="shared" ref="L59" si="15">AVERAGE(K55:K59)</f>
-        <v>60.2</v>
-      </c>
-      <c r="M59" t="s">
-        <v>8</v>
-      </c>
-      <c r="N59" t="s">
-        <v>8</v>
+        <v>20.6</v>
+      </c>
+      <c r="M59">
+        <v>6586</v>
+      </c>
+      <c r="N59">
+        <v>737</v>
       </c>
       <c r="O59" t="s">
         <v>8</v>
@@ -7464,7 +8248,7 @@
       </c>
       <c r="E60" s="5">
         <f t="shared" ref="E60" si="16">C60-C59</f>
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="F60" s="18">
         <f t="shared" ref="F60" si="17">AVERAGE(E56:E60)</f>
@@ -7484,7 +8268,7 @@
       </c>
       <c r="K60" s="5">
         <f t="shared" ref="K60" si="18">I60-I59</f>
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="L60" s="18">
         <f t="shared" ref="L60" si="19">AVERAGE(K56:K60)</f>
@@ -7503,18 +8287,73 @@
         <v>183</v>
       </c>
     </row>
+    <row r="61" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="5">
+        <v>22541</v>
+      </c>
+      <c r="D61" s="5">
+        <v>22541</v>
+      </c>
+      <c r="E61" s="5">
+        <f t="shared" ref="E61" si="20">C61-C60</f>
+        <v>156</v>
+      </c>
+      <c r="F61" s="18">
+        <f t="shared" ref="F61" si="21">AVERAGE(E57:E61)</f>
+        <v>176.4</v>
+      </c>
+      <c r="G61" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="5">
+        <v>1429</v>
+      </c>
+      <c r="J61" s="5">
+        <v>1429</v>
+      </c>
+      <c r="K61" s="5">
+        <f t="shared" ref="K61" si="22">I61-I60</f>
+        <v>26</v>
+      </c>
+      <c r="L61" s="18">
+        <f t="shared" ref="L61" si="23">AVERAGE(K57:K61)</f>
+        <v>66</v>
+      </c>
+      <c r="M61" t="s">
+        <v>8</v>
+      </c>
+      <c r="N61" t="s">
+        <v>8</v>
+      </c>
+      <c r="O61" t="s">
+        <v>8</v>
+      </c>
+      <c r="P61" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:D152"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9447,7 +10286,7 @@
         <v>43951</v>
       </c>
       <c r="B133" t="str">
-        <f t="shared" ref="B133:B149" si="3">B130</f>
+        <f t="shared" ref="B133:B152" si="3">B130</f>
         <v>Male</v>
       </c>
       <c r="C133">
@@ -9564,7 +10403,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="B141" t="str">
         <f>B138</f>
@@ -9579,7 +10418,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="B142" t="str">
         <f t="shared" si="3"/>
@@ -9594,7 +10433,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="B143" t="str">
         <f t="shared" si="3"/>
@@ -9609,7 +10448,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B144" t="str">
         <f>B141</f>
@@ -9624,7 +10463,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B145" t="str">
         <f t="shared" si="3"/>
@@ -9639,7 +10478,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B146" t="str">
         <f t="shared" si="3"/>
@@ -9654,7 +10493,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B147" t="str">
         <f>B144</f>
@@ -9669,7 +10508,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B148" t="str">
         <f t="shared" si="3"/>
@@ -9684,7 +10523,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B149" t="str">
         <f t="shared" si="3"/>
@@ -9694,6 +10533,51 @@
         <v>62</v>
       </c>
       <c r="D149">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B150" t="str">
+        <f>B147</f>
+        <v>Female</v>
+      </c>
+      <c r="C150">
+        <v>12765</v>
+      </c>
+      <c r="D150">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B151" t="str">
+        <f t="shared" si="3"/>
+        <v>Male</v>
+      </c>
+      <c r="C151">
+        <v>9472</v>
+      </c>
+      <c r="D151">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B152" t="str">
+        <f t="shared" si="3"/>
+        <v>Unknown</v>
+      </c>
+      <c r="C152">
+        <v>64</v>
+      </c>
+      <c r="D152">
         <v>0.3</v>
       </c>
     </row>
@@ -9704,11 +10588,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:J556"/>
+  <dimension ref="A1:J567"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A510" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A547" sqref="A547"/>
+      <pane ySplit="1" topLeftCell="A528" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D559" sqref="D559"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17581,6 +18465,163 @@
         <v>2</v>
       </c>
     </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A557" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B557" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C557">
+        <v>40</v>
+      </c>
+      <c r="D557" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A558" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B558" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C558">
+        <v>77</v>
+      </c>
+      <c r="D558" t="s">
+        <v>8</v>
+      </c>
+      <c r="E558" s="13"/>
+      <c r="H558" s="7"/>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A559" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B559" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C559" t="s">
+        <v>8</v>
+      </c>
+      <c r="D559">
+        <v>18</v>
+      </c>
+      <c r="E559" s="7"/>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A560" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B560" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C560">
+        <v>243</v>
+      </c>
+      <c r="D560">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A561" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B561" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C561">
+        <v>1545</v>
+      </c>
+      <c r="D561">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A562" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B562" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C562">
+        <v>3635</v>
+      </c>
+      <c r="D562">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A563" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B563" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C563">
+        <v>3851</v>
+      </c>
+      <c r="D563">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A564" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B564" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C564">
+        <v>4065</v>
+      </c>
+      <c r="D564">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A565" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B565" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C565">
+        <v>2913</v>
+      </c>
+      <c r="D565">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A566" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B566" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C566">
+        <v>5907</v>
+      </c>
+      <c r="D566">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A567" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B567" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C567">
+        <v>25</v>
+      </c>
+      <c r="D567">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -17589,11 +18630,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A167" sqref="A167:A169"/>
+      <selection pane="bottomLeft" activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20023,6 +21064,48 @@
         <v>106</v>
       </c>
     </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B170" t="s">
+        <v>56</v>
+      </c>
+      <c r="C170" s="11">
+        <v>61</v>
+      </c>
+      <c r="D170" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B171" t="s">
+        <v>57</v>
+      </c>
+      <c r="C171" s="11">
+        <v>36</v>
+      </c>
+      <c r="D171" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B172" t="s">
+        <v>58</v>
+      </c>
+      <c r="C172" s="11">
+        <v>3</v>
+      </c>
+      <c r="D172" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20030,10 +21113,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E1321"/>
+  <dimension ref="A1:E1347"/>
   <sheetViews>
-    <sheetView topLeftCell="A1278" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A1300" sqref="A1300"/>
+    <sheetView topLeftCell="A1303" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A1322" sqref="A1322:A1347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39022,6 +40105,370 @@
         <v>633</v>
       </c>
       <c r="D1321" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1322" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1322">
+        <v>133</v>
+      </c>
+      <c r="D1322" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1323" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1323">
+        <v>730</v>
+      </c>
+      <c r="D1323" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1324" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1324">
+        <v>299</v>
+      </c>
+      <c r="D1324" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1325" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1325">
+        <v>1199</v>
+      </c>
+      <c r="D1325" s="3">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1326" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1326">
+        <v>469</v>
+      </c>
+      <c r="D1326" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1327" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1327">
+        <v>10885</v>
+      </c>
+      <c r="D1327" s="3">
+        <v>0.48799999999999999</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1328" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1328">
+        <v>381</v>
+      </c>
+      <c r="D1328" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1329" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1329">
+        <v>303</v>
+      </c>
+      <c r="D1329" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1330" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1330">
+        <v>1312</v>
+      </c>
+      <c r="D1330" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1331" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1331">
+        <v>265</v>
+      </c>
+      <c r="D1331" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1332" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1332">
+        <v>242</v>
+      </c>
+      <c r="D1332" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1333" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1333">
+        <v>66</v>
+      </c>
+      <c r="D1333" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1334" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1334">
+        <v>566</v>
+      </c>
+      <c r="D1334" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1335" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1335">
+        <v>260</v>
+      </c>
+      <c r="D1335" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1336" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1336">
+        <v>703</v>
+      </c>
+      <c r="D1336" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1337" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1337">
+        <v>518</v>
+      </c>
+      <c r="D1337" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1338" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1338">
+        <v>727</v>
+      </c>
+      <c r="D1338" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1339" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1339">
+        <v>443</v>
+      </c>
+      <c r="D1339" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1340" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1340">
+        <v>345</v>
+      </c>
+      <c r="D1340" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1341" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1341">
+        <v>228</v>
+      </c>
+      <c r="D1341" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1342" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1342">
+        <v>116</v>
+      </c>
+      <c r="D1342" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1343" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1343">
+        <v>512</v>
+      </c>
+      <c r="D1343" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1344" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1344">
+        <v>140</v>
+      </c>
+      <c r="D1344" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1345" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1345">
+        <v>633</v>
+      </c>
+      <c r="D1345" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1346" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1346">
+        <v>190</v>
+      </c>
+      <c r="D1346" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1347" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1347">
+        <v>636</v>
+      </c>
+      <c r="D1347" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
@@ -40018,11 +41465,251 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AC7168-01C7-9D43-ACF9-04668C3EA9AC}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5">
+        <v>357</v>
+      </c>
+      <c r="C5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1226</v>
+      </c>
+      <c r="C6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1719</v>
+      </c>
+      <c r="C7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="15">
+        <v>1970</v>
+      </c>
+      <c r="C8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1944</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="15">
+        <v>1981</v>
+      </c>
+      <c r="C10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="15">
+        <v>2171</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1949</v>
+      </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="15">
+        <v>1707</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1262</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15">
+        <v>771</v>
+      </c>
+      <c r="C15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16">
+        <v>910</v>
+      </c>
+      <c r="C16">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17">
+        <v>974</v>
+      </c>
+      <c r="C17">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="15">
+        <v>1241</v>
+      </c>
+      <c r="C18">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" s="15">
+        <v>2329</v>
+      </c>
+      <c r="C19">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="15">
+        <v>22915</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1429</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40744,7 +42431,7 @@
         <v>28425</v>
       </c>
       <c r="G30" s="10">
-        <f>D30/F30</f>
+        <f t="shared" ref="G30:G36" si="1">D30/F30</f>
         <v>0.12978012313104662</v>
       </c>
     </row>
@@ -40769,7 +42456,7 @@
         <v>29629</v>
       </c>
       <c r="G31" s="10">
-        <f>D31/F31</f>
+        <f t="shared" si="1"/>
         <v>0.12713895170272368</v>
       </c>
     </row>
@@ -40793,7 +42480,7 @@
         <v>30946</v>
       </c>
       <c r="G32" s="10">
-        <f>D32/F32</f>
+        <f t="shared" si="1"/>
         <v>0.12395786208233697</v>
       </c>
     </row>
@@ -40817,7 +42504,7 @@
         <v>32094</v>
       </c>
       <c r="G33" s="10">
-        <f>D33/F33</f>
+        <f t="shared" si="1"/>
         <v>0.12092602978749922</v>
       </c>
     </row>
@@ -40841,7 +42528,7 @@
         <v>33395</v>
       </c>
       <c r="G34" s="10">
-        <f>D34/F34</f>
+        <f t="shared" si="1"/>
         <v>0.1178020661775715</v>
       </c>
     </row>
@@ -40865,8 +42552,32 @@
         <v>34752</v>
       </c>
       <c r="G35" s="10">
-        <f>D35/F35</f>
+        <f t="shared" si="1"/>
         <v>0.11464088397790055</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B36">
+        <v>38</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>4022</v>
+      </c>
+      <c r="E36">
+        <v>427</v>
+      </c>
+      <c r="F36">
+        <v>36311</v>
+      </c>
+      <c r="G36" s="10">
+        <f t="shared" si="1"/>
+        <v>0.11076533281925588</v>
       </c>
     </row>
   </sheetData>
@@ -40875,523 +42586,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0979910-C687-6A43-A609-0D992245C102}">
-  <dimension ref="A1:C44"/>
-  <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>43922</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>43922</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>43922</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>43923</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>43923</v>
-      </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>43923</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>43924</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>43924</v>
-      </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>43924</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>43927</v>
-      </c>
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>43927</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>43927</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>43928</v>
-      </c>
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>43928</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>43928</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>43929</v>
-      </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>43929</v>
-      </c>
-      <c r="B18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>43929</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>43930</v>
-      </c>
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>43930</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>43930</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <f>A20+1</f>
-        <v>43931</v>
-      </c>
-      <c r="B23" t="str">
-        <f>B20</f>
-        <v>Male</v>
-      </c>
-      <c r="C23">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <f t="shared" ref="A24:A25" si="0">A21+1</f>
-        <v>43931</v>
-      </c>
-      <c r="B24" t="str">
-        <f t="shared" ref="B24:B36" si="1">B21</f>
-        <v>Female</v>
-      </c>
-      <c r="C24">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <f t="shared" si="0"/>
-        <v>43931</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" si="1"/>
-        <v>Unknown</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B26" t="str">
-        <f>B23</f>
-        <v>Male</v>
-      </c>
-      <c r="C26">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B27" t="str">
-        <f t="shared" si="1"/>
-        <v>Female</v>
-      </c>
-      <c r="C27">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B28" t="str">
-        <f t="shared" si="1"/>
-        <v>Unknown</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B29" t="str">
-        <f>B26</f>
-        <v>Male</v>
-      </c>
-      <c r="C29">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B30" t="str">
-        <f t="shared" si="1"/>
-        <v>Female</v>
-      </c>
-      <c r="C30">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B31" t="str">
-        <f t="shared" si="1"/>
-        <v>Unknown</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>43938</v>
-      </c>
-      <c r="B32" t="str">
-        <f>B29</f>
-        <v>Male</v>
-      </c>
-      <c r="C32">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>43938</v>
-      </c>
-      <c r="B33" t="str">
-        <f t="shared" si="1"/>
-        <v>Female</v>
-      </c>
-      <c r="C33">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>43938</v>
-      </c>
-      <c r="B34" t="str">
-        <f t="shared" si="1"/>
-        <v>Unknown</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>43953</v>
-      </c>
-      <c r="B35" t="str">
-        <f>B32</f>
-        <v>Male</v>
-      </c>
-      <c r="C35">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>43953</v>
-      </c>
-      <c r="B36" t="str">
-        <f t="shared" si="1"/>
-        <v>Female</v>
-      </c>
-      <c r="C36">
-        <v>2269</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>43954</v>
-      </c>
-      <c r="B37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37">
-        <v>2318</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>43954</v>
-      </c>
-      <c r="B38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>43955</v>
-      </c>
-      <c r="B39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39">
-        <v>2348</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>43955</v>
-      </c>
-      <c r="B40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>43956</v>
-      </c>
-      <c r="B41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41">
-        <v>2383</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>43956</v>
-      </c>
-      <c r="B42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>43957</v>
-      </c>
-      <c r="B43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43">
-        <v>2416</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>43957</v>
-      </c>
-      <c r="B44" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44">
-        <v>1562</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4472C29-90B6-1C47-984D-36D8550B16CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8992F7B9-3BE1-A84C-9850-1F9CAC7ECC52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3098" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3154" uniqueCount="210">
   <si>
     <t>Date</t>
   </si>
@@ -709,6 +709,21 @@
   </si>
   <si>
     <t>10-14</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/88ae5d-statement-from-the-national-public-health-emergency-team-saturday-9-/</t>
+  </si>
+  <si>
+    <t>65 - 74</t>
+  </si>
+  <si>
+    <t>75 - 84</t>
+  </si>
+  <si>
+    <t>8/05/2020  15:58:37:00</t>
+  </si>
+  <si>
+    <t>10/05/2020  15:58:37:00</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5E2DA3-023C-FF46-A014-0C2E672468A0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1635,11 +1650,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
-        <v>43956.817361111112</v>
-      </c>
-      <c r="B2" s="12">
-        <v>43958.817361111112</v>
+      <c r="A2" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1652,10 +1667,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0979910-C687-6A43-A609-0D992245C102}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView topLeftCell="A20" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:A46"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2184,6 +2199,28 @@
       </c>
       <c r="C46">
         <v>1578</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48">
+        <v>1618</v>
       </c>
     </row>
   </sheetData>
@@ -2606,10 +2643,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AE50F-07C0-7048-95B5-0C81D93B81F0}">
-  <dimension ref="A1:C199"/>
+  <dimension ref="A1:C210"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C200" sqref="C200"/>
+    <sheetView topLeftCell="A170" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4297,7 +4334,7 @@
         <v>43954</v>
       </c>
       <c r="B146" t="str">
-        <f t="shared" ref="B146:B199" si="3">B135</f>
+        <f t="shared" ref="B146:B209" si="3">B135</f>
         <v>Ards And North Down</v>
       </c>
       <c r="C146" s="8">
@@ -4938,6 +4975,138 @@
       </c>
       <c r="C199" s="8">
         <v>237</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B200" t="str">
+        <f>B189</f>
+        <v>Antrim And Newtownabbey</v>
+      </c>
+      <c r="C200" s="8">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B201" t="str">
+        <f t="shared" si="3"/>
+        <v>Ards And North Down</v>
+      </c>
+      <c r="C201" s="8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B202" t="str">
+        <f t="shared" si="3"/>
+        <v>Armagh, Banbridge And Craigavon</v>
+      </c>
+      <c r="C202" s="8">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B203" t="str">
+        <f t="shared" si="3"/>
+        <v>Belfast</v>
+      </c>
+      <c r="C203" s="8">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B204" t="str">
+        <f t="shared" si="3"/>
+        <v>Causeway Coast And Glens</v>
+      </c>
+      <c r="C204" s="8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B205" t="str">
+        <f t="shared" si="3"/>
+        <v>Derry And Strabane</v>
+      </c>
+      <c r="C205" s="8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B206" t="str">
+        <f t="shared" si="3"/>
+        <v>Fermanagh And Omagh</v>
+      </c>
+      <c r="C206" s="8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B207" t="str">
+        <f t="shared" si="3"/>
+        <v>Lisburn And Castlereagh</v>
+      </c>
+      <c r="C207" s="8">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B208" t="str">
+        <f t="shared" si="3"/>
+        <v>Mid And East Antrim</v>
+      </c>
+      <c r="C208" s="8">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B209" t="str">
+        <f t="shared" si="3"/>
+        <v>Mid Ulster</v>
+      </c>
+      <c r="C209" s="8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B210" t="str">
+        <f t="shared" ref="B210" si="4">B199</f>
+        <v>Newry, Mourne And Down</v>
+      </c>
+      <c r="C210" s="8">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -5069,13 +5238,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M60" sqref="M60"/>
+      <selection pane="bottomRight" activeCell="P60" sqref="P60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8226,8 +8395,8 @@
       <c r="N59">
         <v>737</v>
       </c>
-      <c r="O59" t="s">
-        <v>8</v>
+      <c r="O59">
+        <v>49</v>
       </c>
       <c r="P59" t="s">
         <v>155</v>
@@ -8238,53 +8407,53 @@
         <v>43958</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C60" s="5">
-        <v>22385</v>
+        <v>22495</v>
       </c>
       <c r="D60" s="5">
         <v>22385</v>
       </c>
       <c r="E60" s="5">
         <f t="shared" ref="E60" si="16">C60-C59</f>
-        <v>84</v>
+        <v>194</v>
       </c>
       <c r="F60" s="18">
         <f t="shared" ref="F60" si="17">AVERAGE(E56:E60)</f>
-        <v>189.6</v>
-      </c>
-      <c r="G60" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" t="s">
-        <v>8</v>
+        <v>211.6</v>
+      </c>
+      <c r="G60">
+        <v>2954</v>
+      </c>
+      <c r="H60">
+        <v>381</v>
       </c>
       <c r="I60" s="5">
-        <v>1403</v>
+        <v>1195</v>
       </c>
       <c r="J60" s="5">
         <v>1403</v>
       </c>
       <c r="K60" s="5">
         <f t="shared" ref="K60" si="18">I60-I59</f>
-        <v>226</v>
+        <v>18</v>
       </c>
       <c r="L60" s="18">
         <f t="shared" ref="L60" si="19">AVERAGE(K56:K60)</f>
-        <v>63</v>
-      </c>
-      <c r="M60" t="s">
-        <v>8</v>
-      </c>
-      <c r="N60" t="s">
-        <v>8</v>
-      </c>
-      <c r="O60" t="s">
-        <v>8</v>
+        <v>21.4</v>
+      </c>
+      <c r="M60">
+        <v>6669</v>
+      </c>
+      <c r="N60">
+        <v>746</v>
+      </c>
+      <c r="O60">
+        <v>49</v>
       </c>
       <c r="P60" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -8302,7 +8471,7 @@
       </c>
       <c r="E61" s="5">
         <f t="shared" ref="E61" si="20">C61-C60</f>
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="F61" s="18">
         <f t="shared" ref="F61" si="21">AVERAGE(E57:E61)</f>
@@ -8322,7 +8491,7 @@
       </c>
       <c r="K61" s="5">
         <f t="shared" ref="K61" si="22">I61-I60</f>
-        <v>26</v>
+        <v>234</v>
       </c>
       <c r="L61" s="18">
         <f t="shared" ref="L61" si="23">AVERAGE(K57:K61)</f>
@@ -8338,6 +8507,60 @@
         <v>8</v>
       </c>
       <c r="P61" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="5">
+        <v>22760</v>
+      </c>
+      <c r="D62" s="5">
+        <v>22760</v>
+      </c>
+      <c r="E62" s="5">
+        <f t="shared" ref="E62" si="24">C62-C61</f>
+        <v>219</v>
+      </c>
+      <c r="F62" s="18">
+        <f t="shared" ref="F62" si="25">AVERAGE(E58:E62)</f>
+        <v>170.4</v>
+      </c>
+      <c r="G62" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="5">
+        <v>1446</v>
+      </c>
+      <c r="J62" s="5">
+        <v>1446</v>
+      </c>
+      <c r="K62" s="5">
+        <f t="shared" ref="K62" si="26">I62-I61</f>
+        <v>17</v>
+      </c>
+      <c r="L62" s="18">
+        <f t="shared" ref="L62" si="27">AVERAGE(K58:K62)</f>
+        <v>63.6</v>
+      </c>
+      <c r="M62" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8349,11 +8572,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A150" sqref="A150"/>
+      <selection pane="bottomLeft" activeCell="A153" sqref="A153:A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10581,6 +10804,48 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B153" t="s">
+        <v>61</v>
+      </c>
+      <c r="C153">
+        <v>12879</v>
+      </c>
+      <c r="D153">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B154" t="s">
+        <v>62</v>
+      </c>
+      <c r="C154">
+        <v>9552</v>
+      </c>
+      <c r="D154">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B155" t="s">
+        <v>52</v>
+      </c>
+      <c r="C155">
+        <v>64</v>
+      </c>
+      <c r="D155">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10588,11 +10853,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:J567"/>
+  <dimension ref="A1:J580"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A528" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D559" sqref="D559"/>
+      <pane ySplit="1" topLeftCell="A546" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C571" sqref="C571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18524,7 +18789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>43957</v>
       </c>
@@ -18538,7 +18803,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>43957</v>
       </c>
@@ -18552,7 +18817,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>43957</v>
       </c>
@@ -18566,7 +18831,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>43957</v>
       </c>
@@ -18580,7 +18845,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>43957</v>
       </c>
@@ -18594,7 +18859,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>43957</v>
       </c>
@@ -18608,7 +18873,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>43957</v>
       </c>
@@ -18619,6 +18884,191 @@
         <v>25</v>
       </c>
       <c r="D567">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A568" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B568" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C568">
+        <v>40</v>
+      </c>
+      <c r="D568" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A569" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B569" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C569">
+        <v>77</v>
+      </c>
+      <c r="D569" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A570" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B570" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C570" t="s">
+        <v>8</v>
+      </c>
+      <c r="D570">
+        <v>18</v>
+      </c>
+      <c r="E570" s="13"/>
+      <c r="F570" s="7"/>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A571" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B571" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C571">
+        <v>245</v>
+      </c>
+      <c r="D571">
+        <v>17</v>
+      </c>
+      <c r="E571" s="7"/>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A572" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B572" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C572">
+        <v>1567</v>
+      </c>
+      <c r="D572">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A573" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B573" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C573">
+        <v>3673</v>
+      </c>
+      <c r="D573">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A574" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B574" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C574">
+        <v>3891</v>
+      </c>
+      <c r="D574">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A575" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B575" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C575">
+        <v>4087</v>
+      </c>
+      <c r="D575">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A576" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B576" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C576">
+        <v>2939</v>
+      </c>
+      <c r="D576">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A577" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B577" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C577">
+        <v>1645</v>
+      </c>
+      <c r="D577">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A578" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B578" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C578">
+        <v>2116</v>
+      </c>
+      <c r="D578">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A579" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B579" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C579">
+        <v>2189</v>
+      </c>
+      <c r="D579">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A580" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B580" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C580">
+        <v>26</v>
+      </c>
+      <c r="D580">
         <v>2</v>
       </c>
     </row>
@@ -18630,11 +19080,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D172"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C172" sqref="C172"/>
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21106,6 +21556,48 @@
         <v>106</v>
       </c>
     </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B173" t="s">
+        <v>56</v>
+      </c>
+      <c r="C173" s="11">
+        <v>61</v>
+      </c>
+      <c r="D173" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B174" t="s">
+        <v>57</v>
+      </c>
+      <c r="C174" s="11">
+        <v>36</v>
+      </c>
+      <c r="D174" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B175" t="s">
+        <v>58</v>
+      </c>
+      <c r="C175" s="11">
+        <v>3</v>
+      </c>
+      <c r="D175" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21113,10 +21605,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E1347"/>
+  <dimension ref="A1:E1373"/>
   <sheetViews>
-    <sheetView topLeftCell="A1303" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A1322" sqref="A1322:A1347"/>
+    <sheetView topLeftCell="A1337" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B1368" sqref="B1368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40470,6 +40962,370 @@
       </c>
       <c r="D1347" s="3">
         <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1348" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1348">
+        <v>136</v>
+      </c>
+      <c r="D1348" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1349" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1349">
+        <v>748</v>
+      </c>
+      <c r="D1349" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1350" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1350">
+        <v>303</v>
+      </c>
+      <c r="D1350" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1351" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1351">
+        <v>1205</v>
+      </c>
+      <c r="D1351" s="3">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1352" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1352">
+        <v>469</v>
+      </c>
+      <c r="D1352" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1353" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1353">
+        <v>10948</v>
+      </c>
+      <c r="D1353" s="3">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1354" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1354">
+        <v>382</v>
+      </c>
+      <c r="D1354" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1355" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1355">
+        <v>303</v>
+      </c>
+      <c r="D1355" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1356" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1356">
+        <v>1317</v>
+      </c>
+      <c r="D1356" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1357" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1357">
+        <v>271</v>
+      </c>
+      <c r="D1357" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1358" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1358">
+        <v>247</v>
+      </c>
+      <c r="D1358" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1359" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1359">
+        <v>66</v>
+      </c>
+      <c r="D1359" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1360" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1360">
+        <v>570</v>
+      </c>
+      <c r="D1360" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1361" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1361">
+        <v>264</v>
+      </c>
+      <c r="D1361" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1362" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1362">
+        <v>715</v>
+      </c>
+      <c r="D1362" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1363" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1363">
+        <v>522</v>
+      </c>
+      <c r="D1363" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1364" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1364">
+        <v>754</v>
+      </c>
+      <c r="D1364" s="3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1365" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1365">
+        <v>447</v>
+      </c>
+      <c r="D1365" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1366" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1366">
+        <v>349</v>
+      </c>
+      <c r="D1366" s="3">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1367" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1367">
+        <v>234</v>
+      </c>
+      <c r="D1367" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1368" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1368">
+        <v>116</v>
+      </c>
+      <c r="D1368" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1369" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1369">
+        <v>515</v>
+      </c>
+      <c r="D1369" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1370" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1370">
+        <v>143</v>
+      </c>
+      <c r="D1370" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1371" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1371">
+        <v>640</v>
+      </c>
+      <c r="D1371" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1372" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1372">
+        <v>194</v>
+      </c>
+      <c r="D1372" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1373" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1373">
+        <v>637</v>
+      </c>
+      <c r="D1373" s="3">
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -41706,10 +42562,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42431,7 +43287,7 @@
         <v>28425</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" ref="G30:G36" si="1">D30/F30</f>
+        <f t="shared" ref="G30:G38" si="1">D30/F30</f>
         <v>0.12978012313104662</v>
       </c>
     </row>
@@ -42578,6 +43434,55 @@
       <c r="G36" s="10">
         <f t="shared" si="1"/>
         <v>0.11076533281925588</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B37">
+        <f>D37-D36</f>
+        <v>56</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>4078</v>
+      </c>
+      <c r="E37">
+        <v>430</v>
+      </c>
+      <c r="F37">
+        <v>37764</v>
+      </c>
+      <c r="G37" s="10">
+        <f t="shared" si="1"/>
+        <v>0.10798644211418282</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B38">
+        <v>41</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>4119</v>
+      </c>
+      <c r="E38">
+        <v>435</v>
+      </c>
+      <c r="F38">
+        <v>38984</v>
+      </c>
+      <c r="G38" s="10">
+        <f t="shared" si="1"/>
+        <v>0.10565873178739996</v>
       </c>
     </row>
   </sheetData>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8992F7B9-3BE1-A84C-9850-1F9CAC7ECC52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF81F84-9A88-3C4A-983A-2B09B23D4CA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3154" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="208">
   <si>
     <t>Date</t>
   </si>
@@ -718,12 +718,6 @@
   </si>
   <si>
     <t>75 - 84</t>
-  </si>
-  <si>
-    <t>8/05/2020  15:58:37:00</t>
-  </si>
-  <si>
-    <t>10/05/2020  15:58:37:00</t>
   </si>
 </sst>
 </file>
@@ -1633,7 +1627,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1650,11 +1644,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>209</v>
+      <c r="A2" s="12">
+        <v>43959.665706018517</v>
+      </c>
+      <c r="B2" s="12">
+        <v>43961.665706018517</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -5241,10 +5235,10 @@
   <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P60" sqref="P60"/>
+      <selection pane="bottomRight" activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF81F84-9A88-3C4A-983A-2B09B23D4CA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADE1AC2-6DD2-544B-B48B-C5A2380F9959}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="210">
   <si>
     <t>Date</t>
   </si>
@@ -718,6 +718,12 @@
   </si>
   <si>
     <t>75 - 84</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/48be4e-statement-from-the-national-public-health-emergency-team-monday-11-m/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/48be4e-statement-from-the-national-public-health-emergency-team-monday-11-m/#hospital-statistics</t>
   </si>
 </sst>
 </file>
@@ -1645,10 +1651,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43959.665706018517</v>
+        <v>43960.855983796297</v>
       </c>
       <c r="B2" s="12">
-        <v>43961.665706018517</v>
+        <v>43952.855983796297</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1661,10 +1667,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0979910-C687-6A43-A609-0D992245C102}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A17" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2215,6 +2221,28 @@
       </c>
       <c r="C48">
         <v>1618</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50">
+        <v>1634</v>
       </c>
     </row>
   </sheetData>
@@ -2637,10 +2665,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AE50F-07C0-7048-95B5-0C81D93B81F0}">
-  <dimension ref="A1:C210"/>
+  <dimension ref="A1:C221"/>
   <sheetViews>
-    <sheetView topLeftCell="A170" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C210" sqref="C210"/>
+    <sheetView topLeftCell="A177" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C222" sqref="C222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5101,6 +5129,138 @@
       </c>
       <c r="C210" s="8">
         <v>242</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B211" t="str">
+        <f>B200</f>
+        <v>Antrim And Newtownabbey</v>
+      </c>
+      <c r="C211" s="8">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B212" t="str">
+        <f t="shared" ref="B212:B221" si="5">B201</f>
+        <v>Ards And North Down</v>
+      </c>
+      <c r="C212" s="8">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B213" t="str">
+        <f t="shared" si="5"/>
+        <v>Armagh, Banbridge And Craigavon</v>
+      </c>
+      <c r="C213" s="8">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B214" t="str">
+        <f t="shared" si="5"/>
+        <v>Belfast</v>
+      </c>
+      <c r="C214" s="8">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B215" t="str">
+        <f t="shared" si="5"/>
+        <v>Causeway Coast And Glens</v>
+      </c>
+      <c r="C215" s="8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B216" t="str">
+        <f t="shared" si="5"/>
+        <v>Derry And Strabane</v>
+      </c>
+      <c r="C216" s="8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B217" t="str">
+        <f t="shared" si="5"/>
+        <v>Fermanagh And Omagh</v>
+      </c>
+      <c r="C217" s="8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B218" t="str">
+        <f t="shared" si="5"/>
+        <v>Lisburn And Castlereagh</v>
+      </c>
+      <c r="C218" s="8">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B219" t="str">
+        <f t="shared" si="5"/>
+        <v>Mid And East Antrim</v>
+      </c>
+      <c r="C219" s="8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B220" t="str">
+        <f t="shared" si="5"/>
+        <v>Mid Ulster</v>
+      </c>
+      <c r="C220" s="8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B221" t="str">
+        <f t="shared" si="5"/>
+        <v>Newry, Mourne And Down</v>
+      </c>
+      <c r="C221" s="8">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -5232,13 +5392,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J62" sqref="J62"/>
+      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8455,50 +8615,50 @@
         <v>43959</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C61" s="5">
-        <v>22541</v>
+        <v>22671</v>
       </c>
       <c r="D61" s="5">
         <v>22541</v>
       </c>
       <c r="E61" s="5">
         <f t="shared" ref="E61" si="20">C61-C60</f>
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="F61" s="18">
         <f t="shared" ref="F61" si="21">AVERAGE(E57:E61)</f>
-        <v>176.4</v>
-      </c>
-      <c r="G61" t="s">
-        <v>8</v>
-      </c>
-      <c r="H61" t="s">
-        <v>8</v>
+        <v>202.4</v>
+      </c>
+      <c r="G61">
+        <v>2986</v>
+      </c>
+      <c r="H61">
+        <v>383</v>
       </c>
       <c r="I61" s="5">
-        <v>1429</v>
+        <v>1203</v>
       </c>
       <c r="J61" s="5">
         <v>1429</v>
       </c>
       <c r="K61" s="5">
         <f t="shared" ref="K61" si="22">I61-I60</f>
-        <v>234</v>
+        <v>8</v>
       </c>
       <c r="L61" s="18">
         <f t="shared" ref="L61" si="23">AVERAGE(K57:K61)</f>
-        <v>66</v>
-      </c>
-      <c r="M61" t="s">
-        <v>8</v>
-      </c>
-      <c r="N61" t="s">
-        <v>8</v>
-      </c>
-      <c r="O61" t="s">
-        <v>8</v>
+        <v>20.8</v>
+      </c>
+      <c r="M61">
+        <v>6771</v>
+      </c>
+      <c r="N61">
+        <v>750</v>
+      </c>
+      <c r="O61">
+        <v>49</v>
       </c>
       <c r="P61" t="s">
         <v>155</v>
@@ -8509,53 +8669,161 @@
         <v>43960</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C62" s="5">
-        <v>22760</v>
+        <v>22894</v>
       </c>
       <c r="D62" s="5">
         <v>22760</v>
       </c>
       <c r="E62" s="5">
         <f t="shared" ref="E62" si="24">C62-C61</f>
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F62" s="18">
         <f t="shared" ref="F62" si="25">AVERAGE(E58:E62)</f>
-        <v>170.4</v>
-      </c>
-      <c r="G62" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" t="s">
-        <v>8</v>
+        <v>197.2</v>
+      </c>
+      <c r="G62">
+        <v>2998</v>
+      </c>
+      <c r="H62">
+        <v>383</v>
       </c>
       <c r="I62" s="5">
-        <v>1446</v>
+        <v>1217</v>
       </c>
       <c r="J62" s="5">
         <v>1446</v>
       </c>
       <c r="K62" s="5">
         <f t="shared" ref="K62" si="26">I62-I61</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L62" s="18">
         <f t="shared" ref="L62" si="27">AVERAGE(K58:K62)</f>
-        <v>63.6</v>
-      </c>
-      <c r="M62" t="s">
+        <v>17.8</v>
+      </c>
+      <c r="M62">
+        <v>6834</v>
+      </c>
+      <c r="N62">
+        <v>755</v>
+      </c>
+      <c r="O62">
+        <v>49</v>
+      </c>
+      <c r="P62" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="5">
+        <v>22996</v>
+      </c>
+      <c r="D63" s="5">
+        <v>22996</v>
+      </c>
+      <c r="E63" s="5">
+        <f t="shared" ref="E63" si="28">C63-C62</f>
+        <v>102</v>
+      </c>
+      <c r="F63" s="18">
+        <f t="shared" ref="F63" si="29">AVERAGE(E59:E63)</f>
+        <v>162</v>
+      </c>
+      <c r="G63" t="s">
         <v>8</v>
       </c>
-      <c r="N62" t="s">
+      <c r="H63" t="s">
         <v>8</v>
       </c>
-      <c r="O62" t="s">
+      <c r="I63" s="5">
+        <v>1458</v>
+      </c>
+      <c r="J63" s="5">
+        <v>1458</v>
+      </c>
+      <c r="K63" s="5">
+        <f t="shared" ref="K63" si="30">I63-I62</f>
+        <v>241</v>
+      </c>
+      <c r="L63" s="18">
+        <f t="shared" ref="L63" si="31">AVERAGE(K59:K63)</f>
+        <v>61.2</v>
+      </c>
+      <c r="M63" t="s">
         <v>8</v>
       </c>
-      <c r="P62" t="s">
+      <c r="N63" t="s">
+        <v>8</v>
+      </c>
+      <c r="O63" t="s">
+        <v>8</v>
+      </c>
+      <c r="P63" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" s="5">
+        <v>23135</v>
+      </c>
+      <c r="D64" s="5">
+        <v>23135</v>
+      </c>
+      <c r="E64" s="5">
+        <f t="shared" ref="E64" si="32">C64-C63</f>
+        <v>139</v>
+      </c>
+      <c r="F64" s="18">
+        <f t="shared" ref="F64" si="33">AVERAGE(E60:E64)</f>
+        <v>166.8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" s="5">
+        <v>1467</v>
+      </c>
+      <c r="J64" s="5">
+        <v>1467</v>
+      </c>
+      <c r="K64" s="5">
+        <f t="shared" ref="K64" si="34">I64-I63</f>
+        <v>9</v>
+      </c>
+      <c r="L64" s="18">
+        <f t="shared" ref="L64" si="35">AVERAGE(K60:K64)</f>
+        <v>58</v>
+      </c>
+      <c r="M64" t="s">
+        <v>8</v>
+      </c>
+      <c r="N64" t="s">
+        <v>8</v>
+      </c>
+      <c r="O64" t="s">
+        <v>8</v>
+      </c>
+      <c r="P64" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -8566,11 +8834,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D161"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A153" sqref="A153:A155"/>
+      <selection pane="bottomLeft" activeCell="A159" sqref="A159:A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10840,6 +11108,90 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B156" t="s">
+        <v>61</v>
+      </c>
+      <c r="C156">
+        <v>12980</v>
+      </c>
+      <c r="D156">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B157" t="s">
+        <v>62</v>
+      </c>
+      <c r="C157">
+        <v>9627</v>
+      </c>
+      <c r="D157">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B158" t="s">
+        <v>52</v>
+      </c>
+      <c r="C158">
+        <v>64</v>
+      </c>
+      <c r="D158">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B159" t="s">
+        <v>61</v>
+      </c>
+      <c r="C159">
+        <v>13129</v>
+      </c>
+      <c r="D159">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B160" t="s">
+        <v>62</v>
+      </c>
+      <c r="C160">
+        <v>9698</v>
+      </c>
+      <c r="D160">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B161" t="s">
+        <v>52</v>
+      </c>
+      <c r="C161">
+        <v>67</v>
+      </c>
+      <c r="D161">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10847,11 +11199,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:J580"/>
+  <dimension ref="A1:J606"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A546" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C571" sqref="C571"/>
+      <pane ySplit="1" topLeftCell="A573" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A594" sqref="A594:A606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19010,7 +19362,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>43958</v>
       </c>
@@ -19024,7 +19376,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>43958</v>
       </c>
@@ -19038,7 +19390,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>43958</v>
       </c>
@@ -19052,7 +19404,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>43958</v>
       </c>
@@ -19063,6 +19415,376 @@
         <v>26</v>
       </c>
       <c r="D580">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A581" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B581" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C581">
+        <v>40</v>
+      </c>
+      <c r="D581" t="s">
+        <v>8</v>
+      </c>
+      <c r="F581" s="7"/>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A582" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B582" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C582">
+        <v>79</v>
+      </c>
+      <c r="D582" t="s">
+        <v>8</v>
+      </c>
+      <c r="E582" s="13"/>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A583" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B583" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C583" t="s">
+        <v>8</v>
+      </c>
+      <c r="D583">
+        <v>18</v>
+      </c>
+      <c r="E583" s="7"/>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A584" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B584" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C584">
+        <v>252</v>
+      </c>
+      <c r="D584">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A585" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B585" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C585">
+        <v>1582</v>
+      </c>
+      <c r="D585">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A586" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B586" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C586">
+        <v>3707</v>
+      </c>
+      <c r="D586">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A587" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B587" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C587">
+        <v>3919</v>
+      </c>
+      <c r="D587">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A588" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B588" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C588">
+        <v>4111</v>
+      </c>
+      <c r="D588">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A589" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B589" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C589">
+        <v>2958</v>
+      </c>
+      <c r="D589">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A590" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B590" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C590">
+        <v>1661</v>
+      </c>
+      <c r="D590">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A591" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B591" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C591">
+        <v>2136</v>
+      </c>
+      <c r="D591">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A592" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B592" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C592">
+        <v>2200</v>
+      </c>
+      <c r="D592">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A593" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B593" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C593">
+        <v>26</v>
+      </c>
+      <c r="D593">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A594" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B594" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C594">
+        <v>42</v>
+      </c>
+      <c r="D594" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A595" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B595" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C595">
+        <v>79</v>
+      </c>
+      <c r="D595" t="s">
+        <v>8</v>
+      </c>
+      <c r="E595" s="13"/>
+      <c r="H595" s="7"/>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A596" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B596" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C596" t="s">
+        <v>8</v>
+      </c>
+      <c r="D596">
+        <v>18</v>
+      </c>
+      <c r="E596" s="7"/>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A597" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B597" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C597">
+        <v>258</v>
+      </c>
+      <c r="D597">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A598" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B598" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C598">
+        <v>1604</v>
+      </c>
+      <c r="D598">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A599" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B599" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C599">
+        <v>3745</v>
+      </c>
+      <c r="D599">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A600" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B600" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C600">
+        <v>3964</v>
+      </c>
+      <c r="D600">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A601" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B601" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C601">
+        <v>4148</v>
+      </c>
+      <c r="D601">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A602" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B602" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C602">
+        <v>2987</v>
+      </c>
+      <c r="D602">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A603" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B603" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C603">
+        <v>1671</v>
+      </c>
+      <c r="D603">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A604" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B604" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C604">
+        <v>2147</v>
+      </c>
+      <c r="D604">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A605" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B605" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C605">
+        <v>2223</v>
+      </c>
+      <c r="D605">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A606" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B606" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C606">
+        <v>26</v>
+      </c>
+      <c r="D606">
         <v>2</v>
       </c>
     </row>
@@ -19074,11 +19796,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B173" sqref="B173"/>
+      <selection pane="bottomLeft" activeCell="A179" sqref="A179:A181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21592,6 +22314,90 @@
         <v>106</v>
       </c>
     </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B176" t="s">
+        <v>56</v>
+      </c>
+      <c r="C176" s="11">
+        <v>61</v>
+      </c>
+      <c r="D176" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B177" t="s">
+        <v>57</v>
+      </c>
+      <c r="C177" s="11">
+        <v>36</v>
+      </c>
+      <c r="D177" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B178" t="s">
+        <v>58</v>
+      </c>
+      <c r="C178" s="11">
+        <v>3</v>
+      </c>
+      <c r="D178" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B179" t="s">
+        <v>56</v>
+      </c>
+      <c r="C179" s="11">
+        <v>61</v>
+      </c>
+      <c r="D179" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B180" t="s">
+        <v>57</v>
+      </c>
+      <c r="C180" s="11">
+        <v>36</v>
+      </c>
+      <c r="D180" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B181" t="s">
+        <v>58</v>
+      </c>
+      <c r="C181" s="11">
+        <v>3</v>
+      </c>
+      <c r="D181" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21599,10 +22405,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E1373"/>
+  <dimension ref="A1:E1425"/>
   <sheetViews>
-    <sheetView topLeftCell="A1337" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1368" sqref="B1368"/>
+    <sheetView topLeftCell="A1382" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B1415" sqref="B1415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -41319,6 +42125,734 @@
         <v>637</v>
       </c>
       <c r="D1373" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1374" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1374">
+        <v>139</v>
+      </c>
+      <c r="D1374" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1375" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1375">
+        <v>752</v>
+      </c>
+      <c r="D1375" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1376" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1376">
+        <v>303</v>
+      </c>
+      <c r="D1376" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1377" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1377">
+        <v>1207</v>
+      </c>
+      <c r="D1377" s="3">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1378" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1378">
+        <v>469</v>
+      </c>
+      <c r="D1378" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1379" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1379">
+        <v>11068</v>
+      </c>
+      <c r="D1379" s="3">
+        <v>0.48799999999999999</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1380" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1380">
+        <v>388</v>
+      </c>
+      <c r="D1380" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1381" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1381">
+        <v>303</v>
+      </c>
+      <c r="D1381" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1382" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1382">
+        <v>1324</v>
+      </c>
+      <c r="D1382" s="3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1383" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1383">
+        <v>277</v>
+      </c>
+      <c r="D1383" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1384" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1384">
+        <v>247</v>
+      </c>
+      <c r="D1384" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1385" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1385">
+        <v>66</v>
+      </c>
+      <c r="D1385" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1386" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1386">
+        <v>572</v>
+      </c>
+      <c r="D1386" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1387" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1387">
+        <v>264</v>
+      </c>
+      <c r="D1387" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1388" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1388">
+        <v>721</v>
+      </c>
+      <c r="D1388" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1389" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1389">
+        <v>522</v>
+      </c>
+      <c r="D1389" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1390" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1390">
+        <v>758</v>
+      </c>
+      <c r="D1390" s="3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1391" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1391">
+        <v>447</v>
+      </c>
+      <c r="D1391" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1392" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1392">
+        <v>350</v>
+      </c>
+      <c r="D1392" s="3">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1393" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1393">
+        <v>235</v>
+      </c>
+      <c r="D1393" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1394" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1394">
+        <v>116</v>
+      </c>
+      <c r="D1394" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1395" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1395">
+        <v>517</v>
+      </c>
+      <c r="D1395" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1396" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1396">
+        <v>143</v>
+      </c>
+      <c r="D1396" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1397" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1397">
+        <v>641</v>
+      </c>
+      <c r="D1397" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1398" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1398">
+        <v>199</v>
+      </c>
+      <c r="D1398" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1399" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1399">
+        <v>643</v>
+      </c>
+      <c r="D1399" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1400" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1400">
+        <v>141</v>
+      </c>
+      <c r="D1400" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1401" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1401">
+        <v>753</v>
+      </c>
+      <c r="D1401" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1402" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1402">
+        <v>305</v>
+      </c>
+      <c r="D1402" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1403" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1403">
+        <v>1232</v>
+      </c>
+      <c r="D1403" s="3">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1404" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1404">
+        <v>472</v>
+      </c>
+      <c r="D1404" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1405" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1405">
+        <v>11175</v>
+      </c>
+      <c r="D1405" s="3">
+        <v>0.48799999999999999</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1406" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1406">
+        <v>392</v>
+      </c>
+      <c r="D1406" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1407" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1407">
+        <v>303</v>
+      </c>
+      <c r="D1407" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1408" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1408">
+        <v>1331</v>
+      </c>
+      <c r="D1408" s="3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1409" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1409">
+        <v>280</v>
+      </c>
+      <c r="D1409" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1410" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1410">
+        <v>248</v>
+      </c>
+      <c r="D1410" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1411" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1411">
+        <v>74</v>
+      </c>
+      <c r="D1411" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1412" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1412">
+        <v>582</v>
+      </c>
+      <c r="D1412" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1413" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1413">
+        <v>267</v>
+      </c>
+      <c r="D1413" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1414" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1414">
+        <v>730</v>
+      </c>
+      <c r="D1414" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1415" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1415">
+        <v>522</v>
+      </c>
+      <c r="D1415" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1416" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1416">
+        <v>760</v>
+      </c>
+      <c r="D1416" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1417" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1417">
+        <v>449</v>
+      </c>
+      <c r="D1417" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1418" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1418">
+        <v>351</v>
+      </c>
+      <c r="D1418" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1419" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1419">
+        <v>247</v>
+      </c>
+      <c r="D1419" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1420" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1420">
+        <v>123</v>
+      </c>
+      <c r="D1420" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1421" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1421">
+        <v>523</v>
+      </c>
+      <c r="D1421" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1422" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1422">
+        <v>143</v>
+      </c>
+      <c r="D1422" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1423" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1423">
+        <v>643</v>
+      </c>
+      <c r="D1423" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1424" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1424">
+        <v>202</v>
+      </c>
+      <c r="D1424" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1425" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1425">
+        <v>646</v>
+      </c>
+      <c r="D1425" s="3">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
@@ -42556,10 +44090,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -43281,7 +44815,7 @@
         <v>28425</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" ref="G30:G38" si="1">D30/F30</f>
+        <f t="shared" ref="G30:G39" si="1">D30/F30</f>
         <v>0.12978012313104662</v>
       </c>
     </row>
@@ -43478,6 +45012,33 @@
         <f t="shared" si="1"/>
         <v>0.10565873178739996</v>
       </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B39">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>4149</v>
+      </c>
+      <c r="E39">
+        <v>438</v>
+      </c>
+      <c r="F39">
+        <v>40103</v>
+      </c>
+      <c r="G39" s="10">
+        <f t="shared" si="1"/>
+        <v>0.10345859412014063</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADE1AC2-6DD2-544B-B48B-C5A2380F9959}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9533A6-0C8C-6945-BBDA-3C4BFA8B1FA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3315" uniqueCount="211">
   <si>
     <t>Date</t>
   </si>
@@ -724,6 +724,9 @@
   </si>
   <si>
     <t>https://www.gov.ie/en/press-release/48be4e-statement-from-the-national-public-health-emergency-team-monday-11-m/#hospital-statistics</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/bc6c86-statement-from-the-national-public-health-emergency-team-tuesday-12-/</t>
   </si>
 </sst>
 </file>
@@ -1633,7 +1636,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1651,10 +1654,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43960.855983796297</v>
+        <v>43964.335844907408</v>
       </c>
       <c r="B2" s="12">
-        <v>43952.855983796297</v>
+        <v>43964.335844907408</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1667,10 +1670,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0979910-C687-6A43-A609-0D992245C102}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView topLeftCell="A17" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="A51" sqref="A51:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2243,6 +2246,28 @@
       </c>
       <c r="C50">
         <v>1634</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52">
+        <v>1653</v>
       </c>
     </row>
   </sheetData>
@@ -2665,10 +2690,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AE50F-07C0-7048-95B5-0C81D93B81F0}">
-  <dimension ref="A1:C221"/>
+  <dimension ref="A1:C232"/>
   <sheetViews>
-    <sheetView topLeftCell="A177" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C222" sqref="C222"/>
+    <sheetView topLeftCell="A191" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5148,7 +5173,7 @@
         <v>43961</v>
       </c>
       <c r="B212" t="str">
-        <f t="shared" ref="B212:B221" si="5">B201</f>
+        <f t="shared" ref="B212:B232" si="5">B201</f>
         <v>Ards And North Down</v>
       </c>
       <c r="C212" s="8">
@@ -5261,6 +5286,138 @@
       </c>
       <c r="C221" s="8">
         <v>244</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B222" t="str">
+        <f>B211</f>
+        <v>Antrim And Newtownabbey</v>
+      </c>
+      <c r="C222" s="8">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B223" t="str">
+        <f t="shared" si="5"/>
+        <v>Ards And North Down</v>
+      </c>
+      <c r="C223" s="8">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B224" t="str">
+        <f t="shared" si="5"/>
+        <v>Armagh, Banbridge And Craigavon</v>
+      </c>
+      <c r="C224" s="8">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B225" t="str">
+        <f t="shared" si="5"/>
+        <v>Belfast</v>
+      </c>
+      <c r="C225" s="8">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B226" t="str">
+        <f t="shared" si="5"/>
+        <v>Causeway Coast And Glens</v>
+      </c>
+      <c r="C226" s="8">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B227" t="str">
+        <f t="shared" si="5"/>
+        <v>Derry And Strabane</v>
+      </c>
+      <c r="C227" s="8">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B228" t="str">
+        <f t="shared" si="5"/>
+        <v>Fermanagh And Omagh</v>
+      </c>
+      <c r="C228" s="8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B229" t="str">
+        <f t="shared" si="5"/>
+        <v>Lisburn And Castlereagh</v>
+      </c>
+      <c r="C229" s="8">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B230" t="str">
+        <f t="shared" si="5"/>
+        <v>Mid And East Antrim</v>
+      </c>
+      <c r="C230" s="8">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B231" t="str">
+        <f t="shared" si="5"/>
+        <v>Mid Ulster</v>
+      </c>
+      <c r="C231" s="8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B232" t="str">
+        <f t="shared" si="5"/>
+        <v>Newry, Mourne And Down</v>
+      </c>
+      <c r="C232" s="8">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -5392,13 +5549,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P64"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
+      <selection pane="bottomRight" activeCell="P63" sqref="P63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8723,53 +8880,53 @@
         <v>43961</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C63" s="5">
-        <v>22996</v>
+        <v>23089</v>
       </c>
       <c r="D63" s="5">
         <v>22996</v>
       </c>
       <c r="E63" s="5">
         <f t="shared" ref="E63" si="28">C63-C62</f>
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="F63" s="18">
         <f t="shared" ref="F63" si="29">AVERAGE(E59:E63)</f>
-        <v>162</v>
-      </c>
-      <c r="G63" t="s">
-        <v>8</v>
-      </c>
-      <c r="H63" t="s">
-        <v>8</v>
+        <v>180.6</v>
+      </c>
+      <c r="G63">
+        <v>3031</v>
+      </c>
+      <c r="H63">
+        <v>386</v>
       </c>
       <c r="I63" s="5">
-        <v>1458</v>
+        <v>1237</v>
       </c>
       <c r="J63" s="5">
         <v>1458</v>
       </c>
       <c r="K63" s="5">
         <f t="shared" ref="K63" si="30">I63-I62</f>
-        <v>241</v>
+        <v>20</v>
       </c>
       <c r="L63" s="18">
         <f t="shared" ref="L63" si="31">AVERAGE(K59:K63)</f>
-        <v>61.2</v>
-      </c>
-      <c r="M63" t="s">
-        <v>8</v>
-      </c>
-      <c r="N63" t="s">
-        <v>8</v>
-      </c>
-      <c r="O63" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="M63">
+        <v>6906</v>
+      </c>
+      <c r="N63">
+        <v>759</v>
+      </c>
+      <c r="O63">
+        <v>49</v>
       </c>
       <c r="P63" t="s">
-        <v>155</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -8787,7 +8944,7 @@
       </c>
       <c r="E64" s="5">
         <f t="shared" ref="E64" si="32">C64-C63</f>
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="F64" s="18">
         <f t="shared" ref="F64" si="33">AVERAGE(E60:E64)</f>
@@ -8807,7 +8964,7 @@
       </c>
       <c r="K64" s="5">
         <f t="shared" ref="K64" si="34">I64-I63</f>
-        <v>9</v>
+        <v>230</v>
       </c>
       <c r="L64" s="18">
         <f t="shared" ref="L64" si="35">AVERAGE(K60:K64)</f>
@@ -8824,6 +8981,60 @@
       </c>
       <c r="P64" t="s">
         <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" s="5">
+        <v>23242</v>
+      </c>
+      <c r="D65" s="5">
+        <v>23242</v>
+      </c>
+      <c r="E65" s="5">
+        <f t="shared" ref="E65" si="36">C65-C64</f>
+        <v>107</v>
+      </c>
+      <c r="F65" s="18">
+        <f t="shared" ref="F65" si="37">AVERAGE(E61:E65)</f>
+        <v>149.4</v>
+      </c>
+      <c r="G65" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" t="s">
+        <v>8</v>
+      </c>
+      <c r="I65" s="5">
+        <v>1488</v>
+      </c>
+      <c r="J65" s="5">
+        <v>1488</v>
+      </c>
+      <c r="K65" s="5">
+        <f t="shared" ref="K65" si="38">I65-I64</f>
+        <v>21</v>
+      </c>
+      <c r="L65" s="18">
+        <f t="shared" ref="L65" si="39">AVERAGE(K61:K65)</f>
+        <v>58.6</v>
+      </c>
+      <c r="M65" t="s">
+        <v>8</v>
+      </c>
+      <c r="N65" t="s">
+        <v>8</v>
+      </c>
+      <c r="O65" t="s">
+        <v>8</v>
+      </c>
+      <c r="P65" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -8834,11 +9045,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:D164"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A159" sqref="A159:A161"/>
+      <selection pane="bottomLeft" activeCell="A162" sqref="A162:A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11192,6 +11403,48 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B162" t="s">
+        <v>61</v>
+      </c>
+      <c r="C162">
+        <v>13249</v>
+      </c>
+      <c r="D162">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B163" t="s">
+        <v>62</v>
+      </c>
+      <c r="C163">
+        <v>9776</v>
+      </c>
+      <c r="D163">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B164" t="s">
+        <v>52</v>
+      </c>
+      <c r="C164">
+        <v>64</v>
+      </c>
+      <c r="D164">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11199,11 +11452,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:J606"/>
+  <dimension ref="A1:J619"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A573" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A594" sqref="A594:A606"/>
+      <pane ySplit="1" topLeftCell="A590" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C610" sqref="C610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19788,6 +20041,190 @@
         <v>2</v>
       </c>
     </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A607" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B607" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C607">
+        <v>42</v>
+      </c>
+      <c r="D607" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A608" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B608" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C608">
+        <v>79</v>
+      </c>
+      <c r="D608" t="s">
+        <v>8</v>
+      </c>
+      <c r="F608" s="13"/>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A609" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B609" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C609" t="s">
+        <v>8</v>
+      </c>
+      <c r="D609">
+        <v>18</v>
+      </c>
+      <c r="F609" s="7"/>
+    </row>
+    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A610" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B610" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C610">
+        <v>260</v>
+      </c>
+      <c r="D610">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A611" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B611" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C611">
+        <v>1624</v>
+      </c>
+      <c r="D611">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A612" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B612" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C612">
+        <v>3777</v>
+      </c>
+      <c r="D612">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A613" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B613" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C613">
+        <v>3994</v>
+      </c>
+      <c r="D613">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A614" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B614" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C614">
+        <v>4172</v>
+      </c>
+      <c r="D614">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A615" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B615" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C615">
+        <v>3014</v>
+      </c>
+      <c r="D615">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A616" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B616" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C616">
+        <v>1685</v>
+      </c>
+      <c r="D616">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A617" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B617" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C617">
+        <v>2164</v>
+      </c>
+      <c r="D617">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A618" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B618" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C618">
+        <v>2252</v>
+      </c>
+      <c r="D618">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A619" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B619" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C619">
+        <v>26</v>
+      </c>
+      <c r="D619">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -19796,11 +20233,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D181"/>
+  <dimension ref="A1:D184"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A179" sqref="A179:A181"/>
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22398,6 +22835,48 @@
         <v>106</v>
       </c>
     </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B182" t="s">
+        <v>56</v>
+      </c>
+      <c r="C182" s="11">
+        <v>61</v>
+      </c>
+      <c r="D182" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B183" t="s">
+        <v>57</v>
+      </c>
+      <c r="C183" s="11">
+        <v>36</v>
+      </c>
+      <c r="D183" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B184" t="s">
+        <v>58</v>
+      </c>
+      <c r="C184" s="11">
+        <v>3</v>
+      </c>
+      <c r="D184" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22405,10 +22884,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E1425"/>
+  <dimension ref="A1:E1451"/>
   <sheetViews>
-    <sheetView topLeftCell="A1382" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1415" sqref="B1415"/>
+    <sheetView topLeftCell="A1021" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A1445" sqref="A1445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42853,6 +43332,370 @@
         <v>646</v>
       </c>
       <c r="D1425" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1426" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1426">
+        <v>141</v>
+      </c>
+      <c r="D1426" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1427" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1427">
+        <v>757</v>
+      </c>
+      <c r="D1427" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1428" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1428">
+        <v>306</v>
+      </c>
+      <c r="D1428" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1429" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1429">
+        <v>1234</v>
+      </c>
+      <c r="D1429" s="3">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1430" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1430">
+        <v>474</v>
+      </c>
+      <c r="D1430" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1431" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1431">
+        <v>11235</v>
+      </c>
+      <c r="D1431" s="3">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1432" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1432">
+        <v>400</v>
+      </c>
+      <c r="D1432" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1433" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1433">
+        <v>305</v>
+      </c>
+      <c r="D1433" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1434" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1434">
+        <v>1337</v>
+      </c>
+      <c r="D1434" s="3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1435" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1435">
+        <v>284</v>
+      </c>
+      <c r="D1435" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1436" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1436">
+        <v>249</v>
+      </c>
+      <c r="D1436" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1437" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1437">
+        <v>74</v>
+      </c>
+      <c r="D1437" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1438" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1438">
+        <v>588</v>
+      </c>
+      <c r="D1438" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1439" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1439">
+        <v>269</v>
+      </c>
+      <c r="D1439" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1440" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1440">
+        <v>733</v>
+      </c>
+      <c r="D1440" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1441" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1441">
+        <v>537</v>
+      </c>
+      <c r="D1441" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1442" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1442">
+        <v>769</v>
+      </c>
+      <c r="D1442" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1443" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1443">
+        <v>454</v>
+      </c>
+      <c r="D1443" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1444" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1444">
+        <v>358</v>
+      </c>
+      <c r="D1444" s="3">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1445" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1445">
+        <v>297</v>
+      </c>
+      <c r="D1445" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1446" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1446">
+        <v>127</v>
+      </c>
+      <c r="D1446" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1447" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1447">
+        <v>524</v>
+      </c>
+      <c r="D1447" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1448" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1448">
+        <v>143</v>
+      </c>
+      <c r="D1448" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1449" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1449">
+        <v>643</v>
+      </c>
+      <c r="D1449" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1450" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1450">
+        <v>202</v>
+      </c>
+      <c r="D1450" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1451" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1451">
+        <v>649</v>
+      </c>
+      <c r="D1451" s="3">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
@@ -44093,7 +44936,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44815,7 +45658,7 @@
         <v>28425</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" ref="G30:G39" si="1">D30/F30</f>
+        <f t="shared" ref="G30:G40" si="1">D30/F30</f>
         <v>0.12978012313104662</v>
       </c>
     </row>
@@ -45038,7 +45881,28 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B40">
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>4193</v>
+      </c>
+      <c r="E40">
+        <v>447</v>
+      </c>
+      <c r="F40">
+        <v>41037</v>
+      </c>
+      <c r="G40" s="10">
+        <f t="shared" si="1"/>
+        <v>0.1021760849964666</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9533A6-0C8C-6945-BBDA-3C4BFA8B1FA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C0A4D8-4951-5842-9314-D50DEC266C11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3315" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="211">
   <si>
     <t>Date</t>
   </si>
@@ -720,13 +720,13 @@
     <t>75 - 84</t>
   </si>
   <si>
-    <t>https://www.gov.ie/en/press-release/48be4e-statement-from-the-national-public-health-emergency-team-monday-11-m/</t>
-  </si>
-  <si>
     <t>https://www.gov.ie/en/press-release/48be4e-statement-from-the-national-public-health-emergency-team-monday-11-m/#hospital-statistics</t>
   </si>
   <si>
     <t>https://www.gov.ie/en/press-release/bc6c86-statement-from-the-national-public-health-emergency-team-tuesday-12-/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/0c4499-statement-from-the-national-public-health-emergency-team-wednesday-13-may/#hospital-statistics</t>
   </si>
 </sst>
 </file>
@@ -1654,10 +1654,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43964.335844907408</v>
+        <v>43964.853900462964</v>
       </c>
       <c r="B2" s="12">
-        <v>43964.335844907408</v>
+        <v>43964.853900462964</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1670,10 +1670,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0979910-C687-6A43-A609-0D992245C102}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:A52"/>
+    <sheetView topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2268,6 +2268,28 @@
       </c>
       <c r="C52">
         <v>1653</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54">
+        <v>1676</v>
       </c>
     </row>
   </sheetData>
@@ -5549,13 +5571,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P63" sqref="P63"/>
+      <selection pane="bottomRight" activeCell="P64" sqref="P64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8872,7 +8894,7 @@
         <v>49</v>
       </c>
       <c r="P62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -8926,7 +8948,7 @@
         <v>49</v>
       </c>
       <c r="P63" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -8934,53 +8956,53 @@
         <v>43962</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C64" s="5">
-        <v>23135</v>
+        <v>23144</v>
       </c>
       <c r="D64" s="5">
         <v>23135</v>
       </c>
       <c r="E64" s="5">
         <f t="shared" ref="E64" si="32">C64-C63</f>
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F64" s="18">
         <f t="shared" ref="F64" si="33">AVERAGE(E60:E64)</f>
-        <v>166.8</v>
-      </c>
-      <c r="G64" t="s">
-        <v>8</v>
-      </c>
-      <c r="H64" t="s">
-        <v>8</v>
+        <v>168.6</v>
+      </c>
+      <c r="G64">
+        <v>3050</v>
+      </c>
+      <c r="H64">
+        <v>389</v>
       </c>
       <c r="I64" s="5">
-        <v>1467</v>
+        <v>1246</v>
       </c>
       <c r="J64" s="5">
         <v>1467</v>
       </c>
       <c r="K64" s="5">
         <f t="shared" ref="K64" si="34">I64-I63</f>
-        <v>230</v>
+        <v>9</v>
       </c>
       <c r="L64" s="18">
         <f t="shared" ref="L64" si="35">AVERAGE(K60:K64)</f>
-        <v>58</v>
-      </c>
-      <c r="M64" t="s">
-        <v>8</v>
-      </c>
-      <c r="N64" t="s">
-        <v>8</v>
-      </c>
-      <c r="O64" t="s">
-        <v>8</v>
+        <v>13.8</v>
+      </c>
+      <c r="M64">
+        <v>6997</v>
+      </c>
+      <c r="N64">
+        <v>766</v>
+      </c>
+      <c r="O64">
+        <v>48</v>
       </c>
       <c r="P64" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -8998,7 +9020,7 @@
       </c>
       <c r="E65" s="5">
         <f t="shared" ref="E65" si="36">C65-C64</f>
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F65" s="18">
         <f t="shared" ref="F65" si="37">AVERAGE(E61:E65)</f>
@@ -9018,7 +9040,7 @@
       </c>
       <c r="K65" s="5">
         <f t="shared" ref="K65" si="38">I65-I64</f>
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="L65" s="18">
         <f t="shared" ref="L65" si="39">AVERAGE(K61:K65)</f>
@@ -9034,6 +9056,60 @@
         <v>8</v>
       </c>
       <c r="P65" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" s="5">
+        <v>23401</v>
+      </c>
+      <c r="D66" s="5">
+        <v>23401</v>
+      </c>
+      <c r="E66" s="5">
+        <f t="shared" ref="E66" si="40">C66-C65</f>
+        <v>159</v>
+      </c>
+      <c r="F66" s="18">
+        <f t="shared" ref="F66" si="41">AVERAGE(E62:E66)</f>
+        <v>146</v>
+      </c>
+      <c r="G66" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="5">
+        <v>1497</v>
+      </c>
+      <c r="J66" s="5">
+        <v>1497</v>
+      </c>
+      <c r="K66" s="5">
+        <f t="shared" ref="K66" si="42">I66-I65</f>
+        <v>9</v>
+      </c>
+      <c r="L66" s="18">
+        <f t="shared" ref="L66" si="43">AVERAGE(K62:K66)</f>
+        <v>58.8</v>
+      </c>
+      <c r="M66" t="s">
+        <v>8</v>
+      </c>
+      <c r="N66" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" t="s">
+        <v>8</v>
+      </c>
+      <c r="P66" t="s">
         <v>155</v>
       </c>
     </row>
@@ -9045,11 +9121,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D164"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A162" sqref="A162:A164"/>
+      <selection pane="bottomLeft" activeCell="A165" sqref="A165:A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11445,6 +11521,48 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B165" t="s">
+        <v>61</v>
+      </c>
+      <c r="C165" s="15">
+        <v>13282</v>
+      </c>
+      <c r="D165">
+        <v>57.39</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B166" t="s">
+        <v>62</v>
+      </c>
+      <c r="C166" s="15">
+        <v>9802</v>
+      </c>
+      <c r="D166">
+        <v>42.35</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B167" t="s">
+        <v>52</v>
+      </c>
+      <c r="C167">
+        <v>60</v>
+      </c>
+      <c r="D167">
+        <v>0.26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11452,11 +11570,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:J619"/>
+  <dimension ref="A1:J630"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A590" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C610" sqref="C610"/>
+      <pane ySplit="1" topLeftCell="A595" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D619" sqref="D619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20070,7 +20188,7 @@
       </c>
       <c r="F608" s="13"/>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>43961</v>
       </c>
@@ -20085,7 +20203,7 @@
       </c>
       <c r="F609" s="7"/>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>43961</v>
       </c>
@@ -20099,7 +20217,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>43961</v>
       </c>
@@ -20113,7 +20231,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>43961</v>
       </c>
@@ -20127,7 +20245,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>43961</v>
       </c>
@@ -20141,7 +20259,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>43961</v>
       </c>
@@ -20155,7 +20273,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>43961</v>
       </c>
@@ -20169,7 +20287,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>43961</v>
       </c>
@@ -20183,7 +20301,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>43961</v>
       </c>
@@ -20197,7 +20315,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>43961</v>
       </c>
@@ -20211,7 +20329,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>43961</v>
       </c>
@@ -20222,6 +20340,162 @@
         <v>26</v>
       </c>
       <c r="D619">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="620" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A620" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B620" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C620">
+        <v>122</v>
+      </c>
+      <c r="D620">
+        <v>18</v>
+      </c>
+      <c r="F620" s="7"/>
+      <c r="I620" s="7"/>
+    </row>
+    <row r="621" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A621" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B621" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C621">
+        <v>263</v>
+      </c>
+      <c r="D621">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="622" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A622" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B622" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C622">
+        <v>1631</v>
+      </c>
+      <c r="D622">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="623" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A623" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B623" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C623">
+        <v>3792</v>
+      </c>
+      <c r="D623">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="624" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A624" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B624" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C624">
+        <v>4004</v>
+      </c>
+      <c r="D624">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A625" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B625" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C625">
+        <v>4186</v>
+      </c>
+      <c r="D625">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A626" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B626" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C626">
+        <v>3014</v>
+      </c>
+      <c r="D626">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A627" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B627" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C627">
+        <v>1691</v>
+      </c>
+      <c r="D627">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A628" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B628" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C628">
+        <v>2165</v>
+      </c>
+      <c r="D628">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A629" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B629" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C629">
+        <v>2251</v>
+      </c>
+      <c r="D629">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A630" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B630" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C630">
+        <v>25</v>
+      </c>
+      <c r="D630">
         <v>2</v>
       </c>
     </row>
@@ -20233,11 +20507,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D184"/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B183" sqref="B183"/>
+      <selection pane="bottomLeft" activeCell="A185" sqref="A185:A187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22877,6 +23151,48 @@
         <v>106</v>
       </c>
     </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B185" t="s">
+        <v>56</v>
+      </c>
+      <c r="C185" s="11">
+        <v>60</v>
+      </c>
+      <c r="D185" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B186" t="s">
+        <v>57</v>
+      </c>
+      <c r="C186" s="11">
+        <v>37</v>
+      </c>
+      <c r="D186" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B187" t="s">
+        <v>58</v>
+      </c>
+      <c r="C187" s="11">
+        <v>3</v>
+      </c>
+      <c r="D187" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22884,10 +23200,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E1451"/>
+  <dimension ref="A1:E1477"/>
   <sheetViews>
-    <sheetView topLeftCell="A1021" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A1445" sqref="A1445"/>
+    <sheetView topLeftCell="A1434" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B1470" sqref="B1470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -43697,6 +44013,370 @@
       </c>
       <c r="D1451" s="3">
         <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1452" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1452">
+        <v>143</v>
+      </c>
+      <c r="D1452">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1453" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1453">
+        <v>765</v>
+      </c>
+      <c r="D1453">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1454" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1454">
+        <v>308</v>
+      </c>
+      <c r="D1454">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1455" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1455">
+        <v>1238</v>
+      </c>
+      <c r="D1455">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1456" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1456">
+        <v>472</v>
+      </c>
+      <c r="D1456">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1457" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1457">
+        <v>11242</v>
+      </c>
+      <c r="D1457">
+        <v>48.57</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1458" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1458">
+        <v>402</v>
+      </c>
+      <c r="D1458">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1459" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1459">
+        <v>305</v>
+      </c>
+      <c r="D1459">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1460" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1460">
+        <v>1344</v>
+      </c>
+      <c r="D1460">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1461" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1461">
+        <v>291</v>
+      </c>
+      <c r="D1461">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1462" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1462">
+        <v>249</v>
+      </c>
+      <c r="D1462">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1463" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1463">
+        <v>75</v>
+      </c>
+      <c r="D1463">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1464" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1464">
+        <v>588</v>
+      </c>
+      <c r="D1464">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1465" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1465">
+        <v>270</v>
+      </c>
+      <c r="D1465">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1466" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1466">
+        <v>735</v>
+      </c>
+      <c r="D1466">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1467" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1467">
+        <v>538</v>
+      </c>
+      <c r="D1467">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1468" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1468">
+        <v>769</v>
+      </c>
+      <c r="D1468">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1469" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1469">
+        <v>458</v>
+      </c>
+      <c r="D1469">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1470" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1470">
+        <v>360</v>
+      </c>
+      <c r="D1470">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1471" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1471">
+        <v>298</v>
+      </c>
+      <c r="D1471">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1472" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1472">
+        <v>128</v>
+      </c>
+      <c r="D1472">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1473" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1473">
+        <v>524</v>
+      </c>
+      <c r="D1473">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1474" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1474">
+        <v>144</v>
+      </c>
+      <c r="D1474">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1475" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1475">
+        <v>645</v>
+      </c>
+      <c r="D1475">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1476" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1476">
+        <v>206</v>
+      </c>
+      <c r="D1476">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1477" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1477">
+        <v>647</v>
+      </c>
+      <c r="D1477">
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>
@@ -44933,10 +45613,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45658,7 +46338,7 @@
         <v>28425</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" ref="G30:G40" si="1">D30/F30</f>
+        <f t="shared" ref="G30:G41" si="1">D30/F30</f>
         <v>0.12978012313104662</v>
       </c>
     </row>
@@ -45902,6 +46582,30 @@
       <c r="G40" s="10">
         <f t="shared" si="1"/>
         <v>0.1021760849964666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B41">
+        <v>60</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>4253</v>
+      </c>
+      <c r="E41">
+        <v>449</v>
+      </c>
+      <c r="F41">
+        <v>42430</v>
+      </c>
+      <c r="G41" s="10">
+        <f t="shared" si="1"/>
+        <v>0.10023568230025925</v>
       </c>
     </row>
   </sheetData>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C0A4D8-4951-5842-9314-D50DEC266C11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FB64EB-DBD5-D343-AE39-E1DE217EC8AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="212">
   <si>
     <t>Date</t>
   </si>
@@ -727,6 +727,9 @@
   </si>
   <si>
     <t>https://www.gov.ie/en/press-release/0c4499-statement-from-the-national-public-health-emergency-team-wednesday-13-may/#hospital-statistics</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/d65820-statement-from-the-national-public-health-emergency-team-thursday-14/</t>
   </si>
 </sst>
 </file>
@@ -1636,7 +1639,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1654,10 +1657,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43964.853900462964</v>
+        <v>43966.599733796298</v>
       </c>
       <c r="B2" s="12">
-        <v>43964.853900462964</v>
+        <v>43966.599733796298</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1670,10 +1673,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0979910-C687-6A43-A609-0D992245C102}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:A54"/>
+      <selection activeCell="A55" sqref="A55:A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2290,6 +2293,28 @@
       </c>
       <c r="C54">
         <v>1676</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56">
+        <v>1696</v>
       </c>
     </row>
   </sheetData>
@@ -2712,10 +2737,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AE50F-07C0-7048-95B5-0C81D93B81F0}">
-  <dimension ref="A1:C232"/>
+  <dimension ref="A1:C243"/>
   <sheetViews>
-    <sheetView topLeftCell="A191" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C212" sqref="C212"/>
+    <sheetView topLeftCell="A196" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B233" sqref="B233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5195,7 +5220,7 @@
         <v>43961</v>
       </c>
       <c r="B212" t="str">
-        <f t="shared" ref="B212:B232" si="5">B201</f>
+        <f t="shared" ref="B212:B243" si="5">B201</f>
         <v>Ards And North Down</v>
       </c>
       <c r="C212" s="8">
@@ -5440,6 +5465,138 @@
       </c>
       <c r="C232" s="8">
         <v>249</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B233" t="str">
+        <f>B222</f>
+        <v>Antrim And Newtownabbey</v>
+      </c>
+      <c r="C233" s="8">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B234" t="str">
+        <f t="shared" si="5"/>
+        <v>Ards And North Down</v>
+      </c>
+      <c r="C234" s="8">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B235" t="str">
+        <f t="shared" si="5"/>
+        <v>Armagh, Banbridge And Craigavon</v>
+      </c>
+      <c r="C235" s="8">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B236" t="str">
+        <f t="shared" si="5"/>
+        <v>Belfast</v>
+      </c>
+      <c r="C236" s="8">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B237" t="str">
+        <f t="shared" si="5"/>
+        <v>Causeway Coast And Glens</v>
+      </c>
+      <c r="C237" s="8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B238" t="str">
+        <f t="shared" si="5"/>
+        <v>Derry And Strabane</v>
+      </c>
+      <c r="C238" s="8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B239" t="str">
+        <f t="shared" si="5"/>
+        <v>Fermanagh And Omagh</v>
+      </c>
+      <c r="C239" s="8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B240" t="str">
+        <f t="shared" si="5"/>
+        <v>Lisburn And Castlereagh</v>
+      </c>
+      <c r="C240" s="8">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B241" t="str">
+        <f t="shared" si="5"/>
+        <v>Mid And East Antrim</v>
+      </c>
+      <c r="C241" s="8">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B242" t="str">
+        <f t="shared" si="5"/>
+        <v>Mid Ulster</v>
+      </c>
+      <c r="C242" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B243" t="str">
+        <f t="shared" si="5"/>
+        <v>Newry, Mourne And Down</v>
+      </c>
+      <c r="C243" s="8">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -5571,13 +5728,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P64" sqref="P64"/>
+      <selection pane="bottomRight" activeCell="P67" sqref="P67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9010,53 +9167,53 @@
         <v>43963</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C65" s="5">
-        <v>23242</v>
+        <v>23259</v>
       </c>
       <c r="D65" s="5">
         <v>23242</v>
       </c>
       <c r="E65" s="5">
         <f t="shared" ref="E65" si="36">C65-C64</f>
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="F65" s="18">
         <f t="shared" ref="F65" si="37">AVERAGE(E61:E65)</f>
-        <v>149.4</v>
-      </c>
-      <c r="G65" t="s">
-        <v>8</v>
-      </c>
-      <c r="H65" t="s">
-        <v>8</v>
+        <v>152.80000000000001</v>
+      </c>
+      <c r="G65">
+        <v>3053</v>
+      </c>
+      <c r="H65">
+        <v>387</v>
       </c>
       <c r="I65" s="5">
-        <v>1488</v>
+        <v>1255</v>
       </c>
       <c r="J65" s="5">
         <v>1488</v>
       </c>
       <c r="K65" s="5">
         <f t="shared" ref="K65" si="38">I65-I64</f>
-        <v>242</v>
+        <v>9</v>
       </c>
       <c r="L65" s="18">
         <f t="shared" ref="L65" si="39">AVERAGE(K61:K65)</f>
-        <v>58.6</v>
-      </c>
-      <c r="M65" t="s">
-        <v>8</v>
-      </c>
-      <c r="N65" t="s">
-        <v>8</v>
-      </c>
-      <c r="O65" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="M65">
+        <v>7123</v>
+      </c>
+      <c r="N65">
+        <v>766</v>
+      </c>
+      <c r="O65">
+        <v>48</v>
       </c>
       <c r="P65" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -9074,7 +9231,7 @@
       </c>
       <c r="E66" s="5">
         <f t="shared" ref="E66" si="40">C66-C65</f>
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F66" s="18">
         <f t="shared" ref="F66" si="41">AVERAGE(E62:E66)</f>
@@ -9094,7 +9251,7 @@
       </c>
       <c r="K66" s="5">
         <f t="shared" ref="K66" si="42">I66-I65</f>
-        <v>9</v>
+        <v>242</v>
       </c>
       <c r="L66" s="18">
         <f t="shared" ref="L66" si="43">AVERAGE(K62:K66)</f>
@@ -9111,6 +9268,60 @@
       </c>
       <c r="P66" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="5">
+        <v>23827</v>
+      </c>
+      <c r="D67" s="5">
+        <v>23827</v>
+      </c>
+      <c r="E67" s="5">
+        <f t="shared" ref="E67" si="44">C67-C66</f>
+        <v>426</v>
+      </c>
+      <c r="F67" s="18">
+        <f t="shared" ref="F67" si="45">AVERAGE(E63:E67)</f>
+        <v>186.6</v>
+      </c>
+      <c r="G67" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" s="5">
+        <v>1506</v>
+      </c>
+      <c r="J67" s="5">
+        <v>1506</v>
+      </c>
+      <c r="K67" s="5">
+        <f t="shared" ref="K67" si="46">I67-I66</f>
+        <v>9</v>
+      </c>
+      <c r="L67" s="18">
+        <f t="shared" ref="L67" si="47">AVERAGE(K63:K67)</f>
+        <v>57.8</v>
+      </c>
+      <c r="M67" t="s">
+        <v>8</v>
+      </c>
+      <c r="N67" t="s">
+        <v>8</v>
+      </c>
+      <c r="O67" t="s">
+        <v>8</v>
+      </c>
+      <c r="P67" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -9121,11 +9332,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D167"/>
+  <dimension ref="A1:D170"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A165" sqref="A165:A167"/>
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A168" sqref="A168:A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11563,6 +11774,48 @@
         <v>0.26</v>
       </c>
     </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B168" t="s">
+        <v>61</v>
+      </c>
+      <c r="C168" s="15">
+        <v>13338</v>
+      </c>
+      <c r="D168">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B169" t="s">
+        <v>62</v>
+      </c>
+      <c r="C169" s="15">
+        <v>9853</v>
+      </c>
+      <c r="D169">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B170" t="s">
+        <v>52</v>
+      </c>
+      <c r="C170">
+        <v>68</v>
+      </c>
+      <c r="D170">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11570,11 +11823,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:J630"/>
+  <dimension ref="A1:J643"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A595" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D619" sqref="D619"/>
+      <pane ySplit="1" topLeftCell="A603" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B638" sqref="B638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20415,7 +20668,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>43962</v>
       </c>
@@ -20429,7 +20682,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>43962</v>
       </c>
@@ -20443,7 +20696,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>43962</v>
       </c>
@@ -20457,7 +20710,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>43962</v>
       </c>
@@ -20471,7 +20724,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>43962</v>
       </c>
@@ -20485,7 +20738,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>43962</v>
       </c>
@@ -20496,6 +20749,189 @@
         <v>25</v>
       </c>
       <c r="D630">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A631" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B631" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C631">
+        <v>43</v>
+      </c>
+      <c r="D631" t="s">
+        <v>8</v>
+      </c>
+      <c r="F631" s="7"/>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A632" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B632" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C632">
+        <v>82</v>
+      </c>
+      <c r="D632" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A633" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B633" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C633" t="s">
+        <v>8</v>
+      </c>
+      <c r="D633">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A634" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B634" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C634">
+        <v>266</v>
+      </c>
+      <c r="D634">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A635" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B635" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C635">
+        <v>1641</v>
+      </c>
+      <c r="D635">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A636" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B636" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C636">
+        <v>3822</v>
+      </c>
+      <c r="D636">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A637" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B637" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C637">
+        <v>4024</v>
+      </c>
+      <c r="D637">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A638" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B638" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C638">
+        <v>4203</v>
+      </c>
+      <c r="D638">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A639" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B639" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C639">
+        <v>3029</v>
+      </c>
+      <c r="D639">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A640" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B640" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C640">
+        <v>1696</v>
+      </c>
+      <c r="D640">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A641" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B641" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C641">
+        <v>2175</v>
+      </c>
+      <c r="D641">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A642" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B642" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C642">
+        <v>2253</v>
+      </c>
+      <c r="D642">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A643" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B643" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C643">
+        <v>25</v>
+      </c>
+      <c r="D643">
         <v>2</v>
       </c>
     </row>
@@ -20507,11 +20943,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D190"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A185" sqref="A185:A187"/>
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A188" sqref="A188:A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23193,6 +23629,48 @@
         <v>106</v>
       </c>
     </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B188" t="s">
+        <v>56</v>
+      </c>
+      <c r="C188" s="11">
+        <v>60</v>
+      </c>
+      <c r="D188" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B189" t="s">
+        <v>57</v>
+      </c>
+      <c r="C189" s="11">
+        <v>37</v>
+      </c>
+      <c r="D189" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B190" t="s">
+        <v>58</v>
+      </c>
+      <c r="C190" s="11">
+        <v>3</v>
+      </c>
+      <c r="D190" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23200,10 +23678,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E1477"/>
+  <dimension ref="A1:E1503"/>
   <sheetViews>
-    <sheetView topLeftCell="A1434" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1470" sqref="B1470"/>
+    <sheetView topLeftCell="A1460" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A1478" sqref="A1478:A1503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44376,6 +44854,370 @@
         <v>647</v>
       </c>
       <c r="D1477">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1478" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1478">
+        <v>143</v>
+      </c>
+      <c r="D1478">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1479" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1479">
+        <v>767</v>
+      </c>
+      <c r="D1479">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1480" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1480">
+        <v>308</v>
+      </c>
+      <c r="D1480">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1481" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1481">
+        <v>1249</v>
+      </c>
+      <c r="D1481">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1482" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1482">
+        <v>473</v>
+      </c>
+      <c r="D1482">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1483" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1483">
+        <v>11308</v>
+      </c>
+      <c r="D1483">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1484" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1484">
+        <v>405</v>
+      </c>
+      <c r="D1484">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1485" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1485">
+        <v>305</v>
+      </c>
+      <c r="D1485">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1486" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1486">
+        <v>1348</v>
+      </c>
+      <c r="D1486">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1487" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1487">
+        <v>292</v>
+      </c>
+      <c r="D1487">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1488" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1488">
+        <v>249</v>
+      </c>
+      <c r="D1488">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1489" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1489">
+        <v>77</v>
+      </c>
+      <c r="D1489">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1490" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1490">
+        <v>591</v>
+      </c>
+      <c r="D1490">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1491" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1491">
+        <v>272</v>
+      </c>
+      <c r="D1491">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1492" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1492">
+        <v>734</v>
+      </c>
+      <c r="D1492">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1493" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1493">
+        <v>541</v>
+      </c>
+      <c r="D1493">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1494" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1494">
+        <v>770</v>
+      </c>
+      <c r="D1494">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1495" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1495">
+        <v>464</v>
+      </c>
+      <c r="D1495">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1496" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1496">
+        <v>362</v>
+      </c>
+      <c r="D1496">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1497" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1497">
+        <v>298</v>
+      </c>
+      <c r="D1497">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1498" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1498">
+        <v>128</v>
+      </c>
+      <c r="D1498">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1499" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1499">
+        <v>524</v>
+      </c>
+      <c r="D1499">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1500" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1500">
+        <v>144</v>
+      </c>
+      <c r="D1500">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1501" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1501">
+        <v>648</v>
+      </c>
+      <c r="D1501">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1502" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1502">
+        <v>208</v>
+      </c>
+      <c r="D1502">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1503" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1503">
+        <v>651</v>
+      </c>
+      <c r="D1503">
         <v>2.8</v>
       </c>
     </row>
@@ -45613,10 +46455,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A8" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46338,7 +47180,7 @@
         <v>28425</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" ref="G30:G41" si="1">D30/F30</f>
+        <f t="shared" ref="G30:G43" si="1">D30/F30</f>
         <v>0.12978012313104662</v>
       </c>
     </row>
@@ -46606,6 +47448,57 @@
       <c r="G41" s="10">
         <f t="shared" si="1"/>
         <v>0.10023568230025925</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B42">
+        <f>D42-D41</f>
+        <v>38</v>
+      </c>
+      <c r="C42">
+        <f>E42-E41</f>
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>4291</v>
+      </c>
+      <c r="E42">
+        <v>454</v>
+      </c>
+      <c r="F42">
+        <v>43835</v>
+      </c>
+      <c r="G42" s="10">
+        <f t="shared" si="1"/>
+        <v>9.7889814075510437E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B43">
+        <v>26</v>
+      </c>
+      <c r="C43">
+        <f>E43-E42</f>
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <v>4317</v>
+      </c>
+      <c r="E43">
+        <v>469</v>
+      </c>
+      <c r="F43">
+        <v>45241</v>
+      </c>
+      <c r="G43" s="10">
+        <f t="shared" si="1"/>
+        <v>9.5422293936915634E-2</v>
       </c>
     </row>
   </sheetData>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FB64EB-DBD5-D343-AE39-E1DE217EC8AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556604B2-4FE6-BB4F-A4E1-42F382F2863A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3475" uniqueCount="213">
   <si>
     <t>Date</t>
   </si>
@@ -730,6 +730,9 @@
   </si>
   <si>
     <t>https://www.gov.ie/en/press-release/d65820-statement-from-the-national-public-health-emergency-team-thursday-14/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/dfc259-statement-from-the-national-public-health-emergency-team-saturday-16/</t>
   </si>
 </sst>
 </file>
@@ -1639,7 +1642,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1657,10 +1660,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43966.599733796298</v>
+        <v>43967.885150462964</v>
       </c>
       <c r="B2" s="12">
-        <v>43966.599733796298</v>
+        <v>43967.885150462964</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1673,10 +1676,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0979910-C687-6A43-A609-0D992245C102}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:A56"/>
+      <selection activeCell="A57" sqref="A57:A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2315,6 +2318,28 @@
       </c>
       <c r="C56">
         <v>1696</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B57" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58">
+        <v>1707</v>
       </c>
     </row>
   </sheetData>
@@ -2737,10 +2762,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AE50F-07C0-7048-95B5-0C81D93B81F0}">
-  <dimension ref="A1:C243"/>
+  <dimension ref="A1:C254"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B233" sqref="B233"/>
+    <sheetView topLeftCell="A208" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5220,7 +5245,7 @@
         <v>43961</v>
       </c>
       <c r="B212" t="str">
-        <f t="shared" ref="B212:B243" si="5">B201</f>
+        <f t="shared" ref="B212:B254" si="5">B201</f>
         <v>Ards And North Down</v>
       </c>
       <c r="C212" s="8">
@@ -5596,6 +5621,138 @@
         <v>Newry, Mourne And Down</v>
       </c>
       <c r="C243" s="8">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B244" t="str">
+        <f>B233</f>
+        <v>Antrim And Newtownabbey</v>
+      </c>
+      <c r="C244" s="8">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B245" t="str">
+        <f t="shared" si="5"/>
+        <v>Ards And North Down</v>
+      </c>
+      <c r="C245" s="8">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B246" t="str">
+        <f t="shared" si="5"/>
+        <v>Armagh, Banbridge And Craigavon</v>
+      </c>
+      <c r="C246" s="8">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B247" t="str">
+        <f t="shared" si="5"/>
+        <v>Belfast</v>
+      </c>
+      <c r="C247" s="8">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B248" t="str">
+        <f t="shared" si="5"/>
+        <v>Causeway Coast And Glens</v>
+      </c>
+      <c r="C248" s="8">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B249" t="str">
+        <f t="shared" si="5"/>
+        <v>Derry And Strabane</v>
+      </c>
+      <c r="C249" s="8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B250" t="str">
+        <f t="shared" si="5"/>
+        <v>Fermanagh And Omagh</v>
+      </c>
+      <c r="C250" s="8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B251" t="str">
+        <f t="shared" si="5"/>
+        <v>Lisburn And Castlereagh</v>
+      </c>
+      <c r="C251" s="8">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B252" t="str">
+        <f t="shared" si="5"/>
+        <v>Mid And East Antrim</v>
+      </c>
+      <c r="C252" s="8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B253" t="str">
+        <f t="shared" si="5"/>
+        <v>Mid Ulster</v>
+      </c>
+      <c r="C253" s="8">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B254" t="str">
+        <f t="shared" si="5"/>
+        <v>Newry, Mourne And Down</v>
+      </c>
+      <c r="C254" s="8">
         <v>254</v>
       </c>
     </row>
@@ -5728,13 +5885,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P67" sqref="P67"/>
+      <selection pane="bottomRight" activeCell="E66" sqref="B66:E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9221,53 +9378,53 @@
         <v>43964</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C66" s="5">
-        <v>23401</v>
+        <v>23879</v>
       </c>
       <c r="D66" s="5">
         <v>23401</v>
       </c>
       <c r="E66" s="5">
         <f t="shared" ref="E66" si="40">C66-C65</f>
-        <v>142</v>
+        <v>620</v>
       </c>
       <c r="F66" s="18">
         <f t="shared" ref="F66" si="41">AVERAGE(E62:E66)</f>
-        <v>146</v>
-      </c>
-      <c r="G66" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" t="s">
-        <v>8</v>
+        <v>241.6</v>
+      </c>
+      <c r="G66">
+        <v>3094</v>
+      </c>
+      <c r="H66">
+        <v>389</v>
       </c>
       <c r="I66" s="5">
-        <v>1497</v>
+        <v>1277</v>
       </c>
       <c r="J66" s="5">
         <v>1497</v>
       </c>
       <c r="K66" s="5">
         <f t="shared" ref="K66" si="42">I66-I65</f>
-        <v>242</v>
+        <v>22</v>
       </c>
       <c r="L66" s="18">
         <f t="shared" ref="L66" si="43">AVERAGE(K62:K66)</f>
-        <v>58.8</v>
-      </c>
-      <c r="M66" t="s">
-        <v>8</v>
-      </c>
-      <c r="N66" t="s">
-        <v>8</v>
-      </c>
-      <c r="O66" t="s">
-        <v>8</v>
+        <v>14.8</v>
+      </c>
+      <c r="M66">
+        <v>7530</v>
+      </c>
+      <c r="N66">
+        <v>784</v>
+      </c>
+      <c r="O66">
+        <v>48</v>
       </c>
       <c r="P66" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -9285,7 +9442,7 @@
       </c>
       <c r="E67" s="5">
         <f t="shared" ref="E67" si="44">C67-C66</f>
-        <v>426</v>
+        <v>-52</v>
       </c>
       <c r="F67" s="18">
         <f t="shared" ref="F67" si="45">AVERAGE(E63:E67)</f>
@@ -9305,7 +9462,7 @@
       </c>
       <c r="K67" s="5">
         <f t="shared" ref="K67" si="46">I67-I66</f>
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="L67" s="18">
         <f t="shared" ref="L67" si="47">AVERAGE(K63:K67)</f>
@@ -9322,6 +9479,60 @@
       </c>
       <c r="P67" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="5">
+        <v>24048</v>
+      </c>
+      <c r="D68" s="5">
+        <v>24048</v>
+      </c>
+      <c r="E68" s="5">
+        <f t="shared" ref="E68" si="48">C68-C67</f>
+        <v>221</v>
+      </c>
+      <c r="F68" s="18">
+        <f t="shared" ref="F68" si="49">AVERAGE(E64:E68)</f>
+        <v>191.8</v>
+      </c>
+      <c r="G68" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68" s="5">
+        <v>1533</v>
+      </c>
+      <c r="J68" s="5">
+        <v>1533</v>
+      </c>
+      <c r="K68" s="5">
+        <f t="shared" ref="K68" si="50">I68-I67</f>
+        <v>27</v>
+      </c>
+      <c r="L68" s="18">
+        <f t="shared" ref="L68" si="51">AVERAGE(K64:K68)</f>
+        <v>59.2</v>
+      </c>
+      <c r="M68" t="s">
+        <v>8</v>
+      </c>
+      <c r="N68" t="s">
+        <v>8</v>
+      </c>
+      <c r="O68" t="s">
+        <v>8</v>
+      </c>
+      <c r="P68" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -9332,11 +9543,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D173"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A168" sqref="A168:A170"/>
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A171" sqref="A171:A173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11816,6 +12027,48 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B171" t="s">
+        <v>61</v>
+      </c>
+      <c r="C171" s="15">
+        <v>13681</v>
+      </c>
+      <c r="D171">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B172" t="s">
+        <v>62</v>
+      </c>
+      <c r="C172" s="15">
+        <v>10049</v>
+      </c>
+      <c r="D172">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B173" t="s">
+        <v>52</v>
+      </c>
+      <c r="C173">
+        <v>49</v>
+      </c>
+      <c r="D173">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11823,11 +12076,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:J643"/>
+  <dimension ref="A1:J656"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A603" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B638" sqref="B638"/>
+      <pane ySplit="1" topLeftCell="A625" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E659" sqref="E659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20893,7 +21146,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>43963</v>
       </c>
@@ -20907,7 +21160,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>43963</v>
       </c>
@@ -20921,7 +21174,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>43963</v>
       </c>
@@ -20932,6 +21185,190 @@
         <v>25</v>
       </c>
       <c r="D643">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A644" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B644" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C644">
+        <v>43</v>
+      </c>
+      <c r="D644" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A645" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B645" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C645">
+        <v>85</v>
+      </c>
+      <c r="D645" t="s">
+        <v>8</v>
+      </c>
+      <c r="F645" s="13"/>
+    </row>
+    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A646" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B646" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C646" t="s">
+        <v>8</v>
+      </c>
+      <c r="D646">
+        <v>18</v>
+      </c>
+      <c r="F646" s="7"/>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A647" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B647" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C647">
+        <v>267</v>
+      </c>
+      <c r="D647">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A648" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B648" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C648">
+        <v>1705</v>
+      </c>
+      <c r="D648">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A649" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B649" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C649">
+        <v>3995</v>
+      </c>
+      <c r="D649">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A650" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B650" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C650">
+        <v>4181</v>
+      </c>
+      <c r="D650">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A651" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B651" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C651">
+        <v>4316</v>
+      </c>
+      <c r="D651">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A652" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B652" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C652">
+        <v>3096</v>
+      </c>
+      <c r="D652">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A653" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B653" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C653">
+        <v>1714</v>
+      </c>
+      <c r="D653">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A654" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B654" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C654">
+        <v>2188</v>
+      </c>
+      <c r="D654">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A655" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B655" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C655">
+        <v>2265</v>
+      </c>
+      <c r="D655">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A656" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B656" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C656">
+        <v>24</v>
+      </c>
+      <c r="D656">
         <v>2</v>
       </c>
     </row>
@@ -20943,11 +21380,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D190"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A188" sqref="A188:A190"/>
+      <selection pane="bottomLeft" activeCell="A191" sqref="A191:A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23671,6 +24108,48 @@
         <v>106</v>
       </c>
     </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B191" t="s">
+        <v>56</v>
+      </c>
+      <c r="C191" s="11">
+        <v>60</v>
+      </c>
+      <c r="D191" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B192" t="s">
+        <v>57</v>
+      </c>
+      <c r="C192" s="11">
+        <v>37</v>
+      </c>
+      <c r="D192" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B193" t="s">
+        <v>58</v>
+      </c>
+      <c r="C193" s="11">
+        <v>3</v>
+      </c>
+      <c r="D193" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23678,10 +24157,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E1503"/>
+  <dimension ref="A1:E1529"/>
   <sheetViews>
-    <sheetView topLeftCell="A1460" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A1478" sqref="A1478:A1503"/>
+    <sheetView topLeftCell="A1495" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B1524" sqref="B1524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45218,6 +45697,370 @@
         <v>651</v>
       </c>
       <c r="D1503">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1504" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1504">
+        <v>144</v>
+      </c>
+      <c r="D1504">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1505" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1505">
+        <v>776</v>
+      </c>
+      <c r="D1505">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1506" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1506">
+        <v>314</v>
+      </c>
+      <c r="D1506">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1507" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1507">
+        <v>1346</v>
+      </c>
+      <c r="D1507">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1508" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1508">
+        <v>474</v>
+      </c>
+      <c r="D1508">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1509" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1509">
+        <v>11657</v>
+      </c>
+      <c r="D1509">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1510" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1510">
+        <v>412</v>
+      </c>
+      <c r="D1510">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1511" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1511">
+        <v>307</v>
+      </c>
+      <c r="D1511">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1512" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1512">
+        <v>1357</v>
+      </c>
+      <c r="D1512">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1513" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1513">
+        <v>295</v>
+      </c>
+      <c r="D1513">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1514" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1514">
+        <v>251</v>
+      </c>
+      <c r="D1514">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1515" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1515">
+        <v>79</v>
+      </c>
+      <c r="D1515">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1516" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1516">
+        <v>596</v>
+      </c>
+      <c r="D1516">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1517" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1517">
+        <v>273</v>
+      </c>
+      <c r="D1517">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1518" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1518">
+        <v>741</v>
+      </c>
+      <c r="D1518">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1519" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1519">
+        <v>542</v>
+      </c>
+      <c r="D1519">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1520" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1520">
+        <v>776</v>
+      </c>
+      <c r="D1520">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1521" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1521">
+        <v>468</v>
+      </c>
+      <c r="D1521">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1522" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1522">
+        <v>455</v>
+      </c>
+      <c r="D1522">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1523" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1523">
+        <v>300</v>
+      </c>
+      <c r="D1523">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1524" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1524">
+        <v>129</v>
+      </c>
+      <c r="D1524">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1525" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1525">
+        <v>521</v>
+      </c>
+      <c r="D1525">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1526" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1526">
+        <v>144</v>
+      </c>
+      <c r="D1526">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1527" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1527">
+        <v>654</v>
+      </c>
+      <c r="D1527">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1528" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1528">
+        <v>211</v>
+      </c>
+      <c r="D1528">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1529" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1529">
+        <v>657</v>
+      </c>
+      <c r="D1529">
         <v>2.8</v>
       </c>
     </row>
@@ -46455,10 +47298,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47180,7 +48023,7 @@
         <v>28425</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" ref="G30:G43" si="1">D30/F30</f>
+        <f t="shared" ref="G30:G44" si="1">D30/F30</f>
         <v>0.12978012313104662</v>
       </c>
     </row>
@@ -47499,6 +48342,30 @@
       <c r="G43" s="10">
         <f t="shared" si="1"/>
         <v>9.5422293936915634E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B44">
+        <v>40</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>4357</v>
+      </c>
+      <c r="E44">
+        <v>473</v>
+      </c>
+      <c r="F44">
+        <v>46738</v>
+      </c>
+      <c r="G44" s="10">
+        <f t="shared" si="1"/>
+        <v>9.3221789550258893E-2</v>
       </c>
     </row>
   </sheetData>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556604B2-4FE6-BB4F-A4E1-42F382F2863A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53DCF31-834E-114D-B632-833F9343CA55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3475" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3528" uniqueCount="214">
   <si>
     <t>Date</t>
   </si>
@@ -733,6 +733,9 @@
   </si>
   <si>
     <t>https://www.gov.ie/en/press-release/dfc259-statement-from-the-national-public-health-emergency-team-saturday-16/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/772d92-statement-from-the-national-public-health-emergency-team-sunday-17-m/</t>
   </si>
 </sst>
 </file>
@@ -1660,10 +1663,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43967.885150462964</v>
+        <v>43968.851817129631</v>
       </c>
       <c r="B2" s="12">
-        <v>43967.885150462964</v>
+        <v>43968.851817129631</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -5885,13 +5888,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P68"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E66" sqref="B66:E66"/>
+      <selection pane="bottomRight" activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9432,53 +9435,53 @@
         <v>43965</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C67" s="5">
-        <v>23827</v>
+        <v>23953</v>
       </c>
       <c r="D67" s="5">
         <v>23827</v>
       </c>
       <c r="E67" s="5">
         <f t="shared" ref="E67" si="44">C67-C66</f>
-        <v>-52</v>
+        <v>74</v>
       </c>
       <c r="F67" s="18">
         <f t="shared" ref="F67" si="45">AVERAGE(E63:E67)</f>
-        <v>186.6</v>
-      </c>
-      <c r="G67" t="s">
-        <v>8</v>
-      </c>
-      <c r="H67" t="s">
-        <v>8</v>
+        <v>211.8</v>
+      </c>
+      <c r="G67">
+        <v>3117</v>
+      </c>
+      <c r="H67">
+        <v>389</v>
       </c>
       <c r="I67" s="5">
-        <v>1506</v>
+        <v>1288</v>
       </c>
       <c r="J67" s="5">
         <v>1506</v>
       </c>
       <c r="K67" s="5">
         <f t="shared" ref="K67" si="46">I67-I66</f>
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="L67" s="18">
         <f t="shared" ref="L67" si="47">AVERAGE(K63:K67)</f>
-        <v>57.8</v>
-      </c>
-      <c r="M67" t="s">
-        <v>8</v>
-      </c>
-      <c r="N67" t="s">
-        <v>8</v>
-      </c>
-      <c r="O67" t="s">
-        <v>8</v>
+        <v>14.2</v>
+      </c>
+      <c r="M67">
+        <v>7566</v>
+      </c>
+      <c r="N67">
+        <v>800</v>
+      </c>
+      <c r="O67">
+        <v>48</v>
       </c>
       <c r="P67" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -9496,7 +9499,7 @@
       </c>
       <c r="E68" s="5">
         <f t="shared" ref="E68" si="48">C68-C67</f>
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="F68" s="18">
         <f t="shared" ref="F68" si="49">AVERAGE(E64:E68)</f>
@@ -9516,7 +9519,7 @@
       </c>
       <c r="K68" s="5">
         <f t="shared" ref="K68" si="50">I68-I67</f>
-        <v>27</v>
+        <v>245</v>
       </c>
       <c r="L68" s="18">
         <f t="shared" ref="L68" si="51">AVERAGE(K64:K68)</f>
@@ -9533,6 +9536,60 @@
       </c>
       <c r="P68" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="5">
+        <v>24112</v>
+      </c>
+      <c r="D69" s="5">
+        <v>14112</v>
+      </c>
+      <c r="E69" s="5">
+        <f t="shared" ref="E69" si="52">C69-C68</f>
+        <v>64</v>
+      </c>
+      <c r="F69" s="18">
+        <f t="shared" ref="F69" si="53">AVERAGE(E65:E69)</f>
+        <v>193.6</v>
+      </c>
+      <c r="G69" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" s="5">
+        <v>1543</v>
+      </c>
+      <c r="J69" s="5">
+        <v>1543</v>
+      </c>
+      <c r="K69" s="5">
+        <f t="shared" ref="K69" si="54">I69-I68</f>
+        <v>10</v>
+      </c>
+      <c r="L69" s="18">
+        <f t="shared" ref="L69" si="55">AVERAGE(K65:K69)</f>
+        <v>59.4</v>
+      </c>
+      <c r="M69" t="s">
+        <v>8</v>
+      </c>
+      <c r="N69" t="s">
+        <v>8</v>
+      </c>
+      <c r="O69" t="s">
+        <v>8</v>
+      </c>
+      <c r="P69" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -9543,11 +9600,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A171" sqref="A171:A173"/>
+      <selection pane="bottomLeft" activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12069,6 +12126,48 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B174" t="s">
+        <v>61</v>
+      </c>
+      <c r="C174" s="15">
+        <v>13709</v>
+      </c>
+      <c r="D174">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B175" t="s">
+        <v>62</v>
+      </c>
+      <c r="C175" s="15">
+        <v>10195</v>
+      </c>
+      <c r="D175">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B176" t="s">
+        <v>52</v>
+      </c>
+      <c r="C176">
+        <v>49</v>
+      </c>
+      <c r="D176">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12076,11 +12175,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:J656"/>
+  <dimension ref="A1:J669"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A625" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E659" sqref="E659"/>
+      <pane ySplit="1" topLeftCell="A636" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D659" sqref="D659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21372,6 +21471,190 @@
         <v>2</v>
       </c>
     </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A657" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B657" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C657">
+        <v>43</v>
+      </c>
+      <c r="D657" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A658" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B658" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C658">
+        <v>87</v>
+      </c>
+      <c r="D658" t="s">
+        <v>8</v>
+      </c>
+      <c r="E658" s="13"/>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A659" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B659" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C659" t="s">
+        <v>8</v>
+      </c>
+      <c r="D659">
+        <v>19</v>
+      </c>
+      <c r="E659" s="7"/>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A660" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B660" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C660">
+        <v>270</v>
+      </c>
+      <c r="D660">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A661" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B661" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C661">
+        <v>1714</v>
+      </c>
+      <c r="D661">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A662" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B662" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C662">
+        <v>4105</v>
+      </c>
+      <c r="D662">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A663" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B663" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C663">
+        <v>4201</v>
+      </c>
+      <c r="D663">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A664" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B664" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C664">
+        <v>4329</v>
+      </c>
+      <c r="D664">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A665" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B665" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C665">
+        <v>3099</v>
+      </c>
+      <c r="D665">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A666" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B666" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C666">
+        <v>1716</v>
+      </c>
+      <c r="D666">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A667" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B667" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C667">
+        <v>2193</v>
+      </c>
+      <c r="D667">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A668" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B668" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C668">
+        <v>2262</v>
+      </c>
+      <c r="D668">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A669" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B669" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C669">
+        <v>24</v>
+      </c>
+      <c r="D669">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -21380,11 +21663,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:D196"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A191" sqref="A191:A193"/>
+      <selection pane="bottomLeft" activeCell="A194" sqref="A194:A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24150,6 +24433,48 @@
         <v>106</v>
       </c>
     </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B194" t="s">
+        <v>56</v>
+      </c>
+      <c r="C194" s="11">
+        <v>60</v>
+      </c>
+      <c r="D194" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B195" t="s">
+        <v>57</v>
+      </c>
+      <c r="C195" s="11">
+        <v>37</v>
+      </c>
+      <c r="D195" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B196" t="s">
+        <v>58</v>
+      </c>
+      <c r="C196" s="11">
+        <v>3</v>
+      </c>
+      <c r="D196" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24157,10 +24482,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E1529"/>
+  <dimension ref="A1:E1555"/>
   <sheetViews>
-    <sheetView topLeftCell="A1495" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1524" sqref="B1524"/>
+    <sheetView topLeftCell="A1519" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A1530" sqref="A1530:A1555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46062,6 +46387,370 @@
       </c>
       <c r="D1529">
         <v>2.8</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1530" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1530">
+        <v>146</v>
+      </c>
+      <c r="D1530">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1531" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1531">
+        <v>781</v>
+      </c>
+      <c r="D1531">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1532" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1532">
+        <v>314</v>
+      </c>
+      <c r="D1532">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1533" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1533">
+        <v>1352</v>
+      </c>
+      <c r="D1533">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1534" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1534">
+        <v>475</v>
+      </c>
+      <c r="D1534">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1535" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1535">
+        <v>11666</v>
+      </c>
+      <c r="D1535">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1536" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1536">
+        <v>418</v>
+      </c>
+      <c r="D1536">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1537" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1537">
+        <v>307</v>
+      </c>
+      <c r="D1537">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1538" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1538">
+        <v>1361</v>
+      </c>
+      <c r="D1538">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1539" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1539">
+        <v>298</v>
+      </c>
+      <c r="D1539">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1540" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1540">
+        <v>253</v>
+      </c>
+      <c r="D1540">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1541" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1541">
+        <v>79</v>
+      </c>
+      <c r="D1541">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1542" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1542">
+        <v>601</v>
+      </c>
+      <c r="D1542">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1543" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1543">
+        <v>277</v>
+      </c>
+      <c r="D1543">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1544" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1544">
+        <v>739</v>
+      </c>
+      <c r="D1544">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1545" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1545">
+        <v>547</v>
+      </c>
+      <c r="D1545">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1546" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1546">
+        <v>778</v>
+      </c>
+      <c r="D1546">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1547" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1547">
+        <v>480</v>
+      </c>
+      <c r="D1547">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1548" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1548">
+        <v>459</v>
+      </c>
+      <c r="D1548">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1549" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1549">
+        <v>301</v>
+      </c>
+      <c r="D1549">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1550" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1550">
+        <v>129</v>
+      </c>
+      <c r="D1550">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1551" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1551">
+        <v>523</v>
+      </c>
+      <c r="D1551">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1552" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1552">
+        <v>146</v>
+      </c>
+      <c r="D1552">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1553" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1553">
+        <v>655</v>
+      </c>
+      <c r="D1553">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1554" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1554">
+        <v>212</v>
+      </c>
+      <c r="D1554">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1555" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1555">
+        <v>656</v>
+      </c>
+      <c r="D1555">
+        <v>2.7</v>
       </c>
     </row>
   </sheetData>
@@ -47298,10 +47987,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48368,6 +49057,9 @@
         <v>9.3221789550258893E-2</v>
       </c>
     </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
     <sortCondition ref="A2:A10"/>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53DCF31-834E-114D-B632-833F9343CA55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB06CB69-E8AF-CD47-A510-1E389FC4192A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3528" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3583" uniqueCount="215">
   <si>
     <t>Date</t>
   </si>
@@ -736,6 +736,9 @@
   </si>
   <si>
     <t>https://www.gov.ie/en/press-release/772d92-statement-from-the-national-public-health-emergency-team-sunday-17-m/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/7b15e6-statement-from-the-national-public-health-emergency-team-monday-18-m/</t>
   </si>
 </sst>
 </file>
@@ -1663,10 +1666,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43968.851817129631</v>
+        <v>43969.85528935185</v>
       </c>
       <c r="B2" s="12">
-        <v>43968.851817129631</v>
+        <v>43969.85528935185</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1679,10 +1682,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0979910-C687-6A43-A609-0D992245C102}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:A58"/>
+      <selection activeCell="A59" sqref="A59:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2343,6 +2346,28 @@
       </c>
       <c r="C58">
         <v>1707</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60">
+        <v>1716</v>
       </c>
     </row>
   </sheetData>
@@ -2765,10 +2790,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AE50F-07C0-7048-95B5-0C81D93B81F0}">
-  <dimension ref="A1:C254"/>
+  <dimension ref="A1:C265"/>
   <sheetViews>
-    <sheetView topLeftCell="A208" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B242" sqref="B242"/>
+    <sheetView topLeftCell="A220" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C265" sqref="C265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5248,7 +5273,7 @@
         <v>43961</v>
       </c>
       <c r="B212" t="str">
-        <f t="shared" ref="B212:B254" si="5">B201</f>
+        <f t="shared" ref="B212:B265" si="5">B201</f>
         <v>Ards And North Down</v>
       </c>
       <c r="C212" s="8">
@@ -5757,6 +5782,138 @@
       </c>
       <c r="C254" s="8">
         <v>254</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B255" t="str">
+        <f>B244</f>
+        <v>Antrim And Newtownabbey</v>
+      </c>
+      <c r="C255" s="8">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B256" t="str">
+        <f t="shared" si="5"/>
+        <v>Ards And North Down</v>
+      </c>
+      <c r="C256" s="8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B257" t="str">
+        <f t="shared" si="5"/>
+        <v>Armagh, Banbridge And Craigavon</v>
+      </c>
+      <c r="C257" s="8">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B258" t="str">
+        <f t="shared" si="5"/>
+        <v>Belfast</v>
+      </c>
+      <c r="C258" s="8">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B259" t="str">
+        <f t="shared" si="5"/>
+        <v>Causeway Coast And Glens</v>
+      </c>
+      <c r="C259" s="8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B260" t="str">
+        <f t="shared" si="5"/>
+        <v>Derry And Strabane</v>
+      </c>
+      <c r="C260" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B261" t="str">
+        <f t="shared" si="5"/>
+        <v>Fermanagh And Omagh</v>
+      </c>
+      <c r="C261" s="8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B262" t="str">
+        <f t="shared" si="5"/>
+        <v>Lisburn And Castlereagh</v>
+      </c>
+      <c r="C262" s="8">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B263" t="str">
+        <f t="shared" si="5"/>
+        <v>Mid And East Antrim</v>
+      </c>
+      <c r="C263" s="8">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B264" t="str">
+        <f t="shared" si="5"/>
+        <v>Mid Ulster</v>
+      </c>
+      <c r="C264" s="8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B265" t="str">
+        <f t="shared" si="5"/>
+        <v>Newry, Mourne And Down</v>
+      </c>
+      <c r="C265" s="8">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -5888,13 +6045,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:P70"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O67" sqref="O67"/>
+      <selection pane="bottomRight" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9489,53 +9646,53 @@
         <v>43966</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C68" s="5">
-        <v>24048</v>
+        <v>24036</v>
       </c>
       <c r="D68" s="5">
         <v>24048</v>
       </c>
       <c r="E68" s="5">
         <f t="shared" ref="E68" si="48">C68-C67</f>
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F68" s="18">
         <f t="shared" ref="F68" si="49">AVERAGE(E64:E68)</f>
-        <v>191.8</v>
-      </c>
-      <c r="G68" t="s">
-        <v>8</v>
-      </c>
-      <c r="H68" t="s">
-        <v>8</v>
+        <v>189.4</v>
+      </c>
+      <c r="G68">
+        <v>3127</v>
+      </c>
+      <c r="H68">
+        <v>391</v>
       </c>
       <c r="I68" s="5">
-        <v>1533</v>
+        <v>1293</v>
       </c>
       <c r="J68" s="5">
         <v>1533</v>
       </c>
       <c r="K68" s="5">
         <f t="shared" ref="K68" si="50">I68-I67</f>
-        <v>245</v>
+        <v>5</v>
       </c>
       <c r="L68" s="18">
         <f t="shared" ref="L68" si="51">AVERAGE(K64:K68)</f>
-        <v>59.2</v>
-      </c>
-      <c r="M68" t="s">
-        <v>8</v>
-      </c>
-      <c r="N68" t="s">
-        <v>8</v>
-      </c>
-      <c r="O68" t="s">
-        <v>8</v>
+        <v>11.2</v>
+      </c>
+      <c r="M68">
+        <v>7615</v>
+      </c>
+      <c r="N68">
+        <v>805</v>
+      </c>
+      <c r="O68">
+        <v>48</v>
       </c>
       <c r="P68" t="s">
-        <v>155</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -9549,11 +9706,11 @@
         <v>24112</v>
       </c>
       <c r="D69" s="5">
-        <v>14112</v>
+        <v>24112</v>
       </c>
       <c r="E69" s="5">
         <f t="shared" ref="E69" si="52">C69-C68</f>
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F69" s="18">
         <f t="shared" ref="F69" si="53">AVERAGE(E65:E69)</f>
@@ -9573,7 +9730,7 @@
       </c>
       <c r="K69" s="5">
         <f t="shared" ref="K69" si="54">I69-I68</f>
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="L69" s="18">
         <f t="shared" ref="L69" si="55">AVERAGE(K65:K69)</f>
@@ -9590,6 +9747,60 @@
       </c>
       <c r="P69" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70" s="5">
+        <v>24200</v>
+      </c>
+      <c r="D70" s="5">
+        <v>24200</v>
+      </c>
+      <c r="E70" s="5">
+        <f t="shared" ref="E70" si="56">C70-C69</f>
+        <v>88</v>
+      </c>
+      <c r="F70" s="18">
+        <f t="shared" ref="F70" si="57">AVERAGE(E66:E70)</f>
+        <v>188.2</v>
+      </c>
+      <c r="G70" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" s="5">
+        <v>1547</v>
+      </c>
+      <c r="J70" s="5">
+        <v>1547</v>
+      </c>
+      <c r="K70" s="5">
+        <f t="shared" ref="K70" si="58">I70-I69</f>
+        <v>4</v>
+      </c>
+      <c r="L70" s="18">
+        <f t="shared" ref="L70" si="59">AVERAGE(K66:K70)</f>
+        <v>58.4</v>
+      </c>
+      <c r="M70" t="s">
+        <v>8</v>
+      </c>
+      <c r="N70" t="s">
+        <v>8</v>
+      </c>
+      <c r="O70" t="s">
+        <v>8</v>
+      </c>
+      <c r="P70" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -9600,11 +9811,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D176"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B174" sqref="B174"/>
+      <selection pane="bottomLeft" activeCell="A177" sqref="A177:A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12168,6 +12379,48 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B177" t="s">
+        <v>61</v>
+      </c>
+      <c r="C177" s="15">
+        <v>13768</v>
+      </c>
+      <c r="D177">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B178" t="s">
+        <v>62</v>
+      </c>
+      <c r="C178" s="15">
+        <v>10229</v>
+      </c>
+      <c r="D178">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B179" t="s">
+        <v>52</v>
+      </c>
+      <c r="C179">
+        <v>39</v>
+      </c>
+      <c r="D179">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12175,11 +12428,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:J669"/>
+  <dimension ref="A1:J682"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A636" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D659" sqref="D659"/>
+      <pane ySplit="1" topLeftCell="A642" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F669" sqref="F669"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21471,7 +21724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>43966</v>
       </c>
@@ -21485,7 +21738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>43966</v>
       </c>
@@ -21500,7 +21753,7 @@
       </c>
       <c r="E658" s="13"/>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>43966</v>
       </c>
@@ -21515,7 +21768,7 @@
       </c>
       <c r="E659" s="7"/>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>43966</v>
       </c>
@@ -21529,7 +21782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>43966</v>
       </c>
@@ -21543,7 +21796,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>43966</v>
       </c>
@@ -21557,7 +21810,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>43966</v>
       </c>
@@ -21571,7 +21824,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>43966</v>
       </c>
@@ -21585,7 +21838,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>43966</v>
       </c>
@@ -21599,7 +21852,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>43966</v>
       </c>
@@ -21613,7 +21866,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>43966</v>
       </c>
@@ -21627,7 +21880,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>43966</v>
       </c>
@@ -21641,7 +21894,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>43966</v>
       </c>
@@ -21652,6 +21905,190 @@
         <v>24</v>
       </c>
       <c r="D669">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A670" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B670" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C670">
+        <v>44</v>
+      </c>
+      <c r="D670" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A671" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B671" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C671">
+        <v>88</v>
+      </c>
+      <c r="D671" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A672" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B672" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C672" t="s">
+        <v>8</v>
+      </c>
+      <c r="D672">
+        <v>19</v>
+      </c>
+      <c r="F672" s="13"/>
+    </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A673" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B673" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C673">
+        <v>270</v>
+      </c>
+      <c r="D673">
+        <v>17</v>
+      </c>
+      <c r="F673" s="7"/>
+    </row>
+    <row r="674" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A674" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B674" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C674">
+        <v>1721</v>
+      </c>
+      <c r="D674">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A675" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B675" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C675">
+        <v>4043</v>
+      </c>
+      <c r="D675">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A676" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B676" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C676">
+        <v>4217</v>
+      </c>
+      <c r="D676">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A677" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B677" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C677">
+        <v>4339</v>
+      </c>
+      <c r="D677">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A678" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B678" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C678">
+        <v>3103</v>
+      </c>
+      <c r="D678">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A679" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B679" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C679">
+        <v>1721</v>
+      </c>
+      <c r="D679">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A680" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B680" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C680">
+        <v>2196</v>
+      </c>
+      <c r="D680">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A681" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B681" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C681">
+        <v>2270</v>
+      </c>
+      <c r="D681">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A682" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B682" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C682">
+        <v>24</v>
+      </c>
+      <c r="D682">
         <v>2</v>
       </c>
     </row>
@@ -21663,11 +22100,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D196"/>
+  <dimension ref="A1:D199"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A194" sqref="A194:A196"/>
+      <selection pane="bottomLeft" activeCell="A197" sqref="A197:A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24475,6 +24912,48 @@
         <v>106</v>
       </c>
     </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B197" t="s">
+        <v>56</v>
+      </c>
+      <c r="C197" s="11">
+        <v>60</v>
+      </c>
+      <c r="D197" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B198" t="s">
+        <v>57</v>
+      </c>
+      <c r="C198" s="11">
+        <v>37</v>
+      </c>
+      <c r="D198" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B199" t="s">
+        <v>58</v>
+      </c>
+      <c r="C199" s="11">
+        <v>3</v>
+      </c>
+      <c r="D199" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24482,10 +24961,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E1555"/>
+  <dimension ref="A1:E1581"/>
   <sheetViews>
-    <sheetView topLeftCell="A1519" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A1530" sqref="A1530:A1555"/>
+    <sheetView topLeftCell="A1541" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A1556" sqref="A1556:A1581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46750,6 +47229,370 @@
         <v>656</v>
       </c>
       <c r="D1555">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1556" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1556">
+        <v>147</v>
+      </c>
+      <c r="D1556">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1557" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1557">
+        <v>788</v>
+      </c>
+      <c r="D1557">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1558" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1558">
+        <v>315</v>
+      </c>
+      <c r="D1558">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1559" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1559">
+        <v>1361</v>
+      </c>
+      <c r="D1559">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1560" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1560">
+        <v>475</v>
+      </c>
+      <c r="D1560">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1561" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1561">
+        <v>11693</v>
+      </c>
+      <c r="D1561">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1562" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1562">
+        <v>432</v>
+      </c>
+      <c r="D1562">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1563" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1563">
+        <v>307</v>
+      </c>
+      <c r="D1563">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1564" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1564">
+        <v>1367</v>
+      </c>
+      <c r="D1564">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1565" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1565">
+        <v>300</v>
+      </c>
+      <c r="D1565">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1566" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1566">
+        <v>253</v>
+      </c>
+      <c r="D1566">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1567" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1567">
+        <v>79</v>
+      </c>
+      <c r="D1567">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1568" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1568">
+        <v>602</v>
+      </c>
+      <c r="D1568">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1569" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1569">
+        <v>279</v>
+      </c>
+      <c r="D1569">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1570" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1570">
+        <v>740</v>
+      </c>
+      <c r="D1570">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1571" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1571">
+        <v>552</v>
+      </c>
+      <c r="D1571">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1572" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B1572" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1572">
+        <v>780</v>
+      </c>
+      <c r="D1572">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1573" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1573">
+        <v>480</v>
+      </c>
+      <c r="D1573">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1574" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1574">
+        <v>459</v>
+      </c>
+      <c r="D1574">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1575" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1575">
+        <v>304</v>
+      </c>
+      <c r="D1575">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1576" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1576">
+        <v>129</v>
+      </c>
+      <c r="D1576">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1577" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1577">
+        <v>524</v>
+      </c>
+      <c r="D1577">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1578" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1578">
+        <v>147</v>
+      </c>
+      <c r="D1578">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1579" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1579">
+        <v>654</v>
+      </c>
+      <c r="D1579">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1580" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1580">
+        <v>212</v>
+      </c>
+      <c r="D1580">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1581" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1581">
+        <v>657</v>
+      </c>
+      <c r="D1581">
         <v>2.7</v>
       </c>
     </row>
@@ -47987,10 +48830,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48712,7 +49555,7 @@
         <v>28425</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" ref="G30:G44" si="1">D30/F30</f>
+        <f t="shared" ref="G30:G46" si="1">D30/F30</f>
         <v>0.12978012313104662</v>
       </c>
     </row>
@@ -49058,7 +49901,56 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B45">
+        <f>D45-D44</f>
+        <v>28</v>
+      </c>
+      <c r="C45">
+        <f>E45-E44</f>
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>4385</v>
+      </c>
+      <c r="E45">
+        <v>476</v>
+      </c>
+      <c r="F45">
+        <v>48007</v>
+      </c>
+      <c r="G45" s="10">
+        <f t="shared" si="1"/>
+        <v>9.1340846126606534E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B46">
+        <f>D46-D45</f>
+        <v>16</v>
+      </c>
+      <c r="C46">
+        <f>E46-E45</f>
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>4401</v>
+      </c>
+      <c r="E46">
+        <v>482</v>
+      </c>
+      <c r="F46">
+        <v>48931</v>
+      </c>
+      <c r="G46" s="10">
+        <f t="shared" si="1"/>
+        <v>8.9942980932333286E-2</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB06CB69-E8AF-CD47-A510-1E389FC4192A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74320EB-E19D-D044-AA2E-8F09D244B1DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3583" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3640" uniqueCount="217">
   <si>
     <t>Date</t>
   </si>
@@ -739,6 +739,12 @@
   </si>
   <si>
     <t>https://www.gov.ie/en/press-release/7b15e6-statement-from-the-national-public-health-emergency-team-monday-18-m/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/publication/20f2e0-updates-on-covid-19-coronavirus-since-january-2020/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/1a1e8e-statement-from-the-national-public-health-emergency-team-wednesday-2/#hospital-statistics</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5E2DA3-023C-FF46-A014-0C2E672468A0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1666,10 +1672,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43969.85528935185</v>
+        <v>43971.857372685183</v>
       </c>
       <c r="B2" s="12">
-        <v>43969.85528935185</v>
+        <v>43971.857372685183</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1682,10 +1688,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0979910-C687-6A43-A609-0D992245C102}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:A60"/>
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2368,6 +2374,28 @@
       </c>
       <c r="C60">
         <v>1716</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>1726</v>
       </c>
     </row>
   </sheetData>
@@ -2790,10 +2818,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AE50F-07C0-7048-95B5-0C81D93B81F0}">
-  <dimension ref="A1:C265"/>
+  <dimension ref="A1:C276"/>
   <sheetViews>
-    <sheetView topLeftCell="A220" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C265" sqref="C265"/>
+    <sheetView topLeftCell="A234" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C277" sqref="C277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5273,7 +5301,7 @@
         <v>43961</v>
       </c>
       <c r="B212" t="str">
-        <f t="shared" ref="B212:B265" si="5">B201</f>
+        <f t="shared" ref="B212:B275" si="5">B201</f>
         <v>Ards And North Down</v>
       </c>
       <c r="C212" s="8">
@@ -5914,6 +5942,138 @@
       </c>
       <c r="C265" s="8">
         <v>351</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B266" t="str">
+        <f>B255</f>
+        <v>Antrim And Newtownabbey</v>
+      </c>
+      <c r="C266" s="8">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B267" t="str">
+        <f t="shared" si="5"/>
+        <v>Ards And North Down</v>
+      </c>
+      <c r="C267" s="8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B268" t="str">
+        <f t="shared" si="5"/>
+        <v>Armagh, Banbridge And Craigavon</v>
+      </c>
+      <c r="C268" s="8">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B269" t="str">
+        <f t="shared" si="5"/>
+        <v>Belfast</v>
+      </c>
+      <c r="C269" s="8">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B270" t="str">
+        <f t="shared" si="5"/>
+        <v>Causeway Coast And Glens</v>
+      </c>
+      <c r="C270" s="8">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B271" t="str">
+        <f t="shared" si="5"/>
+        <v>Derry And Strabane</v>
+      </c>
+      <c r="C271" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B272" t="str">
+        <f t="shared" si="5"/>
+        <v>Fermanagh And Omagh</v>
+      </c>
+      <c r="C272" s="8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B273" t="str">
+        <f t="shared" si="5"/>
+        <v>Lisburn And Castlereagh</v>
+      </c>
+      <c r="C273" s="8">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B274" t="str">
+        <f t="shared" si="5"/>
+        <v>Mid And East Antrim</v>
+      </c>
+      <c r="C274" s="8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B275" t="str">
+        <f t="shared" si="5"/>
+        <v>Mid Ulster</v>
+      </c>
+      <c r="C275" s="8">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B276" t="str">
+        <f t="shared" ref="B276" si="6">B265</f>
+        <v>Newry, Mourne And Down</v>
+      </c>
+      <c r="C276" s="8">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -6045,13 +6205,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P70"/>
+  <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C68" sqref="C68"/>
+      <selection pane="bottomRight" activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9662,10 +9822,10 @@
         <f t="shared" ref="F68" si="49">AVERAGE(E64:E68)</f>
         <v>189.4</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="16">
         <v>3127</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="16">
         <v>391</v>
       </c>
       <c r="I68" s="5">
@@ -9702,7 +9862,7 @@
       <c r="B69" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="17">
         <v>24112</v>
       </c>
       <c r="D69" s="5">
@@ -9716,13 +9876,13 @@
         <f t="shared" ref="F69" si="53">AVERAGE(E65:E69)</f>
         <v>193.6</v>
       </c>
-      <c r="G69" t="s">
-        <v>8</v>
-      </c>
-      <c r="H69" t="s">
-        <v>8</v>
-      </c>
-      <c r="I69" s="5">
+      <c r="G69" s="16">
+        <v>3127</v>
+      </c>
+      <c r="H69" s="16">
+        <v>391</v>
+      </c>
+      <c r="I69" s="17">
         <v>1543</v>
       </c>
       <c r="J69" s="5">
@@ -9736,14 +9896,14 @@
         <f t="shared" ref="L69" si="55">AVERAGE(K65:K69)</f>
         <v>59.4</v>
       </c>
-      <c r="M69" t="s">
-        <v>8</v>
-      </c>
-      <c r="N69" t="s">
-        <v>8</v>
-      </c>
-      <c r="O69" t="s">
-        <v>8</v>
+      <c r="M69">
+        <v>7615</v>
+      </c>
+      <c r="N69">
+        <v>805</v>
+      </c>
+      <c r="O69">
+        <v>48</v>
       </c>
       <c r="P69" t="s">
         <v>213</v>
@@ -9754,52 +9914,160 @@
         <v>43968</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C70" s="5">
-        <v>24200</v>
+        <v>24204</v>
       </c>
       <c r="D70" s="5">
         <v>24200</v>
       </c>
       <c r="E70" s="5">
         <f t="shared" ref="E70" si="56">C70-C69</f>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F70" s="18">
         <f t="shared" ref="F70" si="57">AVERAGE(E66:E70)</f>
-        <v>188.2</v>
-      </c>
-      <c r="G70" t="s">
-        <v>8</v>
-      </c>
-      <c r="H70" t="s">
-        <v>8</v>
+        <v>189</v>
+      </c>
+      <c r="G70">
+        <v>3164</v>
+      </c>
+      <c r="H70">
+        <v>393</v>
       </c>
       <c r="I70" s="5">
-        <v>1547</v>
+        <v>1312</v>
       </c>
       <c r="J70" s="5">
         <v>1547</v>
       </c>
       <c r="K70" s="5">
         <f t="shared" ref="K70" si="58">I70-I69</f>
-        <v>4</v>
+        <v>-231</v>
       </c>
       <c r="L70" s="18">
         <f t="shared" ref="L70" si="59">AVERAGE(K66:K70)</f>
         <v>58.4</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M70">
+        <v>7708</v>
+      </c>
+      <c r="N70">
+        <v>810</v>
+      </c>
+      <c r="O70">
+        <v>48</v>
+      </c>
+      <c r="P70" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71">
+        <v>24251</v>
+      </c>
+      <c r="D71">
+        <v>24251</v>
+      </c>
+      <c r="E71" s="5">
+        <f t="shared" ref="E71" si="60">C71-C70</f>
+        <v>47</v>
+      </c>
+      <c r="F71" s="18">
+        <f t="shared" ref="F71" si="61">AVERAGE(E67:E71)</f>
+        <v>74.400000000000006</v>
+      </c>
+      <c r="G71" t="s">
         <v>8</v>
       </c>
-      <c r="N70" t="s">
+      <c r="H71" t="s">
         <v>8</v>
       </c>
-      <c r="O70" t="s">
+      <c r="I71" s="5">
+        <v>1561</v>
+      </c>
+      <c r="J71" s="5">
+        <v>1561</v>
+      </c>
+      <c r="K71" s="5">
+        <f t="shared" ref="K71" si="62">I71-I70</f>
+        <v>249</v>
+      </c>
+      <c r="L71" s="18">
+        <f t="shared" ref="L71" si="63">AVERAGE(K67:K71)</f>
+        <v>56.8</v>
+      </c>
+      <c r="M71" t="s">
         <v>8</v>
       </c>
-      <c r="P70" t="s">
+      <c r="N71" t="s">
+        <v>8</v>
+      </c>
+      <c r="O71" t="s">
+        <v>8</v>
+      </c>
+      <c r="P71" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72" s="5">
+        <v>24315</v>
+      </c>
+      <c r="D72" s="5">
+        <v>24315</v>
+      </c>
+      <c r="E72" s="5">
+        <f t="shared" ref="E72" si="64">C72-C71</f>
+        <v>64</v>
+      </c>
+      <c r="F72" s="18">
+        <f t="shared" ref="F72" si="65">AVERAGE(E68:E72)</f>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="G72" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="5">
+        <v>1571</v>
+      </c>
+      <c r="J72" s="5">
+        <v>1571</v>
+      </c>
+      <c r="K72" s="5">
+        <f t="shared" ref="K72" si="66">I72-I71</f>
+        <v>10</v>
+      </c>
+      <c r="L72" s="18">
+        <f t="shared" ref="L72" si="67">AVERAGE(K68:K72)</f>
+        <v>56.6</v>
+      </c>
+      <c r="M72" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" t="s">
         <v>155</v>
       </c>
     </row>
@@ -9811,11 +10079,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D179"/>
+  <dimension ref="A1:D182"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A177" sqref="A177:A179"/>
+      <selection pane="bottomLeft" activeCell="B180" sqref="B180:D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12421,6 +12689,48 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B180" t="s">
+        <v>61</v>
+      </c>
+      <c r="C180" s="15">
+        <v>13859</v>
+      </c>
+      <c r="D180">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B181" t="s">
+        <v>62</v>
+      </c>
+      <c r="C181" s="15">
+        <v>10307</v>
+      </c>
+      <c r="D181">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B182" t="s">
+        <v>52</v>
+      </c>
+      <c r="C182">
+        <v>38</v>
+      </c>
+      <c r="D182">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12428,11 +12738,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:J682"/>
+  <dimension ref="A1:J695"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A642" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F669" sqref="F669"/>
+      <pane ySplit="1" topLeftCell="A655" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B689" sqref="B689"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21951,7 +22261,7 @@
       </c>
       <c r="F672" s="13"/>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>43967</v>
       </c>
@@ -21966,7 +22276,7 @@
       </c>
       <c r="F673" s="7"/>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>43967</v>
       </c>
@@ -21980,7 +22290,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <v>43967</v>
       </c>
@@ -21994,7 +22304,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>43967</v>
       </c>
@@ -22008,7 +22318,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>43967</v>
       </c>
@@ -22022,7 +22332,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>43967</v>
       </c>
@@ -22036,7 +22346,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <v>43967</v>
       </c>
@@ -22050,7 +22360,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>43967</v>
       </c>
@@ -22064,7 +22374,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>43967</v>
       </c>
@@ -22078,7 +22388,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <v>43967</v>
       </c>
@@ -22089,6 +22399,191 @@
         <v>24</v>
       </c>
       <c r="D682">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="683" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A683" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B683" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C683">
+        <v>44</v>
+      </c>
+      <c r="D683" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="684" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A684" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B684" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C684">
+        <v>91</v>
+      </c>
+      <c r="D684" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="685" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A685" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B685" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C685" t="s">
+        <v>8</v>
+      </c>
+      <c r="D685">
+        <v>19</v>
+      </c>
+      <c r="F685" s="13"/>
+      <c r="I685" s="7"/>
+    </row>
+    <row r="686" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A686" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B686" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C686">
+        <v>277</v>
+      </c>
+      <c r="D686">
+        <v>17</v>
+      </c>
+      <c r="F686" s="7"/>
+    </row>
+    <row r="687" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A687" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B687" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C687">
+        <v>1750</v>
+      </c>
+      <c r="D687">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="688" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A688" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B688" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C688">
+        <v>4069</v>
+      </c>
+      <c r="D688">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A689" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B689" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C689">
+        <v>4260</v>
+      </c>
+      <c r="D689">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A690" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B690" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C690">
+        <v>4361</v>
+      </c>
+      <c r="D690">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A691" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B691" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C691">
+        <v>3122</v>
+      </c>
+      <c r="D691">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A692" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B692" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C692">
+        <v>1727</v>
+      </c>
+      <c r="D692">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A693" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B693" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C693">
+        <v>2201</v>
+      </c>
+      <c r="D693">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A694" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B694" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C694">
+        <v>2278</v>
+      </c>
+      <c r="D694">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A695" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B695" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C695">
+        <v>24</v>
+      </c>
+      <c r="D695">
         <v>2</v>
       </c>
     </row>
@@ -22100,11 +22595,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D199"/>
+  <dimension ref="A1:D202"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A197" sqref="A197:A199"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24954,6 +25449,48 @@
         <v>106</v>
       </c>
     </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B200" t="s">
+        <v>56</v>
+      </c>
+      <c r="C200" s="11">
+        <v>60</v>
+      </c>
+      <c r="D200" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B201" t="s">
+        <v>57</v>
+      </c>
+      <c r="C201" s="11">
+        <v>37</v>
+      </c>
+      <c r="D201" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B202" t="s">
+        <v>58</v>
+      </c>
+      <c r="C202" s="11">
+        <v>3</v>
+      </c>
+      <c r="D202" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24961,10 +25498,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E1581"/>
+  <dimension ref="A1:E1607"/>
   <sheetViews>
-    <sheetView topLeftCell="A1541" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A1556" sqref="A1556:A1581"/>
+    <sheetView topLeftCell="A1569" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A1582" sqref="A1582:A1607"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47593,6 +48130,370 @@
         <v>657</v>
       </c>
       <c r="D1581">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1582" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1582">
+        <v>149</v>
+      </c>
+      <c r="D1582">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1583" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1583">
+        <v>802</v>
+      </c>
+      <c r="D1583">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1584" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1584">
+        <v>315</v>
+      </c>
+      <c r="D1584">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1585" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1585">
+        <v>1376</v>
+      </c>
+      <c r="D1585">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1586" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1586">
+        <v>477</v>
+      </c>
+      <c r="D1586">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1587" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1587">
+        <v>11733</v>
+      </c>
+      <c r="D1587">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1588" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1588">
+        <v>445</v>
+      </c>
+      <c r="D1588">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1589" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1589">
+        <v>308</v>
+      </c>
+      <c r="D1589">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1590" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1590">
+        <v>1379</v>
+      </c>
+      <c r="D1590">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1591" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1591">
+        <v>307</v>
+      </c>
+      <c r="D1591">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1592" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1592">
+        <v>254</v>
+      </c>
+      <c r="D1592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1593" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1593">
+        <v>82</v>
+      </c>
+      <c r="D1593">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1594" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1594">
+        <v>610</v>
+      </c>
+      <c r="D1594">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1595" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1595">
+        <v>279</v>
+      </c>
+      <c r="D1595">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1596" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1596">
+        <v>745</v>
+      </c>
+      <c r="D1596">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1597" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1597">
+        <v>558</v>
+      </c>
+      <c r="D1597">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1598" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B1598" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1598">
+        <v>787</v>
+      </c>
+      <c r="D1598">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1599" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B1599" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1599">
+        <v>485</v>
+      </c>
+      <c r="D1599">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1600" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1600">
+        <v>468</v>
+      </c>
+      <c r="D1600">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1601" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1601">
+        <v>308</v>
+      </c>
+      <c r="D1601">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1602" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1602">
+        <v>129</v>
+      </c>
+      <c r="D1602">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1603" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1603">
+        <v>528</v>
+      </c>
+      <c r="D1603">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1604" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1604">
+        <v>148</v>
+      </c>
+      <c r="D1604">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1605" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1605">
+        <v>656</v>
+      </c>
+      <c r="D1605">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1606" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1606">
+        <v>217</v>
+      </c>
+      <c r="D1606">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1607" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1607">
+        <v>657</v>
+      </c>
+      <c r="D1607">
         <v>2.7</v>
       </c>
     </row>
@@ -48830,10 +49731,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49555,7 +50456,7 @@
         <v>28425</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" ref="G30:G46" si="1">D30/F30</f>
+        <f t="shared" ref="G30:G48" si="1">D30/F30</f>
         <v>0.12978012313104662</v>
       </c>
     </row>
@@ -49950,6 +50851,58 @@
       <c r="G46" s="10">
         <f t="shared" si="1"/>
         <v>8.9942980932333286E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B47">
+        <f>D47-D46</f>
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47:C48" si="2">E47-E46</f>
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>4421</v>
+      </c>
+      <c r="E47">
+        <v>489</v>
+      </c>
+      <c r="F47">
+        <v>49891</v>
+      </c>
+      <c r="G47" s="10">
+        <f t="shared" si="1"/>
+        <v>8.8613176725261075E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B48">
+        <f>D48-D47</f>
+        <v>18</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>4439</v>
+      </c>
+      <c r="E48">
+        <v>494</v>
+      </c>
+      <c r="F48">
+        <v>51212</v>
+      </c>
+      <c r="G48" s="10">
+        <f t="shared" si="1"/>
+        <v>8.6678903382019834E-2</v>
       </c>
     </row>
   </sheetData>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74320EB-E19D-D044-AA2E-8F09D244B1DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19814756-D8E2-C749-886E-8E5464BB9AE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3640" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3695" uniqueCount="217">
   <si>
     <t>Date</t>
   </si>
@@ -741,10 +741,10 @@
     <t>https://www.gov.ie/en/press-release/7b15e6-statement-from-the-national-public-health-emergency-team-monday-18-m/</t>
   </si>
   <si>
-    <t>https://www.gov.ie/en/publication/20f2e0-updates-on-covid-19-coronavirus-since-january-2020/</t>
+    <t>https://www.gov.ie/en/press-release/1a1e8e-statement-from-the-national-public-health-emergency-team-wednesday-2/#hospital-statistics</t>
   </si>
   <si>
-    <t>https://www.gov.ie/en/press-release/1a1e8e-statement-from-the-national-public-health-emergency-team-wednesday-2/#hospital-statistics</t>
+    <t>https://www.gov.ie/en/press-release/b4a46a-statement-from-the-national-public-health-emergency-team-thursday-21/</t>
   </si>
 </sst>
 </file>
@@ -1688,10 +1688,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0979910-C687-6A43-A609-0D992245C102}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView topLeftCell="A28" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2396,6 +2396,28 @@
       </c>
       <c r="C62">
         <v>1726</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64">
+        <v>1739</v>
       </c>
     </row>
   </sheetData>
@@ -2818,10 +2840,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AE50F-07C0-7048-95B5-0C81D93B81F0}">
-  <dimension ref="A1:C276"/>
+  <dimension ref="A1:C287"/>
   <sheetViews>
-    <sheetView topLeftCell="A234" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C277" sqref="C277"/>
+    <sheetView topLeftCell="A250" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C283" sqref="C283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6074,6 +6096,138 @@
       </c>
       <c r="C276" s="8">
         <v>262</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B277" t="str">
+        <f>B266</f>
+        <v>Antrim And Newtownabbey</v>
+      </c>
+      <c r="C277" s="8">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B278" t="str">
+        <f t="shared" ref="B278:B287" si="7">B267</f>
+        <v>Ards And North Down</v>
+      </c>
+      <c r="C278" s="8">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B279" t="str">
+        <f t="shared" si="7"/>
+        <v>Armagh, Banbridge And Craigavon</v>
+      </c>
+      <c r="C279" s="8">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B280" t="str">
+        <f t="shared" si="7"/>
+        <v>Belfast</v>
+      </c>
+      <c r="C280" s="8">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B281" t="str">
+        <f t="shared" si="7"/>
+        <v>Causeway Coast And Glens</v>
+      </c>
+      <c r="C281" s="8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B282" t="str">
+        <f t="shared" si="7"/>
+        <v>Derry And Strabane</v>
+      </c>
+      <c r="C282" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B283" t="str">
+        <f t="shared" si="7"/>
+        <v>Fermanagh And Omagh</v>
+      </c>
+      <c r="C283" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B284" t="str">
+        <f t="shared" si="7"/>
+        <v>Lisburn And Castlereagh</v>
+      </c>
+      <c r="C284" s="8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B285" t="str">
+        <f t="shared" si="7"/>
+        <v>Mid And East Antrim</v>
+      </c>
+      <c r="C285" s="8">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B286" t="str">
+        <f t="shared" si="7"/>
+        <v>Mid Ulster</v>
+      </c>
+      <c r="C286" s="8">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B287" t="str">
+        <f t="shared" si="7"/>
+        <v>Newry, Mourne And Down</v>
+      </c>
+      <c r="C287" s="8">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -6205,13 +6359,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I64" sqref="I64"/>
+      <selection pane="bottomRight" activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9960,7 +10114,7 @@
         <v>48</v>
       </c>
       <c r="P70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -9968,27 +10122,27 @@
         <v>43969</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C71">
-        <v>24251</v>
+        <v>24274</v>
       </c>
       <c r="D71">
         <v>24251</v>
       </c>
       <c r="E71" s="5">
         <f t="shared" ref="E71" si="60">C71-C70</f>
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="F71" s="18">
         <f t="shared" ref="F71" si="61">AVERAGE(E67:E71)</f>
-        <v>74.400000000000006</v>
-      </c>
-      <c r="G71" t="s">
-        <v>8</v>
-      </c>
-      <c r="H71" t="s">
-        <v>8</v>
+        <v>79</v>
+      </c>
+      <c r="G71">
+        <v>3183</v>
+      </c>
+      <c r="H71">
+        <v>392</v>
       </c>
       <c r="I71" s="5">
         <v>1561</v>
@@ -10004,17 +10158,17 @@
         <f t="shared" ref="L71" si="63">AVERAGE(K67:K71)</f>
         <v>56.8</v>
       </c>
-      <c r="M71" t="s">
-        <v>8</v>
-      </c>
-      <c r="N71" t="s">
-        <v>8</v>
-      </c>
-      <c r="O71" t="s">
-        <v>8</v>
+      <c r="M71">
+        <v>7747</v>
+      </c>
+      <c r="N71">
+        <v>814</v>
+      </c>
+      <c r="O71">
+        <v>48</v>
       </c>
       <c r="P71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -10032,7 +10186,7 @@
       </c>
       <c r="E72" s="5">
         <f t="shared" ref="E72" si="64">C72-C71</f>
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="F72" s="18">
         <f t="shared" ref="F72" si="65">AVERAGE(E68:E72)</f>
@@ -10069,6 +10223,60 @@
       </c>
       <c r="P72" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C73" s="5">
+        <v>24391</v>
+      </c>
+      <c r="D73" s="5">
+        <v>24391</v>
+      </c>
+      <c r="E73" s="5">
+        <f t="shared" ref="E73" si="68">C73-C72</f>
+        <v>76</v>
+      </c>
+      <c r="F73" s="18">
+        <f t="shared" ref="F73" si="69">AVERAGE(E69:E73)</f>
+        <v>71</v>
+      </c>
+      <c r="G73" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" s="5">
+        <v>1583</v>
+      </c>
+      <c r="J73" s="5">
+        <v>1583</v>
+      </c>
+      <c r="K73" s="5">
+        <f t="shared" ref="K73" si="70">I73-I72</f>
+        <v>12</v>
+      </c>
+      <c r="L73" s="18">
+        <f t="shared" ref="L73" si="71">AVERAGE(K69:K73)</f>
+        <v>58</v>
+      </c>
+      <c r="M73" t="s">
+        <v>8</v>
+      </c>
+      <c r="N73" t="s">
+        <v>8</v>
+      </c>
+      <c r="O73" t="s">
+        <v>8</v>
+      </c>
+      <c r="P73" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -10079,11 +10287,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B646AB9-6DFD-6342-9B5D-CA852E35631D}">
-  <dimension ref="A1:D182"/>
+  <dimension ref="A1:D185"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B180" sqref="B180:D182"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12731,6 +12939,48 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B183" t="s">
+        <v>61</v>
+      </c>
+      <c r="C183" s="15">
+        <v>13899</v>
+      </c>
+      <c r="D183">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B184" t="s">
+        <v>62</v>
+      </c>
+      <c r="C184" s="15">
+        <v>10337</v>
+      </c>
+      <c r="D184">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B185" t="s">
+        <v>52</v>
+      </c>
+      <c r="C185">
+        <v>38</v>
+      </c>
+      <c r="D185">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12738,11 +12988,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2CC04-F5BC-6741-A3F2-2661873C87D7}">
-  <dimension ref="A1:J695"/>
+  <dimension ref="A1:J708"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A655" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B689" sqref="B689"/>
+      <pane ySplit="1" topLeftCell="A667" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A697" sqref="A697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22489,7 +22739,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <v>43968</v>
       </c>
@@ -22503,7 +22753,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <v>43968</v>
       </c>
@@ -22517,7 +22767,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>43968</v>
       </c>
@@ -22531,7 +22781,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <v>43968</v>
       </c>
@@ -22545,7 +22795,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
         <v>43968</v>
       </c>
@@ -22559,7 +22809,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <v>43968</v>
       </c>
@@ -22573,7 +22823,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
         <v>43968</v>
       </c>
@@ -22585,6 +22835,191 @@
       </c>
       <c r="D695">
         <v>2</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A696" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B696" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C696">
+        <v>44</v>
+      </c>
+      <c r="D696" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="697" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A697" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B697" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C697" t="s">
+        <v>8</v>
+      </c>
+      <c r="D697" t="s">
+        <v>8</v>
+      </c>
+      <c r="F697" s="13"/>
+      <c r="G697" s="7"/>
+    </row>
+    <row r="698" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A698" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B698" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C698">
+        <v>93</v>
+      </c>
+      <c r="D698">
+        <v>19</v>
+      </c>
+      <c r="F698" s="7"/>
+    </row>
+    <row r="699" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A699" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B699" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C699">
+        <v>278</v>
+      </c>
+      <c r="D699">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A700" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B700" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C700">
+        <v>1760</v>
+      </c>
+      <c r="D700">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="701" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A701" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B701" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C701">
+        <v>4083</v>
+      </c>
+      <c r="D701">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="702" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A702" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B702" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C702">
+        <v>4272</v>
+      </c>
+      <c r="D702">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="703" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A703" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B703" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C703">
+        <v>4371</v>
+      </c>
+      <c r="D703">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A704" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B704" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C704">
+        <v>3127</v>
+      </c>
+      <c r="D704">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A705" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B705" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C705">
+        <v>1731</v>
+      </c>
+      <c r="D705">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A706" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B706" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C706">
+        <v>2207</v>
+      </c>
+      <c r="D706">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A707" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B707" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C707">
+        <v>2284</v>
+      </c>
+      <c r="D707">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A708" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B708" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C708">
+        <v>24</v>
+      </c>
+      <c r="D708">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -22595,11 +23030,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029AF1D0-4AE1-A540-B628-AF7C84CE0F40}">
-  <dimension ref="A1:D202"/>
+  <dimension ref="A1:D205"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B198" sqref="B198"/>
+      <selection pane="bottomLeft" activeCell="A203" sqref="A203:A205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25491,6 +25926,48 @@
         <v>106</v>
       </c>
     </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B203" t="s">
+        <v>56</v>
+      </c>
+      <c r="C203" s="11">
+        <v>60</v>
+      </c>
+      <c r="D203" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B204" t="s">
+        <v>57</v>
+      </c>
+      <c r="C204" s="11">
+        <v>37</v>
+      </c>
+      <c r="D204" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B205" t="s">
+        <v>58</v>
+      </c>
+      <c r="C205" s="11">
+        <v>3</v>
+      </c>
+      <c r="D205" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25498,10 +25975,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77735C93-7ED9-C044-B61C-E23C86F44D03}">
-  <dimension ref="A1:E1607"/>
+  <dimension ref="A1:E1633"/>
   <sheetViews>
-    <sheetView topLeftCell="A1569" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A1582" sqref="A1582:A1607"/>
+    <sheetView topLeftCell="A1591" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B1610" sqref="B1610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48494,6 +48971,370 @@
         <v>657</v>
       </c>
       <c r="D1607">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1608" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1608">
+        <v>150</v>
+      </c>
+      <c r="D1608">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1609" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1609">
+        <v>804</v>
+      </c>
+      <c r="D1609">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1610" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1610">
+        <v>315</v>
+      </c>
+      <c r="D1610">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1611" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1611">
+        <v>1386</v>
+      </c>
+      <c r="D1611">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1612" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1612">
+        <v>479</v>
+      </c>
+      <c r="D1612">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1613" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1613">
+        <v>11765</v>
+      </c>
+      <c r="D1613">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1614" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1614">
+        <v>445</v>
+      </c>
+      <c r="D1614">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1615" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1615">
+        <v>308</v>
+      </c>
+      <c r="D1615">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1616" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1616">
+        <v>1381</v>
+      </c>
+      <c r="D1616">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1617" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1617">
+        <v>307</v>
+      </c>
+      <c r="D1617">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1618" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1618">
+        <v>256</v>
+      </c>
+      <c r="D1618">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1619" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1619">
+        <v>82</v>
+      </c>
+      <c r="D1619">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1620" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1620">
+        <v>612</v>
+      </c>
+      <c r="D1620">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1621" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1621">
+        <v>280</v>
+      </c>
+      <c r="D1621">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1622" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1622">
+        <v>748</v>
+      </c>
+      <c r="D1622">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1623" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B1623" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1623">
+        <v>560</v>
+      </c>
+      <c r="D1623">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1624" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B1624" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1624">
+        <v>788</v>
+      </c>
+      <c r="D1624">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1625" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B1625" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1625">
+        <v>488</v>
+      </c>
+      <c r="D1625">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1626" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B1626" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1626">
+        <v>472</v>
+      </c>
+      <c r="D1626">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1627" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1627">
+        <v>310</v>
+      </c>
+      <c r="D1627">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1628" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B1628" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1628">
+        <v>129</v>
+      </c>
+      <c r="D1628">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1629" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B1629" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1629">
+        <v>529</v>
+      </c>
+      <c r="D1629">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1630" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B1630" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1630">
+        <v>148</v>
+      </c>
+      <c r="D1630">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1631" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B1631" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1631">
+        <v>658</v>
+      </c>
+      <c r="D1631">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1632" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B1632" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1632">
+        <v>217</v>
+      </c>
+      <c r="D1632">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1633" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B1633" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1633">
+        <v>657</v>
+      </c>
+      <c r="D1633">
         <v>2.7</v>
       </c>
     </row>
@@ -49731,10 +50572,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE73A96-9009-C14A-A4D6-627BDCEBA7A8}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:C48"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50456,7 +51298,7 @@
         <v>28425</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" ref="G30:G48" si="1">D30/F30</f>
+        <f t="shared" ref="G30:G49" si="1">D30/F30</f>
         <v>0.12978012313104662</v>
       </c>
     </row>
@@ -50862,7 +51704,7 @@
         <v>20</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:C48" si="2">E47-E46</f>
+        <f t="shared" ref="C47:C49" si="2">E47-E46</f>
         <v>7</v>
       </c>
       <c r="D47">
@@ -50903,6 +51745,32 @@
       <c r="G48" s="10">
         <f t="shared" si="1"/>
         <v>8.6678903382019834E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B49">
+        <f>D49-D48</f>
+        <v>42</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>4481</v>
+      </c>
+      <c r="E49">
+        <v>501</v>
+      </c>
+      <c r="F49">
+        <v>52758</v>
+      </c>
+      <c r="G49" s="10">
+        <f t="shared" si="1"/>
+        <v>8.4934986163235901E-2</v>
       </c>
     </row>
   </sheetData>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19814756-D8E2-C749-886E-8E5464BB9AE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4767A2C8-69AA-7C45-A523-E56E3C83D031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="6" r:id="rId1"/>
@@ -1653,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5E2DA3-023C-FF46-A014-0C2E672468A0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1672,10 +1672,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43971.857372685183</v>
+        <v>43973.498344907406</v>
       </c>
       <c r="B2" s="12">
-        <v>43971.857372685183</v>
+        <v>43973.498344907406</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -6361,7 +6361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/shiny/covid19_hamilton/latest_irish_data.xlsx
+++ b/shiny/covid19_hamilton/latest_irish_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD2/GitHub/covid19ireland/shiny/covid19_hamilton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4767A2C8-69AA-7C45-A523-E56E3C83D031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5C775A-FB8A-684C-B0E9-C5539C8108E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3695" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3803" uniqueCount="219">
   <si>
     <t>Date</t>
   </si>
@@ -746,6 +746,12 @@
   <si>
     <t>https://www.gov.ie/en/press-release/b4a46a-statement-from-the-national-public-health-emergency-team-thursday-21/</t>
   </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/8d8431-statement-from-the-national-public-health-emergency-team-friday-22-may/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/f1a35-statement-from-the-national-public-health-emergency-team-sunday-24-may/</t>
+  </si>
 </sst>
 </file>
 
@@ -1253,7 +1259,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1279,6 +1285,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1654,7 +1663,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1672,10 +1681,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>43973.498344907406</v>
+        <v>43976.429594907408</v>
       </c>
       <c r="B2" s="12">
-        <v>43973.498344907406</v>
+        <v>43976.429594907408</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1688,10 +1697,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0979910-C687-6A43-A609-0D992245C102}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2418,6 +2427,28 @@
       </c>
       <c r="C64">
         <v>1739</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66">
+        <v>1761</v>
       </c>
     </row>
   </sheetData>
@@ -2840,10 +2871,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AE50F-07C0-7048-95B5-0C81D93B81F0}">
-  <dimension ref="A1:C287"/>
+  <dimension ref="A1:C298"/>
   <sheetViews>
-    <sheetView topLeftCell="A250" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C283" sqref="C283"/>
+    <sheetView topLeftCell="A258" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C299" sqref="C299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6115,7 +6146,7 @@
         <v>43971</v>
       </c>
       <c r="B278" t="str">
-        <f t="shared" ref="B278:B287" si="7">B267</f>
+        <f t="shared" ref="B278:B298" si="7">B267</f>
         <v>Ards And North Down</v>
       </c>
       <c r="C278" s="8">
@@ -6228,6 +6259,138 @@
       </c>
       <c r="C287" s="8">
         <v>269</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B288" t="str">
+        <f>B277</f>
+        <v>Antrim And Newtownabbey</v>
+      </c>
+      <c r="C288" s="8">
+        <